--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668560DF-4830-4B10-9EF0-994B647D259A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A78DD-2602-4B54-A3BC-021AF0EDB000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="admin_dev" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="367">
   <si>
     <t>theme.js</t>
   </si>
@@ -1106,9 +1106,6 @@
     <t>$emit('ok')</t>
   </si>
   <si>
-    <t>$emit('close')</t>
-  </si>
-  <si>
     <t>@ok</t>
   </si>
   <si>
@@ -1128,6 +1125,9 @@
   </si>
   <si>
     <t>handleClose() {this.isPopOpen = false}</t>
+  </si>
+  <si>
+    <t>close(){this.$emit('close')}</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1457,25 +1457,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,10 +1476,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,14 +1494,26 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1519,12 +1523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,7 +1953,7 @@
   <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1976,42 +1974,42 @@
       <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="86"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="M1" s="85" t="s">
+      <c r="K1" s="82"/>
+      <c r="M1" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="86"/>
+      <c r="N1" s="82"/>
       <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="85" t="s">
+      <c r="P1" s="81" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="86"/>
+      <c r="Q1" s="82"/>
       <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="86"/>
+      <c r="T1" s="82"/>
       <c r="U1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="85" t="s">
+      <c r="V1" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="W1" s="86"/>
+      <c r="W1" s="82"/>
       <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="77" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z3" s="78"/>
       <c r="AA3" s="15" t="s">
@@ -2239,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="AB4" s="65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC4" s="79" t="s">
         <v>358</v>
@@ -2289,20 +2287,18 @@
         <v>2</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z5" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC5" s="81" t="s">
-        <v>359</v>
-      </c>
+      <c r="AB5" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC5" s="79"/>
       <c r="AD5" s="15" t="s">
         <v>2</v>
       </c>
@@ -2327,13 +2323,19 @@
         <v>2</v>
       </c>
       <c r="Y6" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z6" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z6" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC6" s="44" t="s">
         <v>366</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>2</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>2</v>
@@ -2437,17 +2439,17 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2477,31 +2479,31 @@
       <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="86"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="86"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="W12" s="86"/>
+      <c r="W12" s="82"/>
       <c r="X12" s="45" t="s">
         <v>2</v>
       </c>
@@ -2549,10 +2551,10 @@
       <c r="L13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="86"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
@@ -2568,10 +2570,10 @@
       <c r="X13" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="85" t="s">
+      <c r="Y13" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" s="86"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="15" t="s">
         <v>2</v>
       </c>
@@ -2586,10 +2588,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
@@ -2627,10 +2629,10 @@
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="85" t="s">
+      <c r="P14" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="Q14" s="86"/>
+      <c r="Q14" s="82"/>
       <c r="R14" s="15" t="s">
         <v>2</v>
       </c>
@@ -2655,10 +2657,10 @@
       <c r="AA14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="85" t="s">
+      <c r="AB14" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="AC14" s="86"/>
+      <c r="AC14" s="82"/>
       <c r="AD14" s="15" t="s">
         <v>2</v>
       </c>
@@ -2677,10 +2679,10 @@
       <c r="C15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2691,10 +2693,10 @@
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="K15" s="90"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2719,10 +2721,10 @@
       <c r="U15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="89" t="s">
+      <c r="V15" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="W15" s="90"/>
+      <c r="W15" s="86"/>
       <c r="X15" s="45" t="s">
         <v>2</v>
       </c>
@@ -2742,10 +2744,10 @@
       <c r="AD15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="85" t="s">
+      <c r="AE15" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="AF15" s="86"/>
+      <c r="AF15" s="82"/>
       <c r="AG15" s="15" t="s">
         <v>2</v>
       </c>
@@ -3055,10 +3057,10 @@
       <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="15" t="s">
         <v>2</v>
       </c>
@@ -3137,10 +3139,10 @@
       </c>
     </row>
     <row r="20" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="96"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="15" t="s">
         <v>2</v>
       </c>
@@ -3153,10 +3155,10 @@
       <c r="F20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="89" t="s">
+      <c r="G20" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="H20" s="90"/>
+      <c r="H20" s="86"/>
       <c r="I20" s="15" t="s">
         <v>2</v>
       </c>
@@ -3235,10 +3237,10 @@
       <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="90"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="15" t="s">
         <v>2</v>
       </c>
@@ -3378,10 +3380,10 @@
       <c r="U22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V22" s="91" t="s">
+      <c r="V22" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="W22" s="92"/>
+      <c r="W22" s="94"/>
       <c r="X22" s="45" t="s">
         <v>2</v>
       </c>
@@ -3425,24 +3427,24 @@
       <c r="C23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G23" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="H23" s="90"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="91" t="s">
+      <c r="J23" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="92"/>
+      <c r="K23" s="94"/>
       <c r="L23" s="15" t="s">
         <v>2</v>
       </c>
@@ -3494,10 +3496,10 @@
       <c r="AD23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE23" s="89" t="s">
+      <c r="AE23" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="AF23" s="90"/>
+      <c r="AF23" s="86"/>
       <c r="AG23" s="15" t="s">
         <v>2</v>
       </c>
@@ -3554,10 +3556,10 @@
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="89" t="s">
+      <c r="P24" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="Q24" s="90"/>
+      <c r="Q24" s="86"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -3612,10 +3614,10 @@
       <c r="F25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="H25" s="90"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="15" t="s">
         <v>2</v>
       </c>
@@ -3749,10 +3751,10 @@
       <c r="AD26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE26" s="89" t="s">
+      <c r="AE26" s="85" t="s">
         <v>340</v>
       </c>
-      <c r="AF26" s="90"/>
+      <c r="AF26" s="86"/>
       <c r="AG26" s="15" t="s">
         <v>2</v>
       </c>
@@ -3764,10 +3766,10 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="86"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="15" t="s">
         <v>2</v>
       </c>
@@ -3778,10 +3780,10 @@
       <c r="F27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="H27" s="90"/>
+      <c r="H27" s="86"/>
       <c r="I27" s="15" t="s">
         <v>2</v>
       </c>
@@ -3797,10 +3799,10 @@
       <c r="O27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="89" t="s">
+      <c r="P27" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="Q27" s="90"/>
+      <c r="Q27" s="86"/>
       <c r="U27" s="15" t="s">
         <v>2</v>
       </c>
@@ -3934,10 +3936,10 @@
       <c r="C29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="94"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="15" t="s">
         <v>2</v>
       </c>
@@ -4027,10 +4029,10 @@
       <c r="O30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="89" t="s">
+      <c r="P30" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="Q30" s="90"/>
+      <c r="Q30" s="86"/>
       <c r="R30" s="15" t="s">
         <v>2</v>
       </c>
@@ -4167,10 +4169,10 @@
       <c r="O32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="89" t="s">
+      <c r="P32" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="Q32" s="90"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="15" t="s">
         <v>2</v>
       </c>
@@ -4518,10 +4520,10 @@
       </c>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="90"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -4551,10 +4553,10 @@
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B40" s="90"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="15" t="s">
         <v>2</v>
       </c>
@@ -4584,10 +4586,10 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="90"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
@@ -4763,15 +4765,55 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="P14:Q14"/>
@@ -4788,59 +4830,19 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AB16:AC16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4983,7 +4985,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -5010,7 +5012,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="95" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -5038,7 +5040,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="98"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -5154,7 +5156,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="95" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -5200,7 +5202,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="98"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -5299,7 +5301,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="98"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -5353,10 +5355,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="98" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -5379,7 +5381,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="97"/>
-      <c r="B18" s="104"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -5400,7 +5402,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -5421,7 +5423,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="97"/>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="95" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -5465,7 +5467,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -5486,7 +5488,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="97"/>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="95" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -5509,7 +5511,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="97"/>
-      <c r="B24" s="98"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -5542,7 +5544,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="97"/>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -5565,7 +5567,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -5676,7 +5678,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="98"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -5758,7 +5760,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="95" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -5780,7 +5782,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="98"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -5945,11 +5947,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -5957,6 +5954,11 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5A78DD-2602-4B54-A3BC-021AF0EDB000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D47D7F-B9B6-4712-AE0E-3183BEC359B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="admin_dev" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="367">
   <si>
     <t>theme.js</t>
   </si>
@@ -551,12 +551,6 @@
     <t>@visible</t>
   </si>
   <si>
-    <t>saveModalData</t>
-  </si>
-  <si>
-    <t>closeModal</t>
-  </si>
-  <si>
     <t>slot</t>
   </si>
   <si>
@@ -749,18 +743,6 @@
     <t>GET(route)</t>
   </si>
   <si>
-    <t xml:space="preserve">PUT('/notifications/' + this.data.notification_id, data: this.data) </t>
-  </si>
-  <si>
-    <t>$emit('saveData', 'update')</t>
-  </si>
-  <si>
-    <t>$emit('update:data', this.data)</t>
-  </si>
-  <si>
-    <t>$emit('update:open', false)</t>
-  </si>
-  <si>
     <t>this.$emit('update:open', false)</t>
   </si>
   <si>
@@ -1128,6 +1110,24 @@
   </si>
   <si>
     <t>close(){this.$emit('close')}</t>
+  </si>
+  <si>
+    <t>:class</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>$emit('saveData')</t>
+  </si>
+  <si>
+    <t>$emit('closeDialog')</t>
+  </si>
+  <si>
+    <t>PUT('/notifications/' + this.data.notification_id, data: this.data); $emit('update:open', false); $emit('update:data', this.data); $emit('saveData', 'update')</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1437,7 +1437,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1458,16 +1457,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,10 +1481,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,26 +1499,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1523,6 +1516,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1952,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A13F850-9F64-4DB4-B0B4-6110C995E04A}">
   <dimension ref="A1:AK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1961,12 +1960,12 @@
     <col min="1" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>157</v>
@@ -1974,287 +1973,287 @@
       <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="83"/>
+      <c r="I1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="83"/>
+      <c r="M1" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="83"/>
+      <c r="O1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" s="83"/>
+      <c r="U1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="82"/>
-      <c r="M1" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="81" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="W1" s="82"/>
+      <c r="W1" s="83"/>
       <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z1" s="75" t="s">
+      <c r="Y1" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z1" s="74" t="s">
         <v>2</v>
       </c>
       <c r="AA1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC1" s="76" t="s">
-        <v>354</v>
+      <c r="AB1" s="73" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC1" s="75" t="s">
+        <v>348</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="84"/>
+      <c r="S2" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="T2" s="81"/>
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z2" s="78" t="s">
-        <v>353</v>
+      <c r="Y2" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z2" s="77" t="s">
+        <v>347</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB2" s="31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AD2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" s="84"/>
+      <c r="G3" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="81"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="84"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC3" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="T4" s="81"/>
+      <c r="U4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="31" t="s">
+      <c r="W4" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC4" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>254</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="77" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC3" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="83" t="s">
-        <v>267</v>
-      </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC4" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>260</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>2</v>
@@ -2262,48 +2261,48 @@
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
       <c r="P5" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="W5" s="84"/>
+      <c r="V5" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" s="81"/>
       <c r="X5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Z5" s="53" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC5" s="79"/>
+      <c r="AB5" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC5" s="78"/>
       <c r="AD5" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="M6" s="45"/>
@@ -2314,19 +2313,19 @@
         <v>2</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W6" s="42" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y6" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z6" s="80" t="s">
-        <v>365</v>
+        <v>354</v>
+      </c>
+      <c r="Z6" s="79" t="s">
+        <v>359</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>2</v>
@@ -2335,13 +2334,13 @@
         <v>159</v>
       </c>
       <c r="AC6" s="44" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="M7" s="45"/>
@@ -2354,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W7" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X7" s="15" t="s">
         <v>2</v>
@@ -2369,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="M8" s="45"/>
@@ -2382,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="V8" s="43" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="W8" s="44" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="X8" s="36" t="s">
         <v>2</v>
@@ -2396,13 +2395,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
     </row>
-    <row r="10" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
         <v>156</v>
       </c>
@@ -2437,19 +2436,22 @@
       <c r="AH10" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="90"/>
+      <c r="AJ10" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="91"/>
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="82"/>
+      <c r="D11" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="83"/>
       <c r="F11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2474,36 +2476,42 @@
       <c r="AH11" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ11" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="86"/>
+      <c r="D12" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="87"/>
       <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="82"/>
+      <c r="G12" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="83"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="81" t="s">
+      <c r="J12" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="82"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="W12" s="82"/>
+      <c r="R12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="W12" s="83"/>
       <c r="X12" s="45" t="s">
         <v>2</v>
       </c>
@@ -2519,389 +2527,408 @@
       <c r="AH12" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ12" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="83"/>
+      <c r="O13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="W13" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="83"/>
+      <c r="C14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="81"/>
+      <c r="O14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="W14" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="87"/>
+      <c r="L15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15" s="87"/>
+      <c r="X15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC15" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="H13" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="81" t="s">
+      <c r="O16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="W13" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="X13" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="81" t="s">
+      <c r="W16" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="81" t="s">
+      <c r="X16" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z16" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF16" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="X14" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z14" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="W15" s="86"/>
-      <c r="X15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC15" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="W16" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="X16" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z16" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF16" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="15" t="s">
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N17" s="57" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="83" t="str">
+      <c r="P17" s="80" t="str">
         <f>A14</f>
         <v>Dialog/DialogF.vue</v>
       </c>
-      <c r="Q17" s="84"/>
+      <c r="Q17" s="81"/>
       <c r="R17" s="15" t="s">
         <v>2</v>
       </c>
@@ -2909,51 +2936,57 @@
         <v>2</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W17" s="42" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="X17" s="45" t="s">
         <v>2</v>
       </c>
       <c r="Y17" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z17" s="53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB17" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AE17" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF17" s="32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH17" s="15" t="s">
+      <c r="AH17" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI17" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>2</v>
@@ -2962,43 +2995,43 @@
         <v>161</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M18" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N18" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>2</v>
@@ -3006,41 +3039,47 @@
       <c r="U18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V18" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="W18" s="68" t="s">
-        <v>308</v>
+      <c r="V18" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="W18" s="67" t="s">
+        <v>302</v>
       </c>
       <c r="X18" s="45" t="s">
         <v>2</v>
       </c>
       <c r="Y18" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Z18" s="53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB18" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC18" s="62" t="s">
-        <v>225</v>
+        <v>199</v>
+      </c>
+      <c r="AC18" s="61" t="s">
+        <v>223</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE18" s="83" t="s">
+      <c r="AE18" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="AF18" s="84"/>
+      <c r="AF18" s="81"/>
       <c r="AG18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH18" s="15" t="s">
+      <c r="AH18" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI18" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK18" s="15" t="s">
@@ -3057,223 +3096,233 @@
       <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" s="86"/>
+      <c r="D19" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="87"/>
       <c r="F19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="83" t="s">
+      <c r="M19" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="81"/>
+      <c r="O19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC19" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF19" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="93"/>
+      <c r="C20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="87"/>
+      <c r="I20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="W20" s="85"/>
+      <c r="X20" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z20" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC20" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF20" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI20" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="85"/>
+      <c r="L21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="N21" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="N19" s="84"/>
-      <c r="O19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z19" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC19" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF19" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="O21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="W20" s="88"/>
-      <c r="X20" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z20" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC20" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF20" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>240</v>
+      <c r="Q21" s="53" t="s">
+        <v>238</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>2</v>
@@ -3285,39 +3334,45 @@
         <v>159</v>
       </c>
       <c r="W21" s="59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="X21" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z21" s="66" t="s">
-        <v>325</v>
+      <c r="Y21" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z21" s="65" t="s">
+        <v>319</v>
       </c>
       <c r="AA21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB21" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC21" s="55" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AE21" s="52" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AF21" s="53" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AG21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH21" s="15" t="s">
+      <c r="AH21" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI21" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK21" s="15" t="s">
@@ -3329,25 +3384,25 @@
         <v>159</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>237</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>2</v>
@@ -3356,154 +3411,154 @@
         <v>159</v>
       </c>
       <c r="K22" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="W22" s="89"/>
+      <c r="X22" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC22" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF22" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="I23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="89"/>
+      <c r="L23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="W23" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="X23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z23" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC23" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="W22" s="94"/>
-      <c r="X22" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF22" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V23" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="W23" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="X23" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z23" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC23" s="44" t="s">
-        <v>316</v>
-      </c>
       <c r="AD23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE23" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF23" s="86"/>
+      <c r="AE23" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF23" s="58" t="s">
+        <v>341</v>
+      </c>
       <c r="AG23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH23" s="15" t="s">
+      <c r="AJ23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK23" s="15" t="s">
@@ -3515,71 +3570,73 @@
         <v>159</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>177</v>
-      </c>
       <c r="E24" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="N24" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V24" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="W24" s="38" t="s">
-        <v>300</v>
-      </c>
       <c r="X24" s="45" t="s">
         <v>2</v>
       </c>
       <c r="Y24" s="29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Z24" s="55" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AA24" s="15" t="s">
         <v>2</v>
@@ -3587,16 +3644,14 @@
       <c r="AD24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE24" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF24" s="40" t="s">
-        <v>346</v>
-      </c>
+      <c r="AE24" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF24" s="87"/>
       <c r="AG24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH24" s="15" t="s">
+      <c r="AJ24" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK24" s="15" t="s">
@@ -3607,44 +3662,42 @@
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="84"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="H25" s="86"/>
+      <c r="G25" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="87"/>
       <c r="I25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="N25" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>225</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>236</v>
-      </c>
+      <c r="P25" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="87"/>
       <c r="R25" s="15" t="s">
         <v>2</v>
       </c>
@@ -3654,32 +3707,32 @@
       <c r="X25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y25" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z25" s="66" t="s">
-        <v>328</v>
+      <c r="Y25" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z25" s="65" t="s">
+        <v>322</v>
       </c>
       <c r="AA25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB25" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC25" s="88"/>
+      <c r="AB25" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC25" s="85"/>
       <c r="AD25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AE25" s="51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF25" s="40" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="AG25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH25" s="15" t="s">
+      <c r="AJ25" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK25" s="15" t="s">
@@ -3691,19 +3744,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>295</v>
+        <v>175</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>289</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>2</v>
@@ -3711,20 +3764,20 @@
       <c r="L26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="N26" s="66" t="s">
-        <v>229</v>
+      <c r="M26" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>227</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q26" s="40" t="s">
-        <v>237</v>
+      <c r="P26" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="70" t="s">
+        <v>189</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>2</v>
@@ -3735,10 +3788,10 @@
       <c r="X26" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y26" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z26" s="84"/>
+      <c r="Y26" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z26" s="81"/>
       <c r="AA26" s="15" t="s">
         <v>2</v>
       </c>
@@ -3746,19 +3799,21 @@
         <v>159</v>
       </c>
       <c r="AC26" s="59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AD26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE26" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF26" s="86"/>
+      <c r="AE26" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF26" s="40" t="s">
+        <v>235</v>
+      </c>
       <c r="AG26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH26" s="15" t="s">
+      <c r="AJ26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK26" s="15" t="s">
@@ -3766,24 +3821,24 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="82"/>
+      <c r="A27" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="83"/>
       <c r="C27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="83" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="84"/>
+      <c r="D27" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="81"/>
       <c r="F27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="86"/>
+      <c r="G27" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="87"/>
       <c r="I27" s="15" t="s">
         <v>2</v>
       </c>
@@ -3791,18 +3846,23 @@
         <v>2</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N27" s="55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q27" s="86"/>
+      <c r="P27" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U27" s="15" t="s">
         <v>2</v>
       </c>
@@ -3810,31 +3870,29 @@
         <v>2</v>
       </c>
       <c r="Y27" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z27" s="40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC27" s="84"/>
+      <c r="AB27" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC27" s="81"/>
       <c r="AD27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE27" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF27" s="55" t="s">
-        <v>339</v>
-      </c>
+      <c r="AE27" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF27" s="87"/>
       <c r="AG27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH27" s="15" t="s">
+      <c r="AJ27" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK27" s="15" t="s">
@@ -3842,27 +3900,27 @@
       </c>
     </row>
     <row r="28" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="84"/>
+      <c r="A28" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="81"/>
       <c r="C28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>307</v>
+        <v>175</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>301</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="72" t="s">
-        <v>283</v>
+      <c r="G28" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>277</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>2</v>
@@ -3871,20 +3929,18 @@
         <v>2</v>
       </c>
       <c r="M28" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N28" s="42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="71" t="s">
-        <v>191</v>
-      </c>
+      <c r="P28" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="87"/>
       <c r="R28" s="15" t="s">
         <v>2</v>
       </c>
@@ -3894,32 +3950,37 @@
       <c r="X28" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y28" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z28" s="70" t="s">
+      <c r="Y28" s="68" t="s">
         <v>331</v>
       </c>
+      <c r="Z28" s="69" t="s">
+        <v>325</v>
+      </c>
       <c r="AA28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB28" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AC28" s="40" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AD28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE28" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF28" s="84"/>
+      <c r="AE28" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF28" s="55" t="s">
+        <v>333</v>
+      </c>
       <c r="AG28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK28" s="15" t="s">
@@ -3928,18 +3989,18 @@
     </row>
     <row r="29" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="90"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="15" t="s">
         <v>2</v>
       </c>
@@ -3950,19 +4011,19 @@
         <v>2</v>
       </c>
       <c r="M29" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="N29" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="N29" s="44" t="s">
-        <v>252</v>
-      </c>
       <c r="O29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P29" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q29" s="40" t="s">
-        <v>192</v>
+      <c r="P29" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="70" t="s">
+        <v>196</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>2</v>
@@ -3973,34 +4034,35 @@
       <c r="X29" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y29" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z29" s="66" t="s">
-        <v>336</v>
+      <c r="Y29" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z29" s="65" t="s">
+        <v>330</v>
       </c>
       <c r="AA29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB29" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC29" s="38" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AD29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE29" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF29" s="55" t="s">
-        <v>342</v>
-      </c>
+      <c r="AE29" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF29" s="81"/>
       <c r="AG29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK29" s="15" t="s">
@@ -4009,79 +4071,82 @@
     </row>
     <row r="30" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF30" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B31" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF30" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>207</v>
-      </c>
       <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" s="88"/>
+      <c r="D31" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="85"/>
       <c r="F31" s="15" t="s">
         <v>2</v>
       </c>
@@ -4091,18 +4156,18 @@
       <c r="L31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="N31" s="88"/>
+      <c r="M31" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="N31" s="85"/>
       <c r="O31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P31" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q31" s="71" t="s">
-        <v>198</v>
+      <c r="P31" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q31" s="69" t="s">
+        <v>192</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>2</v>
@@ -4114,10 +4179,10 @@
         <v>2</v>
       </c>
       <c r="Y31" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z31" s="40" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AA31" s="15" t="s">
         <v>2</v>
@@ -4125,10 +4190,19 @@
       <c r="AD31" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AE31" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF31" s="72" t="s">
+        <v>339</v>
+      </c>
       <c r="AG31" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK31" s="15" t="s">
@@ -4137,10 +4211,10 @@
     </row>
     <row r="32" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>2</v>
@@ -4149,7 +4223,7 @@
         <v>159</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>2</v>
@@ -4164,15 +4238,11 @@
         <v>159</v>
       </c>
       <c r="N32" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="85" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="86"/>
       <c r="R32" s="15" t="s">
         <v>2</v>
       </c>
@@ -4182,11 +4252,11 @@
       <c r="X32" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y32" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z32" s="70" t="s">
-        <v>335</v>
+      <c r="Y32" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z32" s="69" t="s">
+        <v>329</v>
       </c>
       <c r="AA32" s="15" t="s">
         <v>2</v>
@@ -4200,22 +4270,25 @@
       <c r="AH32" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ32" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="AK32" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="84"/>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="81"/>
       <c r="C33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="E33" s="84"/>
+      <c r="D33" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="81"/>
       <c r="F33" s="15" t="s">
         <v>2</v>
       </c>
@@ -4225,20 +4298,14 @@
       <c r="L33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="83" t="str">
+      <c r="M33" s="80" t="str">
         <f>P14</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="N33" s="84"/>
+      <c r="N33" s="81"/>
       <c r="O33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P33" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q33" s="70" t="s">
-        <v>194</v>
-      </c>
       <c r="R33" s="15" t="s">
         <v>2</v>
       </c>
@@ -4248,11 +4315,11 @@
       <c r="X33" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y33" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z33" s="66" t="s">
-        <v>313</v>
+      <c r="Y33" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z33" s="65" t="s">
+        <v>307</v>
       </c>
       <c r="AA33" s="15" t="s">
         <v>2</v>
@@ -4264,6 +4331,9 @@
         <v>2</v>
       </c>
       <c r="AH33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK33" s="15" t="s">
@@ -4272,16 +4342,16 @@
     </row>
     <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>160</v>
@@ -4296,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N34" s="40" t="s">
         <v>160</v>
@@ -4304,16 +4374,19 @@
       <c r="O34" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="R34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="U34" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X34" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y34" s="83" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z34" s="84"/>
+      <c r="Y34" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z34" s="81"/>
       <c r="AA34" s="15" t="s">
         <v>2</v>
       </c>
@@ -4326,23 +4399,26 @@
       <c r="AH34" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ34" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="AK34" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="84"/>
+      <c r="A35" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="81"/>
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>2</v>
@@ -4351,10 +4427,10 @@
         <v>2</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O35" s="15" t="s">
         <v>2</v>
@@ -4369,10 +4445,10 @@
         <v>2</v>
       </c>
       <c r="Y35" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z35" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AA35" s="15" t="s">
         <v>2</v>
@@ -4384,6 +4460,9 @@
         <v>2</v>
       </c>
       <c r="AH35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK35" s="15" t="s">
@@ -4392,10 +4471,10 @@
     </row>
     <row r="36" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>2</v>
@@ -4418,11 +4497,11 @@
       <c r="X36" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Y36" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z36" s="70" t="s">
-        <v>322</v>
+      <c r="Y36" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z36" s="69" t="s">
+        <v>316</v>
       </c>
       <c r="AA36" s="15" t="s">
         <v>2</v>
@@ -4434,6 +4513,9 @@
         <v>2</v>
       </c>
       <c r="AH36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK36" s="15" t="s">
@@ -4442,10 +4524,10 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>2</v>
@@ -4475,6 +4557,9 @@
         <v>2</v>
       </c>
       <c r="AH37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AK37" s="15" t="s">
@@ -4483,80 +4568,86 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A39" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A40" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X38" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X39" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A40" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="86"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="15" t="s">
         <v>2</v>
       </c>
@@ -4581,15 +4672,18 @@
       <c r="AH40" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ40" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="AK40" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="86"/>
+      <c r="A41" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="87"/>
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
@@ -4606,15 +4700,18 @@
         <v>2</v>
       </c>
       <c r="AH41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>2</v>
@@ -4632,15 +4729,18 @@
         <v>2</v>
       </c>
       <c r="AH42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>2</v>
@@ -4658,15 +4758,18 @@
         <v>2</v>
       </c>
       <c r="AH43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>2</v>
@@ -4681,6 +4784,9 @@
         <v>2</v>
       </c>
       <c r="AH44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4697,6 +4803,9 @@
       <c r="AA45" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ45" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C46" s="15" t="s">
@@ -4711,6 +4820,9 @@
       <c r="AA46" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ46" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I47" s="15" t="s">
@@ -4722,82 +4834,95 @@
       <c r="AA47" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AJ47" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="AA48" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AJ48" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA49" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AJ49" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA50" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA51" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AJ51" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA52" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="27:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA53" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="27:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA54" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="27:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="27:36" x14ac:dyDescent="0.3">
       <c r="AA55" s="15" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M19:N19"/>
+  <mergeCells count="80">
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
@@ -4814,35 +4939,39 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AB16:AC16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4904,7 +5033,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -4936,7 +5065,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="97"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -4985,7 +5114,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -5012,7 +5141,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="96" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -5040,7 +5169,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -5067,7 +5196,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="97" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -5099,7 +5228,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -5127,7 +5256,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="102"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -5156,7 +5285,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -5202,7 +5331,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="96"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -5229,7 +5358,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="94" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -5261,7 +5390,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="97"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -5281,7 +5410,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="97"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -5301,7 +5430,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="96"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -5355,10 +5484,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -5380,8 +5509,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -5401,8 +5530,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -5422,8 +5551,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="97"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="96" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -5445,8 +5574,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -5466,8 +5595,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="97"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -5487,8 +5616,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="97"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="94"/>
+      <c r="B23" s="96" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -5510,8 +5639,8 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="97"/>
-      <c r="B24" s="96"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -5543,8 +5672,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
-      <c r="B25" s="95" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="96" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -5566,8 +5695,8 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="97"/>
-      <c r="B26" s="96"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -5587,7 +5716,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="97"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -5622,7 +5751,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="97"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -5657,7 +5786,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="97"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -5678,7 +5807,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="96"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -5699,7 +5828,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="94" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -5719,7 +5848,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="97"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -5739,7 +5868,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="97"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -5760,7 +5889,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="96" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -5782,7 +5911,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -5947,6 +6076,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -5954,11 +6088,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D47D7F-B9B6-4712-AE0E-3183BEC359B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7269F9-C22E-4BA9-A2D3-6DC677E622D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="admin_dev" sheetId="2" r:id="rId1"/>
-    <sheet name="editor_bundle" sheetId="1" r:id="rId2"/>
+    <sheet name="components" sheetId="3" r:id="rId2"/>
+    <sheet name="editor_bundle" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="446">
   <si>
     <t>theme.js</t>
   </si>
@@ -620,9 +621,6 @@
     <t>data.notification_icon</t>
   </si>
   <si>
-    <t>filter/filterSelect</t>
-  </si>
-  <si>
     <t>currentFilter</t>
   </si>
   <si>
@@ -905,9 +903,6 @@
     <t>plugData</t>
   </si>
   <si>
-    <t>column@click</t>
-  </si>
-  <si>
     <t>deleteRow</t>
   </si>
   <si>
@@ -1128,6 +1123,249 @@
   </si>
   <si>
     <t>PUT('/notifications/' + this.data.notification_id, data: this.data); $emit('update:open', false); $emit('update:data', this.data); $emit('saveData', 'update')</t>
+  </si>
+  <si>
+    <t>GET(/diagnostic_operations)</t>
+  </si>
+  <si>
+    <t>diagnosticOperation_action</t>
+  </si>
+  <si>
+    <t>diagnosticOperation_question</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>:to=/diagnostic/operation/edit/</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>:to=/diagnostic/operation/edit/ + diagnosticOperation_id</t>
+  </si>
+  <si>
+    <t>dialer/list.vue</t>
+  </si>
+  <si>
+    <t>:to=/dealer/edit/</t>
+  </si>
+  <si>
+    <t>:to=/dealer/edit/ + dealer_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>isExport</t>
+  </si>
+  <si>
+    <t>dealerTypeName</t>
+  </si>
+  <si>
+    <t>dealerStatus_name</t>
+  </si>
+  <si>
+    <t>router/index.js</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>/dealer</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>meta: title</t>
+  </si>
+  <si>
+    <t>Дилеры</t>
+  </si>
+  <si>
+    <t>/dealer/list</t>
+  </si>
+  <si>
+    <t>() =&gt; import('@/views/dealer/list'),</t>
+  </si>
+  <si>
+    <t>dealerList</t>
+  </si>
+  <si>
+    <t>Список дилеров</t>
+  </si>
+  <si>
+    <t>children:1</t>
+  </si>
+  <si>
+    <t>children:2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>() =&gt; import('@/views/dealer/edit'),</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>children:21</t>
+  </si>
+  <si>
+    <t>/dealer/edit/:id(\\d+)?</t>
+  </si>
+  <si>
+    <t>Редактирование дилера</t>
+  </si>
+  <si>
+    <t>meta: activeMenu</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>/diagnostic</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>Диагностика</t>
+  </si>
+  <si>
+    <t>/diagnostic/operation</t>
+  </si>
+  <si>
+    <t>() =&gt; import('@/views/diagnostic/operation/list')</t>
+  </si>
+  <si>
+    <t>diagnosticOperationList</t>
+  </si>
+  <si>
+    <t>Справочник операций</t>
+  </si>
+  <si>
+    <t>/diagnostic/list</t>
+  </si>
+  <si>
+    <t>() =&gt; import('@/views/diagnostic/edit'),</t>
+  </si>
+  <si>
+    <t>/diagnostic/edit/:id(\\d+)?</t>
+  </si>
+  <si>
+    <t>diagnostic/operation/edit</t>
+  </si>
+  <si>
+    <t>diagnostic/operation/list.vue</t>
+  </si>
+  <si>
+    <t>dialer/edit.vue</t>
+  </si>
+  <si>
+    <t>dealerFormData</t>
+  </si>
+  <si>
+    <t>getInfo(){ dealerFormData = GET('/dealer/' + this.id)}</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>mounted</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>getList(){ list = GET('/dealer/' )}</t>
+  </si>
+  <si>
+    <t>el-icon-delete</t>
+  </si>
+  <si>
+    <t>Header/filter.vue</t>
+  </si>
+  <si>
+    <t>Руководство по ремонту / Операции</t>
+  </si>
+  <si>
+    <t>/manual</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Руководство по ремонту</t>
+  </si>
+  <si>
+    <t>/operations</t>
+  </si>
+  <si>
+    <t>Операции</t>
+  </si>
+  <si>
+    <t>@/views/operations/edit</t>
+  </si>
+  <si>
+    <t>'@/views/operations/list</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>/operations/edit/:id(\\d+)?</t>
+  </si>
+  <si>
+    <t>Создание/редактирование операции</t>
+  </si>
+  <si>
+    <t>operations/list.vue</t>
+  </si>
+  <si>
+    <t>getList(){ list = GET('/operations' )}</t>
+  </si>
+  <si>
+    <t>operation_description</t>
+  </si>
+  <si>
+    <t>:to=/operations/edit/</t>
+  </si>
+  <si>
+    <t>:to=/operations/edit/ + operation_id</t>
+  </si>
+  <si>
+    <t>el-icon-edit</t>
+  </si>
+  <si>
+    <t>Dialog/HistoryDialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">операции </t>
+  </si>
+  <si>
+    <t>диагностика</t>
+  </si>
+  <si>
+    <t>дилеры</t>
+  </si>
+  <si>
+    <t>router</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1424,9 +1662,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1457,6 +1692,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1473,12 +1732,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,6 +1776,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1575,6 +1837,377 @@
         <a:xfrm rot="10800000">
           <a:off x="2758943" y="91538"/>
           <a:ext cx="581556" cy="808060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340310</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>418353</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Соединитель: уступ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A54966-A40F-4464-B1B6-44EFEC5CAF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790663" y="97118"/>
+          <a:ext cx="690631" cy="648159"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612238</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>611650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107047</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Соединитель: уступ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CF9298-E368-4BBD-A2FE-F11D5E529C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3062591" y="8056282"/>
+          <a:ext cx="612000" cy="1008000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1453</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>865</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>70849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Соединитель: уступ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F51057-CB9A-4CBE-B361-AC06B8F92FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3059479" y="13432928"/>
+          <a:ext cx="611018" cy="1908000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11478</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10891</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>80954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Соединитель: уступ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94462442-6E6F-46A3-9E2D-7E3113905EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1234689" y="13432928"/>
+          <a:ext cx="611018" cy="1116000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1453</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>865</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Соединитель: уступ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DCA42E-0CB4-451E-B2B1-8991147BFA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3040382" y="1775188"/>
+          <a:ext cx="607197" cy="1224000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8303</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7716</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84129</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Соединитель: уступ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF88DBA9-CB6B-40FF-9331-7C018F24D1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1227503" y="1761127"/>
+          <a:ext cx="609013" cy="1190027"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609013</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>116877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Соединитель: уступ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83745861-229A-4804-94EA-1AA580C164C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="8121650"/>
+          <a:ext cx="609013" cy="1196377"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1949,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A13F850-9F64-4DB4-B0B4-6110C995E04A}">
-  <dimension ref="A1:AK55"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1960,7 +2593,7 @@
     <col min="1" max="16384" width="8.7265625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
@@ -1973,172 +2606,172 @@
       <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="83"/>
+      <c r="G1" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="94"/>
       <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="94"/>
+      <c r="M1" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="94"/>
+      <c r="O1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="T1" s="94"/>
+      <c r="U1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="M1" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>257</v>
-      </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="W1" s="83"/>
+      <c r="W1" s="94"/>
       <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z1" s="74" t="s">
+      <c r="Y1" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z1" s="73" t="s">
         <v>2</v>
       </c>
       <c r="AA1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="73" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC1" s="75" t="s">
-        <v>348</v>
+      <c r="AB1" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC1" s="74" t="s">
+        <v>346</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>251</v>
-      </c>
       <c r="O2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="81"/>
+      <c r="T2" s="92"/>
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z2" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="Z2" s="77" t="s">
-        <v>347</v>
-      </c>
       <c r="AA2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB2" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AD2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="81"/>
+      <c r="G3" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="92"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="N3" s="81"/>
+      <c r="M3" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="N3" s="92"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>249</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>2</v>
@@ -2146,114 +2779,114 @@
       <c r="S3" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="T3" s="55" t="s">
+      <c r="T3" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="W3" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>264</v>
-      </c>
       <c r="X3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="76" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z3" s="77"/>
+      <c r="Y3" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z3" s="76"/>
       <c r="AA3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC3" s="65" t="s">
-        <v>351</v>
+      <c r="AB3" s="63" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC3" s="64" t="s">
+        <v>349</v>
       </c>
       <c r="AD3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:63" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="37" t="s">
         <v>175</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>252</v>
-      </c>
       <c r="K4" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M4" s="37" t="s">
         <v>175</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="92"/>
       <c r="R4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="T4" s="81"/>
+      <c r="S4" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="92"/>
       <c r="U4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Z4" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC4" s="78" t="s">
-        <v>352</v>
+      <c r="AB4" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC4" s="77" t="s">
+        <v>350</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>253</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>254</v>
       </c>
       <c r="L5" s="36" t="s">
         <v>2</v>
@@ -2264,7 +2897,7 @@
         <v>175</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>2</v>
@@ -2273,36 +2906,36 @@
         <v>175</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="80" t="s">
+      <c r="V5" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="W5" s="81"/>
+      <c r="W5" s="92"/>
       <c r="X5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z5" s="53" t="s">
-        <v>358</v>
+      <c r="Y5" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC5" s="78"/>
+      <c r="AB5" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC5" s="77"/>
       <c r="AD5" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:63" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="M6" s="45"/>
@@ -2316,16 +2949,16 @@
         <v>181</v>
       </c>
       <c r="W6" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y6" s="43" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z6" s="79" t="s">
-        <v>359</v>
+        <v>352</v>
+      </c>
+      <c r="Z6" s="78" t="s">
+        <v>357</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>2</v>
@@ -2334,13 +2967,13 @@
         <v>159</v>
       </c>
       <c r="AC6" s="44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="M7" s="45"/>
@@ -2353,11 +2986,11 @@
         <v>2</v>
       </c>
       <c r="V7" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="W7" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="W7" s="42" t="s">
-        <v>227</v>
-      </c>
       <c r="X7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="M8" s="45"/>
@@ -2381,10 +3014,10 @@
         <v>2</v>
       </c>
       <c r="V8" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W8" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X8" s="36" t="s">
         <v>2</v>
@@ -2395,2505 +3028,3992 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>424</v>
+      </c>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
     </row>
-    <row r="10" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:63" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>435</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90" t="s">
+      <c r="H11" s="49"/>
+      <c r="I11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE11" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK11" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="100"/>
+      <c r="I12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="94"/>
+      <c r="L12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="94"/>
+      <c r="O13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z13" s="94"/>
+      <c r="AD13" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="94"/>
+      <c r="U14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="T15" s="92"/>
+      <c r="U15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="W15" s="94"/>
+      <c r="X15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC15" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD15" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="90"/>
+      <c r="L16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="92"/>
+      <c r="O16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="T16" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF16" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="W17" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z17" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC17" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD17" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI17" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL17" s="94"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="91" t="str">
+        <f>components!A2</f>
+        <v>Dialog/DialogF.vue</v>
+      </c>
+      <c r="W18" s="92"/>
+      <c r="X18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z18" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC18" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD18" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF18" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI18" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X11" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="86" t="s">
+      <c r="L19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="T19" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="W19" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z19" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC19" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD19" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF19" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL19" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="100"/>
+      <c r="F20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="K20" s="90"/>
+      <c r="L20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q20" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="T20" s="92"/>
+      <c r="U20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="W20" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC20" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD20" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF20" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI20" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL20" s="92"/>
+    </row>
+    <row r="21" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="N21" s="90"/>
+      <c r="O21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="W21" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC21" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF21" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI21" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL21" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="90"/>
+      <c r="L22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="W22" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z22" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC22" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD22" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF22" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI22" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL22" s="38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="T23" s="92"/>
+      <c r="U23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="W23" s="90"/>
+      <c r="X23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF23" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI23" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ23" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="K24" s="90"/>
+      <c r="L24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" s="90"/>
+      <c r="O24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="W24" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC24" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD24" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF24" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI24" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ24" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="T25" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="W25" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z25" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC25" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD25" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="92"/>
+      <c r="L26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="N26" s="90"/>
+      <c r="O26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="82" t="s">
+      <c r="W26" s="90"/>
+      <c r="X26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC26" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD26" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI26" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ26" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="T27" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="W27" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF27" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI27" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ27" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="K28" s="92"/>
+      <c r="L28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28" s="90"/>
+      <c r="O28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T28" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="W28" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC28" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD28" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="90"/>
+      <c r="X29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC29" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD29" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF29" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI29" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ29" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="100"/>
+      <c r="L30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="W30" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC30" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF30" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="W31" s="90"/>
+      <c r="X31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI31" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ31" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="96"/>
+      <c r="L32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="T32" s="96"/>
+      <c r="U32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="W32" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC32" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD32" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI32" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ32" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S33" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="T33" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC33" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD33" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I34" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="W12" s="83"/>
-      <c r="X12" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="51" t="s">
+      <c r="K34" s="92"/>
+      <c r="L34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S34" s="91" t="str">
+        <f>V15</f>
+        <v>Dialog/NotificationDialog.vue</v>
+      </c>
+      <c r="T34" s="92"/>
+      <c r="U34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC34" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD34" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="T35" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S36" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="T36" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC36" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD36" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC37" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD37" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I38" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ38" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+    </row>
+    <row r="40" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A41" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A42" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A45" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A46" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B46" s="88"/>
+      <c r="C46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A47" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="E47" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B57" s="84" t="s">
+        <v>412</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>410</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+    </row>
+    <row r="63" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="79" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" s="49"/>
+      <c r="C64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" s="49"/>
+      <c r="F64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="H64" s="49"/>
+      <c r="I64" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B65" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="E66" s="92"/>
+      <c r="F66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="H66" s="90"/>
+      <c r="I66" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" s="82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="90"/>
+      <c r="F67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="83"/>
-      <c r="O13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V13" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="W13" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="X13" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V14" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="X14" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z14" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="W15" s="87"/>
-      <c r="X15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC15" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="82" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="H68" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69" s="88"/>
+      <c r="C69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" s="90"/>
+      <c r="I69" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="W16" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="X16" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z16" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF16" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="80" t="str">
-        <f>A14</f>
-        <v>Dialog/DialogF.vue</v>
-      </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="W17" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="X17" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z17" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC17" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF17" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI17" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ17" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q18" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="W18" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="X18" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z18" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC18" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI18" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK18" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X19" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z19" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC19" s="62" t="s">
+      <c r="H70" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="AD19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF19" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="N20" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="W20" s="85"/>
-      <c r="X20" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z20" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC20" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE20" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF20" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH20" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI20" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q21" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="W21" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="X21" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z21" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC21" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF21" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH21" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI21" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK21" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="N22" s="81"/>
-      <c r="O22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V22" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="W22" s="89"/>
-      <c r="X22" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF22" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK22" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="N23" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P23" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V23" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="W23" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="X23" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z23" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC23" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF23" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK23" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q24" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="V24" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="W24" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="X24" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z24" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK24" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="86" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="87"/>
-      <c r="I25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="N25" s="62" t="s">
+      <c r="E71" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="O25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X25" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z25" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK25" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X26" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB26" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC26" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF26" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z27" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X28" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z28" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC28" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF28" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M29" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="N29" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X29" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z29" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB29" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC29" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE29" s="80" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ29" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="86" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE30" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF30" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="N31" s="85"/>
-      <c r="O31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q31" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X31" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z31" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF31" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK31" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="N32" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X32" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z32" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="80" t="str">
-        <f>P14</f>
-        <v>Dialog/NotificationDialog.vue</v>
-      </c>
-      <c r="N33" s="81"/>
-      <c r="O33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z33" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ33" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK33" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="N34" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X34" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK34" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="38" t="s">
+      <c r="E72" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B74" s="88"/>
+      <c r="C74" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="81" t="s">
+        <v>374</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="84" t="s">
+        <v>395</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="E77" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X35" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z35" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ35" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK35" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X36" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z36" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK36" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X37" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK37" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X38" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ38" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A39" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X39" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="U40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X40" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A41" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ41" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH42" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ42" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH43" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ43" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ44" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C45" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R45" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA45" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ45" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="C46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA46" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ46" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ47" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AA48" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ48" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA49" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ49" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA50" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ50" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA51" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ51" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA52" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA53" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA54" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="27:36" x14ac:dyDescent="0.3">
-      <c r="AA55" s="15" t="s">
+      <c r="F77" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79" s="88"/>
+      <c r="C79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="83" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B82" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B83" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C92" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="111"/>
+      <c r="B94" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112" t="s">
+        <v>370</v>
+      </c>
+      <c r="G94" s="113"/>
+      <c r="I94" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="83"/>
+      <c r="B95" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="82"/>
+      <c r="I95" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" s="115" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="82"/>
+      <c r="I96" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="82"/>
+      <c r="I97" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="85" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" s="114" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="86"/>
+      <c r="I98" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C99" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C100" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C101" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C102" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C103" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C104" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C105" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C106" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C107" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C109" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C110" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C111" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C112" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="15" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AH16:AI16"/>
+  <mergeCells count="87">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK17:AL17"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="G1:H1"/>
@@ -4907,79 +7027,458 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAA53EB-B8CD-4FB9-B85F-A5C687C12A03}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="94"/>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448CA7E2-C94E-4A2E-8F5E-2DBC80405C9A}">
   <dimension ref="A1:R44"/>
   <sheetViews>
@@ -5033,7 +7532,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="103" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -5065,7 +7564,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -5114,7 +7613,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="95"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -5141,7 +7640,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="105" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -5169,7 +7668,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -5196,7 +7695,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="106" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -5228,7 +7727,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -5256,7 +7755,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="99"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -5285,7 +7784,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="105" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -5331,7 +7830,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="95"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -5358,7 +7857,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="103" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -5390,7 +7889,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="94"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -5410,7 +7909,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -5430,7 +7929,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="95"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -5484,10 +7983,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="109" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -5509,8 +8008,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="94"/>
-      <c r="B18" s="101"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -5530,8 +8029,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -5551,8 +8050,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="105" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -5574,8 +8073,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -5595,8 +8094,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -5616,8 +8115,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="105" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -5639,8 +8138,8 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="94"/>
-      <c r="B24" s="95"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -5672,8 +8171,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="94"/>
-      <c r="B25" s="96" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="105" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -5695,8 +8194,8 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="94"/>
-      <c r="B26" s="95"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -5716,7 +8215,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="94"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -5751,7 +8250,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -5786,7 +8285,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="94"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -5807,7 +8306,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="95"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -5828,7 +8327,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="103" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -5848,7 +8347,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="94"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -5868,7 +8367,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="94"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -5889,7 +8388,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="105" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -5911,7 +8410,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="95"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7269F9-C22E-4BA9-A2D3-6DC677E622D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB2E45-31B5-4144-A50F-8F3F57515254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="8280" windowHeight="7520" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="8280" windowHeight="1520" firstSheet="1" activeTab="4" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="admin_dev" sheetId="2" r:id="rId1"/>
     <sheet name="components" sheetId="3" r:id="rId2"/>
     <sheet name="editor_bundle" sheetId="1" r:id="rId3"/>
+    <sheet name="ninja" sheetId="4" r:id="rId4"/>
+    <sheet name="translate" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="466">
   <si>
     <t>theme.js</t>
   </si>
@@ -1366,6 +1368,66 @@
   </si>
   <si>
     <t>router</t>
+  </si>
+  <si>
+    <t>starwars.vue</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>page-=1</t>
+  </si>
+  <si>
+    <t>page+=1</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>v-for</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>button:Prev</t>
+  </si>
+  <si>
+    <t>button:Next</t>
+  </si>
+  <si>
+    <t>loadPlanets(){items = GET('https://techcrunch.com/wp-json' )}</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>en.json:</t>
+  </si>
+  <si>
+    <t>xxx.vue</t>
+  </si>
+  <si>
+    <t>Header.vue</t>
+  </si>
+  <si>
+    <t>search.vue</t>
+  </si>
+  <si>
+    <t>Selection_panel.vue</t>
+  </si>
+  <si>
+    <t>Choose_modification</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1704,10 +1766,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,22 +1796,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,6 +1813,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1776,15 +1856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1793,6 +1868,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CCFF"/>
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
@@ -2584,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A13F850-9F64-4DB4-B0B4-6110C995E04A}">
   <dimension ref="A1:BK262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView topLeftCell="A10" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2606,42 +2682,42 @@
       <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="103" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="94"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="M1" s="93" t="s">
+      <c r="K1" s="104"/>
+      <c r="M1" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="N1" s="94"/>
+      <c r="N1" s="104"/>
       <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="Q1" s="94"/>
+      <c r="Q1" s="104"/>
       <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="S1" s="103" t="s">
         <v>256</v>
       </c>
-      <c r="T1" s="94"/>
+      <c r="T1" s="104"/>
       <c r="U1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="93" t="s">
+      <c r="V1" s="103" t="s">
         <v>260</v>
       </c>
-      <c r="W1" s="94"/>
+      <c r="W1" s="104"/>
       <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
@@ -2707,10 +2783,10 @@
       <c r="R2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="91" t="s">
+      <c r="S2" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="T2" s="92"/>
+      <c r="T2" s="98"/>
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2746,24 +2822,24 @@
       <c r="B3" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="92"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="N3" s="92"/>
+      <c r="N3" s="98"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2836,17 +2912,17 @@
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="Q4" s="92"/>
+      <c r="Q4" s="98"/>
       <c r="R4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="T4" s="92"/>
+      <c r="T4" s="98"/>
       <c r="U4" s="15" t="s">
         <v>2</v>
       </c>
@@ -2911,10 +2987,10 @@
       <c r="U5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="W5" s="92"/>
+      <c r="W5" s="98"/>
       <c r="X5" s="15" t="s">
         <v>2</v>
       </c>
@@ -3127,17 +3203,17 @@
       <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="108"/>
       <c r="I12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="K12" s="94"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="15" t="s">
         <v>2</v>
       </c>
@@ -3167,44 +3243,44 @@
       <c r="C13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="K13" s="90"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="N13" s="94"/>
+      <c r="N13" s="104"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="93" t="s">
+      <c r="P13" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" s="94"/>
+      <c r="Q13" s="104"/>
       <c r="R13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="93" t="s">
+      <c r="Y13" s="103" t="s">
         <v>298</v>
       </c>
-      <c r="Z13" s="94"/>
+      <c r="Z13" s="104"/>
       <c r="AD13" s="45" t="s">
         <v>2</v>
       </c>
@@ -3264,10 +3340,10 @@
       <c r="R14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="93" t="s">
+      <c r="S14" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="T14" s="94"/>
+      <c r="T14" s="104"/>
       <c r="U14" s="15" t="s">
         <v>2</v>
       </c>
@@ -3283,10 +3359,10 @@
       <c r="AA14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="93" t="s">
+      <c r="AB14" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="AC14" s="94"/>
+      <c r="AC14" s="104"/>
       <c r="AD14" s="45" t="s">
         <v>2</v>
       </c>
@@ -3346,17 +3422,17 @@
       <c r="R15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="91" t="s">
+      <c r="S15" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="T15" s="92"/>
+      <c r="T15" s="98"/>
       <c r="U15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="93" t="s">
+      <c r="V15" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="W15" s="94"/>
+      <c r="W15" s="104"/>
       <c r="X15" s="15" t="s">
         <v>2</v>
       </c>
@@ -3378,10 +3454,10 @@
       <c r="AD15" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="93" t="s">
+      <c r="AE15" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="AF15" s="94"/>
+      <c r="AF15" s="104"/>
       <c r="AG15" s="15" t="s">
         <v>2</v>
       </c>
@@ -3390,10 +3466,10 @@
       </c>
     </row>
     <row r="16" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="109" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
@@ -3409,24 +3485,24 @@
       <c r="I16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="K16" s="90"/>
+      <c r="K16" s="102"/>
       <c r="L16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="N16" s="92"/>
+      <c r="N16" s="98"/>
       <c r="O16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="89" t="s">
+      <c r="P16" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="Q16" s="90"/>
+      <c r="Q16" s="102"/>
       <c r="R16" s="15" t="s">
         <v>2</v>
       </c>
@@ -3448,17 +3524,17 @@
       <c r="X16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y16" s="89" t="s">
+      <c r="Y16" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="Z16" s="90"/>
+      <c r="Z16" s="102"/>
       <c r="AA16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB16" s="91" t="s">
+      <c r="AB16" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="AC16" s="92"/>
+      <c r="AC16" s="98"/>
       <c r="AD16" s="45" t="s">
         <v>2</v>
       </c>
@@ -3471,10 +3547,10 @@
       <c r="AG16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH16" s="93" t="s">
+      <c r="AH16" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="AI16" s="94"/>
+      <c r="AI16" s="104"/>
       <c r="AJ16" s="15" t="s">
         <v>2</v>
       </c>
@@ -3564,10 +3640,10 @@
       <c r="AD17" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE17" s="91" t="s">
+      <c r="AE17" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="AF17" s="92"/>
+      <c r="AF17" s="98"/>
       <c r="AG17" s="15" t="s">
         <v>2</v>
       </c>
@@ -3580,10 +3656,10 @@
       <c r="AJ17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AK17" s="93" t="s">
+      <c r="AK17" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="AL17" s="94"/>
+      <c r="AL17" s="104"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="83" t="s">
@@ -3643,11 +3719,11 @@
       <c r="U18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V18" s="91" t="str">
+      <c r="V18" s="97" t="str">
         <f>components!A2</f>
         <v>Dialog/DialogF.vue</v>
       </c>
-      <c r="W18" s="92"/>
+      <c r="W18" s="98"/>
       <c r="X18" s="15" t="s">
         <v>2</v>
       </c>
@@ -3788,10 +3864,10 @@
       <c r="AG19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH19" s="91" t="s">
+      <c r="AH19" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="AI19" s="92"/>
+      <c r="AI19" s="98"/>
       <c r="AJ19" s="15" t="s">
         <v>2</v>
       </c>
@@ -3812,20 +3888,20 @@
       <c r="C20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="K20" s="90"/>
+      <c r="K20" s="102"/>
       <c r="L20" s="15" t="s">
         <v>2</v>
       </c>
@@ -3847,10 +3923,10 @@
       <c r="R20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="91" t="s">
+      <c r="S20" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="T20" s="92"/>
+      <c r="T20" s="98"/>
       <c r="U20" s="15" t="s">
         <v>2</v>
       </c>
@@ -3893,16 +3969,16 @@
       <c r="AJ20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AK20" s="91" t="s">
+      <c r="AK20" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="AL20" s="92"/>
+      <c r="AL20" s="98"/>
     </row>
     <row r="21" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="B21" s="88"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
@@ -3921,10 +3997,10 @@
       <c r="L21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="89" t="s">
+      <c r="M21" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="N21" s="90"/>
+      <c r="N21" s="102"/>
       <c r="O21" s="15" t="s">
         <v>2</v>
       </c>
@@ -3951,10 +4027,10 @@
       <c r="X21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="95" t="s">
+      <c r="Y21" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="Z21" s="96"/>
+      <c r="Z21" s="100"/>
       <c r="AA21" s="15" t="s">
         <v>2</v>
       </c>
@@ -4008,10 +4084,10 @@
       <c r="I22" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="89" t="s">
+      <c r="J22" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="90"/>
+      <c r="K22" s="102"/>
       <c r="L22" s="15" t="s">
         <v>2</v>
       </c>
@@ -4024,10 +4100,10 @@
       <c r="O22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="95" t="s">
+      <c r="P22" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="Q22" s="96"/>
+      <c r="Q22" s="100"/>
       <c r="R22" s="15" t="s">
         <v>2</v>
       </c>
@@ -4135,31 +4211,31 @@
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S23" s="91" t="s">
+      <c r="S23" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="T23" s="92"/>
+      <c r="T23" s="98"/>
       <c r="U23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V23" s="89" t="s">
+      <c r="V23" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="W23" s="90"/>
+      <c r="W23" s="102"/>
       <c r="X23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y23" s="97" t="s">
+      <c r="Y23" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="Z23" s="98"/>
+      <c r="Z23" s="106"/>
       <c r="AA23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB23" s="91" t="s">
+      <c r="AB23" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="AC23" s="92"/>
+      <c r="AC23" s="98"/>
       <c r="AD23" s="45" t="s">
         <v>2</v>
       </c>
@@ -4198,24 +4274,24 @@
       <c r="I24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="89" t="s">
+      <c r="J24" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="K24" s="90"/>
+      <c r="K24" s="102"/>
       <c r="L24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="89" t="s">
+      <c r="M24" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="N24" s="90"/>
+      <c r="N24" s="102"/>
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="97" t="s">
+      <c r="P24" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="Q24" s="98"/>
+      <c r="Q24" s="106"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -4356,19 +4432,19 @@
       <c r="AG25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH25" s="89" t="s">
+      <c r="AH25" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="AI25" s="90"/>
+      <c r="AI25" s="102"/>
       <c r="AJ25" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
@@ -4378,17 +4454,17 @@
       <c r="I26" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="92"/>
+      <c r="K26" s="98"/>
       <c r="L26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M26" s="89" t="s">
+      <c r="M26" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="N26" s="90"/>
+      <c r="N26" s="102"/>
       <c r="O26" s="15" t="s">
         <v>2</v>
       </c>
@@ -4410,10 +4486,10 @@
       <c r="U26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V26" s="89" t="s">
+      <c r="V26" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="W26" s="90"/>
+      <c r="W26" s="102"/>
       <c r="X26" s="15" t="s">
         <v>2</v>
       </c>
@@ -4429,10 +4505,10 @@
       <c r="AD26" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE26" s="95" t="s">
+      <c r="AE26" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="AF26" s="96"/>
+      <c r="AF26" s="100"/>
       <c r="AG26" s="15" t="s">
         <v>2</v>
       </c>
@@ -4504,10 +4580,10 @@
       <c r="AA27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB27" s="91" t="s">
+      <c r="AB27" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="AC27" s="92"/>
+      <c r="AC27" s="98"/>
       <c r="AD27" s="45" t="s">
         <v>2</v>
       </c>
@@ -4546,17 +4622,17 @@
       <c r="I28" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="91" t="s">
+      <c r="J28" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="K28" s="92"/>
+      <c r="K28" s="98"/>
       <c r="L28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="89" t="s">
+      <c r="M28" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="N28" s="90"/>
+      <c r="N28" s="102"/>
       <c r="O28" s="15" t="s">
         <v>2</v>
       </c>
@@ -4593,17 +4669,17 @@
       <c r="AD28" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE28" s="91" t="s">
+      <c r="AE28" s="97" t="s">
         <v>335</v>
       </c>
-      <c r="AF28" s="92"/>
+      <c r="AF28" s="98"/>
       <c r="AG28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH28" s="89" t="s">
+      <c r="AH28" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="AI28" s="90"/>
+      <c r="AI28" s="102"/>
       <c r="AJ28" s="15" t="s">
         <v>2</v>
       </c>
@@ -4654,10 +4730,10 @@
       <c r="U29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V29" s="89" t="s">
+      <c r="V29" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="W29" s="90"/>
+      <c r="W29" s="102"/>
       <c r="X29" s="15" t="s">
         <v>2</v>
       </c>
@@ -4708,10 +4784,10 @@
       <c r="I30" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="K30" s="100"/>
+      <c r="K30" s="108"/>
       <c r="L30" s="15" t="s">
         <v>2</v>
       </c>
@@ -4760,10 +4836,10 @@
       <c r="AG30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH30" s="91" t="s">
+      <c r="AH30" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="AI30" s="92"/>
+      <c r="AI30" s="98"/>
       <c r="AJ30" s="15" t="s">
         <v>2</v>
       </c>
@@ -4790,20 +4866,20 @@
       <c r="U31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V31" s="89" t="s">
+      <c r="V31" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="W31" s="90"/>
+      <c r="W31" s="102"/>
       <c r="X31" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AA31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB31" s="91" t="s">
+      <c r="AB31" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="AC31" s="92"/>
+      <c r="AC31" s="98"/>
       <c r="AD31" s="45" t="s">
         <v>2</v>
       </c>
@@ -4830,10 +4906,10 @@
       <c r="I32" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="95" t="s">
+      <c r="J32" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="K32" s="96"/>
+      <c r="K32" s="100"/>
       <c r="L32" s="15" t="s">
         <v>2</v>
       </c>
@@ -4843,10 +4919,10 @@
       <c r="R32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="95" t="s">
+      <c r="S32" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="T32" s="96"/>
+      <c r="T32" s="100"/>
       <c r="U32" s="15" t="s">
         <v>2</v>
       </c>
@@ -4944,10 +5020,10 @@
       <c r="I34" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="91" t="s">
+      <c r="J34" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="K34" s="92"/>
+      <c r="K34" s="98"/>
       <c r="L34" s="15" t="s">
         <v>2</v>
       </c>
@@ -4957,11 +5033,11 @@
       <c r="R34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S34" s="91" t="str">
+      <c r="S34" s="97" t="str">
         <f>V15</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="T34" s="92"/>
+      <c r="T34" s="98"/>
       <c r="U34" s="15" t="s">
         <v>2</v>
       </c>
@@ -5021,10 +5097,10 @@
       <c r="AA35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB35" s="91" t="s">
+      <c r="AB35" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="AC35" s="92"/>
+      <c r="AC35" s="98"/>
       <c r="AD35" s="45" t="s">
         <v>2</v>
       </c>
@@ -5211,10 +5287,10 @@
       <c r="C42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="90"/>
+      <c r="E42" s="102"/>
       <c r="F42" s="15" t="s">
         <v>2</v>
       </c>
@@ -5313,10 +5389,10 @@
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="109" t="s">
         <v>392</v>
       </c>
-      <c r="B46" s="88"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -5420,10 +5496,10 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="B51" s="88"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="15" t="s">
         <v>2</v>
       </c>
@@ -5488,10 +5564,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="B56" s="88"/>
+      <c r="B56" s="110"/>
       <c r="C56" s="15" t="s">
         <v>2</v>
       </c>
@@ -5645,17 +5721,17 @@
       <c r="C66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="91" t="s">
+      <c r="D66" s="97" t="s">
         <v>423</v>
       </c>
-      <c r="E66" s="92"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="89" t="s">
+      <c r="G66" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="H66" s="90"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="15" t="s">
         <v>2</v>
       </c>
@@ -5670,10 +5746,10 @@
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="90"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="15" t="s">
         <v>2</v>
       </c>
@@ -5717,10 +5793,10 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="109" t="s">
         <v>392</v>
       </c>
-      <c r="B69" s="88"/>
+      <c r="B69" s="110"/>
       <c r="C69" s="15" t="s">
         <v>2</v>
       </c>
@@ -5733,10 +5809,10 @@
       <c r="F69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="89" t="s">
+      <c r="G69" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="H69" s="90"/>
+      <c r="H69" s="102"/>
       <c r="I69" s="15" t="s">
         <v>2</v>
       </c>
@@ -5840,10 +5916,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="B74" s="88"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -5947,10 +6023,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="88"/>
+      <c r="B79" s="110"/>
       <c r="C79" s="15" t="s">
         <v>2</v>
       </c>
@@ -6063,19 +6139,19 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="111"/>
-      <c r="B94" s="112" t="s">
+      <c r="A94" s="87"/>
+      <c r="B94" s="111" t="s">
         <v>445</v>
       </c>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112" t="s">
+      <c r="C94" s="111"/>
+      <c r="D94" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112" t="s">
+      <c r="E94" s="111"/>
+      <c r="F94" s="111" t="s">
         <v>370</v>
       </c>
-      <c r="G94" s="113"/>
+      <c r="G94" s="112"/>
       <c r="I94" s="15" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6178,7 @@
       <c r="A96" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="B96" s="115" t="s">
+      <c r="B96" s="89" t="s">
         <v>425</v>
       </c>
       <c r="C96" s="62" t="s">
@@ -6142,7 +6218,7 @@
       <c r="A98" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="88" t="s">
         <v>383</v>
       </c>
       <c r="C98" s="14" t="s">
@@ -7009,11 +7085,31 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F94:G94"/>
     <mergeCell ref="AK20:AL20"/>
     <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="G1:H1"/>
@@ -7027,15 +7123,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V31:W31"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J34:K34"/>
@@ -7049,11 +7136,9 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="J24:K24"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P22:Q22"/>
@@ -7077,20 +7162,11 @@
     <mergeCell ref="AH25:AI25"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A69:B69"/>
     <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="AB35:AC35"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -7117,33 +7193,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="104"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="103" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="94"/>
+      <c r="E2" s="104"/>
       <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="97" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="98"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="98"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -7229,26 +7305,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="102"/>
+      <c r="B8" s="114"/>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="92"/>
+      <c r="E8" s="98"/>
       <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="98"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -7272,19 +7348,19 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="98"/>
       <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="92"/>
+      <c r="B11" s="98"/>
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7330,28 +7406,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="102"/>
       <c r="F14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="102"/>
       <c r="F15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="102"/>
       <c r="F16" t="s">
         <v>2</v>
       </c>
@@ -7532,7 +7608,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="115" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -7564,7 +7640,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="103"/>
+      <c r="A3" s="115"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -7613,7 +7689,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="104"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -7640,7 +7716,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="117" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -7668,7 +7744,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="104"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -7695,7 +7771,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="118" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -7727,7 +7803,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="107"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -7755,7 +7831,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -7784,7 +7860,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="117" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -7830,7 +7906,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="104"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -7857,7 +7933,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="115" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -7889,7 +7965,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="103"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -7909,7 +7985,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="103"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -7929,7 +8005,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="104"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -7983,10 +8059,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="121" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -8008,8 +8084,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="103"/>
-      <c r="B18" s="110"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -8029,8 +8105,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -8050,8 +8126,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="103"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="115"/>
+      <c r="B20" s="117" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -8073,8 +8149,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -8094,8 +8170,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -8115,8 +8191,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
-      <c r="B23" s="105" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="117" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -8138,8 +8214,8 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -8171,8 +8247,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="103"/>
-      <c r="B25" s="105" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="117" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -8194,8 +8270,8 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="103"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -8215,7 +8291,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="103"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -8250,7 +8326,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="103"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -8285,7 +8361,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="103"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -8306,7 +8382,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="104"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -8327,7 +8403,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="115" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -8347,7 +8423,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="103"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -8367,7 +8443,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="103"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -8388,7 +8464,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="117" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -8410,7 +8486,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="104"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -8592,4 +8668,1004 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23611E25-25E0-4416-94BB-E061D06323D6}">
+  <dimension ref="A1:D172"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="123" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="92" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B182AE4-6249-418E-BEE5-6F13E9835A4F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="124" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A2</f>
+        <v>Search</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7841B-4525-4A1E-8601-D3A0502BFC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C6D18-8B87-4A3B-BBA9-D9D75FA68BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="4620" windowHeight="1520" activeTab="2" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="4620" windowHeight="1520" activeTab="1" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="adm_с" sheetId="3" r:id="rId1"/>
@@ -4691,7 +4691,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -5348,7 +5348,67 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5373,27 +5433,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5406,16 +5445,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5424,16 +5472,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5442,10 +5484,61 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5460,65 +5553,32 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5528,6 +5588,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5562,118 +5643,37 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7167,33 +7167,33 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="254" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="221"/>
+      <c r="B2" s="255"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="220" t="s">
+      <c r="D2" s="254" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="221"/>
+      <c r="E2" s="255"/>
       <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="256" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="223"/>
+      <c r="B3" s="257"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="256" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="223"/>
+      <c r="E3" s="257"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -7279,26 +7279,26 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="258" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="225"/>
+      <c r="B8" s="259"/>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="256" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="223"/>
+      <c r="E8" s="257"/>
       <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="222" t="s">
+      <c r="A9" s="256" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="223"/>
+      <c r="B9" s="257"/>
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -7322,19 +7322,19 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="222" t="s">
+      <c r="D10" s="256" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="223"/>
+      <c r="E10" s="257"/>
       <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="256" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="257"/>
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7380,28 +7380,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="252" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="219"/>
+      <c r="E14" s="253"/>
       <c r="F14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="218" t="s">
+      <c r="D15" s="252" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="219"/>
+      <c r="E15" s="253"/>
       <c r="F15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="252" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="219"/>
+      <c r="E16" s="253"/>
       <c r="F16" t="s">
         <v>2</v>
       </c>
@@ -7532,8 +7532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A13F850-9F64-4DB4-B0B4-6110C995E04A}">
   <dimension ref="A1:BK263"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7554,42 +7554,43 @@
       <c r="D1" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="254" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="221"/>
+      <c r="H1" s="255"/>
       <c r="I1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="220" t="s">
+      <c r="J1" s="254" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="M1" s="220" t="s">
+      <c r="K1" s="255"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="254" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="221"/>
+      <c r="N1" s="255"/>
       <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="220" t="s">
+      <c r="P1" s="254" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="220" t="s">
+      <c r="Q1" s="255"/>
+      <c r="R1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="254" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="221"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="220" t="s">
+      <c r="V1" s="254" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="221"/>
+      <c r="W1" s="255"/>
       <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
@@ -7658,6 +7659,7 @@
       <c r="K2" s="31" t="s">
         <v>246</v>
       </c>
+      <c r="L2" s="44"/>
       <c r="M2" s="28" t="s">
         <v>232</v>
       </c>
@@ -7673,13 +7675,13 @@
       <c r="Q2" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="222" t="s">
+      <c r="R2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="T2" s="223"/>
+      <c r="T2" s="257"/>
       <c r="U2" s="15" t="s">
         <v>2</v>
       </c>
@@ -7713,10 +7715,10 @@
       <c r="AG2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="226" t="s">
+      <c r="AH2" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="AI2" s="226"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="141" t="s">
@@ -7731,24 +7733,24 @@
       <c r="D3" s="33" t="s">
         <v>781</v>
       </c>
-      <c r="G3" s="222" t="s">
+      <c r="G3" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="223"/>
+      <c r="H3" s="257"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="222" t="s">
+      <c r="J3" s="256" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="223"/>
-      <c r="L3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="222" t="s">
+      <c r="K3" s="257"/>
+      <c r="L3" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="256" t="s">
         <v>255</v>
       </c>
-      <c r="N3" s="223"/>
+      <c r="N3" s="257"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7758,7 +7760,7 @@
       <c r="Q3" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="27" t="s">
@@ -7833,6 +7835,7 @@
       <c r="K4" s="37" t="s">
         <v>246</v>
       </c>
+      <c r="L4" s="44"/>
       <c r="M4" s="34" t="s">
         <v>175</v>
       </c>
@@ -7842,17 +7845,17 @@
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="222" t="s">
+      <c r="P4" s="256" t="s">
         <v>186</v>
       </c>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="222" t="s">
+      <c r="Q4" s="257"/>
+      <c r="R4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="256" t="s">
         <v>257</v>
       </c>
-      <c r="T4" s="223"/>
+      <c r="T4" s="257"/>
       <c r="U4" s="15" t="s">
         <v>2</v>
       </c>
@@ -7913,7 +7916,7 @@
       <c r="K5" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="44" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="42"/>
@@ -7924,7 +7927,7 @@
       <c r="Q5" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="44" t="s">
         <v>2</v>
       </c>
       <c r="S5" s="34" t="s">
@@ -7936,10 +7939,10 @@
       <c r="U5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="222" t="s">
+      <c r="V5" s="256" t="s">
         <v>191</v>
       </c>
-      <c r="W5" s="223"/>
+      <c r="W5" s="257"/>
       <c r="X5" s="15" t="s">
         <v>2</v>
       </c>
@@ -7976,10 +7979,12 @@
       <c r="B6" s="130"/>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
+      <c r="R6" s="44"/>
       <c r="U6" s="15" t="s">
         <v>2</v>
       </c>
@@ -8023,10 +8028,12 @@
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
       <c r="U7" s="15" t="s">
@@ -8063,10 +8070,12 @@
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
+      <c r="R8" s="44"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
       <c r="U8" s="15" t="s">
@@ -8097,10 +8106,12 @@
       <c r="B9" s="197"/>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
+      <c r="R9" s="44"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="15"/>
@@ -8211,17 +8222,17 @@
       <c r="F13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="229" t="s">
+      <c r="G13" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="H13" s="230"/>
+      <c r="H13" s="265"/>
       <c r="I13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="220" t="s">
+      <c r="J13" s="254" t="s">
         <v>264</v>
       </c>
-      <c r="K13" s="221"/>
+      <c r="K13" s="255"/>
       <c r="L13" s="15" t="s">
         <v>2</v>
       </c>
@@ -8251,44 +8262,44 @@
       <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="219"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="218" t="s">
+      <c r="J14" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="219"/>
+      <c r="K14" s="253"/>
       <c r="L14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="220" t="s">
+      <c r="M14" s="254" t="s">
         <v>267</v>
       </c>
-      <c r="N14" s="221"/>
+      <c r="N14" s="255"/>
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="220" t="s">
+      <c r="P14" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="221"/>
+      <c r="Q14" s="255"/>
       <c r="R14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="220" t="s">
+      <c r="Y14" s="254" t="s">
         <v>295</v>
       </c>
-      <c r="Z14" s="221"/>
+      <c r="Z14" s="255"/>
       <c r="AD14" s="42" t="s">
         <v>2</v>
       </c>
@@ -8348,10 +8359,10 @@
       <c r="R15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="220" t="s">
+      <c r="S15" s="254" t="s">
         <v>179</v>
       </c>
-      <c r="T15" s="221"/>
+      <c r="T15" s="255"/>
       <c r="U15" s="15" t="s">
         <v>2</v>
       </c>
@@ -8367,10 +8378,10 @@
       <c r="AA15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB15" s="220" t="s">
+      <c r="AB15" s="254" t="s">
         <v>298</v>
       </c>
-      <c r="AC15" s="221"/>
+      <c r="AC15" s="255"/>
       <c r="AD15" s="42" t="s">
         <v>2</v>
       </c>
@@ -8430,17 +8441,17 @@
       <c r="R16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="222" t="s">
+      <c r="S16" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="T16" s="223"/>
+      <c r="T16" s="257"/>
       <c r="U16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V16" s="220" t="s">
+      <c r="V16" s="254" t="s">
         <v>193</v>
       </c>
-      <c r="W16" s="221"/>
+      <c r="W16" s="255"/>
       <c r="X16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8462,10 +8473,10 @@
       <c r="AD16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AE16" s="220" t="s">
+      <c r="AE16" s="254" t="s">
         <v>307</v>
       </c>
-      <c r="AF16" s="221"/>
+      <c r="AF16" s="255"/>
       <c r="AG16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8474,10 +8485,10 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="266" t="s">
         <v>389</v>
       </c>
-      <c r="B17" s="228"/>
+      <c r="B17" s="267"/>
       <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
@@ -8493,24 +8504,24 @@
       <c r="I17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="218" t="s">
+      <c r="J17" s="252" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="219"/>
+      <c r="K17" s="253"/>
       <c r="L17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="222" t="s">
+      <c r="M17" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="N17" s="223"/>
+      <c r="N17" s="257"/>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="218" t="s">
+      <c r="P17" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="Q17" s="219"/>
+      <c r="Q17" s="253"/>
       <c r="R17" s="15" t="s">
         <v>2</v>
       </c>
@@ -8532,17 +8543,17 @@
       <c r="X17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y17" s="218" t="s">
+      <c r="Y17" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="Z17" s="219"/>
+      <c r="Z17" s="253"/>
       <c r="AA17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB17" s="222" t="s">
+      <c r="AB17" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="AC17" s="223"/>
+      <c r="AC17" s="257"/>
       <c r="AD17" s="42" t="s">
         <v>2</v>
       </c>
@@ -8555,10 +8566,10 @@
       <c r="AG17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH17" s="220" t="s">
+      <c r="AH17" s="254" t="s">
         <v>332</v>
       </c>
-      <c r="AI17" s="221"/>
+      <c r="AI17" s="255"/>
       <c r="AJ17" s="15" t="s">
         <v>2</v>
       </c>
@@ -8648,10 +8659,10 @@
       <c r="AD18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AE18" s="222" t="s">
+      <c r="AE18" s="256" t="s">
         <v>420</v>
       </c>
-      <c r="AF18" s="223"/>
+      <c r="AF18" s="257"/>
       <c r="AG18" s="15" t="s">
         <v>2</v>
       </c>
@@ -8664,10 +8675,10 @@
       <c r="AJ18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AK18" s="220" t="s">
+      <c r="AK18" s="254" t="s">
         <v>164</v>
       </c>
-      <c r="AL18" s="221"/>
+      <c r="AL18" s="255"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="80" t="s">
@@ -8727,11 +8738,11 @@
       <c r="U19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V19" s="222" t="str">
+      <c r="V19" s="256" t="str">
         <f>adm_с!A2</f>
         <v>Dialog/DialogF.vue</v>
       </c>
-      <c r="W19" s="223"/>
+      <c r="W19" s="257"/>
       <c r="X19" s="15" t="s">
         <v>2</v>
       </c>
@@ -8872,10 +8883,10 @@
       <c r="AG20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH20" s="222" t="s">
+      <c r="AH20" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="AI20" s="223"/>
+      <c r="AI20" s="257"/>
       <c r="AJ20" s="15" t="s">
         <v>2</v>
       </c>
@@ -8896,20 +8907,20 @@
       <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="229" t="s">
+      <c r="D21" s="264" t="s">
         <v>438</v>
       </c>
-      <c r="E21" s="230"/>
+      <c r="E21" s="265"/>
       <c r="F21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="218" t="s">
+      <c r="J21" s="252" t="s">
         <v>278</v>
       </c>
-      <c r="K21" s="219"/>
+      <c r="K21" s="253"/>
       <c r="L21" s="15" t="s">
         <v>2</v>
       </c>
@@ -8931,10 +8942,10 @@
       <c r="R21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="218" t="s">
+      <c r="S21" s="252" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="219"/>
+      <c r="T21" s="253"/>
       <c r="U21" s="15" t="s">
         <v>2</v>
       </c>
@@ -8977,16 +8988,16 @@
       <c r="AJ21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AK21" s="222" t="s">
+      <c r="AK21" s="256" t="s">
         <v>171</v>
       </c>
-      <c r="AL21" s="223"/>
+      <c r="AL21" s="257"/>
     </row>
     <row r="22" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="227" t="s">
+      <c r="A22" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="B22" s="228"/>
+      <c r="B22" s="267"/>
       <c r="C22" s="15" t="s">
         <v>2</v>
       </c>
@@ -9005,10 +9016,10 @@
       <c r="L22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="218" t="s">
+      <c r="M22" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="N22" s="219"/>
+      <c r="N22" s="253"/>
       <c r="O22" s="15" t="s">
         <v>2</v>
       </c>
@@ -9035,10 +9046,10 @@
       <c r="X22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y22" s="233" t="s">
+      <c r="Y22" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="Z22" s="234"/>
+      <c r="Z22" s="261"/>
       <c r="AA22" s="15" t="s">
         <v>2</v>
       </c>
@@ -9092,10 +9103,10 @@
       <c r="I23" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="218" t="s">
+      <c r="J23" s="252" t="s">
         <v>279</v>
       </c>
-      <c r="K23" s="219"/>
+      <c r="K23" s="253"/>
       <c r="L23" s="15" t="s">
         <v>2</v>
       </c>
@@ -9108,10 +9119,10 @@
       <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="233" t="s">
+      <c r="P23" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="Q23" s="234"/>
+      <c r="Q23" s="261"/>
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
@@ -9219,31 +9230,31 @@
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S24" s="222" t="s">
+      <c r="S24" s="256" t="s">
         <v>420</v>
       </c>
-      <c r="T24" s="223"/>
+      <c r="T24" s="257"/>
       <c r="U24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V24" s="218" t="s">
+      <c r="V24" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="W24" s="219"/>
+      <c r="W24" s="253"/>
       <c r="X24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y24" s="235" t="s">
+      <c r="Y24" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="Z24" s="236"/>
+      <c r="Z24" s="263"/>
       <c r="AA24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB24" s="222" t="s">
+      <c r="AB24" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="AC24" s="223"/>
+      <c r="AC24" s="257"/>
       <c r="AD24" s="42" t="s">
         <v>2</v>
       </c>
@@ -9282,24 +9293,24 @@
       <c r="I25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="218" t="s">
+      <c r="J25" s="252" t="s">
         <v>280</v>
       </c>
-      <c r="K25" s="219"/>
+      <c r="K25" s="253"/>
       <c r="L25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="218" t="s">
+      <c r="M25" s="252" t="s">
         <v>270</v>
       </c>
-      <c r="N25" s="219"/>
+      <c r="N25" s="253"/>
       <c r="O25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="235" t="s">
+      <c r="P25" s="262" t="s">
         <v>179</v>
       </c>
-      <c r="Q25" s="236"/>
+      <c r="Q25" s="263"/>
       <c r="R25" s="15" t="s">
         <v>2</v>
       </c>
@@ -9440,19 +9451,19 @@
       <c r="AG26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH26" s="218" t="s">
+      <c r="AH26" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="AI26" s="219"/>
+      <c r="AI26" s="253"/>
       <c r="AJ26" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="227" t="s">
+      <c r="A27" s="266" t="s">
         <v>394</v>
       </c>
-      <c r="B27" s="228"/>
+      <c r="B27" s="267"/>
       <c r="C27" s="15" t="s">
         <v>2</v>
       </c>
@@ -9462,17 +9473,17 @@
       <c r="I27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="222" t="s">
+      <c r="J27" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="223"/>
+      <c r="K27" s="257"/>
       <c r="L27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="218" t="s">
+      <c r="M27" s="252" t="s">
         <v>275</v>
       </c>
-      <c r="N27" s="219"/>
+      <c r="N27" s="253"/>
       <c r="O27" s="15" t="s">
         <v>2</v>
       </c>
@@ -9494,10 +9505,10 @@
       <c r="U27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V27" s="218" t="s">
+      <c r="V27" s="252" t="s">
         <v>226</v>
       </c>
-      <c r="W27" s="219"/>
+      <c r="W27" s="253"/>
       <c r="X27" s="15" t="s">
         <v>2</v>
       </c>
@@ -9513,10 +9524,10 @@
       <c r="AD27" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AE27" s="233" t="s">
+      <c r="AE27" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="AF27" s="234"/>
+      <c r="AF27" s="261"/>
       <c r="AG27" s="15" t="s">
         <v>2</v>
       </c>
@@ -9588,10 +9599,10 @@
       <c r="AA28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB28" s="222" t="s">
+      <c r="AB28" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="AC28" s="223"/>
+      <c r="AC28" s="257"/>
       <c r="AD28" s="42" t="s">
         <v>2</v>
       </c>
@@ -9630,17 +9641,17 @@
       <c r="I29" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="222" t="s">
+      <c r="J29" s="256" t="s">
         <v>295</v>
       </c>
-      <c r="K29" s="223"/>
+      <c r="K29" s="257"/>
       <c r="L29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="218" t="s">
+      <c r="M29" s="252" t="s">
         <v>276</v>
       </c>
-      <c r="N29" s="219"/>
+      <c r="N29" s="253"/>
       <c r="O29" s="15" t="s">
         <v>2</v>
       </c>
@@ -9677,17 +9688,17 @@
       <c r="AD29" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AE29" s="222" t="s">
+      <c r="AE29" s="256" t="s">
         <v>332</v>
       </c>
-      <c r="AF29" s="223"/>
+      <c r="AF29" s="257"/>
       <c r="AG29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH29" s="218" t="s">
+      <c r="AH29" s="252" t="s">
         <v>329</v>
       </c>
-      <c r="AI29" s="219"/>
+      <c r="AI29" s="253"/>
       <c r="AJ29" s="15" t="s">
         <v>2</v>
       </c>
@@ -9738,10 +9749,10 @@
       <c r="U30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V30" s="218" t="s">
+      <c r="V30" s="252" t="s">
         <v>227</v>
       </c>
-      <c r="W30" s="219"/>
+      <c r="W30" s="253"/>
       <c r="X30" s="15" t="s">
         <v>2</v>
       </c>
@@ -9792,10 +9803,10 @@
       <c r="I31" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="229" t="s">
+      <c r="J31" s="264" t="s">
         <v>163</v>
       </c>
-      <c r="K31" s="230"/>
+      <c r="K31" s="265"/>
       <c r="L31" s="15" t="s">
         <v>2</v>
       </c>
@@ -9844,10 +9855,10 @@
       <c r="AG31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH31" s="222" t="s">
+      <c r="AH31" s="256" t="s">
         <v>330</v>
       </c>
-      <c r="AI31" s="223"/>
+      <c r="AI31" s="257"/>
       <c r="AJ31" s="15" t="s">
         <v>2</v>
       </c>
@@ -9874,20 +9885,20 @@
       <c r="U32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V32" s="218" t="s">
+      <c r="V32" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="W32" s="219"/>
+      <c r="W32" s="253"/>
       <c r="X32" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AA32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB32" s="222" t="s">
+      <c r="AB32" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="AC32" s="223"/>
+      <c r="AC32" s="257"/>
       <c r="AD32" s="42" t="s">
         <v>2</v>
       </c>
@@ -9914,10 +9925,10 @@
       <c r="I33" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="233" t="s">
+      <c r="J33" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="K33" s="234"/>
+      <c r="K33" s="261"/>
       <c r="L33" s="15" t="s">
         <v>2</v>
       </c>
@@ -9927,10 +9938,10 @@
       <c r="R33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S33" s="233" t="s">
+      <c r="S33" s="260" t="s">
         <v>237</v>
       </c>
-      <c r="T33" s="234"/>
+      <c r="T33" s="261"/>
       <c r="U33" s="15" t="s">
         <v>2</v>
       </c>
@@ -10028,10 +10039,10 @@
       <c r="I35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="222" t="s">
+      <c r="J35" s="256" t="s">
         <v>268</v>
       </c>
-      <c r="K35" s="223"/>
+      <c r="K35" s="257"/>
       <c r="L35" s="15" t="s">
         <v>2</v>
       </c>
@@ -10041,11 +10052,11 @@
       <c r="R35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S35" s="222" t="str">
+      <c r="S35" s="256" t="str">
         <f>V16</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="T35" s="223"/>
+      <c r="T35" s="257"/>
       <c r="U35" s="15" t="s">
         <v>2</v>
       </c>
@@ -10105,10 +10116,10 @@
       <c r="AA36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB36" s="222" t="s">
+      <c r="AB36" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="AC36" s="223"/>
+      <c r="AC36" s="257"/>
       <c r="AD36" s="42" t="s">
         <v>2</v>
       </c>
@@ -10295,10 +10306,10 @@
       <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="218" t="s">
+      <c r="D43" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="E43" s="219"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="15" t="s">
         <v>2</v>
       </c>
@@ -10397,10 +10408,10 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A47" s="227" t="s">
+      <c r="A47" s="266" t="s">
         <v>389</v>
       </c>
-      <c r="B47" s="228"/>
+      <c r="B47" s="267"/>
       <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
@@ -10504,10 +10515,10 @@
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="227" t="s">
+      <c r="A52" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="228"/>
+      <c r="B52" s="267"/>
       <c r="C52" s="15" t="s">
         <v>2</v>
       </c>
@@ -10572,10 +10583,10 @@
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="227" t="s">
+      <c r="A57" s="266" t="s">
         <v>394</v>
       </c>
-      <c r="B57" s="228"/>
+      <c r="B57" s="267"/>
       <c r="C57" s="15" t="s">
         <v>2</v>
       </c>
@@ -10729,17 +10740,17 @@
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="222" t="s">
+      <c r="D67" s="256" t="s">
         <v>420</v>
       </c>
-      <c r="E67" s="223"/>
+      <c r="E67" s="257"/>
       <c r="F67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="218" t="s">
+      <c r="G67" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="H67" s="219"/>
+      <c r="H67" s="253"/>
       <c r="I67" s="15" t="s">
         <v>2</v>
       </c>
@@ -10754,10 +10765,10 @@
       <c r="C68" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="218" t="s">
+      <c r="D68" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="219"/>
+      <c r="E68" s="253"/>
       <c r="F68" s="15" t="s">
         <v>2</v>
       </c>
@@ -10801,10 +10812,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="227" t="s">
+      <c r="A70" s="266" t="s">
         <v>389</v>
       </c>
-      <c r="B70" s="228"/>
+      <c r="B70" s="267"/>
       <c r="C70" s="15" t="s">
         <v>2</v>
       </c>
@@ -10817,10 +10828,10 @@
       <c r="F70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="218" t="s">
+      <c r="G70" s="252" t="s">
         <v>270</v>
       </c>
-      <c r="H70" s="219"/>
+      <c r="H70" s="253"/>
       <c r="I70" s="15" t="s">
         <v>2</v>
       </c>
@@ -10924,10 +10935,10 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="227" t="s">
+      <c r="A75" s="266" t="s">
         <v>390</v>
       </c>
-      <c r="B75" s="228"/>
+      <c r="B75" s="267"/>
       <c r="C75" s="15" t="s">
         <v>2</v>
       </c>
@@ -11031,10 +11042,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="227" t="s">
+      <c r="A80" s="266" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="228"/>
+      <c r="B80" s="267"/>
       <c r="C80" s="15" t="s">
         <v>2</v>
       </c>
@@ -11148,18 +11159,18 @@
     </row>
     <row r="95" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="84"/>
-      <c r="B95" s="231" t="s">
+      <c r="B95" s="268" t="s">
         <v>442</v>
       </c>
-      <c r="C95" s="231"/>
-      <c r="D95" s="231" t="s">
+      <c r="C95" s="268"/>
+      <c r="D95" s="268" t="s">
         <v>157</v>
       </c>
-      <c r="E95" s="231"/>
-      <c r="F95" s="231" t="s">
+      <c r="E95" s="268"/>
+      <c r="F95" s="268" t="s">
         <v>367</v>
       </c>
-      <c r="G95" s="232"/>
+      <c r="G95" s="269"/>
       <c r="I95" s="15" t="s">
         <v>2</v>
       </c>
@@ -12088,40 +12099,44 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="Y14:Z14"/>
@@ -12138,44 +12153,40 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G70:H70"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -12187,9 +12198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E20710C-0A7A-40AF-8ECB-634EABFE0AF2}">
   <dimension ref="A1:AZ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12202,11 +12213,11 @@
     <row r="1" spans="1:36" s="44" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="213">
         <f ca="1">(TODAY()-DATE(2022, 11,14))</f>
-        <v>109</v>
-      </c>
-      <c r="B1" s="294">
+        <v>113</v>
+      </c>
+      <c r="B1" s="218">
         <f ca="1">(142+A1)*365/365</f>
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C1" s="214" t="s">
         <v>891</v>
@@ -12252,10 +12263,10 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="237" t="s">
+      <c r="B3" s="294" t="s">
         <v>1029</v>
       </c>
-      <c r="C3" s="238"/>
+      <c r="C3" s="295"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12298,10 +12309,10 @@
       <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="294" t="s">
         <v>1101</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="295"/>
       <c r="J4" s="44" t="s">
         <v>2</v>
       </c>
@@ -12332,10 +12343,10 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="264" t="s">
         <v>1030</v>
       </c>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="265" t="s">
         <v>774</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -12366,17 +12377,17 @@
       <c r="M5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="237" t="s">
+      <c r="N5" s="294" t="s">
         <v>984</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="295"/>
       <c r="P5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="237" t="s">
+      <c r="Q5" s="294" t="s">
         <v>985</v>
       </c>
-      <c r="R5" s="238"/>
+      <c r="R5" s="295"/>
       <c r="V5" s="15" t="s">
         <v>2</v>
       </c>
@@ -12409,24 +12420,24 @@
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="252" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="219"/>
+      <c r="I6" s="253"/>
       <c r="J6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="218" t="s">
+      <c r="K6" s="252" t="s">
         <v>984</v>
       </c>
-      <c r="L6" s="219"/>
+      <c r="L6" s="253"/>
       <c r="M6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="222" t="s">
+      <c r="N6" s="256" t="s">
         <v>782</v>
       </c>
-      <c r="O6" s="223"/>
+      <c r="O6" s="257"/>
       <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
@@ -12483,10 +12494,10 @@
       <c r="J7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="218" t="s">
+      <c r="K7" s="252" t="s">
         <v>985</v>
       </c>
-      <c r="L7" s="219"/>
+      <c r="L7" s="253"/>
       <c r="M7" s="15" t="s">
         <v>2</v>
       </c>
@@ -12543,10 +12554,10 @@
       </c>
     </row>
     <row r="8" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="254" t="s">
         <v>1056</v>
       </c>
-      <c r="C8" s="221"/>
+      <c r="C8" s="255"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -12577,10 +12588,10 @@
       <c r="M8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="222" t="s">
+      <c r="N8" s="256" t="s">
         <v>782</v>
       </c>
-      <c r="O8" s="223"/>
+      <c r="O8" s="257"/>
       <c r="P8" s="15" t="s">
         <v>2</v>
       </c>
@@ -12762,17 +12773,17 @@
       <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="218" t="s">
+      <c r="Z10" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" s="219"/>
+      <c r="AA10" s="253"/>
       <c r="AB10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="226" t="s">
+      <c r="AC10" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" s="226"/>
+      <c r="AD10" s="270"/>
       <c r="AE10" s="15" t="s">
         <v>2</v>
       </c>
@@ -12796,10 +12807,10 @@
       <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="218" t="s">
+      <c r="H11" s="252" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="219"/>
+      <c r="I11" s="253"/>
       <c r="J11" s="44" t="s">
         <v>2</v>
       </c>
@@ -12935,10 +12946,10 @@
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="218" t="s">
+      <c r="H13" s="252" t="s">
         <v>278</v>
       </c>
-      <c r="I13" s="219"/>
+      <c r="I13" s="253"/>
       <c r="J13" s="44" t="s">
         <v>2</v>
       </c>
@@ -13123,10 +13134,10 @@
       <c r="AB15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="226" t="s">
+      <c r="AC15" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="AD15" s="226"/>
+      <c r="AD15" s="270"/>
       <c r="AE15" s="15" t="s">
         <v>2</v>
       </c>
@@ -13465,10 +13476,10 @@
       <c r="G22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="222" t="s">
+      <c r="H22" s="256" t="s">
         <v>926</v>
       </c>
-      <c r="I22" s="223"/>
+      <c r="I22" s="257"/>
       <c r="J22" s="44" t="s">
         <v>2</v>
       </c>
@@ -13510,10 +13521,10 @@
       <c r="G23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="229" t="s">
+      <c r="H23" s="264" t="s">
         <v>927</v>
       </c>
-      <c r="I23" s="230"/>
+      <c r="I23" s="265"/>
       <c r="J23" s="44" t="s">
         <v>2</v>
       </c>
@@ -13633,10 +13644,10 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="237" t="s">
+      <c r="B28" s="294" t="s">
         <v>1054</v>
       </c>
-      <c r="C28" s="238"/>
+      <c r="C28" s="295"/>
       <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
@@ -13649,10 +13660,10 @@
       <c r="M28" s="207">
         <v>1</v>
       </c>
-      <c r="N28" s="237" t="s">
+      <c r="N28" s="294" t="s">
         <v>1076</v>
       </c>
-      <c r="O28" s="238"/>
+      <c r="O28" s="295"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -13702,27 +13713,27 @@
       <c r="P29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q29" s="220" t="s">
+      <c r="Q29" s="254" t="s">
         <v>492</v>
       </c>
-      <c r="R29" s="221"/>
+      <c r="R29" s="255"/>
       <c r="S29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="239" t="s">
+      <c r="T29" s="302" t="s">
         <v>1117</v>
       </c>
-      <c r="U29" s="240"/>
+      <c r="U29" s="303"/>
       <c r="V29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="220" t="s">
+      <c r="Z29" s="254" t="s">
         <v>498</v>
       </c>
-      <c r="AA29" s="221"/>
+      <c r="AA29" s="255"/>
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
@@ -13763,10 +13774,10 @@
       <c r="M30" s="207">
         <v>1</v>
       </c>
-      <c r="N30" s="218" t="s">
+      <c r="N30" s="252" t="s">
         <v>892</v>
       </c>
-      <c r="O30" s="219"/>
+      <c r="O30" s="253"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -13788,10 +13799,10 @@
       <c r="V30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W30" s="268" t="s">
+      <c r="W30" s="279" t="s">
         <v>1105</v>
       </c>
-      <c r="X30" s="269"/>
+      <c r="X30" s="280"/>
       <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
@@ -13804,10 +13815,10 @@
       <c r="AB30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC30" s="220" t="s">
+      <c r="AC30" s="254" t="s">
         <v>499</v>
       </c>
-      <c r="AD30" s="221"/>
+      <c r="AD30" s="255"/>
       <c r="AE30" s="15" t="s">
         <v>2</v>
       </c>
@@ -13906,10 +13917,10 @@
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="253" t="s">
+      <c r="E32" s="298" t="s">
         <v>1083</v>
       </c>
-      <c r="F32" s="254"/>
+      <c r="F32" s="299"/>
       <c r="G32" s="15" t="s">
         <v>2</v>
       </c>
@@ -13958,10 +13969,10 @@
       <c r="V32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="295" t="s">
+      <c r="W32" s="283" t="s">
         <v>1189</v>
       </c>
-      <c r="X32" s="296"/>
+      <c r="X32" s="284"/>
       <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
@@ -13983,17 +13994,17 @@
       </c>
     </row>
     <row r="33" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="256" t="s">
         <v>1028</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="227" t="s">
+      <c r="E33" s="266" t="s">
         <v>1084</v>
       </c>
-      <c r="F33" s="228"/>
+      <c r="F33" s="267"/>
       <c r="G33" s="15" t="s">
         <v>2</v>
       </c>
@@ -14130,10 +14141,10 @@
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="241" t="s">
+      <c r="W34" s="271" t="s">
         <v>1192</v>
       </c>
-      <c r="X34" s="242"/>
+      <c r="X34" s="272"/>
       <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
@@ -14193,10 +14204,10 @@
       <c r="M35" s="207">
         <v>1</v>
       </c>
-      <c r="N35" s="222" t="s">
+      <c r="N35" s="256" t="s">
         <v>492</v>
       </c>
-      <c r="O35" s="223"/>
+      <c r="O35" s="257"/>
       <c r="P35" s="15" t="s">
         <v>2</v>
       </c>
@@ -14218,7 +14229,7 @@
       <c r="V35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W35" s="297" t="s">
+      <c r="W35" s="219" t="s">
         <v>1195</v>
       </c>
       <c r="X35" s="201" t="s">
@@ -14236,19 +14247,19 @@
       <c r="AB35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="222" t="s">
+      <c r="AC35" s="256" t="s">
         <v>1179</v>
       </c>
-      <c r="AD35" s="223"/>
+      <c r="AD35" s="257"/>
       <c r="AE35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="251" t="s">
+      <c r="B36" s="296" t="s">
         <v>1080</v>
       </c>
-      <c r="C36" s="252"/>
+      <c r="C36" s="297"/>
       <c r="D36" s="15" t="s">
         <v>2</v>
       </c>
@@ -14279,10 +14290,10 @@
       <c r="M36" s="207">
         <v>1</v>
       </c>
-      <c r="N36" s="218" t="s">
+      <c r="N36" s="252" t="s">
         <v>1117</v>
       </c>
-      <c r="O36" s="219"/>
+      <c r="O36" s="253"/>
       <c r="P36" s="15" t="s">
         <v>2</v>
       </c>
@@ -14304,10 +14315,10 @@
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W36" s="255" t="s">
+      <c r="W36" s="273" t="s">
         <v>1193</v>
       </c>
-      <c r="X36" s="256"/>
+      <c r="X36" s="274"/>
       <c r="Y36" s="15" t="s">
         <v>2</v>
       </c>
@@ -14327,17 +14338,17 @@
       </c>
     </row>
     <row r="37" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="222" t="s">
+      <c r="B37" s="256" t="s">
         <v>1062</v>
       </c>
-      <c r="C37" s="223"/>
+      <c r="C37" s="257"/>
       <c r="D37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="253" t="s">
+      <c r="E37" s="298" t="s">
         <v>1086</v>
       </c>
-      <c r="F37" s="254"/>
+      <c r="F37" s="299"/>
       <c r="G37" s="15" t="s">
         <v>2</v>
       </c>
@@ -14359,10 +14370,10 @@
       <c r="M37" s="207">
         <v>1</v>
       </c>
-      <c r="N37" s="229" t="s">
+      <c r="N37" s="264" t="s">
         <v>498</v>
       </c>
-      <c r="O37" s="230"/>
+      <c r="O37" s="265"/>
       <c r="P37" s="15" t="s">
         <v>2</v>
       </c>
@@ -14384,10 +14395,10 @@
       <c r="V37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W37" s="241" t="s">
+      <c r="W37" s="271" t="s">
         <v>1203</v>
       </c>
-      <c r="X37" s="242"/>
+      <c r="X37" s="272"/>
       <c r="Y37" s="15" t="s">
         <v>2</v>
       </c>
@@ -14418,10 +14429,10 @@
       <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="227" t="s">
+      <c r="E38" s="266" t="s">
         <v>1087</v>
       </c>
-      <c r="F38" s="228"/>
+      <c r="F38" s="267"/>
       <c r="G38" s="15" t="s">
         <v>2</v>
       </c>
@@ -14464,10 +14475,10 @@
       <c r="V38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="241" t="s">
+      <c r="W38" s="271" t="s">
         <v>1196</v>
       </c>
-      <c r="X38" s="242"/>
+      <c r="X38" s="272"/>
       <c r="Y38" s="15" t="s">
         <v>2</v>
       </c>
@@ -14538,7 +14549,7 @@
       <c r="V39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W39" s="297" t="s">
+      <c r="W39" s="219" t="s">
         <v>1197</v>
       </c>
       <c r="X39" s="201" t="s">
@@ -14565,10 +14576,10 @@
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="296" t="s">
         <v>1079</v>
       </c>
-      <c r="C40" s="252"/>
+      <c r="C40" s="297"/>
       <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
@@ -14599,14 +14610,14 @@
       <c r="S40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T40" s="241" t="s">
+      <c r="T40" s="271" t="s">
         <v>1120</v>
       </c>
-      <c r="U40" s="242"/>
+      <c r="U40" s="272"/>
       <c r="V40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W40" s="297" t="s">
+      <c r="W40" s="219" t="s">
         <v>1198</v>
       </c>
       <c r="X40" s="201" t="s">
@@ -14615,10 +14626,10 @@
       <c r="Y40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="241" t="s">
+      <c r="Z40" s="271" t="s">
         <v>1150</v>
       </c>
-      <c r="AA40" s="242"/>
+      <c r="AA40" s="272"/>
       <c r="AB40" s="15" t="s">
         <v>2</v>
       </c>
@@ -14631,10 +14642,10 @@
       </c>
     </row>
     <row r="41" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="222" t="s">
+      <c r="B41" s="256" t="s">
         <v>648</v>
       </c>
-      <c r="C41" s="223"/>
+      <c r="C41" s="257"/>
       <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
@@ -14665,17 +14676,17 @@
       <c r="S41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="241" t="s">
+      <c r="T41" s="271" t="s">
         <v>1121</v>
       </c>
-      <c r="U41" s="242"/>
+      <c r="U41" s="272"/>
       <c r="V41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W41" s="298" t="s">
+      <c r="W41" s="220" t="s">
         <v>1199</v>
       </c>
-      <c r="X41" s="299" t="s">
+      <c r="X41" s="221" t="s">
         <v>1202</v>
       </c>
       <c r="Y41" s="15" t="s">
@@ -14708,10 +14719,10 @@
       <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="224" t="s">
+      <c r="E42" s="258" t="s">
         <v>1088</v>
       </c>
-      <c r="F42" s="225"/>
+      <c r="F42" s="259"/>
       <c r="G42" s="15" t="s">
         <v>2</v>
       </c>
@@ -14735,10 +14746,10 @@
       <c r="S42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T42" s="243" t="s">
+      <c r="T42" s="285" t="s">
         <v>1180</v>
       </c>
-      <c r="U42" s="244"/>
+      <c r="U42" s="286"/>
       <c r="V42" s="15" t="s">
         <v>2</v>
       </c>
@@ -14770,10 +14781,10 @@
       <c r="D43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="262" t="s">
+      <c r="E43" s="287" t="s">
         <v>1089</v>
       </c>
-      <c r="F43" s="263"/>
+      <c r="F43" s="288"/>
       <c r="G43" s="15" t="s">
         <v>2</v>
       </c>
@@ -14795,10 +14806,10 @@
       <c r="S43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="245" t="s">
+      <c r="T43" s="304" t="s">
         <v>1123</v>
       </c>
-      <c r="U43" s="246"/>
+      <c r="U43" s="305"/>
       <c r="V43" s="15" t="s">
         <v>2</v>
       </c>
@@ -14907,10 +14918,10 @@
       <c r="S45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="243" t="s">
+      <c r="T45" s="285" t="s">
         <v>1124</v>
       </c>
-      <c r="U45" s="244"/>
+      <c r="U45" s="286"/>
       <c r="V45" s="15" t="s">
         <v>2</v>
       </c>
@@ -14963,10 +14974,10 @@
       <c r="S46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T46" s="264" t="s">
+      <c r="T46" s="289" t="s">
         <v>1122</v>
       </c>
-      <c r="U46" s="265"/>
+      <c r="U46" s="290"/>
       <c r="V46" s="15" t="s">
         <v>2</v>
       </c>
@@ -15011,10 +15022,10 @@
       <c r="S47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T47" s="243" t="s">
+      <c r="T47" s="285" t="s">
         <v>1157</v>
       </c>
-      <c r="U47" s="244"/>
+      <c r="U47" s="286"/>
       <c r="V47" s="15" t="s">
         <v>2</v>
       </c>
@@ -15074,10 +15085,10 @@
       <c r="M49" s="207">
         <v>1</v>
       </c>
-      <c r="Q49" s="227" t="s">
+      <c r="Q49" s="266" t="s">
         <v>974</v>
       </c>
-      <c r="R49" s="228"/>
+      <c r="R49" s="267"/>
       <c r="S49" s="15" t="s">
         <v>2</v>
       </c>
@@ -15098,10 +15109,10 @@
       <c r="M50" s="207">
         <v>1</v>
       </c>
-      <c r="Q50" s="227" t="s">
+      <c r="Q50" s="266" t="s">
         <v>1134</v>
       </c>
-      <c r="R50" s="228"/>
+      <c r="R50" s="267"/>
       <c r="S50" s="15" t="s">
         <v>2</v>
       </c>
@@ -15116,10 +15127,10 @@
       <c r="M51" s="207">
         <v>1</v>
       </c>
-      <c r="Q51" s="266" t="s">
+      <c r="Q51" s="277" t="s">
         <v>1138</v>
       </c>
-      <c r="R51" s="267"/>
+      <c r="R51" s="278"/>
       <c r="S51" s="15" t="s">
         <v>2</v>
       </c>
@@ -15134,10 +15145,10 @@
       <c r="M52" s="207">
         <v>1</v>
       </c>
-      <c r="Q52" s="266" t="s">
+      <c r="Q52" s="277" t="s">
         <v>1139</v>
       </c>
-      <c r="R52" s="267"/>
+      <c r="R52" s="278"/>
       <c r="S52" s="15" t="s">
         <v>2</v>
       </c>
@@ -15213,7 +15224,7 @@
       <c r="P55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="300" t="s">
+      <c r="Q55" s="222" t="s">
         <v>1137</v>
       </c>
       <c r="R55" s="41" t="s">
@@ -15294,10 +15305,10 @@
       <c r="D59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="249" t="s">
+      <c r="E59" s="300" t="s">
         <v>560</v>
       </c>
-      <c r="F59" s="250"/>
+      <c r="F59" s="301"/>
       <c r="J59" s="15" t="s">
         <v>2</v>
       </c>
@@ -15306,10 +15317,10 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="222" t="s">
+      <c r="B60" s="256" t="s">
         <v>642</v>
       </c>
-      <c r="C60" s="223"/>
+      <c r="C60" s="257"/>
       <c r="D60" s="15" t="s">
         <v>2</v>
       </c>
@@ -15350,10 +15361,10 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="222" t="s">
+      <c r="B62" s="256" t="s">
         <v>643</v>
       </c>
-      <c r="C62" s="223"/>
+      <c r="C62" s="257"/>
       <c r="D62" s="15" t="s">
         <v>2</v>
       </c>
@@ -15370,10 +15381,10 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B64" s="222" t="s">
+      <c r="B64" s="256" t="s">
         <v>642</v>
       </c>
-      <c r="C64" s="223"/>
+      <c r="C64" s="257"/>
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
@@ -15393,10 +15404,10 @@
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B66" s="222" t="s">
+      <c r="B66" s="256" t="s">
         <v>642</v>
       </c>
-      <c r="C66" s="223"/>
+      <c r="C66" s="257"/>
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
@@ -15465,17 +15476,17 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="257" t="s">
+      <c r="B73" s="281" t="s">
         <v>503</v>
       </c>
-      <c r="C73" s="258"/>
+      <c r="C73" s="282"/>
       <c r="D73" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="220" t="s">
+      <c r="E73" s="254" t="s">
         <v>648</v>
       </c>
-      <c r="F73" s="221"/>
+      <c r="F73" s="255"/>
       <c r="G73" s="15" t="s">
         <v>2</v>
       </c>
@@ -15528,17 +15539,17 @@
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="247" t="s">
+      <c r="E74" s="275" t="s">
         <v>649</v>
       </c>
-      <c r="F74" s="248"/>
+      <c r="F74" s="276"/>
       <c r="G74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="220" t="s">
+      <c r="H74" s="254" t="s">
         <v>569</v>
       </c>
-      <c r="I74" s="221"/>
+      <c r="I74" s="255"/>
       <c r="J74" s="15" t="s">
         <v>2</v>
       </c>
@@ -15583,10 +15594,10 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="222" t="s">
+      <c r="B75" s="256" t="s">
         <v>481</v>
       </c>
-      <c r="C75" s="223"/>
+      <c r="C75" s="257"/>
       <c r="D75" s="15" t="s">
         <v>2</v>
       </c>
@@ -15599,17 +15610,17 @@
       <c r="G75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="247" t="s">
+      <c r="H75" s="275" t="s">
         <v>183</v>
       </c>
-      <c r="I75" s="248"/>
+      <c r="I75" s="276"/>
       <c r="J75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K75" s="220" t="s">
+      <c r="K75" s="254" t="s">
         <v>659</v>
       </c>
-      <c r="L75" s="221"/>
+      <c r="L75" s="255"/>
       <c r="M75" s="15" t="s">
         <v>2</v>
       </c>
@@ -15637,19 +15648,19 @@
       <c r="AK75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO75" s="218" t="s">
+      <c r="AO75" s="252" t="s">
         <v>453</v>
       </c>
-      <c r="AP75" s="219"/>
+      <c r="AP75" s="253"/>
       <c r="AQ75" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="255" t="s">
+      <c r="B76" s="273" t="s">
         <v>635</v>
       </c>
-      <c r="C76" s="256"/>
+      <c r="C76" s="274"/>
       <c r="D76" s="15" t="s">
         <v>2</v>
       </c>
@@ -15662,17 +15673,17 @@
       <c r="G76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="247" t="s">
+      <c r="H76" s="275" t="s">
         <v>456</v>
       </c>
-      <c r="I76" s="248"/>
+      <c r="I76" s="276"/>
       <c r="J76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K76" s="218" t="s">
+      <c r="K76" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="L76" s="219"/>
+      <c r="L76" s="253"/>
       <c r="M76" s="15" t="s">
         <v>2</v>
       </c>
@@ -15729,10 +15740,10 @@
       <c r="G77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="247" t="s">
+      <c r="H77" s="275" t="s">
         <v>455</v>
       </c>
-      <c r="I77" s="248"/>
+      <c r="I77" s="276"/>
       <c r="J77" s="15" t="s">
         <v>2</v>
       </c>
@@ -15745,10 +15756,10 @@
       <c r="M77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N77" s="220" t="s">
+      <c r="N77" s="254" t="s">
         <v>511</v>
       </c>
-      <c r="O77" s="221"/>
+      <c r="O77" s="255"/>
       <c r="P77" s="15" t="s">
         <v>2</v>
       </c>
@@ -15784,10 +15795,10 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="222" t="s">
+      <c r="B78" s="256" t="s">
         <v>485</v>
       </c>
-      <c r="C78" s="223"/>
+      <c r="C78" s="257"/>
       <c r="D78" s="15" t="s">
         <v>2</v>
       </c>
@@ -15800,10 +15811,10 @@
       <c r="G78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="247" t="s">
+      <c r="H78" s="275" t="s">
         <v>660</v>
       </c>
-      <c r="I78" s="248"/>
+      <c r="I78" s="276"/>
       <c r="J78" s="15" t="s">
         <v>2</v>
       </c>
@@ -15825,52 +15836,52 @@
       <c r="P78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="220" t="s">
+      <c r="Q78" s="254" t="s">
         <v>544</v>
       </c>
-      <c r="R78" s="221"/>
+      <c r="R78" s="255"/>
       <c r="S78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T78" s="220" t="s">
+      <c r="T78" s="254" t="s">
         <v>542</v>
       </c>
-      <c r="U78" s="221"/>
+      <c r="U78" s="255"/>
       <c r="V78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W78" s="220" t="s">
+      <c r="W78" s="254" t="s">
         <v>545</v>
       </c>
-      <c r="X78" s="221"/>
+      <c r="X78" s="255"/>
       <c r="Y78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z78" s="220" t="s">
+      <c r="Z78" s="254" t="s">
         <v>540</v>
       </c>
-      <c r="AA78" s="221"/>
+      <c r="AA78" s="255"/>
       <c r="AB78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC78" s="220" t="s">
+      <c r="AC78" s="254" t="s">
         <v>547</v>
       </c>
-      <c r="AD78" s="221"/>
+      <c r="AD78" s="255"/>
       <c r="AE78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AF78" s="220" t="s">
+      <c r="AF78" s="254" t="s">
         <v>553</v>
       </c>
-      <c r="AG78" s="221"/>
+      <c r="AG78" s="255"/>
       <c r="AH78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI78" s="220" t="s">
+      <c r="AI78" s="254" t="s">
         <v>555</v>
       </c>
-      <c r="AJ78" s="221"/>
+      <c r="AJ78" s="255"/>
       <c r="AK78" s="15" t="s">
         <v>2</v>
       </c>
@@ -15879,10 +15890,10 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="255" t="s">
+      <c r="B79" s="273" t="s">
         <v>647</v>
       </c>
-      <c r="C79" s="256"/>
+      <c r="C79" s="274"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -15895,10 +15906,10 @@
       <c r="G79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="247" t="s">
+      <c r="H79" s="275" t="s">
         <v>472</v>
       </c>
-      <c r="I79" s="248"/>
+      <c r="I79" s="276"/>
       <c r="J79" s="15" t="s">
         <v>2</v>
       </c>
@@ -15935,27 +15946,27 @@
       <c r="Y79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z79" s="247" t="s">
+      <c r="Z79" s="275" t="s">
         <v>232</v>
       </c>
-      <c r="AA79" s="248"/>
+      <c r="AA79" s="276"/>
       <c r="AB79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC79" s="247" t="s">
+      <c r="AC79" s="275" t="s">
         <v>549</v>
       </c>
-      <c r="AD79" s="248"/>
+      <c r="AD79" s="276"/>
       <c r="AE79" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI79" s="247" t="s">
+      <c r="AI79" s="275" t="s">
         <v>232</v>
       </c>
-      <c r="AJ79" s="248"/>
+      <c r="AJ79" s="276"/>
       <c r="AK79" s="15" t="s">
         <v>2</v>
       </c>
@@ -15982,10 +15993,10 @@
       <c r="G80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="247" t="s">
+      <c r="H80" s="275" t="s">
         <v>661</v>
       </c>
-      <c r="I80" s="248"/>
+      <c r="I80" s="276"/>
       <c r="J80" s="15" t="s">
         <v>2</v>
       </c>
@@ -15998,20 +16009,20 @@
       <c r="M80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N80" s="222" t="s">
+      <c r="N80" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="O80" s="223"/>
+      <c r="O80" s="257"/>
       <c r="P80" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T80" s="222" t="s">
+      <c r="T80" s="256" t="s">
         <v>525</v>
       </c>
-      <c r="U80" s="223"/>
+      <c r="U80" s="257"/>
       <c r="V80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16027,10 +16038,10 @@
       <c r="AB80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC80" s="247" t="s">
+      <c r="AC80" s="275" t="s">
         <v>456</v>
       </c>
-      <c r="AD80" s="248"/>
+      <c r="AD80" s="276"/>
       <c r="AE80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16055,10 +16066,10 @@
       </c>
     </row>
     <row r="81" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="222" t="s">
+      <c r="B81" s="256" t="s">
         <v>480</v>
       </c>
-      <c r="C81" s="223"/>
+      <c r="C81" s="257"/>
       <c r="D81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16071,10 +16082,10 @@
       <c r="G81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="218" t="s">
+      <c r="H81" s="252" t="s">
         <v>171</v>
       </c>
-      <c r="I81" s="219"/>
+      <c r="I81" s="253"/>
       <c r="J81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16096,10 +16107,10 @@
       <c r="P81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="220" t="s">
+      <c r="Q81" s="254" t="s">
         <v>543</v>
       </c>
-      <c r="R81" s="221"/>
+      <c r="R81" s="255"/>
       <c r="S81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16150,10 +16161,10 @@
       </c>
     </row>
     <row r="82" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="255" t="s">
+      <c r="B82" s="273" t="s">
         <v>664</v>
       </c>
-      <c r="C82" s="256"/>
+      <c r="C82" s="274"/>
       <c r="D82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16172,10 +16183,10 @@
       <c r="M82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N82" s="222" t="s">
+      <c r="N82" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="O82" s="223"/>
+      <c r="O82" s="257"/>
       <c r="P82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16216,10 +16227,10 @@
       <c r="AK82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO82" s="218" t="s">
+      <c r="AO82" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="AP82" s="219"/>
+      <c r="AP82" s="253"/>
       <c r="AQ82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16237,17 +16248,17 @@
       <c r="G83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="222" t="s">
+      <c r="H83" s="256" t="s">
         <v>662</v>
       </c>
-      <c r="I83" s="223"/>
+      <c r="I83" s="257"/>
       <c r="J83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="257" t="s">
+      <c r="K83" s="281" t="s">
         <v>510</v>
       </c>
-      <c r="L83" s="258"/>
+      <c r="L83" s="282"/>
       <c r="M83" s="15" t="s">
         <v>2</v>
       </c>
@@ -16278,10 +16289,10 @@
       <c r="AB83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC83" s="259" t="s">
+      <c r="AC83" s="292" t="s">
         <v>510</v>
       </c>
-      <c r="AD83" s="260"/>
+      <c r="AD83" s="293"/>
       <c r="AE83" s="15" t="s">
         <v>2</v>
       </c>
@@ -16302,10 +16313,10 @@
       </c>
     </row>
     <row r="84" spans="2:46" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="222" t="s">
+      <c r="B84" s="256" t="s">
         <v>569</v>
       </c>
-      <c r="C84" s="223"/>
+      <c r="C84" s="257"/>
       <c r="D84" s="15" t="s">
         <v>2</v>
       </c>
@@ -16330,10 +16341,10 @@
       <c r="M84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N84" s="222" t="s">
+      <c r="N84" s="256" t="s">
         <v>520</v>
       </c>
-      <c r="O84" s="223"/>
+      <c r="O84" s="257"/>
       <c r="P84" s="15" t="s">
         <v>2</v>
       </c>
@@ -16346,10 +16357,10 @@
       <c r="S84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T84" s="220" t="s">
+      <c r="T84" s="254" t="s">
         <v>541</v>
       </c>
-      <c r="U84" s="221"/>
+      <c r="U84" s="255"/>
       <c r="V84" s="15" t="s">
         <v>2</v>
       </c>
@@ -16397,10 +16408,10 @@
       <c r="J85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K85" s="222" t="s">
+      <c r="K85" s="256" t="s">
         <v>511</v>
       </c>
-      <c r="L85" s="223"/>
+      <c r="L85" s="257"/>
       <c r="M85" s="15" t="s">
         <v>2</v>
       </c>
@@ -16435,10 +16446,10 @@
       <c r="AB85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC85" s="257" t="s">
+      <c r="AC85" s="281" t="s">
         <v>510</v>
       </c>
-      <c r="AD85" s="258"/>
+      <c r="AD85" s="282"/>
       <c r="AE85" s="15" t="s">
         <v>2</v>
       </c>
@@ -16480,10 +16491,10 @@
       <c r="M86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="222" t="s">
+      <c r="N86" s="256" t="s">
         <v>545</v>
       </c>
-      <c r="O86" s="223"/>
+      <c r="O86" s="257"/>
       <c r="P86" s="15" t="s">
         <v>2</v>
       </c>
@@ -16650,10 +16661,10 @@
       <c r="M89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N89" s="222" t="s">
+      <c r="N89" s="256" t="s">
         <v>540</v>
       </c>
-      <c r="O89" s="223"/>
+      <c r="O89" s="257"/>
       <c r="P89" s="15" t="s">
         <v>2</v>
       </c>
@@ -16738,10 +16749,10 @@
       <c r="M92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="222" t="s">
+      <c r="N92" s="256" t="s">
         <v>547</v>
       </c>
-      <c r="O92" s="223"/>
+      <c r="O92" s="257"/>
       <c r="P92" s="15" t="s">
         <v>2</v>
       </c>
@@ -16800,10 +16811,10 @@
       <c r="M95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N95" s="222" t="s">
+      <c r="N95" s="256" t="s">
         <v>553</v>
       </c>
-      <c r="O95" s="223"/>
+      <c r="O95" s="257"/>
       <c r="P95" s="15" t="s">
         <v>2</v>
       </c>
@@ -16855,10 +16866,10 @@
       <c r="M98" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N98" s="222" t="s">
+      <c r="N98" s="256" t="s">
         <v>555</v>
       </c>
-      <c r="O98" s="223"/>
+      <c r="O98" s="257"/>
       <c r="P98" s="15" t="s">
         <v>2</v>
       </c>
@@ -17000,17 +17011,17 @@
       <c r="D105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="220" t="s">
+      <c r="E105" s="254" t="s">
         <v>622</v>
       </c>
-      <c r="F105" s="221"/>
+      <c r="F105" s="255"/>
       <c r="G105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="220" t="s">
+      <c r="H105" s="254" t="s">
         <v>623</v>
       </c>
-      <c r="I105" s="221"/>
+      <c r="I105" s="255"/>
       <c r="J105" s="15" t="s">
         <v>2</v>
       </c>
@@ -17031,10 +17042,10 @@
       <c r="D106" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="247" t="s">
+      <c r="E106" s="275" t="s">
         <v>624</v>
       </c>
-      <c r="F106" s="248"/>
+      <c r="F106" s="276"/>
       <c r="G106" s="15" t="s">
         <v>2</v>
       </c>
@@ -17077,10 +17088,10 @@
       <c r="G107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="247" t="s">
+      <c r="H107" s="275" t="s">
         <v>472</v>
       </c>
-      <c r="I107" s="248"/>
+      <c r="I107" s="276"/>
       <c r="J107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17093,10 +17104,10 @@
       <c r="M107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N107" s="220" t="s">
+      <c r="N107" s="254" t="s">
         <v>639</v>
       </c>
-      <c r="O107" s="221"/>
+      <c r="O107" s="255"/>
       <c r="P107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17122,10 +17133,10 @@
       <c r="G108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="247" t="s">
+      <c r="H108" s="275" t="s">
         <v>455</v>
       </c>
-      <c r="I108" s="248"/>
+      <c r="I108" s="276"/>
       <c r="J108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17138,10 +17149,10 @@
       <c r="M108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N108" s="247" t="s">
+      <c r="N108" s="275" t="s">
         <v>640</v>
       </c>
-      <c r="O108" s="248"/>
+      <c r="O108" s="276"/>
       <c r="P108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17159,10 +17170,10 @@
       <c r="G109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="247" t="s">
+      <c r="H109" s="275" t="s">
         <v>456</v>
       </c>
-      <c r="I109" s="248"/>
+      <c r="I109" s="276"/>
       <c r="J109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17173,10 +17184,10 @@
       <c r="M109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N109" s="247" t="s">
+      <c r="N109" s="275" t="s">
         <v>641</v>
       </c>
-      <c r="O109" s="248"/>
+      <c r="O109" s="276"/>
       <c r="P109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17194,17 +17205,17 @@
       <c r="G110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="247" t="s">
+      <c r="H110" s="275" t="s">
         <v>627</v>
       </c>
-      <c r="I110" s="248"/>
+      <c r="I110" s="276"/>
       <c r="J110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K110" s="222" t="s">
+      <c r="K110" s="256" t="s">
         <v>639</v>
       </c>
-      <c r="L110" s="223"/>
+      <c r="L110" s="257"/>
       <c r="M110" s="15" t="s">
         <v>2</v>
       </c>
@@ -17219,20 +17230,20 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="222" t="s">
+      <c r="B111" s="256" t="s">
         <v>622</v>
       </c>
-      <c r="C111" s="223"/>
+      <c r="C111" s="257"/>
       <c r="D111" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="247" t="s">
+      <c r="H111" s="275" t="s">
         <v>628</v>
       </c>
-      <c r="I111" s="248"/>
+      <c r="I111" s="276"/>
       <c r="J111" s="15" t="s">
         <v>2</v>
       </c>
@@ -17250,20 +17261,20 @@
       <c r="S111" s="43"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B112" s="255" t="s">
+      <c r="B112" s="273" t="s">
         <v>630</v>
       </c>
-      <c r="C112" s="256"/>
+      <c r="C112" s="274"/>
       <c r="D112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="218" t="s">
+      <c r="H112" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="I112" s="219"/>
+      <c r="I112" s="253"/>
       <c r="J112" s="15" t="s">
         <v>2</v>
       </c>
@@ -17304,10 +17315,10 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B114" s="222" t="s">
+      <c r="B114" s="256" t="s">
         <v>623</v>
       </c>
-      <c r="C114" s="223"/>
+      <c r="C114" s="257"/>
       <c r="D114" s="15" t="s">
         <v>2</v>
       </c>
@@ -17334,10 +17345,10 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B115" s="255" t="s">
+      <c r="B115" s="273" t="s">
         <v>636</v>
       </c>
-      <c r="C115" s="256"/>
+      <c r="C115" s="274"/>
       <c r="D115" s="15" t="s">
         <v>2</v>
       </c>
@@ -17506,48 +17517,48 @@
       <c r="G123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K123" s="220" t="s">
+      <c r="K123" s="254" t="s">
         <v>572</v>
       </c>
-      <c r="L123" s="221"/>
+      <c r="L123" s="255"/>
       <c r="M123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N123" s="220" t="s">
+      <c r="N123" s="254" t="s">
         <v>579</v>
       </c>
-      <c r="O123" s="221"/>
+      <c r="O123" s="255"/>
       <c r="P123" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T123" s="220" t="s">
+      <c r="T123" s="254" t="s">
         <v>597</v>
       </c>
-      <c r="U123" s="221"/>
+      <c r="U123" s="255"/>
       <c r="V123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W123" s="220" t="s">
+      <c r="W123" s="254" t="s">
         <v>612</v>
       </c>
-      <c r="X123" s="221"/>
-      <c r="Z123" s="220" t="s">
+      <c r="X123" s="255"/>
+      <c r="Z123" s="254" t="s">
         <v>801</v>
       </c>
-      <c r="AA123" s="221"/>
-      <c r="AC123" s="220" t="s">
+      <c r="AA123" s="255"/>
+      <c r="AC123" s="254" t="s">
         <v>803</v>
       </c>
-      <c r="AD123" s="221"/>
+      <c r="AD123" s="255"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B124" s="222" t="s">
+      <c r="B124" s="256" t="s">
         <v>563</v>
       </c>
-      <c r="C124" s="223"/>
+      <c r="C124" s="257"/>
       <c r="D124" s="15" t="s">
         <v>2</v>
       </c>
@@ -17560,10 +17571,10 @@
       <c r="G124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="220" t="s">
+      <c r="H124" s="254" t="s">
         <v>573</v>
       </c>
-      <c r="I124" s="221"/>
+      <c r="I124" s="255"/>
       <c r="K124" s="94" t="s">
         <v>578</v>
       </c>
@@ -17578,17 +17589,17 @@
       <c r="P124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q124" s="220" t="s">
+      <c r="Q124" s="254" t="s">
         <v>618</v>
       </c>
-      <c r="R124" s="221"/>
+      <c r="R124" s="255"/>
       <c r="S124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T124" s="247" t="s">
+      <c r="T124" s="275" t="s">
         <v>602</v>
       </c>
-      <c r="U124" s="248"/>
+      <c r="U124" s="276"/>
       <c r="V124" s="15" t="s">
         <v>2</v>
       </c>
@@ -17601,10 +17612,10 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B125" s="261" t="s">
+      <c r="B125" s="291" t="s">
         <v>577</v>
       </c>
-      <c r="C125" s="261"/>
+      <c r="C125" s="291"/>
       <c r="D125" s="15" t="s">
         <v>2</v>
       </c>
@@ -17615,10 +17626,10 @@
       <c r="G125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="247" t="s">
+      <c r="H125" s="275" t="s">
         <v>576</v>
       </c>
-      <c r="I125" s="248"/>
+      <c r="I125" s="276"/>
       <c r="K125" s="114" t="s">
         <v>581</v>
       </c>
@@ -17626,27 +17637,27 @@
       <c r="M125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N125" s="247" t="s">
+      <c r="N125" s="275" t="s">
         <v>602</v>
       </c>
-      <c r="O125" s="248"/>
+      <c r="O125" s="276"/>
       <c r="P125" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T125" s="222" t="s">
+      <c r="T125" s="256" t="s">
         <v>580</v>
       </c>
-      <c r="U125" s="223"/>
+      <c r="U125" s="257"/>
       <c r="V125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W125" s="247" t="s">
+      <c r="W125" s="275" t="s">
         <v>614</v>
       </c>
-      <c r="X125" s="248"/>
+      <c r="X125" s="276"/>
       <c r="AC125" s="129" t="s">
         <v>806</v>
       </c>
@@ -17658,10 +17669,10 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B126" s="222" t="s">
+      <c r="B126" s="256" t="s">
         <v>572</v>
       </c>
-      <c r="C126" s="223"/>
+      <c r="C126" s="257"/>
       <c r="D126" s="15" t="s">
         <v>2</v>
       </c>
@@ -17672,14 +17683,14 @@
       <c r="G126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="218" t="s">
+      <c r="H126" s="252" t="s">
         <v>620</v>
       </c>
-      <c r="I126" s="219"/>
-      <c r="K126" s="222" t="s">
+      <c r="I126" s="253"/>
+      <c r="K126" s="256" t="s">
         <v>580</v>
       </c>
-      <c r="L126" s="223"/>
+      <c r="L126" s="257"/>
       <c r="M126" s="15" t="s">
         <v>2</v>
       </c>
@@ -17704,10 +17715,10 @@
       <c r="V126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W126" s="247" t="s">
+      <c r="W126" s="275" t="s">
         <v>615</v>
       </c>
-      <c r="X126" s="248"/>
+      <c r="X126" s="276"/>
       <c r="AE126" s="15" t="s">
         <v>2</v>
       </c>
@@ -17744,10 +17755,10 @@
       <c r="M127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N127" s="222" t="s">
+      <c r="N127" s="256" t="s">
         <v>607</v>
       </c>
-      <c r="O127" s="223"/>
+      <c r="O127" s="257"/>
       <c r="P127" s="15" t="s">
         <v>2</v>
       </c>
@@ -17763,10 +17774,10 @@
       <c r="V127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W127" s="222" t="s">
+      <c r="W127" s="256" t="s">
         <v>580</v>
       </c>
-      <c r="X127" s="223"/>
+      <c r="X127" s="257"/>
       <c r="AE127" s="15" t="s">
         <v>2</v>
       </c>
@@ -17832,10 +17843,10 @@
       </c>
     </row>
     <row r="129" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B129" s="222" t="s">
+      <c r="B129" s="256" t="s">
         <v>579</v>
       </c>
-      <c r="C129" s="223"/>
+      <c r="C129" s="257"/>
       <c r="D129" s="15" t="s">
         <v>2</v>
       </c>
@@ -17945,10 +17956,10 @@
       <c r="M131" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N131" s="222" t="s">
+      <c r="N131" s="256" t="s">
         <v>618</v>
       </c>
-      <c r="O131" s="223"/>
+      <c r="O131" s="257"/>
       <c r="P131" s="15" t="s">
         <v>2</v>
       </c>
@@ -17996,10 +18007,10 @@
       </c>
     </row>
     <row r="133" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B133" s="222" t="s">
+      <c r="B133" s="256" t="s">
         <v>597</v>
       </c>
-      <c r="C133" s="223"/>
+      <c r="C133" s="257"/>
       <c r="D133" s="15" t="s">
         <v>2</v>
       </c>
@@ -18031,10 +18042,10 @@
       <c r="D134" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="247" t="s">
+      <c r="E134" s="275" t="s">
         <v>566</v>
       </c>
-      <c r="F134" s="248"/>
+      <c r="F134" s="276"/>
       <c r="G134" s="15" t="s">
         <v>2</v>
       </c>
@@ -18058,10 +18069,10 @@
       <c r="D135" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="247" t="s">
+      <c r="E135" s="275" t="s">
         <v>568</v>
       </c>
-      <c r="F135" s="248"/>
+      <c r="F135" s="276"/>
       <c r="G135" s="15" t="s">
         <v>2</v>
       </c>
@@ -18085,10 +18096,10 @@
       <c r="D136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="247" t="s">
+      <c r="E136" s="275" t="s">
         <v>456</v>
       </c>
-      <c r="F136" s="248"/>
+      <c r="F136" s="276"/>
       <c r="G136" s="15" t="s">
         <v>2</v>
       </c>
@@ -18103,10 +18114,10 @@
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B137" s="222" t="s">
+      <c r="B137" s="256" t="s">
         <v>612</v>
       </c>
-      <c r="C137" s="223"/>
+      <c r="C137" s="257"/>
       <c r="D137" s="15" t="s">
         <v>2</v>
       </c>
@@ -18139,10 +18150,10 @@
       <c r="D138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="222" t="s">
+      <c r="E138" s="256" t="s">
         <v>573</v>
       </c>
-      <c r="F138" s="223"/>
+      <c r="F138" s="257"/>
       <c r="G138" s="15" t="s">
         <v>2</v>
       </c>
@@ -18157,10 +18168,10 @@
       </c>
     </row>
     <row r="139" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="222" t="s">
+      <c r="B139" s="256" t="s">
         <v>801</v>
       </c>
-      <c r="C139" s="223"/>
+      <c r="C139" s="257"/>
       <c r="D139" s="15" t="s">
         <v>2</v>
       </c>
@@ -18207,10 +18218,10 @@
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B141" s="222" t="s">
+      <c r="B141" s="256" t="s">
         <v>803</v>
       </c>
-      <c r="C141" s="223"/>
+      <c r="C141" s="257"/>
       <c r="D141" s="15" t="s">
         <v>2</v>
       </c>
@@ -18277,6 +18288,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="Z123:AA123"/>
+    <mergeCell ref="AC123:AD123"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="AO75:AP75"/>
+    <mergeCell ref="AO82:AP82"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H83:I83"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="W36:X36"/>
     <mergeCell ref="W37:X37"/>
@@ -18301,143 +18449,6 @@
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="W125:X125"/>
-    <mergeCell ref="W126:X126"/>
-    <mergeCell ref="W127:X127"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="AO75:AP75"/>
-    <mergeCell ref="AO82:AP82"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="Z123:AA123"/>
-    <mergeCell ref="AC123:AD123"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -18502,7 +18513,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="306" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -18534,7 +18545,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="272"/>
+      <c r="A3" s="306"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -18583,7 +18594,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="271"/>
+      <c r="A4" s="307"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -18610,7 +18621,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="270" t="s">
+      <c r="A5" s="308" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -18638,7 +18649,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="271"/>
+      <c r="A6" s="307"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -18665,7 +18676,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="275" t="s">
+      <c r="A7" s="309" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -18697,7 +18708,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="276"/>
+      <c r="A8" s="310"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -18725,7 +18736,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="277"/>
+      <c r="A9" s="311"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -18754,7 +18765,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="270" t="s">
+      <c r="A10" s="308" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -18800,7 +18811,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="271"/>
+      <c r="A11" s="307"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -18827,7 +18838,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="272" t="s">
+      <c r="A12" s="306" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -18859,7 +18870,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="272"/>
+      <c r="A13" s="306"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -18879,7 +18890,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="272"/>
+      <c r="A14" s="306"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -18899,7 +18910,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="271"/>
+      <c r="A15" s="307"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -18953,10 +18964,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="270" t="s">
+      <c r="A17" s="308" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="273" t="s">
+      <c r="B17" s="312" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -18978,8 +18989,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="272"/>
-      <c r="B18" s="274"/>
+      <c r="A18" s="306"/>
+      <c r="B18" s="313"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -18999,8 +19010,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="272"/>
-      <c r="B19" s="271"/>
+      <c r="A19" s="306"/>
+      <c r="B19" s="307"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -19020,8 +19031,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="272"/>
-      <c r="B20" s="270" t="s">
+      <c r="A20" s="306"/>
+      <c r="B20" s="308" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -19043,8 +19054,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="272"/>
-      <c r="B21" s="272"/>
+      <c r="A21" s="306"/>
+      <c r="B21" s="306"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -19064,8 +19075,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="272"/>
-      <c r="B22" s="271"/>
+      <c r="A22" s="306"/>
+      <c r="B22" s="307"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -19085,8 +19096,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
-      <c r="B23" s="270" t="s">
+      <c r="A23" s="306"/>
+      <c r="B23" s="308" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -19108,8 +19119,8 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="272"/>
-      <c r="B24" s="271"/>
+      <c r="A24" s="306"/>
+      <c r="B24" s="307"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -19141,8 +19152,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="272"/>
-      <c r="B25" s="270" t="s">
+      <c r="A25" s="306"/>
+      <c r="B25" s="308" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -19164,8 +19175,8 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="272"/>
-      <c r="B26" s="271"/>
+      <c r="A26" s="306"/>
+      <c r="B26" s="307"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -19185,7 +19196,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="272"/>
+      <c r="A27" s="306"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -19220,7 +19231,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="272"/>
+      <c r="A28" s="306"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -19255,7 +19266,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="272"/>
+      <c r="A29" s="306"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -19276,7 +19287,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="271"/>
+      <c r="A30" s="307"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -19297,7 +19308,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="272" t="s">
+      <c r="A31" s="306" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -19317,7 +19328,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="272"/>
+      <c r="A32" s="306"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -19337,7 +19348,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="272"/>
+      <c r="A33" s="306"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -19358,7 +19369,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="270" t="s">
+      <c r="A34" s="308" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -19380,7 +19391,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="271"/>
+      <c r="A35" s="307"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -19545,6 +19556,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -19552,11 +19568,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19626,14 +19637,14 @@
       <c r="W3" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="X3" s="279" t="s">
+      <c r="X3" s="320" t="s">
         <v>668</v>
       </c>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="279" t="s">
+      <c r="Y3" s="320"/>
+      <c r="Z3" s="320" t="s">
         <v>669</v>
       </c>
-      <c r="AA3" s="279"/>
+      <c r="AA3" s="320"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="80">
@@ -19671,14 +19682,14 @@
       <c r="W4" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="X4" s="279" t="s">
+      <c r="X4" s="320" t="s">
         <v>671</v>
       </c>
-      <c r="Y4" s="279"/>
-      <c r="Z4" s="280" t="s">
+      <c r="Y4" s="320"/>
+      <c r="Z4" s="321" t="s">
         <v>672</v>
       </c>
-      <c r="AA4" s="280"/>
+      <c r="AA4" s="321"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="80">
@@ -19716,12 +19727,12 @@
       <c r="W5" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="X5" s="279" t="s">
+      <c r="X5" s="320" t="s">
         <v>673</v>
       </c>
-      <c r="Y5" s="279"/>
-      <c r="Z5" s="278"/>
-      <c r="AA5" s="278"/>
+      <c r="Y5" s="320"/>
+      <c r="Z5" s="319"/>
+      <c r="AA5" s="319"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="80">
@@ -19759,12 +19770,12 @@
       <c r="W6" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="X6" s="278"/>
-      <c r="Y6" s="278"/>
-      <c r="Z6" s="279" t="s">
+      <c r="X6" s="319"/>
+      <c r="Y6" s="319"/>
+      <c r="Z6" s="320" t="s">
         <v>676</v>
       </c>
-      <c r="AA6" s="279"/>
+      <c r="AA6" s="320"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="80">
@@ -19812,10 +19823,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="80"/>
-      <c r="G8" s="289" t="s">
+      <c r="G8" s="314" t="s">
         <v>863</v>
       </c>
-      <c r="H8" s="290"/>
+      <c r="H8" s="315"/>
       <c r="I8" s="15" t="s">
         <v>2</v>
       </c>
@@ -20213,11 +20224,11 @@
       <c r="I22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="292" t="s">
+      <c r="J22" s="316" t="s">
         <v>1185</v>
       </c>
-      <c r="K22" s="291"/>
-      <c r="L22" s="293"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="318"/>
       <c r="M22" s="15" t="s">
         <v>2</v>
       </c>
@@ -20740,52 +20751,52 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="254" t="s">
         <v>715</v>
       </c>
-      <c r="B3" s="221"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="220" t="s">
+      <c r="D3" s="254" t="s">
         <v>716</v>
       </c>
-      <c r="E3" s="221"/>
+      <c r="E3" s="255"/>
       <c r="F3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="220" t="s">
+      <c r="G3" s="254" t="s">
         <v>741</v>
       </c>
-      <c r="H3" s="221"/>
+      <c r="H3" s="255"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="220" t="s">
+      <c r="J3" s="254" t="s">
         <v>741</v>
       </c>
-      <c r="K3" s="221"/>
+      <c r="K3" s="255"/>
       <c r="L3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="220" t="s">
+      <c r="M3" s="254" t="s">
         <v>1230</v>
       </c>
-      <c r="N3" s="221"/>
+      <c r="N3" s="255"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="220" t="s">
+      <c r="P3" s="254" t="s">
         <v>946</v>
       </c>
-      <c r="Q3" s="221"/>
+      <c r="Q3" s="255"/>
       <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="220" t="s">
+      <c r="S3" s="254" t="s">
         <v>946</v>
       </c>
-      <c r="T3" s="221"/>
+      <c r="T3" s="255"/>
       <c r="U3" s="15" t="s">
         <v>2</v>
       </c>
@@ -20827,10 +20838,10 @@
       <c r="L4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="309" t="s">
+      <c r="M4" s="333" t="s">
         <v>1220</v>
       </c>
-      <c r="N4" s="290"/>
+      <c r="N4" s="315"/>
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
@@ -20872,10 +20883,10 @@
       <c r="F5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="227" t="s">
+      <c r="G5" s="266" t="s">
         <v>772</v>
       </c>
-      <c r="H5" s="228"/>
+      <c r="H5" s="267"/>
       <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
@@ -20888,17 +20899,17 @@
       <c r="L5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="309" t="s">
+      <c r="M5" s="333" t="s">
         <v>1229</v>
       </c>
-      <c r="N5" s="290"/>
+      <c r="N5" s="315"/>
       <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="247" t="s">
+      <c r="P5" s="275" t="s">
         <v>1219</v>
       </c>
-      <c r="Q5" s="248"/>
+      <c r="Q5" s="276"/>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
@@ -20931,10 +20942,10 @@
       <c r="F6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="227" t="s">
+      <c r="G6" s="266" t="s">
         <v>771</v>
       </c>
-      <c r="H6" s="228"/>
+      <c r="H6" s="267"/>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
@@ -20952,17 +20963,17 @@
       <c r="O6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="268" t="s">
+      <c r="P6" s="279" t="s">
         <v>1222</v>
       </c>
-      <c r="Q6" s="269"/>
+      <c r="Q6" s="280"/>
       <c r="R6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="301" t="s">
+      <c r="S6" s="223" t="s">
         <v>978</v>
       </c>
-      <c r="T6" s="302" t="s">
+      <c r="T6" s="224" t="s">
         <v>962</v>
       </c>
       <c r="U6" s="15" t="s">
@@ -20988,10 +20999,10 @@
       <c r="F7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="287" t="s">
+      <c r="G7" s="328" t="s">
         <v>748</v>
       </c>
-      <c r="H7" s="288"/>
+      <c r="H7" s="329"/>
       <c r="I7" s="15" t="s">
         <v>2</v>
       </c>
@@ -21004,10 +21015,10 @@
       <c r="L7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="301" t="s">
+      <c r="M7" s="223" t="s">
         <v>979</v>
       </c>
-      <c r="N7" s="302" t="s">
+      <c r="N7" s="224" t="s">
         <v>742</v>
       </c>
       <c r="O7" s="15" t="s">
@@ -21069,17 +21080,17 @@
       <c r="L8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="309" t="s">
+      <c r="M8" s="333" t="s">
         <v>1221</v>
       </c>
-      <c r="N8" s="290"/>
+      <c r="N8" s="315"/>
       <c r="O8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="301" t="s">
+      <c r="P8" s="223" t="s">
         <v>981</v>
       </c>
-      <c r="Q8" s="302" t="s">
+      <c r="Q8" s="224" t="s">
         <v>977</v>
       </c>
       <c r="R8" s="15" t="s">
@@ -21132,8 +21143,8 @@
       <c r="L9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="313"/>
-      <c r="N9" s="310"/>
+      <c r="M9" s="232"/>
+      <c r="N9" s="229"/>
       <c r="O9" s="15" t="s">
         <v>2</v>
       </c>
@@ -21146,10 +21157,10 @@
       <c r="R9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="264" t="s">
+      <c r="S9" s="289" t="s">
         <v>1218</v>
       </c>
-      <c r="T9" s="265"/>
+      <c r="T9" s="290"/>
       <c r="U9" s="15" t="s">
         <v>2</v>
       </c>
@@ -21167,10 +21178,10 @@
       <c r="F10" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="227" t="s">
+      <c r="G10" s="266" t="s">
         <v>726</v>
       </c>
-      <c r="H10" s="228"/>
+      <c r="H10" s="267"/>
       <c r="I10" s="15" t="s">
         <v>2</v>
       </c>
@@ -21192,10 +21203,10 @@
       <c r="O10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="268" t="s">
+      <c r="P10" s="279" t="s">
         <v>1223</v>
       </c>
-      <c r="Q10" s="269"/>
+      <c r="Q10" s="280"/>
       <c r="R10" s="15" t="s">
         <v>2</v>
       </c>
@@ -21217,10 +21228,10 @@
       <c r="F11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="227" t="s">
+      <c r="G11" s="266" t="s">
         <v>754</v>
       </c>
-      <c r="H11" s="228"/>
+      <c r="H11" s="267"/>
       <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
@@ -21231,7 +21242,7 @@
       <c r="L11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="303" t="s">
+      <c r="M11" s="225" t="s">
         <v>1215</v>
       </c>
       <c r="N11" s="200" t="s">
@@ -21249,10 +21260,10 @@
       <c r="R11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="307" t="s">
+      <c r="S11" s="227" t="s">
         <v>952</v>
       </c>
-      <c r="T11" s="308"/>
+      <c r="T11" s="228"/>
       <c r="U11" s="15" t="s">
         <v>2</v>
       </c>
@@ -21267,10 +21278,10 @@
       <c r="F12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="227" t="s">
+      <c r="G12" s="266" t="s">
         <v>742</v>
       </c>
-      <c r="H12" s="228"/>
+      <c r="H12" s="267"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
@@ -21283,10 +21294,10 @@
       <c r="L12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="227" t="s">
+      <c r="M12" s="266" t="s">
         <v>963</v>
       </c>
-      <c r="N12" s="228"/>
+      <c r="N12" s="267"/>
       <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
@@ -21319,10 +21330,10 @@
       <c r="F13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="285" t="s">
+      <c r="G13" s="326" t="s">
         <v>747</v>
       </c>
-      <c r="H13" s="286"/>
+      <c r="H13" s="327"/>
       <c r="I13" s="15" t="s">
         <v>2</v>
       </c>
@@ -21335,10 +21346,10 @@
       <c r="L13" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="227" t="s">
+      <c r="M13" s="266" t="s">
         <v>754</v>
       </c>
-      <c r="N13" s="228"/>
+      <c r="N13" s="267"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
@@ -21389,10 +21400,10 @@
       <c r="L14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="305" t="s">
+      <c r="M14" s="331" t="s">
         <v>747</v>
       </c>
-      <c r="N14" s="306"/>
+      <c r="N14" s="332"/>
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
@@ -21419,24 +21430,24 @@
       <c r="F15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="281" t="s">
+      <c r="G15" s="322" t="s">
         <v>744</v>
       </c>
-      <c r="H15" s="282"/>
+      <c r="H15" s="323"/>
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="227" t="s">
+      <c r="J15" s="266" t="s">
         <v>756</v>
       </c>
-      <c r="K15" s="228"/>
+      <c r="K15" s="267"/>
       <c r="L15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="264" t="s">
+      <c r="M15" s="289" t="s">
         <v>1214</v>
       </c>
-      <c r="N15" s="265"/>
+      <c r="N15" s="290"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -21463,24 +21474,24 @@
       <c r="F16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="281" t="s">
+      <c r="G16" s="322" t="s">
         <v>749</v>
       </c>
-      <c r="H16" s="282"/>
+      <c r="H16" s="323"/>
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="227" t="s">
+      <c r="J16" s="266" t="s">
         <v>764</v>
       </c>
-      <c r="K16" s="228"/>
+      <c r="K16" s="267"/>
       <c r="L16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="241" t="s">
+      <c r="M16" s="271" t="s">
         <v>746</v>
       </c>
-      <c r="N16" s="242"/>
+      <c r="N16" s="272"/>
       <c r="O16" s="15" t="s">
         <v>2</v>
       </c>
@@ -21507,31 +21518,31 @@
       <c r="F17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="283" t="s">
+      <c r="G17" s="324" t="s">
         <v>745</v>
       </c>
-      <c r="H17" s="284"/>
+      <c r="H17" s="325"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="227" t="s">
+      <c r="J17" s="266" t="s">
         <v>765</v>
       </c>
-      <c r="K17" s="228"/>
+      <c r="K17" s="267"/>
       <c r="L17" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="281" t="s">
+      <c r="M17" s="322" t="s">
         <v>1233</v>
       </c>
-      <c r="N17" s="282"/>
+      <c r="N17" s="323"/>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="311" t="s">
+      <c r="P17" s="230" t="s">
         <v>980</v>
       </c>
-      <c r="Q17" s="312" t="s">
+      <c r="Q17" s="231" t="s">
         <v>956</v>
       </c>
       <c r="R17" s="15" t="s">
@@ -21554,17 +21565,17 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="227" t="s">
+      <c r="J18" s="266" t="s">
         <v>763</v>
       </c>
-      <c r="K18" s="228"/>
+      <c r="K18" s="267"/>
       <c r="L18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="281" t="s">
+      <c r="M18" s="322" t="s">
         <v>1234</v>
       </c>
-      <c r="N18" s="282"/>
+      <c r="N18" s="323"/>
       <c r="O18" s="15" t="s">
         <v>2</v>
       </c>
@@ -21600,10 +21611,10 @@
       <c r="L19" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="314" t="s">
+      <c r="M19" s="330" t="s">
         <v>1231</v>
       </c>
-      <c r="N19" s="284"/>
+      <c r="N19" s="325"/>
       <c r="O19" s="15" t="s">
         <v>2</v>
       </c>
@@ -21639,8 +21650,8 @@
       <c r="L20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="313"/>
-      <c r="N20" s="310"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="229"/>
       <c r="O20" s="15" t="s">
         <v>2</v>
       </c>
@@ -21676,19 +21687,19 @@
       <c r="L21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="303" t="s">
+      <c r="M21" s="225" t="s">
         <v>1211</v>
       </c>
-      <c r="N21" s="304" t="s">
+      <c r="N21" s="226" t="s">
         <v>975</v>
       </c>
       <c r="O21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="303" t="s">
+      <c r="P21" s="225" t="s">
         <v>1226</v>
       </c>
-      <c r="Q21" s="304" t="s">
+      <c r="Q21" s="226" t="s">
         <v>961</v>
       </c>
       <c r="R21" s="15" t="s">
@@ -21717,16 +21728,16 @@
       <c r="L22" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="311" t="s">
+      <c r="M22" s="230" t="s">
         <v>982</v>
       </c>
-      <c r="N22" s="312" t="s">
+      <c r="N22" s="231" t="s">
         <v>976</v>
       </c>
       <c r="O22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="303" t="s">
+      <c r="P22" s="225" t="s">
         <v>1209</v>
       </c>
       <c r="Q22" s="200"/>
@@ -21759,15 +21770,15 @@
       <c r="L23" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="313"/>
-      <c r="N23" s="310"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="229"/>
       <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="227" t="s">
+      <c r="P23" s="266" t="s">
         <v>706</v>
       </c>
-      <c r="Q23" s="228"/>
+      <c r="Q23" s="267"/>
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
@@ -21800,10 +21811,10 @@
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="259" t="s">
+      <c r="P24" s="292" t="s">
         <v>960</v>
       </c>
-      <c r="Q24" s="260"/>
+      <c r="Q24" s="293"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -21981,10 +21992,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="220" t="s">
+      <c r="A34" s="254" t="s">
         <v>709</v>
       </c>
-      <c r="B34" s="221"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
@@ -22034,10 +22045,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="218" t="s">
+      <c r="A39" s="252" t="s">
         <v>446</v>
       </c>
-      <c r="B39" s="219"/>
+      <c r="B39" s="253"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -22816,32 +22827,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
@@ -22856,6 +22841,32 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22878,32 +22889,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="249" t="s">
         <v>1236</v>
       </c>
-      <c r="B1" s="321" t="s">
+      <c r="B1" s="239" t="s">
         <v>1237</v>
       </c>
-      <c r="C1" s="321" t="s">
+      <c r="C1" s="239" t="s">
         <v>1244</v>
       </c>
-      <c r="D1" s="321" t="s">
+      <c r="D1" s="239" t="s">
         <v>1252</v>
       </c>
-      <c r="E1" s="321" t="s">
+      <c r="E1" s="239" t="s">
         <v>1253</v>
       </c>
-      <c r="F1" s="321" t="s">
+      <c r="F1" s="239" t="s">
         <v>1258</v>
       </c>
-      <c r="G1" s="321" t="s">
+      <c r="G1" s="239" t="s">
         <v>1259</v>
       </c>
-      <c r="H1" s="323" t="s">
+      <c r="H1" s="339" t="s">
         <v>1240</v>
       </c>
-      <c r="I1" s="323"/>
-      <c r="J1" s="321" t="s">
+      <c r="I1" s="339"/>
+      <c r="J1" s="239" t="s">
         <v>1241</v>
       </c>
       <c r="L1" t="s">
@@ -22914,7 +22925,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="245" t="s">
         <v>1238</v>
       </c>
       <c r="C2" t="s">
@@ -22929,16 +22940,16 @@
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="315" t="s">
+      <c r="G2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="315" t="s">
+      <c r="H2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="315" t="s">
+      <c r="J2" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K2" t="s">
@@ -22955,28 +22966,28 @@
       <c r="B3" t="s">
         <v>1264</v>
       </c>
-      <c r="C3" s="315" t="s">
+      <c r="C3" s="233" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>1308</v>
       </c>
-      <c r="E3" s="318" t="s">
+      <c r="E3" s="236" t="s">
         <v>1309</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="315" t="s">
+      <c r="G3" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="315" t="s">
+      <c r="H3" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="315" t="s">
+      <c r="J3" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K3" t="s">
@@ -22990,31 +23001,31 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="245" t="s">
         <v>1242</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="D4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="319" t="s">
+      <c r="E4" s="237" t="s">
         <v>1309</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="241" t="s">
         <v>1310</v>
       </c>
-      <c r="G4" s="315" t="s">
+      <c r="G4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="316" t="s">
+      <c r="H4" s="234" t="s">
         <v>1243</v>
       </c>
-      <c r="I4" s="315" t="s">
+      <c r="I4" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="315" t="s">
+      <c r="J4" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K4" t="s">
@@ -23028,13 +23039,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="245" t="s">
         <v>1312</v>
       </c>
       <c r="C5" t="s">
         <v>1311</v>
       </c>
-      <c r="D5" s="315" t="s">
+      <c r="D5" s="233" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -23043,16 +23054,16 @@
       <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="315" t="s">
+      <c r="G5" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="315" t="s">
+      <c r="H5" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="315" t="s">
+      <c r="I5" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="315" t="s">
+      <c r="J5" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K5" t="s">
@@ -23066,22 +23077,22 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="327" t="s">
+      <c r="B6" s="243" t="s">
         <v>1247</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="D6" s="320" t="s">
+      <c r="D6" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="320" t="s">
+      <c r="E6" s="238" t="s">
         <v>1257</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="G6" s="320" t="s">
+      <c r="G6" s="238" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -23090,7 +23101,7 @@
       <c r="I6" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="J6" s="320" t="s">
+      <c r="J6" s="238" t="s">
         <v>35</v>
       </c>
       <c r="K6" t="s">
@@ -23107,28 +23118,28 @@
       <c r="B7" t="s">
         <v>1264</v>
       </c>
-      <c r="C7" s="315" t="s">
+      <c r="C7" s="233" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>1314</v>
       </c>
-      <c r="E7" s="318" t="s">
+      <c r="E7" s="236" t="s">
         <v>1315</v>
       </c>
-      <c r="F7" s="339" t="s">
+      <c r="F7" s="250" t="s">
         <v>1246</v>
       </c>
-      <c r="G7" s="315" t="s">
+      <c r="G7" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="315" t="s">
+      <c r="H7" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="315" t="s">
+      <c r="I7" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="315" t="s">
+      <c r="J7" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K7" t="s">
@@ -23145,28 +23156,28 @@
       <c r="B8" t="s">
         <v>1254</v>
       </c>
-      <c r="C8" s="315" t="s">
+      <c r="C8" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="315" t="s">
+      <c r="D8" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="319" t="s">
+      <c r="E8" s="237" t="s">
         <v>1315</v>
       </c>
-      <c r="F8" s="317" t="s">
+      <c r="F8" s="235" t="s">
         <v>1246</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G8" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="315" t="s">
+      <c r="H8" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="315" t="s">
+      <c r="I8" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="315" t="s">
+      <c r="J8" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K8" t="s">
@@ -23186,23 +23197,23 @@
       <c r="C9" s="11" t="s">
         <v>1316</v>
       </c>
-      <c r="D9" s="320" t="s">
+      <c r="D9" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="320" t="s">
+      <c r="E9" s="238" t="s">
         <v>1257</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="G9" s="320" t="s">
+      <c r="G9" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="331" t="s">
+      <c r="H9" s="340" t="s">
         <v>1251</v>
       </c>
-      <c r="I9" s="331"/>
-      <c r="J9" s="320" t="s">
+      <c r="I9" s="340"/>
+      <c r="J9" s="238" t="s">
         <v>35</v>
       </c>
       <c r="K9" t="s">
@@ -23219,28 +23230,28 @@
       <c r="B10" t="s">
         <v>1317</v>
       </c>
-      <c r="C10" s="315" t="s">
+      <c r="C10" s="233" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>1318</v>
       </c>
-      <c r="E10" s="318" t="s">
+      <c r="E10" s="236" t="s">
         <v>1309</v>
       </c>
-      <c r="F10" s="317" t="s">
+      <c r="F10" s="235" t="s">
         <v>1255</v>
       </c>
-      <c r="G10" s="315" t="s">
+      <c r="G10" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="315" t="s">
+      <c r="H10" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="315" t="s">
+      <c r="I10" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="315" t="s">
+      <c r="J10" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K10" t="s">
@@ -23254,31 +23265,31 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="329" t="s">
+      <c r="B11" s="245" t="s">
         <v>1300</v>
       </c>
-      <c r="C11" s="340" t="s">
+      <c r="C11" s="251" t="s">
         <v>1320</v>
       </c>
-      <c r="D11" s="315" t="s">
+      <c r="D11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="315" t="s">
+      <c r="E11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="315" t="s">
+      <c r="F11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="315" t="s">
+      <c r="G11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="315" t="s">
+      <c r="H11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="315" t="s">
+      <c r="I11" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="315" t="s">
+      <c r="J11" s="233" t="s">
         <v>35</v>
       </c>
     </row>
@@ -23289,28 +23300,28 @@
       <c r="B12" t="s">
         <v>1254</v>
       </c>
-      <c r="C12" s="315" t="s">
+      <c r="C12" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="315" t="s">
+      <c r="D12" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="319" t="s">
+      <c r="E12" s="237" t="s">
         <v>1309</v>
       </c>
-      <c r="F12" s="317" t="s">
+      <c r="F12" s="235" t="s">
         <v>1255</v>
       </c>
-      <c r="G12" s="315" t="s">
+      <c r="G12" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="315" t="s">
+      <c r="H12" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="315" t="s">
+      <c r="I12" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="315" t="s">
+      <c r="J12" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K12" t="s">
@@ -23359,127 +23370,127 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="324" t="s">
+      <c r="A14" s="334" t="s">
         <v>1291</v>
       </c>
-      <c r="B14" s="324"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="324"/>
-      <c r="E14" s="324"/>
-      <c r="F14" s="324"/>
-      <c r="G14" s="324"/>
-      <c r="H14" s="324"/>
-      <c r="I14" s="324"/>
-      <c r="J14" s="324"/>
+      <c r="B14" s="334"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="334"/>
+      <c r="G14" s="334"/>
+      <c r="H14" s="334"/>
+      <c r="I14" s="334"/>
+      <c r="J14" s="334"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="328" t="s">
+      <c r="B15" s="244" t="s">
         <v>1321</v>
       </c>
-      <c r="C15" s="317" t="s">
+      <c r="C15" s="235" t="s">
         <v>1322</v>
       </c>
-      <c r="D15" s="315" t="s">
+      <c r="D15" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="318" t="s">
+      <c r="E15" s="236" t="s">
         <v>1309</v>
       </c>
-      <c r="F15" s="317" t="s">
+      <c r="F15" s="235" t="s">
         <v>1255</v>
       </c>
-      <c r="G15" s="336" t="s">
+      <c r="G15" s="335" t="s">
         <v>1290</v>
       </c>
-      <c r="H15" s="335"/>
-      <c r="I15" s="335"/>
-      <c r="J15" s="335"/>
+      <c r="H15" s="336"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="336"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>2</v>
       </c>
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="248" t="s">
         <v>1292</v>
       </c>
-      <c r="C16" s="320" t="s">
+      <c r="C16" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="320" t="s">
+      <c r="D16" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="320" t="s">
+      <c r="E16" s="238" t="s">
         <v>1257</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="G16" s="333"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="332"/>
-      <c r="J16" s="332"/>
+      <c r="G16" s="337"/>
+      <c r="H16" s="338"/>
+      <c r="I16" s="338"/>
+      <c r="J16" s="338"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="334" t="s">
+      <c r="B17" s="247" t="s">
         <v>1293</v>
       </c>
-      <c r="C17" s="315" t="s">
+      <c r="C17" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="315" t="s">
+      <c r="D17" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="319" t="s">
+      <c r="E17" s="237" t="s">
         <v>1309</v>
       </c>
-      <c r="F17" s="317" t="s">
+      <c r="F17" s="235" t="s">
         <v>1255</v>
       </c>
-      <c r="G17" s="336" t="s">
+      <c r="G17" s="335" t="s">
         <v>1294</v>
       </c>
-      <c r="H17" s="335"/>
-      <c r="I17" s="335"/>
-      <c r="J17" s="335"/>
+      <c r="H17" s="336"/>
+      <c r="I17" s="336"/>
+      <c r="J17" s="336"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>4</v>
       </c>
-      <c r="B18" s="337" t="s">
+      <c r="B18" s="248" t="s">
         <v>1295</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="D18" s="320" t="s">
+      <c r="D18" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="320" t="s">
+      <c r="E18" s="238" t="s">
         <v>1257</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="G18" s="333"/>
-      <c r="H18" s="332"/>
-      <c r="I18" s="332"/>
-      <c r="J18" s="332"/>
+      <c r="G18" s="337"/>
+      <c r="H18" s="338"/>
+      <c r="I18" s="338"/>
+      <c r="J18" s="338"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="247" t="s">
         <v>1296</v>
       </c>
-      <c r="C19" s="317" t="s">
+      <c r="C19" s="235" t="s">
         <v>1325</v>
       </c>
       <c r="D19" t="s">
@@ -23491,47 +23502,47 @@
       <c r="F19" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="G19" s="336" t="s">
+      <c r="G19" s="335" t="s">
         <v>1297</v>
       </c>
-      <c r="H19" s="335"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="335"/>
+      <c r="H19" s="336"/>
+      <c r="I19" s="336"/>
+      <c r="J19" s="336"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>6</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="244" t="s">
         <v>1298</v>
       </c>
-      <c r="C20" s="315" t="s">
+      <c r="C20" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="315" t="s">
+      <c r="D20" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="315" t="s">
+      <c r="E20" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="315" t="s">
+      <c r="F20" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="336" t="s">
+      <c r="G20" s="335" t="s">
         <v>1326</v>
       </c>
-      <c r="H20" s="335"/>
-      <c r="I20" s="335"/>
-      <c r="J20" s="335"/>
+      <c r="H20" s="336"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="336"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="334" t="s">
+      <c r="B21" s="247" t="s">
         <v>1327</v>
       </c>
-      <c r="C21" s="315" t="s">
+      <c r="C21" s="233" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
@@ -23543,26 +23554,26 @@
       <c r="F21" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="G21" s="336" t="s">
+      <c r="G21" s="335" t="s">
         <v>1299</v>
       </c>
-      <c r="H21" s="335"/>
-      <c r="I21" s="335"/>
-      <c r="J21" s="335"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="336"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="324" t="s">
+      <c r="A22" s="334" t="s">
         <v>1333</v>
       </c>
-      <c r="B22" s="324"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="324"/>
-      <c r="I22" s="324"/>
-      <c r="J22" s="324"/>
+      <c r="B22" s="334"/>
+      <c r="C22" s="334"/>
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="334"/>
+      <c r="H22" s="334"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
       <c r="L22" t="s">
         <v>2</v>
       </c>
@@ -23574,10 +23585,10 @@
       <c r="B23" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="C23" s="317" t="s">
+      <c r="C23" s="235" t="s">
         <v>1328</v>
       </c>
-      <c r="D23" s="315" t="s">
+      <c r="D23" s="233" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -23586,16 +23597,16 @@
       <c r="F23" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="G23" s="317" t="s">
+      <c r="G23" s="235" t="s">
         <v>1260</v>
       </c>
-      <c r="H23" s="315" t="s">
+      <c r="H23" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="315" t="s">
+      <c r="I23" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="315" t="s">
+      <c r="J23" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K23" t="s">
@@ -23612,10 +23623,10 @@
       <c r="B24" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C24" s="315" t="s">
+      <c r="C24" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="317" t="s">
+      <c r="D24" s="235" t="s">
         <v>1261</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -23624,16 +23635,16 @@
       <c r="F24" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="G24" s="315" t="s">
+      <c r="G24" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="315" t="s">
+      <c r="H24" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="315" t="s">
+      <c r="I24" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="315" t="s">
+      <c r="J24" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K24" t="s">
@@ -23647,31 +23658,31 @@
       <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="328" t="s">
+      <c r="B25" s="244" t="s">
         <v>1263</v>
       </c>
-      <c r="C25" s="317" t="s">
+      <c r="C25" s="235" t="s">
         <v>1331</v>
       </c>
-      <c r="D25" s="315" t="s">
+      <c r="D25" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="315" t="s">
+      <c r="E25" s="233" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="G25" s="315" t="s">
+      <c r="G25" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="315" t="s">
+      <c r="H25" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="315" t="s">
+      <c r="I25" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="315" t="s">
+      <c r="J25" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K25" t="s">
@@ -23688,28 +23699,28 @@
       <c r="B26" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="C26" s="315" t="s">
+      <c r="C26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="317" t="s">
+      <c r="D26" s="235" t="s">
         <v>1265</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="F26" s="315" t="s">
+      <c r="F26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="315" t="s">
+      <c r="G26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="315" t="s">
+      <c r="H26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="315" t="s">
+      <c r="I26" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="315" t="s">
+      <c r="J26" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K26" t="s">
@@ -23720,48 +23731,48 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="334" t="s">
         <v>1334</v>
       </c>
-      <c r="B27" s="324"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="324"/>
-      <c r="E27" s="324"/>
-      <c r="F27" s="324"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="324"/>
-      <c r="I27" s="324"/>
-      <c r="J27" s="324"/>
+      <c r="B27" s="334"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="334"/>
+      <c r="F27" s="334"/>
+      <c r="G27" s="334"/>
+      <c r="H27" s="334"/>
+      <c r="I27" s="334"/>
+      <c r="J27" s="334"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>5</v>
       </c>
-      <c r="B28" s="328" t="s">
+      <c r="B28" s="244" t="s">
         <v>1267</v>
       </c>
-      <c r="C28" s="322" t="s">
+      <c r="C28" s="240" t="s">
         <v>1337</v>
       </c>
-      <c r="D28" s="315" t="s">
+      <c r="D28" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="322" t="s">
+      <c r="E28" s="240" t="s">
         <v>1270</v>
       </c>
-      <c r="F28" s="315" t="s">
+      <c r="F28" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="315" t="s">
+      <c r="G28" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="315" t="s">
+      <c r="H28" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="315" t="s">
+      <c r="I28" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="315" t="s">
+      <c r="J28" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K28" t="s">
@@ -23778,28 +23789,28 @@
       <c r="B29" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="C29" s="315" t="s">
+      <c r="C29" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="317" t="s">
+      <c r="D29" s="235" t="s">
         <v>1261</v>
       </c>
-      <c r="E29" s="322" t="s">
+      <c r="E29" s="240" t="s">
         <v>1270</v>
       </c>
-      <c r="F29" s="315" t="s">
+      <c r="F29" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="315" t="s">
+      <c r="G29" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="315" t="s">
+      <c r="H29" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="315" t="s">
+      <c r="I29" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="315" t="s">
+      <c r="J29" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K29" t="s">
@@ -23816,28 +23827,28 @@
       <c r="B30" t="s">
         <v>1254</v>
       </c>
-      <c r="C30" s="315" t="s">
+      <c r="C30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="315" t="s">
+      <c r="D30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="326" t="s">
+      <c r="E30" s="242" t="s">
         <v>1269</v>
       </c>
-      <c r="F30" s="315" t="s">
+      <c r="F30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="315" t="s">
+      <c r="G30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="315" t="s">
+      <c r="H30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="315" t="s">
+      <c r="I30" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="315" t="s">
+      <c r="J30" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K30" t="s">
@@ -23872,7 +23883,7 @@
       <c r="H31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="315" t="s">
+      <c r="I31" s="233" t="s">
         <v>35</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -23883,7 +23894,7 @@
       <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B32" s="330" t="s">
+      <c r="B32" s="246" t="s">
         <v>1274</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -23924,42 +23935,42 @@
       <c r="B33" t="s">
         <v>1267</v>
       </c>
-      <c r="C33" s="332" t="s">
+      <c r="C33" s="338" t="s">
         <v>1277</v>
       </c>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
-      <c r="G33" s="332"/>
-      <c r="H33" s="332"/>
-      <c r="I33" s="332"/>
-      <c r="J33" s="332"/>
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="338"/>
+      <c r="I33" s="338"/>
+      <c r="J33" s="338"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="324" t="s">
+      <c r="A34" s="334" t="s">
         <v>1285</v>
       </c>
-      <c r="B34" s="324"/>
-      <c r="C34" s="324"/>
-      <c r="D34" s="324"/>
-      <c r="E34" s="324"/>
-      <c r="F34" s="324"/>
-      <c r="G34" s="324"/>
-      <c r="H34" s="324"/>
-      <c r="I34" s="324"/>
-      <c r="J34" s="324"/>
+      <c r="B34" s="334"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="334"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="334"/>
+      <c r="I34" s="334"/>
+      <c r="J34" s="334"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="328" t="s">
+      <c r="B35" s="244" t="s">
         <v>1282</v>
       </c>
-      <c r="C35" s="322" t="s">
+      <c r="C35" s="240" t="s">
         <v>1286</v>
       </c>
-      <c r="D35" s="315" t="s">
+      <c r="D35" s="233" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -23968,24 +23979,24 @@
       <c r="F35" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="G35" s="335" t="s">
+      <c r="G35" s="336" t="s">
         <v>1287</v>
       </c>
-      <c r="H35" s="335"/>
-      <c r="I35" s="335"/>
-      <c r="J35" s="335"/>
+      <c r="H35" s="336"/>
+      <c r="I35" s="336"/>
+      <c r="J35" s="336"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="334" t="s">
+      <c r="B36" s="247" t="s">
         <v>1283</v>
       </c>
-      <c r="C36" s="317" t="s">
+      <c r="C36" s="235" t="s">
         <v>1288</v>
       </c>
-      <c r="D36" s="317" t="s">
+      <c r="D36" s="235" t="s">
         <v>1265</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -23994,26 +24005,26 @@
       <c r="F36" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="G36" s="335" t="s">
+      <c r="G36" s="336" t="s">
         <v>1284</v>
       </c>
-      <c r="H36" s="335"/>
-      <c r="I36" s="335"/>
-      <c r="J36" s="335"/>
+      <c r="H36" s="336"/>
+      <c r="I36" s="336"/>
+      <c r="J36" s="336"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="324" t="s">
+      <c r="A37" s="334" t="s">
         <v>1281</v>
       </c>
-      <c r="B37" s="324"/>
-      <c r="C37" s="324"/>
-      <c r="D37" s="324"/>
-      <c r="E37" s="324"/>
-      <c r="F37" s="324"/>
-      <c r="G37" s="324"/>
-      <c r="H37" s="324"/>
-      <c r="I37" s="324"/>
-      <c r="J37" s="324"/>
+      <c r="B37" s="334"/>
+      <c r="C37" s="334"/>
+      <c r="D37" s="334"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="334"/>
+      <c r="G37" s="334"/>
+      <c r="H37" s="334"/>
+      <c r="I37" s="334"/>
+      <c r="J37" s="334"/>
       <c r="K37" t="s">
         <v>2</v>
       </c>
@@ -24025,27 +24036,27 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="334" t="s">
+      <c r="B38" s="247" t="s">
         <v>1335</v>
       </c>
-      <c r="C38" s="317" t="s">
+      <c r="C38" s="235" t="s">
         <v>1328</v>
       </c>
-      <c r="D38" s="315" t="s">
+      <c r="D38" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="315" t="s">
+      <c r="E38" s="233" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="G38" s="336" t="s">
+      <c r="G38" s="335" t="s">
         <v>1279</v>
       </c>
-      <c r="H38" s="335"/>
-      <c r="I38" s="335"/>
-      <c r="J38" s="335"/>
+      <c r="H38" s="336"/>
+      <c r="I38" s="336"/>
+      <c r="J38" s="336"/>
       <c r="K38" t="s">
         <v>2</v>
       </c>
@@ -24057,27 +24068,27 @@
       <c r="A39" s="3">
         <v>1</v>
       </c>
-      <c r="B39" s="328" t="s">
+      <c r="B39" s="244" t="s">
         <v>1278</v>
       </c>
-      <c r="C39" s="322" t="s">
+      <c r="C39" s="240" t="s">
         <v>1337</v>
       </c>
-      <c r="D39" s="315" t="s">
+      <c r="D39" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="318" t="s">
+      <c r="E39" s="236" t="s">
         <v>1309</v>
       </c>
-      <c r="F39" s="315" t="s">
+      <c r="F39" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="336" t="s">
+      <c r="G39" s="335" t="s">
         <v>1336</v>
       </c>
-      <c r="H39" s="335"/>
-      <c r="I39" s="335"/>
-      <c r="J39" s="335"/>
+      <c r="H39" s="336"/>
+      <c r="I39" s="336"/>
+      <c r="J39" s="336"/>
       <c r="K39" t="s">
         <v>2</v>
       </c>
@@ -24104,16 +24115,16 @@
       <c r="F40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="315" t="s">
+      <c r="G40" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="315" t="s">
+      <c r="H40" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="315" t="s">
+      <c r="I40" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="315" t="s">
+      <c r="J40" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K40" t="s">
@@ -24130,28 +24141,28 @@
       <c r="B41" t="s">
         <v>1254</v>
       </c>
-      <c r="C41" s="315" t="s">
+      <c r="C41" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="315" t="s">
+      <c r="D41" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="319" t="s">
+      <c r="E41" s="237" t="s">
         <v>1309</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="G41" s="315" t="s">
+      <c r="G41" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="315" t="s">
+      <c r="H41" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="315" t="s">
+      <c r="I41" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J41" s="315" t="s">
+      <c r="J41" s="233" t="s">
         <v>35</v>
       </c>
       <c r="K41" t="s">
@@ -24168,10 +24179,10 @@
       <c r="B42" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="C42" s="317" t="s">
+      <c r="C42" s="235" t="s">
         <v>1338</v>
       </c>
-      <c r="D42" s="315" t="s">
+      <c r="D42" s="233" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -24180,32 +24191,32 @@
       <c r="F42" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="G42" s="315" t="s">
+      <c r="G42" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="315" t="s">
+      <c r="H42" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="315" t="s">
+      <c r="I42" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="315" t="s">
+      <c r="J42" s="233" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="324" t="s">
+      <c r="A43" s="334" t="s">
         <v>1307</v>
       </c>
-      <c r="B43" s="324"/>
-      <c r="C43" s="324"/>
-      <c r="D43" s="324"/>
-      <c r="E43" s="324"/>
-      <c r="F43" s="324"/>
-      <c r="G43" s="324"/>
-      <c r="H43" s="324"/>
-      <c r="I43" s="324"/>
-      <c r="J43" s="324"/>
+      <c r="B43" s="334"/>
+      <c r="C43" s="334"/>
+      <c r="D43" s="334"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="334"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" t="s">
         <v>2</v>
       </c>
@@ -24217,27 +24228,27 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="329" t="s">
+      <c r="B44" s="245" t="s">
         <v>1301</v>
       </c>
-      <c r="C44" s="315" t="s">
+      <c r="C44" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="315" t="s">
+      <c r="D44" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="315" t="s">
+      <c r="E44" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="315" t="s">
+      <c r="F44" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="336" t="s">
+      <c r="G44" s="335" t="s">
         <v>1304</v>
       </c>
-      <c r="H44" s="335"/>
-      <c r="I44" s="335"/>
-      <c r="J44" s="335"/>
+      <c r="H44" s="336"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="336"/>
       <c r="K44" t="s">
         <v>2</v>
       </c>
@@ -24252,24 +24263,24 @@
       <c r="B45" t="s">
         <v>1302</v>
       </c>
-      <c r="C45" s="315" t="s">
+      <c r="C45" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="315" t="s">
+      <c r="D45" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="315" t="s">
+      <c r="E45" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="315" t="s">
+      <c r="F45" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="336" t="s">
+      <c r="G45" s="335" t="s">
         <v>1303</v>
       </c>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335"/>
+      <c r="H45" s="336"/>
+      <c r="I45" s="336"/>
+      <c r="J45" s="336"/>
       <c r="K45" t="s">
         <v>2</v>
       </c>
@@ -24281,27 +24292,27 @@
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="329" t="s">
+      <c r="B46" s="245" t="s">
         <v>1305</v>
       </c>
-      <c r="C46" s="315" t="s">
+      <c r="C46" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="315" t="s">
+      <c r="D46" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="315" t="s">
+      <c r="E46" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="315" t="s">
+      <c r="F46" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="336" t="s">
+      <c r="G46" s="335" t="s">
         <v>1306</v>
       </c>
-      <c r="H46" s="335"/>
-      <c r="I46" s="335"/>
-      <c r="J46" s="335"/>
+      <c r="H46" s="336"/>
+      <c r="I46" s="336"/>
+      <c r="J46" s="336"/>
       <c r="K46" t="s">
         <v>2</v>
       </c>
@@ -24578,6 +24589,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="A43:J43"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G44:J44"/>
@@ -24588,19 +24612,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB89EE4B-B907-44E0-8F95-248A679F2792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608B93F-2287-41F8-9732-0061381FDA97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="3240" windowHeight="1520" activeTab="2" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="3240" windowHeight="1520" activeTab="2" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -5934,10 +5934,47 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5945,6 +5982,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5955,47 +5998,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6009,10 +6043,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6021,22 +6109,31 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6051,88 +6148,22 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6144,8 +6175,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6153,28 +6199,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6189,17 +6253,29 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6207,94 +6283,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7783,13 +7783,13 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="377">
+      <c r="A1" s="281">
         <f ca="1">(TODAY()-DATE(2022, 11,14))</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="254">
         <f ca="1">(142+A1)*365/365</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -7813,24 +7813,24 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="296" t="s">
         <v>1341</v>
       </c>
-      <c r="B3" s="280"/>
+      <c r="B3" s="297"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="279" t="s">
+      <c r="G3" s="296" t="s">
         <v>1369</v>
       </c>
-      <c r="H3" s="280"/>
+      <c r="H3" s="297"/>
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="279" t="s">
+      <c r="J3" s="296" t="s">
         <v>1370</v>
       </c>
-      <c r="K3" s="280"/>
+      <c r="K3" s="297"/>
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -7845,10 +7845,10 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="279" t="s">
+      <c r="D4" s="296" t="s">
         <v>1428</v>
       </c>
-      <c r="E4" s="280"/>
+      <c r="E4" s="297"/>
       <c r="G4" s="250" t="s">
         <v>679</v>
       </c>
@@ -7869,24 +7869,24 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="301" t="s">
         <v>1342</v>
       </c>
-      <c r="B5" s="283"/>
+      <c r="B5" s="302"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="282" t="s">
+      <c r="G5" s="301" t="s">
         <v>857</v>
       </c>
-      <c r="H5" s="283"/>
+      <c r="H5" s="302"/>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="282" t="s">
+      <c r="J5" s="301" t="s">
         <v>857</v>
       </c>
-      <c r="K5" s="283"/>
+      <c r="K5" s="302"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -7969,31 +7969,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="378" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="378" t="s">
+    <row r="12" spans="1:36" s="282" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="282" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J14" s="396" t="s">
+      <c r="J14" s="303" t="s">
         <v>1453</v>
       </c>
-      <c r="K14" s="397"/>
+      <c r="K14" s="304"/>
       <c r="L14" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="394" t="s">
+      <c r="M14" s="290" t="s">
         <v>1454</v>
       </c>
-      <c r="N14" s="395"/>
+      <c r="N14" s="291"/>
       <c r="O14" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="399" t="s">
+      <c r="P14" s="288" t="s">
         <v>1462</v>
       </c>
-      <c r="Q14" s="400"/>
+      <c r="Q14" s="289"/>
       <c r="R14" t="s">
         <v>2</v>
       </c>
@@ -8041,17 +8041,17 @@
       <c r="R15" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="279" t="s">
+      <c r="S15" s="296" t="s">
         <v>251</v>
       </c>
-      <c r="T15" s="280"/>
+      <c r="T15" s="297"/>
       <c r="U15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="279" t="s">
+      <c r="V15" s="296" t="s">
         <v>254</v>
       </c>
-      <c r="W15" s="280"/>
+      <c r="W15" s="297"/>
       <c r="X15" s="15" t="s">
         <v>2</v>
       </c>
@@ -8108,31 +8108,31 @@
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="292" t="s">
+      <c r="J16" s="286" t="s">
         <v>250</v>
       </c>
-      <c r="K16" s="293"/>
+      <c r="K16" s="287"/>
       <c r="L16" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="292" t="s">
+      <c r="M16" s="286" t="s">
         <v>1455</v>
       </c>
-      <c r="N16" s="293"/>
+      <c r="N16" s="287"/>
       <c r="O16" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="277" t="s">
+      <c r="P16" s="292" t="s">
         <v>1456</v>
       </c>
-      <c r="Q16" s="278"/>
+      <c r="Q16" s="293"/>
       <c r="R16" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="277" t="s">
+      <c r="S16" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="278"/>
+      <c r="T16" s="293"/>
       <c r="U16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8166,10 +8166,10 @@
       <c r="AG16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH16" s="281" t="s">
+      <c r="AH16" s="300" t="s">
         <v>185</v>
       </c>
-      <c r="AI16" s="281"/>
+      <c r="AI16" s="300"/>
     </row>
     <row r="17" spans="1:35" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="138" t="s">
@@ -8197,7 +8197,7 @@
       <c r="O17" t="s">
         <v>2</v>
       </c>
-      <c r="P17" s="401" t="s">
+      <c r="P17" s="285" t="s">
         <v>1461</v>
       </c>
       <c r="Q17" s="153" t="s">
@@ -8266,27 +8266,27 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="279" t="s">
+      <c r="J18" s="296" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="280"/>
+      <c r="K18" s="297"/>
       <c r="L18" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="279" t="s">
+      <c r="M18" s="296" t="s">
         <v>252</v>
       </c>
-      <c r="N18" s="280"/>
+      <c r="N18" s="297"/>
       <c r="O18" t="s">
         <v>2</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="277" t="s">
+      <c r="S18" s="292" t="s">
         <v>254</v>
       </c>
-      <c r="T18" s="278"/>
+      <c r="T18" s="293"/>
       <c r="U18" s="15" t="s">
         <v>2</v>
       </c>
@@ -8357,11 +8357,11 @@
       <c r="O19" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="279" t="str">
+      <c r="P19" s="296" t="str">
         <f>P16</f>
         <v>notifications</v>
       </c>
-      <c r="Q19" s="280"/>
+      <c r="Q19" s="297"/>
       <c r="R19" t="s">
         <v>2</v>
       </c>
@@ -8374,10 +8374,10 @@
       <c r="U19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V19" s="277" t="s">
+      <c r="V19" s="292" t="s">
         <v>190</v>
       </c>
-      <c r="W19" s="278"/>
+      <c r="W19" s="293"/>
       <c r="X19" s="15" t="s">
         <v>2</v>
       </c>
@@ -8412,10 +8412,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="128"/>
-      <c r="J20" s="284" t="s">
+      <c r="J20" s="294" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="285"/>
+      <c r="K20" s="295"/>
       <c r="L20" t="s">
         <v>2</v>
       </c>
@@ -8485,17 +8485,17 @@
       <c r="L21" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="284" t="s">
+      <c r="M21" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="285"/>
+      <c r="N21" s="295"/>
       <c r="O21" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="284" t="s">
+      <c r="P21" s="294" t="s">
         <v>1463</v>
       </c>
-      <c r="Q21" s="285"/>
+      <c r="Q21" s="295"/>
       <c r="R21" t="s">
         <v>2</v>
       </c>
@@ -8551,7 +8551,7 @@
       <c r="O22" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="398" t="s">
+      <c r="P22" s="284" t="s">
         <v>346</v>
       </c>
       <c r="Q22" s="104" t="s">
@@ -8661,17 +8661,17 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="279" t="s">
+      <c r="A28" s="296" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="280"/>
+      <c r="B28" s="297"/>
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="279" t="s">
+      <c r="D28" s="296" t="s">
         <v>409</v>
       </c>
-      <c r="E28" s="280"/>
+      <c r="E28" s="297"/>
       <c r="F28" t="s">
         <v>2</v>
       </c>
@@ -8680,17 +8680,17 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A29" s="277" t="s">
+      <c r="A29" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="278"/>
+      <c r="B29" s="293"/>
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="277" t="s">
+      <c r="D29" s="292" t="s">
         <v>196</v>
       </c>
-      <c r="E29" s="278"/>
+      <c r="E29" s="293"/>
       <c r="F29" t="s">
         <v>2</v>
       </c>
@@ -8785,26 +8785,26 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="286" t="s">
+      <c r="A34" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="287"/>
+      <c r="B34" s="299"/>
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="277" t="s">
+      <c r="D34" s="292" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="278"/>
+      <c r="E34" s="293"/>
       <c r="F34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="278"/>
+      <c r="B35" s="293"/>
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8828,19 +8828,19 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="277" t="s">
+      <c r="D36" s="292" t="s">
         <v>206</v>
       </c>
-      <c r="E36" s="278"/>
+      <c r="E36" s="293"/>
       <c r="F36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="277" t="s">
+      <c r="A37" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="278"/>
+      <c r="B37" s="293"/>
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -8886,28 +8886,28 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D40" s="284" t="s">
+      <c r="D40" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="285"/>
+      <c r="E40" s="295"/>
       <c r="F40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D41" s="284" t="s">
+      <c r="D41" s="294" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="285"/>
+      <c r="E41" s="295"/>
       <c r="F41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D42" s="284" t="s">
+      <c r="D42" s="294" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="285"/>
+      <c r="E42" s="295"/>
       <c r="F42" t="s">
         <v>2</v>
       </c>
@@ -9017,23 +9017,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P21:Q21"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="J18:K18"/>
@@ -9048,12 +9037,23 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9084,7 +9084,7 @@
       <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="382">
+      <c r="A2" s="283">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -9095,117 +9095,117 @@
       <c r="A3" s="249">
         <v>2</v>
       </c>
-      <c r="B3" s="379" t="s">
+      <c r="B3" s="324" t="s">
         <v>996</v>
       </c>
-      <c r="C3" s="380" t="s">
+      <c r="C3" s="325" t="s">
         <v>741</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="372" t="s">
+      <c r="E3" s="305" t="s">
         <v>1429</v>
       </c>
-      <c r="F3" s="280"/>
+      <c r="F3" s="297"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="382">
+      <c r="A4" s="283">
         <v>3</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="277" t="s">
+      <c r="E4" s="292" t="s">
         <v>1436</v>
       </c>
-      <c r="F4" s="278"/>
-      <c r="H4" s="279" t="s">
+      <c r="F4" s="293"/>
+      <c r="H4" s="296" t="s">
         <v>1430</v>
       </c>
-      <c r="I4" s="280"/>
+      <c r="I4" s="297"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="249">
         <v>4</v>
       </c>
-      <c r="B5" s="372" t="s">
+      <c r="B5" s="305" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="280"/>
+      <c r="C5" s="297"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="277" t="s">
+      <c r="E5" s="292" t="s">
         <v>1434</v>
       </c>
-      <c r="F5" s="278"/>
-      <c r="H5" s="277" t="s">
+      <c r="F5" s="293"/>
+      <c r="H5" s="292" t="s">
         <v>1433</v>
       </c>
-      <c r="I5" s="278"/>
+      <c r="I5" s="293"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="382">
+      <c r="A6" s="283">
         <v>5</v>
       </c>
-      <c r="B6" s="381" t="s">
+      <c r="B6" s="307" t="s">
         <v>1429</v>
       </c>
-      <c r="C6" s="278"/>
+      <c r="C6" s="293"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="292" t="s">
+      <c r="E6" s="286" t="s">
         <v>1435</v>
       </c>
-      <c r="F6" s="293"/>
-      <c r="H6" s="284" t="s">
+      <c r="F6" s="287"/>
+      <c r="H6" s="294" t="s">
         <v>1431</v>
       </c>
-      <c r="I6" s="285"/>
+      <c r="I6" s="295"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="249">
         <v>6</v>
       </c>
-      <c r="B7" s="373" t="s">
+      <c r="B7" s="278" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="374" t="s">
+      <c r="C7" s="279" t="s">
         <v>1344</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="284" t="s">
+      <c r="H7" s="294" t="s">
         <v>1432</v>
       </c>
-      <c r="I7" s="285"/>
+      <c r="I7" s="295"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="382">
+      <c r="A8" s="283">
         <v>7</v>
       </c>
-      <c r="B8" s="373" t="s">
+      <c r="B8" s="278" t="s">
         <v>1425</v>
       </c>
-      <c r="C8" s="374" t="s">
+      <c r="C8" s="279" t="s">
         <v>1426</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="277" t="s">
+      <c r="H8" s="292" t="s">
         <v>1437</v>
       </c>
-      <c r="I8" s="278"/>
+      <c r="I8" s="293"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="249">
         <v>8</v>
       </c>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="280" t="s">
         <v>399</v>
       </c>
       <c r="C9" s="257" t="s">
@@ -9216,7 +9216,7 @@
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A10" s="382">
+      <c r="A10" s="283">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -9233,7 +9233,7 @@
       <c r="O11" s="43"/>
     </row>
     <row r="12" spans="1:64" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="382">
+      <c r="A12" s="283">
         <v>1</v>
       </c>
       <c r="B12" s="15"/>
@@ -9260,17 +9260,17 @@
       <c r="A13" s="249">
         <v>2</v>
       </c>
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="296" t="s">
         <v>1344</v>
       </c>
-      <c r="C13" s="280"/>
+      <c r="C13" s="297"/>
       <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="279" t="s">
+      <c r="E13" s="296" t="s">
         <v>1367</v>
       </c>
-      <c r="F13" s="280"/>
+      <c r="F13" s="297"/>
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="14" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="382">
+      <c r="A14" s="283">
         <v>3</v>
       </c>
       <c r="B14" s="191" t="s">
@@ -9318,20 +9318,20 @@
       <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="292" t="s">
+      <c r="E14" s="286" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="293"/>
+      <c r="F14" s="287"/>
       <c r="G14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="279" t="s">
+      <c r="K14" s="296" t="s">
         <v>261</v>
       </c>
-      <c r="L14" s="280"/>
+      <c r="L14" s="297"/>
       <c r="M14" s="15" t="s">
         <v>2</v>
       </c>
@@ -9370,34 +9370,34 @@
       <c r="J15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="284" t="s">
+      <c r="K15" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="285"/>
+      <c r="L15" s="295"/>
       <c r="M15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="279" t="s">
+      <c r="N15" s="296" t="s">
         <v>264</v>
       </c>
-      <c r="O15" s="280"/>
+      <c r="O15" s="297"/>
       <c r="P15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="279" t="s">
+      <c r="Q15" s="296" t="s">
         <v>161</v>
       </c>
-      <c r="R15" s="280"/>
+      <c r="R15" s="297"/>
       <c r="S15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="279" t="s">
+      <c r="Z15" s="296" t="s">
         <v>292</v>
       </c>
-      <c r="AA15" s="280"/>
+      <c r="AA15" s="297"/>
       <c r="AE15" s="40" t="s">
         <v>2</v>
       </c>
@@ -9409,7 +9409,7 @@
       </c>
     </row>
     <row r="16" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="382">
+      <c r="A16" s="283">
         <v>5</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -9454,10 +9454,10 @@
       <c r="S16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="279" t="s">
+      <c r="T16" s="296" t="s">
         <v>178</v>
       </c>
-      <c r="U16" s="280"/>
+      <c r="U16" s="297"/>
       <c r="V16" s="15" t="s">
         <v>2</v>
       </c>
@@ -9473,10 +9473,10 @@
       <c r="AB16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="279" t="s">
+      <c r="AC16" s="296" t="s">
         <v>295</v>
       </c>
-      <c r="AD16" s="280"/>
+      <c r="AD16" s="297"/>
       <c r="AE16" s="40" t="s">
         <v>2</v>
       </c>
@@ -9533,17 +9533,17 @@
       <c r="S17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="277" t="s">
+      <c r="T17" s="292" t="s">
         <v>163</v>
       </c>
-      <c r="U17" s="278"/>
+      <c r="U17" s="293"/>
       <c r="V17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="279" t="s">
+      <c r="W17" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="X17" s="280"/>
+      <c r="X17" s="297"/>
       <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
@@ -9565,10 +9565,10 @@
       <c r="AE17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF17" s="279" t="s">
+      <c r="AF17" s="296" t="s">
         <v>304</v>
       </c>
-      <c r="AG17" s="280"/>
+      <c r="AG17" s="297"/>
       <c r="AH17" s="15" t="s">
         <v>2</v>
       </c>
@@ -9577,7 +9577,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="382">
+      <c r="A18" s="283">
         <v>7</v>
       </c>
       <c r="B18" s="36" t="s">
@@ -9595,24 +9595,24 @@
       <c r="J18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="284" t="s">
+      <c r="K18" s="294" t="s">
         <v>274</v>
       </c>
-      <c r="L18" s="285"/>
+      <c r="L18" s="295"/>
       <c r="M18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="277" t="s">
+      <c r="N18" s="292" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="278"/>
+      <c r="O18" s="293"/>
       <c r="P18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="284" t="s">
+      <c r="Q18" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="R18" s="285"/>
+      <c r="R18" s="295"/>
       <c r="S18" s="15" t="s">
         <v>2</v>
       </c>
@@ -9634,17 +9634,17 @@
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="284" t="s">
+      <c r="Z18" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="AA18" s="285"/>
+      <c r="AA18" s="295"/>
       <c r="AB18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC18" s="277" t="s">
+      <c r="AC18" s="292" t="s">
         <v>163</v>
       </c>
-      <c r="AD18" s="278"/>
+      <c r="AD18" s="293"/>
       <c r="AE18" s="40" t="s">
         <v>2</v>
       </c>
@@ -9657,10 +9657,10 @@
       <c r="AH18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI18" s="279" t="s">
+      <c r="AI18" s="296" t="s">
         <v>329</v>
       </c>
-      <c r="AJ18" s="280"/>
+      <c r="AJ18" s="297"/>
       <c r="AK18" s="15" t="s">
         <v>2</v>
       </c>
@@ -9747,10 +9747,10 @@
       <c r="AE19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF19" s="277" t="s">
+      <c r="AF19" s="292" t="s">
         <v>409</v>
       </c>
-      <c r="AG19" s="278"/>
+      <c r="AG19" s="293"/>
       <c r="AH19" s="15" t="s">
         <v>2</v>
       </c>
@@ -9763,13 +9763,13 @@
       <c r="AK19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="279" t="s">
+      <c r="AL19" s="296" t="s">
         <v>163</v>
       </c>
-      <c r="AM19" s="280"/>
+      <c r="AM19" s="297"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" s="382">
+      <c r="A20" s="283">
         <v>9</v>
       </c>
       <c r="B20" s="111" t="s">
@@ -9823,11 +9823,11 @@
       <c r="V20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W20" s="277" t="str">
+      <c r="W20" s="292" t="str">
         <f>main!A28</f>
         <v>Dialog/DialogF.vue</v>
       </c>
-      <c r="X20" s="278"/>
+      <c r="X20" s="293"/>
       <c r="Y20" s="15" t="s">
         <v>2</v>
       </c>
@@ -9965,10 +9965,10 @@
       <c r="AH21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI21" s="277" t="s">
+      <c r="AI21" s="292" t="s">
         <v>163</v>
       </c>
-      <c r="AJ21" s="278"/>
+      <c r="AJ21" s="293"/>
       <c r="AK21" s="15" t="s">
         <v>2</v>
       </c>
@@ -9980,7 +9980,7 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="382">
+      <c r="A22" s="283">
         <v>11</v>
       </c>
       <c r="B22" s="263" t="s">
@@ -9998,10 +9998,10 @@
       <c r="J22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="284" t="s">
+      <c r="K22" s="294" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="285"/>
+      <c r="L22" s="295"/>
       <c r="M22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10023,10 +10023,10 @@
       <c r="S22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="284" t="s">
+      <c r="T22" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="U22" s="285"/>
+      <c r="U22" s="295"/>
       <c r="V22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10069,19 +10069,19 @@
       <c r="AK22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL22" s="277" t="s">
+      <c r="AL22" s="292" t="s">
         <v>170</v>
       </c>
-      <c r="AM22" s="278"/>
+      <c r="AM22" s="293"/>
     </row>
     <row r="23" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="249">
         <v>12</v>
       </c>
-      <c r="B23" s="288" t="s">
+      <c r="B23" s="322" t="s">
         <v>1360</v>
       </c>
-      <c r="C23" s="289"/>
+      <c r="C23" s="323"/>
       <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10100,10 +10100,10 @@
       <c r="M23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="284" t="s">
+      <c r="N23" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="O23" s="285"/>
+      <c r="O23" s="295"/>
       <c r="P23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10130,10 +10130,10 @@
       <c r="Y23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="298" t="s">
+      <c r="Z23" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="299"/>
+      <c r="AA23" s="315"/>
       <c r="AB23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10172,7 +10172,7 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="382">
+      <c r="A24" s="283">
         <v>13</v>
       </c>
       <c r="B24" s="216" t="s">
@@ -10190,10 +10190,10 @@
       <c r="J24" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="284" t="s">
+      <c r="K24" s="294" t="s">
         <v>276</v>
       </c>
-      <c r="L24" s="285"/>
+      <c r="L24" s="295"/>
       <c r="M24" s="15" t="s">
         <v>2</v>
       </c>
@@ -10206,10 +10206,10 @@
       <c r="P24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="298" t="s">
+      <c r="Q24" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="299"/>
+      <c r="R24" s="315"/>
       <c r="S24" s="15" t="s">
         <v>2</v>
       </c>
@@ -10320,31 +10320,31 @@
       <c r="S25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T25" s="277" t="s">
+      <c r="T25" s="292" t="s">
         <v>409</v>
       </c>
-      <c r="U25" s="278"/>
+      <c r="U25" s="293"/>
       <c r="V25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="284" t="s">
+      <c r="W25" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="X25" s="285"/>
+      <c r="X25" s="295"/>
       <c r="Y25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="300" t="s">
+      <c r="Z25" s="316" t="s">
         <v>295</v>
       </c>
-      <c r="AA25" s="301"/>
+      <c r="AA25" s="317"/>
       <c r="AB25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC25" s="277" t="s">
+      <c r="AC25" s="292" t="s">
         <v>304</v>
       </c>
-      <c r="AD25" s="278"/>
+      <c r="AD25" s="293"/>
       <c r="AE25" s="40" t="s">
         <v>2</v>
       </c>
@@ -10368,7 +10368,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="382">
+      <c r="A26" s="283">
         <v>15</v>
       </c>
       <c r="B26" s="216" t="s">
@@ -10386,24 +10386,24 @@
       <c r="J26" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="284" t="s">
+      <c r="K26" s="294" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="285"/>
+      <c r="L26" s="295"/>
       <c r="M26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="284" t="s">
+      <c r="N26" s="294" t="s">
         <v>267</v>
       </c>
-      <c r="O26" s="285"/>
+      <c r="O26" s="295"/>
       <c r="P26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="300" t="s">
+      <c r="Q26" s="316" t="s">
         <v>178</v>
       </c>
-      <c r="R26" s="301"/>
+      <c r="R26" s="317"/>
       <c r="S26" s="15" t="s">
         <v>2</v>
       </c>
@@ -10466,10 +10466,10 @@
       <c r="A27" s="249">
         <v>16</v>
       </c>
-      <c r="B27" s="292" t="s">
+      <c r="B27" s="286" t="s">
         <v>415</v>
       </c>
-      <c r="C27" s="293"/>
+      <c r="C27" s="287"/>
       <c r="D27" s="15" t="s">
         <v>2</v>
       </c>
@@ -10545,16 +10545,16 @@
       <c r="AH27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI27" s="284" t="s">
+      <c r="AI27" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="AJ27" s="285"/>
+      <c r="AJ27" s="295"/>
       <c r="AK27" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="382">
+      <c r="A28" s="283">
         <v>17</v>
       </c>
       <c r="B28" s="263" t="s">
@@ -10572,17 +10572,17 @@
       <c r="J28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="277" t="s">
+      <c r="K28" s="292" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="278"/>
+      <c r="L28" s="293"/>
       <c r="M28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="284" t="s">
+      <c r="N28" s="294" t="s">
         <v>272</v>
       </c>
-      <c r="O28" s="285"/>
+      <c r="O28" s="295"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10604,10 +10604,10 @@
       <c r="V28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="284" t="s">
+      <c r="W28" s="294" t="s">
         <v>225</v>
       </c>
-      <c r="X28" s="285"/>
+      <c r="X28" s="295"/>
       <c r="Y28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10623,10 +10623,10 @@
       <c r="AE28" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF28" s="298" t="s">
+      <c r="AF28" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="AG28" s="299"/>
+      <c r="AG28" s="315"/>
       <c r="AH28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10644,10 +10644,10 @@
       <c r="A29" s="249">
         <v>18</v>
       </c>
-      <c r="B29" s="288" t="s">
+      <c r="B29" s="322" t="s">
         <v>1362</v>
       </c>
-      <c r="C29" s="289"/>
+      <c r="C29" s="323"/>
       <c r="D29" s="15" t="s">
         <v>2</v>
       </c>
@@ -10699,10 +10699,10 @@
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC29" s="277" t="s">
+      <c r="AC29" s="292" t="s">
         <v>304</v>
       </c>
-      <c r="AD29" s="278"/>
+      <c r="AD29" s="293"/>
       <c r="AE29" s="40" t="s">
         <v>2</v>
       </c>
@@ -10726,7 +10726,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="382">
+      <c r="A30" s="283">
         <v>19</v>
       </c>
       <c r="B30" s="216" t="s">
@@ -10744,17 +10744,17 @@
       <c r="J30" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="277" t="s">
+      <c r="K30" s="292" t="s">
         <v>292</v>
       </c>
-      <c r="L30" s="278"/>
+      <c r="L30" s="293"/>
       <c r="M30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="284" t="s">
+      <c r="N30" s="294" t="s">
         <v>273</v>
       </c>
-      <c r="O30" s="285"/>
+      <c r="O30" s="295"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -10791,17 +10791,17 @@
       <c r="AE30" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF30" s="277" t="s">
+      <c r="AF30" s="292" t="s">
         <v>329</v>
       </c>
-      <c r="AG30" s="278"/>
+      <c r="AG30" s="293"/>
       <c r="AH30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI30" s="284" t="s">
+      <c r="AI30" s="294" t="s">
         <v>326</v>
       </c>
-      <c r="AJ30" s="285"/>
+      <c r="AJ30" s="295"/>
       <c r="AK30" s="15" t="s">
         <v>2</v>
       </c>
@@ -10853,10 +10853,10 @@
       <c r="V31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W31" s="284" t="s">
+      <c r="W31" s="294" t="s">
         <v>226</v>
       </c>
-      <c r="X31" s="285"/>
+      <c r="X31" s="295"/>
       <c r="Y31" s="15" t="s">
         <v>2</v>
       </c>
@@ -10892,7 +10892,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="382">
+      <c r="A32" s="283">
         <v>21</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -10904,10 +10904,10 @@
       <c r="J32" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="292" t="s">
+      <c r="K32" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="293"/>
+      <c r="L32" s="287"/>
       <c r="M32" s="15" t="s">
         <v>2</v>
       </c>
@@ -10956,10 +10956,10 @@
       <c r="AH32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI32" s="277" t="s">
+      <c r="AI32" s="292" t="s">
         <v>327</v>
       </c>
-      <c r="AJ32" s="278"/>
+      <c r="AJ32" s="293"/>
       <c r="AK32" s="15" t="s">
         <v>2</v>
       </c>
@@ -10989,20 +10989,20 @@
       <c r="V33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W33" s="284" t="s">
+      <c r="W33" s="294" t="s">
         <v>227</v>
       </c>
-      <c r="X33" s="285"/>
+      <c r="X33" s="295"/>
       <c r="Y33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC33" s="277" t="s">
+      <c r="AC33" s="292" t="s">
         <v>304</v>
       </c>
-      <c r="AD33" s="278"/>
+      <c r="AD33" s="293"/>
       <c r="AE33" s="40" t="s">
         <v>2</v>
       </c>
@@ -11020,7 +11020,7 @@
       </c>
     </row>
     <row r="34" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="382">
+      <c r="A34" s="283">
         <v>23</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -11032,10 +11032,10 @@
       <c r="J34" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="298" t="s">
+      <c r="K34" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="L34" s="299"/>
+      <c r="L34" s="315"/>
       <c r="M34" s="15" t="s">
         <v>2</v>
       </c>
@@ -11045,10 +11045,10 @@
       <c r="S34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="298" t="s">
+      <c r="T34" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="U34" s="299"/>
+      <c r="U34" s="315"/>
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
@@ -11146,16 +11146,16 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A36" s="382">
+      <c r="A36" s="283">
         <v>25</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="277" t="s">
+      <c r="K36" s="292" t="s">
         <v>265</v>
       </c>
-      <c r="L36" s="278"/>
+      <c r="L36" s="293"/>
       <c r="M36" s="15" t="s">
         <v>2</v>
       </c>
@@ -11165,11 +11165,11 @@
       <c r="S36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T36" s="277" t="str">
+      <c r="T36" s="292" t="str">
         <f>W17</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="U36" s="278"/>
+      <c r="U36" s="293"/>
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
@@ -11232,10 +11232,10 @@
       <c r="AB37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC37" s="277" t="s">
+      <c r="AC37" s="292" t="s">
         <v>304</v>
       </c>
-      <c r="AD37" s="278"/>
+      <c r="AD37" s="293"/>
       <c r="AE37" s="40" t="s">
         <v>2</v>
       </c>
@@ -11247,7 +11247,7 @@
       </c>
     </row>
     <row r="38" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="382">
+      <c r="A38" s="283">
         <v>27</v>
       </c>
       <c r="J38" s="31" t="s">
@@ -11348,22 +11348,22 @@
       <c r="AE41" s="40"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="372" t="s">
+      <c r="B42" s="305" t="s">
         <v>1426</v>
       </c>
-      <c r="C42" s="280"/>
-      <c r="E42" s="386" t="s">
+      <c r="C42" s="297"/>
+      <c r="E42" s="308" t="s">
         <v>1440</v>
       </c>
-      <c r="F42" s="388"/>
+      <c r="F42" s="309"/>
       <c r="J42" s="31"/>
       <c r="AE42" s="40"/>
     </row>
     <row r="43" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="389" t="s">
+      <c r="E43" s="310" t="s">
         <v>1439</v>
       </c>
-      <c r="F43" s="391"/>
+      <c r="F43" s="311"/>
       <c r="J43" s="31"/>
       <c r="AE43" s="40"/>
     </row>
@@ -11372,26 +11372,26 @@
       <c r="AE44" s="40"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E45" s="386" t="s">
+      <c r="E45" s="308" t="s">
         <v>1441</v>
       </c>
-      <c r="F45" s="388"/>
+      <c r="F45" s="309"/>
       <c r="J45" s="31"/>
       <c r="AE45" s="40"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E46" s="392" t="s">
+      <c r="E46" s="312" t="s">
         <v>1448</v>
       </c>
-      <c r="F46" s="393"/>
+      <c r="F46" s="313"/>
       <c r="J46" s="31"/>
       <c r="AE46" s="40"/>
     </row>
     <row r="47" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="389" t="s">
+      <c r="E47" s="310" t="s">
         <v>1449</v>
       </c>
-      <c r="F47" s="391"/>
+      <c r="F47" s="311"/>
       <c r="J47" s="31"/>
       <c r="AE47" s="40"/>
     </row>
@@ -11433,10 +11433,10 @@
       </c>
     </row>
     <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="372" t="s">
+      <c r="B52" s="305" t="s">
         <v>1427</v>
       </c>
-      <c r="C52" s="375"/>
+      <c r="C52" s="306"/>
       <c r="D52" s="15" t="s">
         <v>2</v>
       </c>
@@ -11458,10 +11458,10 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B53" s="284" t="s">
+      <c r="B53" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="285"/>
+      <c r="C53" s="295"/>
       <c r="D53" s="15" t="s">
         <v>2</v>
       </c>
@@ -11651,10 +11651,10 @@
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="279" t="s">
+      <c r="E64" s="296" t="s">
         <v>366</v>
       </c>
-      <c r="F64" s="280"/>
+      <c r="F64" s="297"/>
       <c r="G64" s="15" t="s">
         <v>2</v>
       </c>
@@ -11705,17 +11705,17 @@
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="277" t="s">
+      <c r="E66" s="292" t="s">
         <v>409</v>
       </c>
-      <c r="F66" s="278"/>
+      <c r="F66" s="293"/>
       <c r="G66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="284" t="s">
+      <c r="H66" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="I66" s="285"/>
+      <c r="I66" s="295"/>
       <c r="J66" s="15" t="s">
         <v>2</v>
       </c>
@@ -11730,10 +11730,10 @@
       <c r="D67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="284" t="s">
+      <c r="E67" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="F67" s="285"/>
+      <c r="F67" s="295"/>
       <c r="G67" s="15" t="s">
         <v>2</v>
       </c>
@@ -11777,10 +11777,10 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="295" t="s">
+      <c r="B69" s="320" t="s">
         <v>386</v>
       </c>
-      <c r="C69" s="296"/>
+      <c r="C69" s="321"/>
       <c r="D69" s="15" t="s">
         <v>2</v>
       </c>
@@ -11793,10 +11793,10 @@
       <c r="G69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="284" t="s">
+      <c r="H69" s="294" t="s">
         <v>267</v>
       </c>
-      <c r="I69" s="285"/>
+      <c r="I69" s="295"/>
       <c r="J69" s="15" t="s">
         <v>2</v>
       </c>
@@ -11900,10 +11900,10 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="295" t="s">
+      <c r="B74" s="320" t="s">
         <v>387</v>
       </c>
-      <c r="C74" s="296"/>
+      <c r="C74" s="321"/>
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
@@ -12007,10 +12007,10 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="295" t="s">
+      <c r="B79" s="320" t="s">
         <v>391</v>
       </c>
-      <c r="C79" s="296"/>
+      <c r="C79" s="321"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -12124,18 +12124,18 @@
     </row>
     <row r="94" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="82"/>
-      <c r="C94" s="294" t="s">
+      <c r="C94" s="318" t="s">
         <v>419</v>
       </c>
-      <c r="D94" s="294"/>
-      <c r="E94" s="294" t="s">
+      <c r="D94" s="318"/>
+      <c r="E94" s="318" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="294"/>
-      <c r="G94" s="294" t="s">
+      <c r="F94" s="318"/>
+      <c r="G94" s="318" t="s">
         <v>364</v>
       </c>
-      <c r="H94" s="297"/>
+      <c r="H94" s="319"/>
       <c r="J94" s="15" t="s">
         <v>2</v>
       </c>
@@ -12769,65 +12769,19 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="AL22:AM22"/>
     <mergeCell ref="AL19:AM19"/>
@@ -12844,22 +12798,68 @@
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -12873,7 +12873,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40:C40"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12930,10 +12930,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="347" t="s">
         <v>995</v>
       </c>
-      <c r="C3" s="291"/>
+      <c r="C3" s="348"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12958,10 +12958,10 @@
       <c r="AJ3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="279" t="s">
+      <c r="AL3" s="296" t="s">
         <v>1344</v>
       </c>
-      <c r="AM3" s="280"/>
+      <c r="AM3" s="297"/>
     </row>
     <row r="4" spans="1:39" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="70" t="s">
@@ -12980,10 +12980,10 @@
       <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="290" t="s">
+      <c r="H4" s="347" t="s">
         <v>1067</v>
       </c>
-      <c r="I4" s="291"/>
+      <c r="I4" s="348"/>
       <c r="J4" s="42" t="s">
         <v>2</v>
       </c>
@@ -13020,10 +13020,10 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="286" t="s">
         <v>996</v>
       </c>
-      <c r="C5" s="293" t="s">
+      <c r="C5" s="287" t="s">
         <v>741</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -13054,17 +13054,17 @@
       <c r="M5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="290" t="s">
+      <c r="N5" s="347" t="s">
         <v>950</v>
       </c>
-      <c r="O5" s="291"/>
+      <c r="O5" s="348"/>
       <c r="P5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="290" t="s">
+      <c r="Q5" s="347" t="s">
         <v>951</v>
       </c>
-      <c r="R5" s="291"/>
+      <c r="R5" s="348"/>
       <c r="V5" s="15" t="s">
         <v>2</v>
       </c>
@@ -13103,24 +13103,24 @@
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="284" t="s">
+      <c r="H6" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="285"/>
+      <c r="I6" s="295"/>
       <c r="J6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="284" t="s">
+      <c r="K6" s="294" t="s">
         <v>950</v>
       </c>
-      <c r="L6" s="285"/>
+      <c r="L6" s="295"/>
       <c r="M6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="277" t="s">
+      <c r="N6" s="292" t="s">
         <v>749</v>
       </c>
-      <c r="O6" s="278"/>
+      <c r="O6" s="293"/>
       <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
@@ -13183,10 +13183,10 @@
       <c r="J7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="284" t="s">
+      <c r="K7" s="294" t="s">
         <v>951</v>
       </c>
-      <c r="L7" s="285"/>
+      <c r="L7" s="295"/>
       <c r="M7" s="15" t="s">
         <v>2</v>
       </c>
@@ -13249,10 +13249,10 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="296" t="s">
         <v>1022</v>
       </c>
-      <c r="C8" s="280"/>
+      <c r="C8" s="297"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -13283,10 +13283,10 @@
       <c r="M8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="277" t="s">
+      <c r="N8" s="292" t="s">
         <v>749</v>
       </c>
-      <c r="O8" s="278"/>
+      <c r="O8" s="293"/>
       <c r="P8" s="15" t="s">
         <v>2</v>
       </c>
@@ -13480,17 +13480,17 @@
       <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="284" t="s">
+      <c r="Z10" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="AA10" s="285"/>
+      <c r="AA10" s="295"/>
       <c r="AB10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="281" t="s">
+      <c r="AC10" s="300" t="s">
         <v>185</v>
       </c>
-      <c r="AD10" s="281"/>
+      <c r="AD10" s="300"/>
       <c r="AE10" s="15" t="s">
         <v>2</v>
       </c>
@@ -13520,10 +13520,10 @@
       <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="284" t="s">
+      <c r="H11" s="294" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="285"/>
+      <c r="I11" s="295"/>
       <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
@@ -13668,10 +13668,10 @@
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="284" t="s">
+      <c r="H13" s="294" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="285"/>
+      <c r="I13" s="295"/>
       <c r="J13" s="42" t="s">
         <v>2</v>
       </c>
@@ -13721,10 +13721,10 @@
       <c r="AE13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL13" s="288" t="s">
+      <c r="AL13" s="322" t="s">
         <v>1360</v>
       </c>
-      <c r="AM13" s="289"/>
+      <c r="AM13" s="323"/>
     </row>
     <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="15" t="s">
@@ -13860,10 +13860,10 @@
       <c r="AB15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="281" t="s">
+      <c r="AC15" s="300" t="s">
         <v>185</v>
       </c>
-      <c r="AD15" s="281"/>
+      <c r="AD15" s="300"/>
       <c r="AE15" s="15" t="s">
         <v>2</v>
       </c>
@@ -13997,10 +13997,10 @@
       <c r="AE17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL17" s="292" t="s">
+      <c r="AL17" s="286" t="s">
         <v>415</v>
       </c>
-      <c r="AM17" s="293"/>
+      <c r="AM17" s="287"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="15" t="s">
@@ -14111,10 +14111,10 @@
       <c r="AE19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="288" t="s">
+      <c r="AL19" s="322" t="s">
         <v>1362</v>
       </c>
-      <c r="AM19" s="289"/>
+      <c r="AM19" s="323"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="15" t="s">
@@ -14235,10 +14235,10 @@
       <c r="G22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="277" t="s">
+      <c r="H22" s="292" t="s">
         <v>892</v>
       </c>
-      <c r="I22" s="278"/>
+      <c r="I22" s="293"/>
       <c r="J22" s="42" t="s">
         <v>2</v>
       </c>
@@ -14280,10 +14280,10 @@
       <c r="G23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="292" t="s">
+      <c r="H23" s="286" t="s">
         <v>893</v>
       </c>
-      <c r="I23" s="293"/>
+      <c r="I23" s="287"/>
       <c r="J23" s="42" t="s">
         <v>2</v>
       </c>
@@ -14403,10 +14403,10 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="347" t="s">
         <v>1020</v>
       </c>
-      <c r="C28" s="291"/>
+      <c r="C28" s="348"/>
       <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
@@ -14419,10 +14419,10 @@
       <c r="M28" s="204">
         <v>1</v>
       </c>
-      <c r="N28" s="290" t="s">
+      <c r="N28" s="347" t="s">
         <v>1042</v>
       </c>
-      <c r="O28" s="291"/>
+      <c r="O28" s="348"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -14472,27 +14472,27 @@
       <c r="P29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q29" s="279" t="s">
+      <c r="Q29" s="296" t="s">
         <v>461</v>
       </c>
-      <c r="R29" s="280"/>
+      <c r="R29" s="297"/>
       <c r="S29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="302" t="s">
+      <c r="T29" s="355" t="s">
         <v>1083</v>
       </c>
-      <c r="U29" s="303"/>
+      <c r="U29" s="356"/>
       <c r="V29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="279" t="s">
+      <c r="Z29" s="296" t="s">
         <v>467</v>
       </c>
-      <c r="AA29" s="280"/>
+      <c r="AA29" s="297"/>
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
@@ -14533,10 +14533,10 @@
       <c r="M30" s="204">
         <v>1</v>
       </c>
-      <c r="N30" s="284" t="s">
+      <c r="N30" s="294" t="s">
         <v>858</v>
       </c>
-      <c r="O30" s="285"/>
+      <c r="O30" s="295"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14558,10 +14558,10 @@
       <c r="V30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W30" s="329" t="s">
+      <c r="W30" s="332" t="s">
         <v>1071</v>
       </c>
-      <c r="X30" s="330"/>
+      <c r="X30" s="333"/>
       <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14574,10 +14574,10 @@
       <c r="AB30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC30" s="279" t="s">
+      <c r="AC30" s="296" t="s">
         <v>468</v>
       </c>
-      <c r="AD30" s="280"/>
+      <c r="AD30" s="297"/>
       <c r="AE30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14676,10 +14676,10 @@
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="314" t="s">
+      <c r="E32" s="351" t="s">
         <v>1049</v>
       </c>
-      <c r="F32" s="315"/>
+      <c r="F32" s="352"/>
       <c r="G32" s="15" t="s">
         <v>2</v>
       </c>
@@ -14728,10 +14728,10 @@
       <c r="V32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="331" t="s">
+      <c r="W32" s="336" t="s">
         <v>1155</v>
       </c>
-      <c r="X32" s="332"/>
+      <c r="X32" s="337"/>
       <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
@@ -14753,17 +14753,17 @@
       </c>
     </row>
     <row r="33" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="277" t="s">
+      <c r="B33" s="292" t="s">
         <v>994</v>
       </c>
-      <c r="C33" s="278"/>
+      <c r="C33" s="293"/>
       <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="295" t="s">
+      <c r="E33" s="320" t="s">
         <v>1050</v>
       </c>
-      <c r="F33" s="296"/>
+      <c r="F33" s="321"/>
       <c r="G33" s="15" t="s">
         <v>2</v>
       </c>
@@ -14900,10 +14900,10 @@
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="288" t="s">
+      <c r="W34" s="322" t="s">
         <v>1158</v>
       </c>
-      <c r="X34" s="289"/>
+      <c r="X34" s="323"/>
       <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
@@ -14963,10 +14963,10 @@
       <c r="M35" s="204">
         <v>1</v>
       </c>
-      <c r="N35" s="277" t="s">
+      <c r="N35" s="292" t="s">
         <v>461</v>
       </c>
-      <c r="O35" s="278"/>
+      <c r="O35" s="293"/>
       <c r="P35" s="15" t="s">
         <v>2</v>
       </c>
@@ -15006,19 +15006,19 @@
       <c r="AB35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="277" t="s">
+      <c r="AC35" s="292" t="s">
         <v>1145</v>
       </c>
-      <c r="AD35" s="278"/>
+      <c r="AD35" s="293"/>
       <c r="AE35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="349" t="s">
         <v>1046</v>
       </c>
-      <c r="C36" s="313"/>
+      <c r="C36" s="350"/>
       <c r="D36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15049,10 +15049,10 @@
       <c r="M36" s="204">
         <v>1</v>
       </c>
-      <c r="N36" s="284" t="s">
+      <c r="N36" s="294" t="s">
         <v>1083</v>
       </c>
-      <c r="O36" s="285"/>
+      <c r="O36" s="295"/>
       <c r="P36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15074,10 +15074,10 @@
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W36" s="316" t="s">
+      <c r="W36" s="326" t="s">
         <v>1159</v>
       </c>
-      <c r="X36" s="317"/>
+      <c r="X36" s="327"/>
       <c r="Y36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15097,17 +15097,17 @@
       </c>
     </row>
     <row r="37" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="277" t="s">
+      <c r="B37" s="292" t="s">
         <v>1028</v>
       </c>
-      <c r="C37" s="278"/>
+      <c r="C37" s="293"/>
       <c r="D37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="314" t="s">
+      <c r="E37" s="351" t="s">
         <v>1052</v>
       </c>
-      <c r="F37" s="315"/>
+      <c r="F37" s="352"/>
       <c r="G37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15129,10 +15129,10 @@
       <c r="M37" s="204">
         <v>1</v>
       </c>
-      <c r="N37" s="292" t="s">
+      <c r="N37" s="286" t="s">
         <v>467</v>
       </c>
-      <c r="O37" s="293"/>
+      <c r="O37" s="287"/>
       <c r="P37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15154,10 +15154,10 @@
       <c r="V37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W37" s="288" t="s">
+      <c r="W37" s="322" t="s">
         <v>1169</v>
       </c>
-      <c r="X37" s="289"/>
+      <c r="X37" s="323"/>
       <c r="Y37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15188,10 +15188,10 @@
       <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="295" t="s">
+      <c r="E38" s="320" t="s">
         <v>1053</v>
       </c>
-      <c r="F38" s="296"/>
+      <c r="F38" s="321"/>
       <c r="G38" s="15" t="s">
         <v>2</v>
       </c>
@@ -15234,10 +15234,10 @@
       <c r="V38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="288" t="s">
+      <c r="W38" s="322" t="s">
         <v>1162</v>
       </c>
-      <c r="X38" s="289"/>
+      <c r="X38" s="323"/>
       <c r="Y38" s="15" t="s">
         <v>2</v>
       </c>
@@ -15335,10 +15335,10 @@
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="312" t="s">
+      <c r="B40" s="349" t="s">
         <v>1045</v>
       </c>
-      <c r="C40" s="313"/>
+      <c r="C40" s="350"/>
       <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15369,10 +15369,10 @@
       <c r="S40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T40" s="288" t="s">
+      <c r="T40" s="322" t="s">
         <v>1086</v>
       </c>
-      <c r="U40" s="289"/>
+      <c r="U40" s="323"/>
       <c r="V40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15385,10 +15385,10 @@
       <c r="Y40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="288" t="s">
+      <c r="Z40" s="322" t="s">
         <v>1116</v>
       </c>
-      <c r="AA40" s="289"/>
+      <c r="AA40" s="323"/>
       <c r="AB40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15401,10 +15401,10 @@
       </c>
     </row>
     <row r="41" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="292" t="s">
         <v>617</v>
       </c>
-      <c r="C41" s="278"/>
+      <c r="C41" s="293"/>
       <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
@@ -15435,10 +15435,10 @@
       <c r="S41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="288" t="s">
+      <c r="T41" s="322" t="s">
         <v>1087</v>
       </c>
-      <c r="U41" s="289"/>
+      <c r="U41" s="323"/>
       <c r="V41" s="15" t="s">
         <v>2</v>
       </c>
@@ -15478,10 +15478,10 @@
       <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="286" t="s">
+      <c r="E42" s="298" t="s">
         <v>1054</v>
       </c>
-      <c r="F42" s="287"/>
+      <c r="F42" s="299"/>
       <c r="G42" s="15" t="s">
         <v>2</v>
       </c>
@@ -15505,10 +15505,10 @@
       <c r="S42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T42" s="304" t="s">
+      <c r="T42" s="338" t="s">
         <v>1146</v>
       </c>
-      <c r="U42" s="305"/>
+      <c r="U42" s="339"/>
       <c r="V42" s="15" t="s">
         <v>2</v>
       </c>
@@ -15540,10 +15540,10 @@
       <c r="D43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="323" t="s">
+      <c r="E43" s="340" t="s">
         <v>1055</v>
       </c>
-      <c r="F43" s="324"/>
+      <c r="F43" s="341"/>
       <c r="G43" s="15" t="s">
         <v>2</v>
       </c>
@@ -15565,10 +15565,10 @@
       <c r="S43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="306" t="s">
+      <c r="T43" s="357" t="s">
         <v>1089</v>
       </c>
-      <c r="U43" s="307"/>
+      <c r="U43" s="358"/>
       <c r="V43" s="15" t="s">
         <v>2</v>
       </c>
@@ -15677,10 +15677,10 @@
       <c r="S45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="304" t="s">
+      <c r="T45" s="338" t="s">
         <v>1090</v>
       </c>
-      <c r="U45" s="305"/>
+      <c r="U45" s="339"/>
       <c r="V45" s="15" t="s">
         <v>2</v>
       </c>
@@ -15733,10 +15733,10 @@
       <c r="S46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T46" s="325" t="s">
+      <c r="T46" s="342" t="s">
         <v>1088</v>
       </c>
-      <c r="U46" s="326"/>
+      <c r="U46" s="343"/>
       <c r="V46" s="15" t="s">
         <v>2</v>
       </c>
@@ -15781,10 +15781,10 @@
       <c r="S47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T47" s="304" t="s">
+      <c r="T47" s="338" t="s">
         <v>1123</v>
       </c>
-      <c r="U47" s="305"/>
+      <c r="U47" s="339"/>
       <c r="V47" s="15" t="s">
         <v>2</v>
       </c>
@@ -15844,10 +15844,10 @@
       <c r="M49" s="204">
         <v>1</v>
       </c>
-      <c r="Q49" s="295" t="s">
+      <c r="Q49" s="320" t="s">
         <v>940</v>
       </c>
-      <c r="R49" s="296"/>
+      <c r="R49" s="321"/>
       <c r="S49" s="15" t="s">
         <v>2</v>
       </c>
@@ -15868,10 +15868,10 @@
       <c r="M50" s="204">
         <v>1</v>
       </c>
-      <c r="Q50" s="295" t="s">
+      <c r="Q50" s="320" t="s">
         <v>1100</v>
       </c>
-      <c r="R50" s="296"/>
+      <c r="R50" s="321"/>
       <c r="S50" s="15" t="s">
         <v>2</v>
       </c>
@@ -15886,10 +15886,10 @@
       <c r="M51" s="204">
         <v>1</v>
       </c>
-      <c r="Q51" s="327" t="s">
+      <c r="Q51" s="330" t="s">
         <v>1104</v>
       </c>
-      <c r="R51" s="328"/>
+      <c r="R51" s="331"/>
       <c r="S51" s="15" t="s">
         <v>2</v>
       </c>
@@ -15904,10 +15904,10 @@
       <c r="M52" s="204">
         <v>1</v>
       </c>
-      <c r="Q52" s="327" t="s">
+      <c r="Q52" s="330" t="s">
         <v>1105</v>
       </c>
-      <c r="R52" s="328"/>
+      <c r="R52" s="331"/>
       <c r="S52" s="15" t="s">
         <v>2</v>
       </c>
@@ -16064,10 +16064,10 @@
       <c r="D59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="310" t="s">
+      <c r="E59" s="353" t="s">
         <v>529</v>
       </c>
-      <c r="F59" s="311"/>
+      <c r="F59" s="354"/>
       <c r="J59" s="15" t="s">
         <v>2</v>
       </c>
@@ -16076,10 +16076,10 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="277" t="s">
+      <c r="B60" s="292" t="s">
         <v>611</v>
       </c>
-      <c r="C60" s="278"/>
+      <c r="C60" s="293"/>
       <c r="D60" s="15" t="s">
         <v>2</v>
       </c>
@@ -16120,10 +16120,10 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="277" t="s">
+      <c r="B62" s="292" t="s">
         <v>612</v>
       </c>
-      <c r="C62" s="278"/>
+      <c r="C62" s="293"/>
       <c r="D62" s="15" t="s">
         <v>2</v>
       </c>
@@ -16140,10 +16140,10 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B64" s="277" t="s">
+      <c r="B64" s="292" t="s">
         <v>611</v>
       </c>
-      <c r="C64" s="278"/>
+      <c r="C64" s="293"/>
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
@@ -16163,10 +16163,10 @@
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B66" s="277" t="s">
+      <c r="B66" s="292" t="s">
         <v>611</v>
       </c>
-      <c r="C66" s="278"/>
+      <c r="C66" s="293"/>
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
@@ -16235,17 +16235,17 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="318" t="s">
+      <c r="B73" s="334" t="s">
         <v>472</v>
       </c>
-      <c r="C73" s="319"/>
+      <c r="C73" s="335"/>
       <c r="D73" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="279" t="s">
+      <c r="E73" s="296" t="s">
         <v>617</v>
       </c>
-      <c r="F73" s="280"/>
+      <c r="F73" s="297"/>
       <c r="G73" s="15" t="s">
         <v>2</v>
       </c>
@@ -16298,17 +16298,17 @@
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="308" t="s">
+      <c r="E74" s="328" t="s">
         <v>618</v>
       </c>
-      <c r="F74" s="309"/>
+      <c r="F74" s="329"/>
       <c r="G74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="279" t="s">
+      <c r="H74" s="296" t="s">
         <v>538</v>
       </c>
-      <c r="I74" s="280"/>
+      <c r="I74" s="297"/>
       <c r="J74" s="15" t="s">
         <v>2</v>
       </c>
@@ -16353,10 +16353,10 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="277" t="s">
+      <c r="B75" s="292" t="s">
         <v>450</v>
       </c>
-      <c r="C75" s="278"/>
+      <c r="C75" s="293"/>
       <c r="D75" s="15" t="s">
         <v>2</v>
       </c>
@@ -16369,17 +16369,17 @@
       <c r="G75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="308" t="s">
+      <c r="H75" s="328" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="309"/>
+      <c r="I75" s="329"/>
       <c r="J75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K75" s="279" t="s">
+      <c r="K75" s="296" t="s">
         <v>628</v>
       </c>
-      <c r="L75" s="280"/>
+      <c r="L75" s="297"/>
       <c r="M75" s="15" t="s">
         <v>2</v>
       </c>
@@ -16407,19 +16407,19 @@
       <c r="AK75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO75" s="284" t="s">
+      <c r="AO75" s="294" t="s">
         <v>422</v>
       </c>
-      <c r="AP75" s="285"/>
+      <c r="AP75" s="295"/>
       <c r="AQ75" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="316" t="s">
+      <c r="B76" s="326" t="s">
         <v>604</v>
       </c>
-      <c r="C76" s="317"/>
+      <c r="C76" s="327"/>
       <c r="D76" s="15" t="s">
         <v>2</v>
       </c>
@@ -16432,17 +16432,17 @@
       <c r="G76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="308" t="s">
+      <c r="H76" s="328" t="s">
         <v>425</v>
       </c>
-      <c r="I76" s="309"/>
+      <c r="I76" s="329"/>
       <c r="J76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K76" s="284" t="s">
+      <c r="K76" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="L76" s="285"/>
+      <c r="L76" s="295"/>
       <c r="M76" s="15" t="s">
         <v>2</v>
       </c>
@@ -16499,10 +16499,10 @@
       <c r="G77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="308" t="s">
+      <c r="H77" s="328" t="s">
         <v>424</v>
       </c>
-      <c r="I77" s="309"/>
+      <c r="I77" s="329"/>
       <c r="J77" s="15" t="s">
         <v>2</v>
       </c>
@@ -16515,10 +16515,10 @@
       <c r="M77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N77" s="279" t="s">
+      <c r="N77" s="296" t="s">
         <v>480</v>
       </c>
-      <c r="O77" s="280"/>
+      <c r="O77" s="297"/>
       <c r="P77" s="15" t="s">
         <v>2</v>
       </c>
@@ -16554,10 +16554,10 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="277" t="s">
+      <c r="B78" s="292" t="s">
         <v>454</v>
       </c>
-      <c r="C78" s="278"/>
+      <c r="C78" s="293"/>
       <c r="D78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16570,10 +16570,10 @@
       <c r="G78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="308" t="s">
+      <c r="H78" s="328" t="s">
         <v>629</v>
       </c>
-      <c r="I78" s="309"/>
+      <c r="I78" s="329"/>
       <c r="J78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16595,52 +16595,52 @@
       <c r="P78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="279" t="s">
+      <c r="Q78" s="296" t="s">
         <v>513</v>
       </c>
-      <c r="R78" s="280"/>
+      <c r="R78" s="297"/>
       <c r="S78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T78" s="279" t="s">
+      <c r="T78" s="296" t="s">
         <v>511</v>
       </c>
-      <c r="U78" s="280"/>
+      <c r="U78" s="297"/>
       <c r="V78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W78" s="279" t="s">
+      <c r="W78" s="296" t="s">
         <v>514</v>
       </c>
-      <c r="X78" s="280"/>
+      <c r="X78" s="297"/>
       <c r="Y78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z78" s="279" t="s">
+      <c r="Z78" s="296" t="s">
         <v>509</v>
       </c>
-      <c r="AA78" s="280"/>
+      <c r="AA78" s="297"/>
       <c r="AB78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC78" s="279" t="s">
+      <c r="AC78" s="296" t="s">
         <v>516</v>
       </c>
-      <c r="AD78" s="280"/>
+      <c r="AD78" s="297"/>
       <c r="AE78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AF78" s="279" t="s">
+      <c r="AF78" s="296" t="s">
         <v>522</v>
       </c>
-      <c r="AG78" s="280"/>
+      <c r="AG78" s="297"/>
       <c r="AH78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI78" s="279" t="s">
+      <c r="AI78" s="296" t="s">
         <v>524</v>
       </c>
-      <c r="AJ78" s="280"/>
+      <c r="AJ78" s="297"/>
       <c r="AK78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16649,10 +16649,10 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="316" t="s">
+      <c r="B79" s="326" t="s">
         <v>616</v>
       </c>
-      <c r="C79" s="317"/>
+      <c r="C79" s="327"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16665,10 +16665,10 @@
       <c r="G79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="308" t="s">
+      <c r="H79" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="I79" s="309"/>
+      <c r="I79" s="329"/>
       <c r="J79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16705,27 +16705,27 @@
       <c r="Y79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z79" s="308" t="s">
+      <c r="Z79" s="328" t="s">
         <v>231</v>
       </c>
-      <c r="AA79" s="309"/>
+      <c r="AA79" s="329"/>
       <c r="AB79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC79" s="308" t="s">
+      <c r="AC79" s="328" t="s">
         <v>518</v>
       </c>
-      <c r="AD79" s="309"/>
+      <c r="AD79" s="329"/>
       <c r="AE79" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI79" s="308" t="s">
+      <c r="AI79" s="328" t="s">
         <v>231</v>
       </c>
-      <c r="AJ79" s="309"/>
+      <c r="AJ79" s="329"/>
       <c r="AK79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16752,10 +16752,10 @@
       <c r="G80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="308" t="s">
+      <c r="H80" s="328" t="s">
         <v>630</v>
       </c>
-      <c r="I80" s="309"/>
+      <c r="I80" s="329"/>
       <c r="J80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16768,20 +16768,20 @@
       <c r="M80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N80" s="277" t="s">
+      <c r="N80" s="292" t="s">
         <v>486</v>
       </c>
-      <c r="O80" s="278"/>
+      <c r="O80" s="293"/>
       <c r="P80" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T80" s="277" t="s">
+      <c r="T80" s="292" t="s">
         <v>494</v>
       </c>
-      <c r="U80" s="278"/>
+      <c r="U80" s="293"/>
       <c r="V80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16797,10 +16797,10 @@
       <c r="AB80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC80" s="308" t="s">
+      <c r="AC80" s="328" t="s">
         <v>425</v>
       </c>
-      <c r="AD80" s="309"/>
+      <c r="AD80" s="329"/>
       <c r="AE80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16825,10 +16825,10 @@
       </c>
     </row>
     <row r="81" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="277" t="s">
+      <c r="B81" s="292" t="s">
         <v>449</v>
       </c>
-      <c r="C81" s="278"/>
+      <c r="C81" s="293"/>
       <c r="D81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16841,10 +16841,10 @@
       <c r="G81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="284" t="s">
+      <c r="H81" s="294" t="s">
         <v>170</v>
       </c>
-      <c r="I81" s="285"/>
+      <c r="I81" s="295"/>
       <c r="J81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16866,10 +16866,10 @@
       <c r="P81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="279" t="s">
+      <c r="Q81" s="296" t="s">
         <v>512</v>
       </c>
-      <c r="R81" s="280"/>
+      <c r="R81" s="297"/>
       <c r="S81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16920,10 +16920,10 @@
       </c>
     </row>
     <row r="82" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="316" t="s">
+      <c r="B82" s="326" t="s">
         <v>633</v>
       </c>
-      <c r="C82" s="317"/>
+      <c r="C82" s="327"/>
       <c r="D82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16942,10 +16942,10 @@
       <c r="M82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N82" s="277" t="s">
+      <c r="N82" s="292" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="278"/>
+      <c r="O82" s="293"/>
       <c r="P82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16986,10 +16986,10 @@
       <c r="AK82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO82" s="284" t="s">
+      <c r="AO82" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="AP82" s="285"/>
+      <c r="AP82" s="295"/>
       <c r="AQ82" s="15" t="s">
         <v>2</v>
       </c>
@@ -17007,17 +17007,17 @@
       <c r="G83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="277" t="s">
+      <c r="H83" s="292" t="s">
         <v>631</v>
       </c>
-      <c r="I83" s="278"/>
+      <c r="I83" s="293"/>
       <c r="J83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="318" t="s">
+      <c r="K83" s="334" t="s">
         <v>479</v>
       </c>
-      <c r="L83" s="319"/>
+      <c r="L83" s="335"/>
       <c r="M83" s="15" t="s">
         <v>2</v>
       </c>
@@ -17048,10 +17048,10 @@
       <c r="AB83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC83" s="320" t="s">
+      <c r="AC83" s="345" t="s">
         <v>479</v>
       </c>
-      <c r="AD83" s="321"/>
+      <c r="AD83" s="346"/>
       <c r="AE83" s="15" t="s">
         <v>2</v>
       </c>
@@ -17072,10 +17072,10 @@
       </c>
     </row>
     <row r="84" spans="2:46" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="277" t="s">
+      <c r="B84" s="292" t="s">
         <v>538</v>
       </c>
-      <c r="C84" s="278"/>
+      <c r="C84" s="293"/>
       <c r="D84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17100,10 +17100,10 @@
       <c r="M84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N84" s="277" t="s">
+      <c r="N84" s="292" t="s">
         <v>489</v>
       </c>
-      <c r="O84" s="278"/>
+      <c r="O84" s="293"/>
       <c r="P84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17116,10 +17116,10 @@
       <c r="S84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T84" s="279" t="s">
+      <c r="T84" s="296" t="s">
         <v>510</v>
       </c>
-      <c r="U84" s="280"/>
+      <c r="U84" s="297"/>
       <c r="V84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17167,10 +17167,10 @@
       <c r="J85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K85" s="277" t="s">
+      <c r="K85" s="292" t="s">
         <v>480</v>
       </c>
-      <c r="L85" s="278"/>
+      <c r="L85" s="293"/>
       <c r="M85" s="15" t="s">
         <v>2</v>
       </c>
@@ -17205,10 +17205,10 @@
       <c r="AB85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC85" s="318" t="s">
+      <c r="AC85" s="334" t="s">
         <v>479</v>
       </c>
-      <c r="AD85" s="319"/>
+      <c r="AD85" s="335"/>
       <c r="AE85" s="15" t="s">
         <v>2</v>
       </c>
@@ -17250,10 +17250,10 @@
       <c r="M86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="277" t="s">
+      <c r="N86" s="292" t="s">
         <v>514</v>
       </c>
-      <c r="O86" s="278"/>
+      <c r="O86" s="293"/>
       <c r="P86" s="15" t="s">
         <v>2</v>
       </c>
@@ -17420,10 +17420,10 @@
       <c r="M89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N89" s="277" t="s">
+      <c r="N89" s="292" t="s">
         <v>509</v>
       </c>
-      <c r="O89" s="278"/>
+      <c r="O89" s="293"/>
       <c r="P89" s="15" t="s">
         <v>2</v>
       </c>
@@ -17508,10 +17508,10 @@
       <c r="M92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="277" t="s">
+      <c r="N92" s="292" t="s">
         <v>516</v>
       </c>
-      <c r="O92" s="278"/>
+      <c r="O92" s="293"/>
       <c r="P92" s="15" t="s">
         <v>2</v>
       </c>
@@ -17570,10 +17570,10 @@
       <c r="M95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N95" s="277" t="s">
+      <c r="N95" s="292" t="s">
         <v>522</v>
       </c>
-      <c r="O95" s="278"/>
+      <c r="O95" s="293"/>
       <c r="P95" s="15" t="s">
         <v>2</v>
       </c>
@@ -17625,10 +17625,10 @@
       <c r="M98" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N98" s="277" t="s">
+      <c r="N98" s="292" t="s">
         <v>524</v>
       </c>
-      <c r="O98" s="278"/>
+      <c r="O98" s="293"/>
       <c r="P98" s="15" t="s">
         <v>2</v>
       </c>
@@ -17770,17 +17770,17 @@
       <c r="D105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="279" t="s">
+      <c r="E105" s="296" t="s">
         <v>591</v>
       </c>
-      <c r="F105" s="280"/>
+      <c r="F105" s="297"/>
       <c r="G105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="279" t="s">
+      <c r="H105" s="296" t="s">
         <v>592</v>
       </c>
-      <c r="I105" s="280"/>
+      <c r="I105" s="297"/>
       <c r="J105" s="15" t="s">
         <v>2</v>
       </c>
@@ -17801,10 +17801,10 @@
       <c r="D106" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="308" t="s">
+      <c r="E106" s="328" t="s">
         <v>593</v>
       </c>
-      <c r="F106" s="309"/>
+      <c r="F106" s="329"/>
       <c r="G106" s="15" t="s">
         <v>2</v>
       </c>
@@ -17847,10 +17847,10 @@
       <c r="G107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="308" t="s">
+      <c r="H107" s="328" t="s">
         <v>441</v>
       </c>
-      <c r="I107" s="309"/>
+      <c r="I107" s="329"/>
       <c r="J107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17863,10 +17863,10 @@
       <c r="M107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N107" s="279" t="s">
+      <c r="N107" s="296" t="s">
         <v>608</v>
       </c>
-      <c r="O107" s="280"/>
+      <c r="O107" s="297"/>
       <c r="P107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17892,10 +17892,10 @@
       <c r="G108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="308" t="s">
+      <c r="H108" s="328" t="s">
         <v>424</v>
       </c>
-      <c r="I108" s="309"/>
+      <c r="I108" s="329"/>
       <c r="J108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17908,10 +17908,10 @@
       <c r="M108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N108" s="308" t="s">
+      <c r="N108" s="328" t="s">
         <v>609</v>
       </c>
-      <c r="O108" s="309"/>
+      <c r="O108" s="329"/>
       <c r="P108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17929,10 +17929,10 @@
       <c r="G109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="308" t="s">
+      <c r="H109" s="328" t="s">
         <v>425</v>
       </c>
-      <c r="I109" s="309"/>
+      <c r="I109" s="329"/>
       <c r="J109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17943,10 +17943,10 @@
       <c r="M109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N109" s="308" t="s">
+      <c r="N109" s="328" t="s">
         <v>610</v>
       </c>
-      <c r="O109" s="309"/>
+      <c r="O109" s="329"/>
       <c r="P109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17964,17 +17964,17 @@
       <c r="G110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="308" t="s">
+      <c r="H110" s="328" t="s">
         <v>596</v>
       </c>
-      <c r="I110" s="309"/>
+      <c r="I110" s="329"/>
       <c r="J110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K110" s="277" t="s">
+      <c r="K110" s="292" t="s">
         <v>608</v>
       </c>
-      <c r="L110" s="278"/>
+      <c r="L110" s="293"/>
       <c r="M110" s="15" t="s">
         <v>2</v>
       </c>
@@ -17989,20 +17989,20 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="277" t="s">
+      <c r="B111" s="292" t="s">
         <v>591</v>
       </c>
-      <c r="C111" s="278"/>
+      <c r="C111" s="293"/>
       <c r="D111" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="308" t="s">
+      <c r="H111" s="328" t="s">
         <v>597</v>
       </c>
-      <c r="I111" s="309"/>
+      <c r="I111" s="329"/>
       <c r="J111" s="15" t="s">
         <v>2</v>
       </c>
@@ -18020,20 +18020,20 @@
       <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B112" s="316" t="s">
+      <c r="B112" s="326" t="s">
         <v>599</v>
       </c>
-      <c r="C112" s="317"/>
+      <c r="C112" s="327"/>
       <c r="D112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="284" t="s">
+      <c r="H112" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="I112" s="285"/>
+      <c r="I112" s="295"/>
       <c r="J112" s="15" t="s">
         <v>2</v>
       </c>
@@ -18074,10 +18074,10 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B114" s="277" t="s">
+      <c r="B114" s="292" t="s">
         <v>592</v>
       </c>
-      <c r="C114" s="278"/>
+      <c r="C114" s="293"/>
       <c r="D114" s="15" t="s">
         <v>2</v>
       </c>
@@ -18104,10 +18104,10 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B115" s="316" t="s">
+      <c r="B115" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="C115" s="317"/>
+      <c r="C115" s="327"/>
       <c r="D115" s="15" t="s">
         <v>2</v>
       </c>
@@ -18276,48 +18276,48 @@
       <c r="G123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K123" s="279" t="s">
+      <c r="K123" s="296" t="s">
         <v>541</v>
       </c>
-      <c r="L123" s="280"/>
+      <c r="L123" s="297"/>
       <c r="M123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N123" s="279" t="s">
+      <c r="N123" s="296" t="s">
         <v>548</v>
       </c>
-      <c r="O123" s="280"/>
+      <c r="O123" s="297"/>
       <c r="P123" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T123" s="279" t="s">
+      <c r="T123" s="296" t="s">
         <v>566</v>
       </c>
-      <c r="U123" s="280"/>
+      <c r="U123" s="297"/>
       <c r="V123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W123" s="279" t="s">
+      <c r="W123" s="296" t="s">
         <v>581</v>
       </c>
-      <c r="X123" s="280"/>
-      <c r="Z123" s="279" t="s">
+      <c r="X123" s="297"/>
+      <c r="Z123" s="296" t="s">
         <v>768</v>
       </c>
-      <c r="AA123" s="280"/>
-      <c r="AC123" s="279" t="s">
+      <c r="AA123" s="297"/>
+      <c r="AC123" s="296" t="s">
         <v>770</v>
       </c>
-      <c r="AD123" s="280"/>
+      <c r="AD123" s="297"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B124" s="277" t="s">
+      <c r="B124" s="292" t="s">
         <v>532</v>
       </c>
-      <c r="C124" s="278"/>
+      <c r="C124" s="293"/>
       <c r="D124" s="15" t="s">
         <v>2</v>
       </c>
@@ -18330,10 +18330,10 @@
       <c r="G124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="279" t="s">
+      <c r="H124" s="296" t="s">
         <v>542</v>
       </c>
-      <c r="I124" s="280"/>
+      <c r="I124" s="297"/>
       <c r="K124" s="92" t="s">
         <v>547</v>
       </c>
@@ -18348,17 +18348,17 @@
       <c r="P124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q124" s="279" t="s">
+      <c r="Q124" s="296" t="s">
         <v>587</v>
       </c>
-      <c r="R124" s="280"/>
+      <c r="R124" s="297"/>
       <c r="S124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T124" s="308" t="s">
+      <c r="T124" s="328" t="s">
         <v>571</v>
       </c>
-      <c r="U124" s="309"/>
+      <c r="U124" s="329"/>
       <c r="V124" s="15" t="s">
         <v>2</v>
       </c>
@@ -18371,10 +18371,10 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B125" s="322" t="s">
+      <c r="B125" s="344" t="s">
         <v>546</v>
       </c>
-      <c r="C125" s="322"/>
+      <c r="C125" s="344"/>
       <c r="D125" s="15" t="s">
         <v>2</v>
       </c>
@@ -18385,10 +18385,10 @@
       <c r="G125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="308" t="s">
+      <c r="H125" s="328" t="s">
         <v>545</v>
       </c>
-      <c r="I125" s="309"/>
+      <c r="I125" s="329"/>
       <c r="K125" s="112" t="s">
         <v>550</v>
       </c>
@@ -18396,27 +18396,27 @@
       <c r="M125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N125" s="308" t="s">
+      <c r="N125" s="328" t="s">
         <v>571</v>
       </c>
-      <c r="O125" s="309"/>
+      <c r="O125" s="329"/>
       <c r="P125" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T125" s="277" t="s">
+      <c r="T125" s="292" t="s">
         <v>549</v>
       </c>
-      <c r="U125" s="278"/>
+      <c r="U125" s="293"/>
       <c r="V125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W125" s="308" t="s">
+      <c r="W125" s="328" t="s">
         <v>583</v>
       </c>
-      <c r="X125" s="309"/>
+      <c r="X125" s="329"/>
       <c r="AC125" s="127" t="s">
         <v>773</v>
       </c>
@@ -18428,10 +18428,10 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B126" s="277" t="s">
+      <c r="B126" s="292" t="s">
         <v>541</v>
       </c>
-      <c r="C126" s="278"/>
+      <c r="C126" s="293"/>
       <c r="D126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18442,14 +18442,14 @@
       <c r="G126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="284" t="s">
+      <c r="H126" s="294" t="s">
         <v>589</v>
       </c>
-      <c r="I126" s="285"/>
-      <c r="K126" s="277" t="s">
+      <c r="I126" s="295"/>
+      <c r="K126" s="292" t="s">
         <v>549</v>
       </c>
-      <c r="L126" s="278"/>
+      <c r="L126" s="293"/>
       <c r="M126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18474,10 +18474,10 @@
       <c r="V126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W126" s="308" t="s">
+      <c r="W126" s="328" t="s">
         <v>584</v>
       </c>
-      <c r="X126" s="309"/>
+      <c r="X126" s="329"/>
       <c r="AE126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18514,10 +18514,10 @@
       <c r="M127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N127" s="277" t="s">
+      <c r="N127" s="292" t="s">
         <v>576</v>
       </c>
-      <c r="O127" s="278"/>
+      <c r="O127" s="293"/>
       <c r="P127" s="15" t="s">
         <v>2</v>
       </c>
@@ -18533,10 +18533,10 @@
       <c r="V127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W127" s="277" t="s">
+      <c r="W127" s="292" t="s">
         <v>549</v>
       </c>
-      <c r="X127" s="278"/>
+      <c r="X127" s="293"/>
       <c r="AE127" s="15" t="s">
         <v>2</v>
       </c>
@@ -18602,10 +18602,10 @@
       </c>
     </row>
     <row r="129" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B129" s="277" t="s">
+      <c r="B129" s="292" t="s">
         <v>548</v>
       </c>
-      <c r="C129" s="278"/>
+      <c r="C129" s="293"/>
       <c r="D129" s="15" t="s">
         <v>2</v>
       </c>
@@ -18715,10 +18715,10 @@
       <c r="M131" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N131" s="277" t="s">
+      <c r="N131" s="292" t="s">
         <v>587</v>
       </c>
-      <c r="O131" s="278"/>
+      <c r="O131" s="293"/>
       <c r="P131" s="15" t="s">
         <v>2</v>
       </c>
@@ -18766,10 +18766,10 @@
       </c>
     </row>
     <row r="133" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B133" s="277" t="s">
+      <c r="B133" s="292" t="s">
         <v>566</v>
       </c>
-      <c r="C133" s="278"/>
+      <c r="C133" s="293"/>
       <c r="D133" s="15" t="s">
         <v>2</v>
       </c>
@@ -18801,10 +18801,10 @@
       <c r="D134" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="308" t="s">
+      <c r="E134" s="328" t="s">
         <v>535</v>
       </c>
-      <c r="F134" s="309"/>
+      <c r="F134" s="329"/>
       <c r="G134" s="15" t="s">
         <v>2</v>
       </c>
@@ -18828,10 +18828,10 @@
       <c r="D135" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="308" t="s">
+      <c r="E135" s="328" t="s">
         <v>537</v>
       </c>
-      <c r="F135" s="309"/>
+      <c r="F135" s="329"/>
       <c r="G135" s="15" t="s">
         <v>2</v>
       </c>
@@ -18855,10 +18855,10 @@
       <c r="D136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="308" t="s">
+      <c r="E136" s="328" t="s">
         <v>425</v>
       </c>
-      <c r="F136" s="309"/>
+      <c r="F136" s="329"/>
       <c r="G136" s="15" t="s">
         <v>2</v>
       </c>
@@ -18873,10 +18873,10 @@
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B137" s="277" t="s">
+      <c r="B137" s="292" t="s">
         <v>581</v>
       </c>
-      <c r="C137" s="278"/>
+      <c r="C137" s="293"/>
       <c r="D137" s="15" t="s">
         <v>2</v>
       </c>
@@ -18909,10 +18909,10 @@
       <c r="D138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="277" t="s">
+      <c r="E138" s="292" t="s">
         <v>542</v>
       </c>
-      <c r="F138" s="278"/>
+      <c r="F138" s="293"/>
       <c r="G138" s="15" t="s">
         <v>2</v>
       </c>
@@ -18927,10 +18927,10 @@
       </c>
     </row>
     <row r="139" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="277" t="s">
+      <c r="B139" s="292" t="s">
         <v>768</v>
       </c>
-      <c r="C139" s="278"/>
+      <c r="C139" s="293"/>
       <c r="D139" s="15" t="s">
         <v>2</v>
       </c>
@@ -18977,10 +18977,10 @@
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B141" s="277" t="s">
+      <c r="B141" s="292" t="s">
         <v>770</v>
       </c>
-      <c r="C141" s="278"/>
+      <c r="C141" s="293"/>
       <c r="D141" s="15" t="s">
         <v>2</v>
       </c>
@@ -19047,6 +19047,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="Z123:AA123"/>
+    <mergeCell ref="AC123:AD123"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="AO75:AP75"/>
+    <mergeCell ref="AO82:AP82"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H83:I83"/>
     <mergeCell ref="AL13:AM13"/>
     <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="AL19:AM19"/>
@@ -19071,147 +19212,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="W125:X125"/>
-    <mergeCell ref="W126:X126"/>
-    <mergeCell ref="W127:X127"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="AO75:AP75"/>
-    <mergeCell ref="AO82:AP82"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="Z123:AA123"/>
-    <mergeCell ref="AC123:AD123"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -19287,21 +19287,21 @@
       <c r="M3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="279" t="s">
+      <c r="N3" s="296" t="s">
         <v>1373</v>
       </c>
-      <c r="O3" s="341"/>
-      <c r="P3" s="280"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="297"/>
       <c r="Q3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="U3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="370" t="s">
+      <c r="W3" s="364" t="s">
         <v>1423</v>
       </c>
-      <c r="X3" s="371"/>
+      <c r="X3" s="365"/>
       <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
@@ -19349,18 +19349,18 @@
       <c r="Q4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="279" t="s">
+      <c r="R4" s="296" t="s">
         <v>1403</v>
       </c>
-      <c r="S4" s="341"/>
-      <c r="T4" s="280"/>
+      <c r="S4" s="363"/>
+      <c r="T4" s="297"/>
       <c r="U4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="279" t="s">
+      <c r="W4" s="296" t="s">
         <v>838</v>
       </c>
-      <c r="X4" s="280"/>
+      <c r="X4" s="297"/>
       <c r="Y4" s="15" t="s">
         <v>2</v>
       </c>
@@ -19481,7 +19481,7 @@
       <c r="U6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="369" t="s">
+      <c r="W6" s="277" t="s">
         <v>1414</v>
       </c>
       <c r="X6" s="44" t="s">
@@ -19562,10 +19562,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="78"/>
-      <c r="G8" s="342" t="s">
+      <c r="G8" s="370" t="s">
         <v>829</v>
       </c>
-      <c r="H8" s="343"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="15" t="s">
         <v>2</v>
       </c>
@@ -19754,10 +19754,10 @@
       <c r="U11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="279" t="s">
+      <c r="W11" s="296" t="s">
         <v>852</v>
       </c>
-      <c r="X11" s="280"/>
+      <c r="X11" s="297"/>
       <c r="Y11" s="15" t="s">
         <v>2</v>
       </c>
@@ -19861,7 +19861,7 @@
       <c r="U13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W13" s="369" t="s">
+      <c r="W13" s="277" t="s">
         <v>1420</v>
       </c>
       <c r="X13" s="44" t="s">
@@ -19957,11 +19957,11 @@
       <c r="Q15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="386" t="s">
+      <c r="R15" s="308" t="s">
         <v>1442</v>
       </c>
-      <c r="S15" s="387"/>
-      <c r="T15" s="388"/>
+      <c r="S15" s="373"/>
+      <c r="T15" s="309"/>
       <c r="U15" s="42" t="s">
         <v>2</v>
       </c>
@@ -20001,16 +20001,16 @@
       <c r="Q16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="389" t="s">
+      <c r="R16" s="310" t="s">
         <v>1443</v>
       </c>
-      <c r="S16" s="390"/>
-      <c r="T16" s="391"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="311"/>
       <c r="U16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="383"/>
-      <c r="X16" s="383"/>
+      <c r="W16" s="367"/>
+      <c r="X16" s="367"/>
       <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
@@ -20028,11 +20028,11 @@
       <c r="E17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="384" t="s">
+      <c r="F17" s="366" t="s">
         <v>856</v>
       </c>
-      <c r="G17" s="384"/>
-      <c r="H17" s="384"/>
+      <c r="G17" s="366"/>
+      <c r="H17" s="366"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
@@ -20050,8 +20050,8 @@
       <c r="U17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="384"/>
-      <c r="X17" s="384"/>
+      <c r="W17" s="366"/>
+      <c r="X17" s="366"/>
       <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
@@ -20090,16 +20090,16 @@
       <c r="Q18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="386" t="s">
+      <c r="R18" s="308" t="s">
         <v>1445</v>
       </c>
-      <c r="S18" s="387"/>
-      <c r="T18" s="388"/>
+      <c r="S18" s="373"/>
+      <c r="T18" s="309"/>
       <c r="U18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="384"/>
-      <c r="X18" s="384"/>
+      <c r="W18" s="366"/>
+      <c r="X18" s="366"/>
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
@@ -20138,16 +20138,16 @@
       <c r="Q19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="392" t="s">
+      <c r="R19" s="312" t="s">
         <v>1446</v>
       </c>
-      <c r="S19" s="385"/>
-      <c r="T19" s="393"/>
+      <c r="S19" s="374"/>
+      <c r="T19" s="313"/>
       <c r="U19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="384"/>
-      <c r="X19" s="384"/>
+      <c r="W19" s="366"/>
+      <c r="X19" s="366"/>
       <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
@@ -20186,11 +20186,11 @@
       <c r="Q20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="392" t="s">
+      <c r="R20" s="312" t="s">
         <v>1444</v>
       </c>
-      <c r="S20" s="385"/>
-      <c r="T20" s="393"/>
+      <c r="S20" s="374"/>
+      <c r="T20" s="313"/>
       <c r="U20" s="42" t="s">
         <v>2</v>
       </c>
@@ -20232,11 +20232,11 @@
       <c r="Q21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="389" t="s">
+      <c r="R21" s="310" t="s">
         <v>1447</v>
       </c>
-      <c r="S21" s="390"/>
-      <c r="T21" s="391"/>
+      <c r="S21" s="362"/>
+      <c r="T21" s="311"/>
       <c r="U21" s="42" t="s">
         <v>2</v>
       </c>
@@ -20260,11 +20260,11 @@
       <c r="I22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="344" t="s">
+      <c r="J22" s="359" t="s">
         <v>1151</v>
       </c>
-      <c r="K22" s="345"/>
-      <c r="L22" s="346"/>
+      <c r="K22" s="360"/>
+      <c r="L22" s="361"/>
       <c r="M22" s="42" t="s">
         <v>2</v>
       </c>
@@ -20362,14 +20362,14 @@
       <c r="W24" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="X24" s="348" t="s">
+      <c r="X24" s="368" t="s">
         <v>637</v>
       </c>
-      <c r="Y24" s="348"/>
-      <c r="Z24" s="348" t="s">
+      <c r="Y24" s="368"/>
+      <c r="Z24" s="368" t="s">
         <v>638</v>
       </c>
-      <c r="AA24" s="348"/>
+      <c r="AA24" s="368"/>
     </row>
     <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="78">
@@ -20409,14 +20409,14 @@
       <c r="W25" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="X25" s="348" t="s">
+      <c r="X25" s="368" t="s">
         <v>640</v>
       </c>
-      <c r="Y25" s="348"/>
-      <c r="Z25" s="349" t="s">
+      <c r="Y25" s="368"/>
+      <c r="Z25" s="369" t="s">
         <v>641</v>
       </c>
-      <c r="AA25" s="349"/>
+      <c r="AA25" s="369"/>
     </row>
     <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="80">
@@ -20444,12 +20444,12 @@
       <c r="W26" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="X26" s="348" t="s">
+      <c r="X26" s="368" t="s">
         <v>642</v>
       </c>
-      <c r="Y26" s="348"/>
-      <c r="Z26" s="347"/>
-      <c r="AA26" s="347"/>
+      <c r="Y26" s="368"/>
+      <c r="Z26" s="372"/>
+      <c r="AA26" s="372"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="I27" s="15" t="s">
@@ -20467,28 +20467,28 @@
       <c r="W27" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="X27" s="347"/>
-      <c r="Y27" s="347"/>
-      <c r="Z27" s="348" t="s">
+      <c r="X27" s="372"/>
+      <c r="Y27" s="372"/>
+      <c r="Z27" s="368" t="s">
         <v>645</v>
       </c>
-      <c r="AA27" s="348"/>
+      <c r="AA27" s="368"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="J28" s="344" t="s">
+      <c r="J28" s="359" t="s">
         <v>1451</v>
       </c>
-      <c r="K28" s="345"/>
-      <c r="L28" s="346"/>
+      <c r="K28" s="360"/>
+      <c r="L28" s="361"/>
       <c r="M28" s="42"/>
       <c r="U28" s="42"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="389" t="s">
+      <c r="J29" s="310" t="s">
         <v>1452</v>
       </c>
-      <c r="K29" s="390"/>
-      <c r="L29" s="391"/>
+      <c r="K29" s="362"/>
+      <c r="L29" s="311"/>
       <c r="M29" s="42"/>
       <c r="U29" s="42"/>
     </row>
@@ -20823,6 +20823,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="N3:P3"/>
@@ -20835,22 +20850,7 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J22:L22"/>
     <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20911,7 +20911,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="375" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -20943,7 +20943,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="335"/>
+      <c r="A3" s="375"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -20992,7 +20992,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="334"/>
+      <c r="A4" s="376"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -21019,7 +21019,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="377" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -21047,7 +21047,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="334"/>
+      <c r="A6" s="376"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -21074,7 +21074,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="338" t="s">
+      <c r="A7" s="378" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -21106,7 +21106,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="339"/>
+      <c r="A8" s="379"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -21134,7 +21134,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="340"/>
+      <c r="A9" s="380"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -21163,7 +21163,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="333" t="s">
+      <c r="A10" s="377" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -21209,7 +21209,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="334"/>
+      <c r="A11" s="376"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -21236,7 +21236,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="335" t="s">
+      <c r="A12" s="375" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -21268,7 +21268,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="335"/>
+      <c r="A13" s="375"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -21288,7 +21288,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="335"/>
+      <c r="A14" s="375"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -21308,7 +21308,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="334"/>
+      <c r="A15" s="376"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -21362,10 +21362,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="333" t="s">
+      <c r="A17" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="336" t="s">
+      <c r="B17" s="381" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -21387,8 +21387,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="335"/>
-      <c r="B18" s="337"/>
+      <c r="A18" s="375"/>
+      <c r="B18" s="382"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -21408,8 +21408,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="335"/>
-      <c r="B19" s="334"/>
+      <c r="A19" s="375"/>
+      <c r="B19" s="376"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -21429,8 +21429,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="335"/>
-      <c r="B20" s="333" t="s">
+      <c r="A20" s="375"/>
+      <c r="B20" s="377" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -21452,8 +21452,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="335"/>
-      <c r="B21" s="335"/>
+      <c r="A21" s="375"/>
+      <c r="B21" s="375"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -21473,8 +21473,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="335"/>
-      <c r="B22" s="334"/>
+      <c r="A22" s="375"/>
+      <c r="B22" s="376"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -21494,8 +21494,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="335"/>
-      <c r="B23" s="333" t="s">
+      <c r="A23" s="375"/>
+      <c r="B23" s="377" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -21517,8 +21517,8 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="335"/>
-      <c r="B24" s="334"/>
+      <c r="A24" s="375"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -21550,8 +21550,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="335"/>
-      <c r="B25" s="333" t="s">
+      <c r="A25" s="375"/>
+      <c r="B25" s="377" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -21573,8 +21573,8 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="335"/>
-      <c r="B26" s="334"/>
+      <c r="A26" s="375"/>
+      <c r="B26" s="376"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -21594,7 +21594,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="335"/>
+      <c r="A27" s="375"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -21629,7 +21629,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="335"/>
+      <c r="A28" s="375"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -21664,7 +21664,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="335"/>
+      <c r="A29" s="375"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -21685,7 +21685,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="334"/>
+      <c r="A30" s="376"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -21706,7 +21706,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="335" t="s">
+      <c r="A31" s="375" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -21726,7 +21726,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="335"/>
+      <c r="A32" s="375"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -21746,7 +21746,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="335"/>
+      <c r="A33" s="375"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -21767,7 +21767,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="333" t="s">
+      <c r="A34" s="377" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -21789,7 +21789,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="334"/>
+      <c r="A35" s="376"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -21954,6 +21954,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -21961,11 +21966,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22019,52 +22019,52 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="296" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="280"/>
+      <c r="B3" s="297"/>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="279" t="s">
+      <c r="D3" s="296" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="280"/>
+      <c r="E3" s="297"/>
       <c r="F3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="279" t="s">
+      <c r="G3" s="296" t="s">
         <v>708</v>
       </c>
-      <c r="H3" s="280"/>
+      <c r="H3" s="297"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="279" t="s">
+      <c r="J3" s="296" t="s">
         <v>708</v>
       </c>
-      <c r="K3" s="280"/>
+      <c r="K3" s="297"/>
       <c r="L3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="279" t="s">
+      <c r="M3" s="296" t="s">
         <v>1196</v>
       </c>
-      <c r="N3" s="280"/>
+      <c r="N3" s="297"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="279" t="s">
+      <c r="P3" s="296" t="s">
         <v>912</v>
       </c>
-      <c r="Q3" s="280"/>
+      <c r="Q3" s="297"/>
       <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="279" t="s">
+      <c r="S3" s="296" t="s">
         <v>912</v>
       </c>
-      <c r="T3" s="280"/>
+      <c r="T3" s="297"/>
       <c r="U3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22106,10 +22106,10 @@
       <c r="L4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="356" t="s">
+      <c r="M4" s="383" t="s">
         <v>1186</v>
       </c>
-      <c r="N4" s="343"/>
+      <c r="N4" s="371"/>
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
@@ -22151,10 +22151,10 @@
       <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="295" t="s">
+      <c r="G5" s="320" t="s">
         <v>739</v>
       </c>
-      <c r="H5" s="296"/>
+      <c r="H5" s="321"/>
       <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
@@ -22167,17 +22167,17 @@
       <c r="L5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="356" t="s">
+      <c r="M5" s="383" t="s">
         <v>1195</v>
       </c>
-      <c r="N5" s="343"/>
+      <c r="N5" s="371"/>
       <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="308" t="s">
+      <c r="P5" s="328" t="s">
         <v>1185</v>
       </c>
-      <c r="Q5" s="309"/>
+      <c r="Q5" s="329"/>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
@@ -22210,10 +22210,10 @@
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="295" t="s">
+      <c r="G6" s="320" t="s">
         <v>738</v>
       </c>
-      <c r="H6" s="296"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
@@ -22231,10 +22231,10 @@
       <c r="O6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="329" t="s">
+      <c r="P6" s="332" t="s">
         <v>1188</v>
       </c>
-      <c r="Q6" s="330"/>
+      <c r="Q6" s="333"/>
       <c r="R6" s="15" t="s">
         <v>2</v>
       </c>
@@ -22267,10 +22267,10 @@
       <c r="F7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="360" t="s">
+      <c r="G7" s="386" t="s">
         <v>715</v>
       </c>
-      <c r="H7" s="361"/>
+      <c r="H7" s="387"/>
       <c r="I7" s="15" t="s">
         <v>2</v>
       </c>
@@ -22348,10 +22348,10 @@
       <c r="L8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="356" t="s">
+      <c r="M8" s="383" t="s">
         <v>1187</v>
       </c>
-      <c r="N8" s="343"/>
+      <c r="N8" s="371"/>
       <c r="O8" s="15" t="s">
         <v>2</v>
       </c>
@@ -22425,10 +22425,10 @@
       <c r="R9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="325" t="s">
+      <c r="S9" s="342" t="s">
         <v>1184</v>
       </c>
-      <c r="T9" s="326"/>
+      <c r="T9" s="343"/>
       <c r="U9" s="15" t="s">
         <v>2</v>
       </c>
@@ -22446,10 +22446,10 @@
       <c r="F10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="295" t="s">
+      <c r="G10" s="320" t="s">
         <v>693</v>
       </c>
-      <c r="H10" s="296"/>
+      <c r="H10" s="321"/>
       <c r="I10" s="15" t="s">
         <v>2</v>
       </c>
@@ -22471,10 +22471,10 @@
       <c r="O10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="329" t="s">
+      <c r="P10" s="332" t="s">
         <v>1189</v>
       </c>
-      <c r="Q10" s="330"/>
+      <c r="Q10" s="333"/>
       <c r="R10" s="15" t="s">
         <v>2</v>
       </c>
@@ -22496,10 +22496,10 @@
       <c r="F11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="295" t="s">
+      <c r="G11" s="320" t="s">
         <v>721</v>
       </c>
-      <c r="H11" s="296"/>
+      <c r="H11" s="321"/>
       <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
@@ -22546,10 +22546,10 @@
       <c r="F12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="320" t="s">
         <v>709</v>
       </c>
-      <c r="H12" s="296"/>
+      <c r="H12" s="321"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
@@ -22562,10 +22562,10 @@
       <c r="L12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="295" t="s">
+      <c r="M12" s="320" t="s">
         <v>929</v>
       </c>
-      <c r="N12" s="296"/>
+      <c r="N12" s="321"/>
       <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
@@ -22598,10 +22598,10 @@
       <c r="F13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="358" t="s">
+      <c r="G13" s="384" t="s">
         <v>714</v>
       </c>
-      <c r="H13" s="359"/>
+      <c r="H13" s="385"/>
       <c r="I13" s="15" t="s">
         <v>2</v>
       </c>
@@ -22614,10 +22614,10 @@
       <c r="L13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="295" t="s">
+      <c r="M13" s="320" t="s">
         <v>721</v>
       </c>
-      <c r="N13" s="296"/>
+      <c r="N13" s="321"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
@@ -22668,10 +22668,10 @@
       <c r="L14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="352" t="s">
+      <c r="M14" s="393" t="s">
         <v>714</v>
       </c>
-      <c r="N14" s="353"/>
+      <c r="N14" s="394"/>
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
@@ -22698,24 +22698,24 @@
       <c r="F15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="354" t="s">
+      <c r="G15" s="388" t="s">
         <v>711</v>
       </c>
-      <c r="H15" s="355"/>
+      <c r="H15" s="389"/>
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="295" t="s">
+      <c r="J15" s="320" t="s">
         <v>723</v>
       </c>
-      <c r="K15" s="296"/>
+      <c r="K15" s="321"/>
       <c r="L15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="325" t="s">
+      <c r="M15" s="342" t="s">
         <v>1180</v>
       </c>
-      <c r="N15" s="326"/>
+      <c r="N15" s="343"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -22742,24 +22742,24 @@
       <c r="F16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="388" t="s">
         <v>716</v>
       </c>
-      <c r="H16" s="355"/>
+      <c r="H16" s="389"/>
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="295" t="s">
+      <c r="J16" s="320" t="s">
         <v>731</v>
       </c>
-      <c r="K16" s="296"/>
+      <c r="K16" s="321"/>
       <c r="L16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="288" t="s">
+      <c r="M16" s="322" t="s">
         <v>713</v>
       </c>
-      <c r="N16" s="289"/>
+      <c r="N16" s="323"/>
       <c r="O16" s="15" t="s">
         <v>2</v>
       </c>
@@ -22786,24 +22786,24 @@
       <c r="F17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="357" t="s">
+      <c r="G17" s="390" t="s">
         <v>712</v>
       </c>
-      <c r="H17" s="351"/>
+      <c r="H17" s="391"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="295" t="s">
+      <c r="J17" s="320" t="s">
         <v>732</v>
       </c>
-      <c r="K17" s="296"/>
+      <c r="K17" s="321"/>
       <c r="L17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="354" t="s">
+      <c r="M17" s="388" t="s">
         <v>1199</v>
       </c>
-      <c r="N17" s="355"/>
+      <c r="N17" s="389"/>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
@@ -22833,17 +22833,17 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="295" t="s">
+      <c r="J18" s="320" t="s">
         <v>730</v>
       </c>
-      <c r="K18" s="296"/>
+      <c r="K18" s="321"/>
       <c r="L18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="354" t="s">
+      <c r="M18" s="388" t="s">
         <v>1200</v>
       </c>
-      <c r="N18" s="355"/>
+      <c r="N18" s="389"/>
       <c r="O18" s="15" t="s">
         <v>2</v>
       </c>
@@ -22879,10 +22879,10 @@
       <c r="L19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="350" t="s">
+      <c r="M19" s="392" t="s">
         <v>1197</v>
       </c>
-      <c r="N19" s="351"/>
+      <c r="N19" s="391"/>
       <c r="O19" s="15" t="s">
         <v>2</v>
       </c>
@@ -23043,10 +23043,10 @@
       <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="295" t="s">
+      <c r="P23" s="320" t="s">
         <v>675</v>
       </c>
-      <c r="Q23" s="296"/>
+      <c r="Q23" s="321"/>
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
@@ -23079,10 +23079,10 @@
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="320" t="s">
+      <c r="P24" s="345" t="s">
         <v>926</v>
       </c>
-      <c r="Q24" s="321"/>
+      <c r="Q24" s="346"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -23260,33 +23260,33 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="279" t="s">
+      <c r="A34" s="296" t="s">
         <v>1339</v>
       </c>
-      <c r="B34" s="280"/>
+      <c r="B34" s="297"/>
       <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="296" t="s">
         <v>1339</v>
       </c>
-      <c r="E34" s="280"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="279" t="s">
+      <c r="G34" s="296" t="s">
         <v>1339</v>
       </c>
-      <c r="H34" s="280"/>
+      <c r="H34" s="297"/>
       <c r="I34" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="356" t="s">
+      <c r="A35" s="383" t="s">
         <v>1186</v>
       </c>
-      <c r="B35" s="343"/>
+      <c r="B35" s="371"/>
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -23310,17 +23310,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="356" t="s">
+      <c r="A36" s="383" t="s">
         <v>1195</v>
       </c>
-      <c r="B36" s="343"/>
+      <c r="B36" s="371"/>
       <c r="C36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="308" t="s">
+      <c r="D36" s="328" t="s">
         <v>1185</v>
       </c>
-      <c r="E36" s="309"/>
+      <c r="E36" s="329"/>
       <c r="F36" s="15" t="s">
         <v>2</v>
       </c>
@@ -23342,10 +23342,10 @@
       <c r="C37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="329" t="s">
+      <c r="D37" s="332" t="s">
         <v>1188</v>
       </c>
-      <c r="E37" s="330"/>
+      <c r="E37" s="333"/>
       <c r="F37" s="15" t="s">
         <v>2</v>
       </c>
@@ -23389,10 +23389,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="356" t="s">
+      <c r="A39" s="383" t="s">
         <v>1187</v>
       </c>
-      <c r="B39" s="343"/>
+      <c r="B39" s="371"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -23430,10 +23430,10 @@
       <c r="F40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="325" t="s">
+      <c r="G40" s="342" t="s">
         <v>1184</v>
       </c>
-      <c r="H40" s="326"/>
+      <c r="H40" s="343"/>
       <c r="I40" s="15" t="s">
         <v>2</v>
       </c>
@@ -23448,10 +23448,10 @@
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="329" t="s">
+      <c r="D41" s="332" t="s">
         <v>1189</v>
       </c>
-      <c r="E41" s="330"/>
+      <c r="E41" s="333"/>
       <c r="F41" s="15" t="s">
         <v>2</v>
       </c>
@@ -23491,10 +23491,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="295" t="s">
+      <c r="A43" s="320" t="s">
         <v>929</v>
       </c>
-      <c r="B43" s="296"/>
+      <c r="B43" s="321"/>
       <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
@@ -23518,10 +23518,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="295" t="s">
+      <c r="A44" s="320" t="s">
         <v>721</v>
       </c>
-      <c r="B44" s="296"/>
+      <c r="B44" s="321"/>
       <c r="C44" s="15" t="s">
         <v>2</v>
       </c>
@@ -23545,10 +23545,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="352" t="s">
+      <c r="A45" s="393" t="s">
         <v>714</v>
       </c>
-      <c r="B45" s="353"/>
+      <c r="B45" s="394"/>
       <c r="C45" s="15" t="s">
         <v>2</v>
       </c>
@@ -23566,10 +23566,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="325" t="s">
+      <c r="A46" s="342" t="s">
         <v>1180</v>
       </c>
-      <c r="B46" s="326"/>
+      <c r="B46" s="343"/>
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -23587,10 +23587,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="288" t="s">
+      <c r="A47" s="322" t="s">
         <v>713</v>
       </c>
-      <c r="B47" s="289"/>
+      <c r="B47" s="323"/>
       <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
@@ -23605,10 +23605,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="354" t="s">
+      <c r="A48" s="388" t="s">
         <v>1199</v>
       </c>
-      <c r="B48" s="355"/>
+      <c r="B48" s="389"/>
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -23623,10 +23623,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="354" t="s">
+      <c r="A49" s="388" t="s">
         <v>1200</v>
       </c>
-      <c r="B49" s="355"/>
+      <c r="B49" s="389"/>
       <c r="C49" s="15" t="s">
         <v>2</v>
       </c>
@@ -23641,10 +23641,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="350" t="s">
+      <c r="A50" s="392" t="s">
         <v>1197</v>
       </c>
-      <c r="B50" s="351"/>
+      <c r="B50" s="391"/>
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -23721,10 +23721,10 @@
       <c r="C54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="295" t="s">
+      <c r="D54" s="320" t="s">
         <v>675</v>
       </c>
-      <c r="E54" s="296"/>
+      <c r="E54" s="321"/>
       <c r="F54" s="15" t="s">
         <v>2</v>
       </c>
@@ -23742,10 +23742,10 @@
       <c r="C55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="320" t="s">
+      <c r="D55" s="345" t="s">
         <v>926</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="15" t="s">
         <v>2</v>
       </c>
@@ -24465,6 +24465,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S3:T3"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P23:Q23"/>
@@ -24481,48 +24523,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24566,10 +24566,10 @@
       <c r="G1" s="236" t="s">
         <v>1225</v>
       </c>
-      <c r="H1" s="362" t="s">
+      <c r="H1" s="398" t="s">
         <v>1206</v>
       </c>
-      <c r="I1" s="362"/>
+      <c r="I1" s="398"/>
       <c r="J1" s="236" t="s">
         <v>1207</v>
       </c>
@@ -24865,10 +24865,10 @@
       <c r="G9" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="363" t="s">
+      <c r="H9" s="399" t="s">
         <v>1217</v>
       </c>
-      <c r="I9" s="363"/>
+      <c r="I9" s="399"/>
       <c r="J9" s="235" t="s">
         <v>35</v>
       </c>
@@ -25026,18 +25026,18 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="364" t="s">
+      <c r="A14" s="395" t="s">
         <v>1257</v>
       </c>
-      <c r="B14" s="364"/>
-      <c r="C14" s="364"/>
-      <c r="D14" s="364"/>
-      <c r="E14" s="364"/>
-      <c r="F14" s="364"/>
-      <c r="G14" s="364"/>
-      <c r="H14" s="364"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="364"/>
+      <c r="B14" s="395"/>
+      <c r="C14" s="395"/>
+      <c r="D14" s="395"/>
+      <c r="E14" s="395"/>
+      <c r="F14" s="395"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="395"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="395"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -25058,12 +25058,12 @@
       <c r="F15" s="232" t="s">
         <v>1221</v>
       </c>
-      <c r="G15" s="366" t="s">
+      <c r="G15" s="396" t="s">
         <v>1256</v>
       </c>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="367"/>
+      <c r="H15" s="397"/>
+      <c r="I15" s="397"/>
+      <c r="J15" s="397"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
@@ -25084,10 +25084,10 @@
       <c r="F16" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="G16" s="368"/>
-      <c r="H16" s="365"/>
-      <c r="I16" s="365"/>
-      <c r="J16" s="365"/>
+      <c r="G16" s="401"/>
+      <c r="H16" s="400"/>
+      <c r="I16" s="400"/>
+      <c r="J16" s="400"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -25108,12 +25108,12 @@
       <c r="F17" s="232" t="s">
         <v>1221</v>
       </c>
-      <c r="G17" s="366" t="s">
+      <c r="G17" s="396" t="s">
         <v>1260</v>
       </c>
-      <c r="H17" s="367"/>
-      <c r="I17" s="367"/>
-      <c r="J17" s="367"/>
+      <c r="H17" s="397"/>
+      <c r="I17" s="397"/>
+      <c r="J17" s="397"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
@@ -25134,10 +25134,10 @@
       <c r="F18" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="G18" s="368"/>
-      <c r="H18" s="365"/>
-      <c r="I18" s="365"/>
-      <c r="J18" s="365"/>
+      <c r="G18" s="401"/>
+      <c r="H18" s="400"/>
+      <c r="I18" s="400"/>
+      <c r="J18" s="400"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -25158,12 +25158,12 @@
       <c r="F19" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="G19" s="366" t="s">
+      <c r="G19" s="396" t="s">
         <v>1263</v>
       </c>
-      <c r="H19" s="367"/>
-      <c r="I19" s="367"/>
-      <c r="J19" s="367"/>
+      <c r="H19" s="397"/>
+      <c r="I19" s="397"/>
+      <c r="J19" s="397"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -25184,12 +25184,12 @@
       <c r="F20" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="366" t="s">
+      <c r="G20" s="396" t="s">
         <v>1292</v>
       </c>
-      <c r="H20" s="367"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="367"/>
+      <c r="H20" s="397"/>
+      <c r="I20" s="397"/>
+      <c r="J20" s="397"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -25210,26 +25210,26 @@
       <c r="F21" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="G21" s="366" t="s">
+      <c r="G21" s="396" t="s">
         <v>1265</v>
       </c>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="367"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+      <c r="J21" s="397"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="364" t="s">
+      <c r="A22" s="395" t="s">
         <v>1299</v>
       </c>
-      <c r="B22" s="364"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="364"/>
-      <c r="H22" s="364"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="B22" s="395"/>
+      <c r="C22" s="395"/>
+      <c r="D22" s="395"/>
+      <c r="E22" s="395"/>
+      <c r="F22" s="395"/>
+      <c r="G22" s="395"/>
+      <c r="H22" s="395"/>
+      <c r="I22" s="395"/>
+      <c r="J22" s="395"/>
       <c r="L22" t="s">
         <v>2</v>
       </c>
@@ -25387,18 +25387,18 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="364" t="s">
+      <c r="A27" s="395" t="s">
         <v>1300</v>
       </c>
-      <c r="B27" s="364"/>
-      <c r="C27" s="364"/>
-      <c r="D27" s="364"/>
-      <c r="E27" s="364"/>
-      <c r="F27" s="364"/>
-      <c r="G27" s="364"/>
-      <c r="H27" s="364"/>
-      <c r="I27" s="364"/>
-      <c r="J27" s="364"/>
+      <c r="B27" s="395"/>
+      <c r="C27" s="395"/>
+      <c r="D27" s="395"/>
+      <c r="E27" s="395"/>
+      <c r="F27" s="395"/>
+      <c r="G27" s="395"/>
+      <c r="H27" s="395"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -25591,30 +25591,30 @@
       <c r="B33" t="s">
         <v>1233</v>
       </c>
-      <c r="C33" s="365" t="s">
+      <c r="C33" s="400" t="s">
         <v>1243</v>
       </c>
-      <c r="D33" s="365"/>
-      <c r="E33" s="365"/>
-      <c r="F33" s="365"/>
-      <c r="G33" s="365"/>
-      <c r="H33" s="365"/>
-      <c r="I33" s="365"/>
-      <c r="J33" s="365"/>
+      <c r="D33" s="400"/>
+      <c r="E33" s="400"/>
+      <c r="F33" s="400"/>
+      <c r="G33" s="400"/>
+      <c r="H33" s="400"/>
+      <c r="I33" s="400"/>
+      <c r="J33" s="400"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="364" t="s">
+      <c r="A34" s="395" t="s">
         <v>1251</v>
       </c>
-      <c r="B34" s="364"/>
-      <c r="C34" s="364"/>
-      <c r="D34" s="364"/>
-      <c r="E34" s="364"/>
-      <c r="F34" s="364"/>
-      <c r="G34" s="364"/>
-      <c r="H34" s="364"/>
-      <c r="I34" s="364"/>
-      <c r="J34" s="364"/>
+      <c r="B34" s="395"/>
+      <c r="C34" s="395"/>
+      <c r="D34" s="395"/>
+      <c r="E34" s="395"/>
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -25635,12 +25635,12 @@
       <c r="F35" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="G35" s="367" t="s">
+      <c r="G35" s="397" t="s">
         <v>1253</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="367"/>
-      <c r="J35" s="367"/>
+      <c r="H35" s="397"/>
+      <c r="I35" s="397"/>
+      <c r="J35" s="397"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
@@ -25661,26 +25661,26 @@
       <c r="F36" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="G36" s="367" t="s">
+      <c r="G36" s="397" t="s">
         <v>1250</v>
       </c>
-      <c r="H36" s="367"/>
-      <c r="I36" s="367"/>
-      <c r="J36" s="367"/>
+      <c r="H36" s="397"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="397"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="364" t="s">
+      <c r="A37" s="395" t="s">
         <v>1247</v>
       </c>
-      <c r="B37" s="364"/>
-      <c r="C37" s="364"/>
-      <c r="D37" s="364"/>
-      <c r="E37" s="364"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="364"/>
-      <c r="H37" s="364"/>
-      <c r="I37" s="364"/>
-      <c r="J37" s="364"/>
+      <c r="B37" s="395"/>
+      <c r="C37" s="395"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="395"/>
+      <c r="F37" s="395"/>
+      <c r="G37" s="395"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="395"/>
+      <c r="J37" s="395"/>
       <c r="K37" t="s">
         <v>2</v>
       </c>
@@ -25707,12 +25707,12 @@
       <c r="F38" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="G38" s="366" t="s">
+      <c r="G38" s="396" t="s">
         <v>1245</v>
       </c>
-      <c r="H38" s="367"/>
-      <c r="I38" s="367"/>
-      <c r="J38" s="367"/>
+      <c r="H38" s="397"/>
+      <c r="I38" s="397"/>
+      <c r="J38" s="397"/>
       <c r="K38" t="s">
         <v>2</v>
       </c>
@@ -25739,12 +25739,12 @@
       <c r="F39" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="366" t="s">
+      <c r="G39" s="396" t="s">
         <v>1302</v>
       </c>
-      <c r="H39" s="367"/>
-      <c r="I39" s="367"/>
-      <c r="J39" s="367"/>
+      <c r="H39" s="397"/>
+      <c r="I39" s="397"/>
+      <c r="J39" s="397"/>
       <c r="K39" t="s">
         <v>2</v>
       </c>
@@ -25861,18 +25861,18 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="364" t="s">
+      <c r="A43" s="395" t="s">
         <v>1273</v>
       </c>
-      <c r="B43" s="364"/>
-      <c r="C43" s="364"/>
-      <c r="D43" s="364"/>
-      <c r="E43" s="364"/>
-      <c r="F43" s="364"/>
-      <c r="G43" s="364"/>
-      <c r="H43" s="364"/>
-      <c r="I43" s="364"/>
-      <c r="J43" s="364"/>
+      <c r="B43" s="395"/>
+      <c r="C43" s="395"/>
+      <c r="D43" s="395"/>
+      <c r="E43" s="395"/>
+      <c r="F43" s="395"/>
+      <c r="G43" s="395"/>
+      <c r="H43" s="395"/>
+      <c r="I43" s="395"/>
+      <c r="J43" s="395"/>
       <c r="K43" t="s">
         <v>2</v>
       </c>
@@ -25899,12 +25899,12 @@
       <c r="F44" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="366" t="s">
+      <c r="G44" s="396" t="s">
         <v>1270</v>
       </c>
-      <c r="H44" s="367"/>
-      <c r="I44" s="367"/>
-      <c r="J44" s="367"/>
+      <c r="H44" s="397"/>
+      <c r="I44" s="397"/>
+      <c r="J44" s="397"/>
       <c r="K44" t="s">
         <v>2</v>
       </c>
@@ -25931,12 +25931,12 @@
       <c r="F45" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="366" t="s">
+      <c r="G45" s="396" t="s">
         <v>1269</v>
       </c>
-      <c r="H45" s="367"/>
-      <c r="I45" s="367"/>
-      <c r="J45" s="367"/>
+      <c r="H45" s="397"/>
+      <c r="I45" s="397"/>
+      <c r="J45" s="397"/>
       <c r="K45" t="s">
         <v>2</v>
       </c>
@@ -25963,12 +25963,12 @@
       <c r="F46" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="366" t="s">
+      <c r="G46" s="396" t="s">
         <v>1272</v>
       </c>
-      <c r="H46" s="367"/>
-      <c r="I46" s="367"/>
-      <c r="J46" s="367"/>
+      <c r="H46" s="397"/>
+      <c r="I46" s="397"/>
+      <c r="J46" s="397"/>
       <c r="K46" t="s">
         <v>2</v>
       </c>
@@ -26245,16 +26245,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G35:J35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A22:J22"/>
@@ -26268,6 +26258,16 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608B93F-2287-41F8-9732-0061381FDA97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465BED1-D165-476A-877F-5EE618C6127C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="3240" windowHeight="1520" activeTab="2" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="3240" windowHeight="1030" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1464">
   <si>
     <t>theme.js</t>
   </si>
@@ -5124,18 +5124,6 @@
   </si>
   <si>
     <t>el-drawer v-model="modelValue"</t>
-  </si>
-  <si>
-    <t>непрочитанные стили</t>
-  </si>
-  <si>
-    <t>ckeditor.css</t>
-  </si>
-  <si>
-    <t>убрать крестик</t>
-  </si>
-  <si>
-    <t>171 карточка</t>
   </si>
 </sst>
 </file>
@@ -5947,6 +5935,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5965,43 +5992,34 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6031,40 +6049,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6073,10 +6109,37 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6091,79 +6154,34 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6175,53 +6193,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6232,13 +6226,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6253,43 +6262,22 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7776,8 +7764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAA53EB-B8CD-4FB9-B85F-A5C687C12A03}">
   <dimension ref="A1:AJ59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7785,11 +7773,11 @@
     <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="281">
         <f ca="1">(TODAY()-DATE(2022, 11,14))</f>
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="254">
         <f ca="1">(142+A1)*365/365</f>
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -7813,24 +7801,24 @@
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="288" t="s">
         <v>1341</v>
       </c>
-      <c r="B3" s="297"/>
+      <c r="B3" s="289"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="288" t="s">
         <v>1369</v>
       </c>
-      <c r="H3" s="297"/>
+      <c r="H3" s="289"/>
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="296" t="s">
+      <c r="J3" s="288" t="s">
         <v>1370</v>
       </c>
-      <c r="K3" s="297"/>
+      <c r="K3" s="289"/>
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -7845,10 +7833,10 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="296" t="s">
+      <c r="D4" s="288" t="s">
         <v>1428</v>
       </c>
-      <c r="E4" s="297"/>
+      <c r="E4" s="289"/>
       <c r="G4" s="250" t="s">
         <v>679</v>
       </c>
@@ -7869,24 +7857,24 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="293" t="s">
         <v>1342</v>
       </c>
-      <c r="B5" s="302"/>
+      <c r="B5" s="294"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="301" t="s">
+      <c r="G5" s="293" t="s">
         <v>857</v>
       </c>
-      <c r="H5" s="302"/>
+      <c r="H5" s="294"/>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="301" t="s">
+      <c r="J5" s="293" t="s">
         <v>857</v>
       </c>
-      <c r="K5" s="302"/>
+      <c r="K5" s="294"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -7976,24 +7964,24 @@
     </row>
     <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="295" t="s">
         <v>1453</v>
       </c>
-      <c r="K14" s="304"/>
+      <c r="K14" s="296"/>
       <c r="L14" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="290" t="s">
+      <c r="M14" s="303" t="s">
         <v>1454</v>
       </c>
-      <c r="N14" s="291"/>
+      <c r="N14" s="304"/>
       <c r="O14" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="288" t="s">
+      <c r="P14" s="301" t="s">
         <v>1462</v>
       </c>
-      <c r="Q14" s="289"/>
+      <c r="Q14" s="302"/>
       <c r="R14" t="s">
         <v>2</v>
       </c>
@@ -8041,17 +8029,17 @@
       <c r="R15" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="296" t="s">
+      <c r="S15" s="288" t="s">
         <v>251</v>
       </c>
-      <c r="T15" s="297"/>
+      <c r="T15" s="289"/>
       <c r="U15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V15" s="296" t="s">
+      <c r="V15" s="288" t="s">
         <v>254</v>
       </c>
-      <c r="W15" s="297"/>
+      <c r="W15" s="289"/>
       <c r="X15" s="15" t="s">
         <v>2</v>
       </c>
@@ -8108,31 +8096,31 @@
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="286" t="s">
+      <c r="J16" s="299" t="s">
         <v>250</v>
       </c>
-      <c r="K16" s="287"/>
+      <c r="K16" s="300"/>
       <c r="L16" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="286" t="s">
+      <c r="M16" s="299" t="s">
         <v>1455</v>
       </c>
-      <c r="N16" s="287"/>
+      <c r="N16" s="300"/>
       <c r="O16" t="s">
         <v>2</v>
       </c>
-      <c r="P16" s="292" t="s">
+      <c r="P16" s="290" t="s">
         <v>1456</v>
       </c>
-      <c r="Q16" s="293"/>
+      <c r="Q16" s="291"/>
       <c r="R16" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="292" t="s">
+      <c r="S16" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="293"/>
+      <c r="T16" s="291"/>
       <c r="U16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8166,10 +8154,10 @@
       <c r="AG16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH16" s="300" t="s">
+      <c r="AH16" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="AI16" s="300"/>
+      <c r="AI16" s="292"/>
     </row>
     <row r="17" spans="1:35" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="138" t="s">
@@ -8266,27 +8254,27 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="296" t="s">
+      <c r="J18" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="297"/>
+      <c r="K18" s="289"/>
       <c r="L18" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="296" t="s">
+      <c r="M18" s="288" t="s">
         <v>252</v>
       </c>
-      <c r="N18" s="297"/>
+      <c r="N18" s="289"/>
       <c r="O18" t="s">
         <v>2</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="292" t="s">
+      <c r="S18" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="T18" s="293"/>
+      <c r="T18" s="291"/>
       <c r="U18" s="15" t="s">
         <v>2</v>
       </c>
@@ -8357,11 +8345,11 @@
       <c r="O19" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="296" t="str">
+      <c r="P19" s="288" t="str">
         <f>P16</f>
         <v>notifications</v>
       </c>
-      <c r="Q19" s="297"/>
+      <c r="Q19" s="289"/>
       <c r="R19" t="s">
         <v>2</v>
       </c>
@@ -8374,10 +8362,10 @@
       <c r="U19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V19" s="292" t="s">
+      <c r="V19" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="W19" s="293"/>
+      <c r="W19" s="291"/>
       <c r="X19" s="15" t="s">
         <v>2</v>
       </c>
@@ -8412,10 +8400,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="128"/>
-      <c r="J20" s="294" t="s">
+      <c r="J20" s="286" t="s">
         <v>157</v>
       </c>
-      <c r="K20" s="295"/>
+      <c r="K20" s="287"/>
       <c r="L20" t="s">
         <v>2</v>
       </c>
@@ -8485,17 +8473,17 @@
       <c r="L21" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="294" t="s">
+      <c r="M21" s="286" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="295"/>
+      <c r="N21" s="287"/>
       <c r="O21" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="294" t="s">
+      <c r="P21" s="286" t="s">
         <v>1463</v>
       </c>
-      <c r="Q21" s="295"/>
+      <c r="Q21" s="287"/>
       <c r="R21" t="s">
         <v>2</v>
       </c>
@@ -8661,41 +8649,35 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="296" t="s">
+      <c r="A28" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="297"/>
+      <c r="B28" s="289"/>
       <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="296" t="s">
+      <c r="D28" s="288" t="s">
         <v>409</v>
       </c>
-      <c r="E28" s="297"/>
+      <c r="E28" s="289"/>
       <c r="F28" t="s">
         <v>2</v>
       </c>
-      <c r="J28" t="s">
-        <v>1464</v>
-      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A29" s="292" t="s">
+      <c r="A29" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="293"/>
+      <c r="B29" s="291"/>
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="292" t="s">
+      <c r="D29" s="290" t="s">
         <v>196</v>
       </c>
-      <c r="E29" s="293"/>
+      <c r="E29" s="291"/>
       <c r="F29" t="s">
         <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
@@ -8717,9 +8699,6 @@
       <c r="F30" t="s">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>1466</v>
-      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
@@ -8740,9 +8719,6 @@
       <c r="F31" t="s">
         <v>2</v>
       </c>
-      <c r="J31" t="s">
-        <v>1467</v>
-      </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
@@ -8785,26 +8761,26 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="298" t="s">
+      <c r="A34" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="299"/>
+      <c r="B34" s="298"/>
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="292" t="s">
+      <c r="D34" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="293"/>
+      <c r="E34" s="291"/>
       <c r="F34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="292" t="s">
+      <c r="A35" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="293"/>
+      <c r="B35" s="291"/>
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -8828,19 +8804,19 @@
       <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="292" t="s">
+      <c r="D36" s="290" t="s">
         <v>206</v>
       </c>
-      <c r="E36" s="293"/>
+      <c r="E36" s="291"/>
       <c r="F36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="292" t="s">
+      <c r="A37" s="290" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="293"/>
+      <c r="B37" s="291"/>
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -8886,28 +8862,28 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D40" s="294" t="s">
+      <c r="D40" s="286" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="295"/>
+      <c r="E40" s="287"/>
       <c r="F40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D41" s="294" t="s">
+      <c r="D41" s="286" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="295"/>
+      <c r="E41" s="287"/>
       <c r="F41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D42" s="294" t="s">
+      <c r="D42" s="286" t="s">
         <v>218</v>
       </c>
-      <c r="E42" s="295"/>
+      <c r="E42" s="287"/>
       <c r="F42" t="s">
         <v>2</v>
       </c>
@@ -9017,12 +8993,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="J18:K18"/>
@@ -9037,23 +9022,14 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P21:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9066,7 +9042,7 @@
   <dimension ref="A1:BL203"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9095,19 +9071,19 @@
       <c r="A3" s="249">
         <v>2</v>
       </c>
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="305" t="s">
         <v>996</v>
       </c>
-      <c r="C3" s="325" t="s">
+      <c r="C3" s="306" t="s">
         <v>741</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="305" t="s">
+      <c r="E3" s="315" t="s">
         <v>1429</v>
       </c>
-      <c r="F3" s="297"/>
+      <c r="F3" s="289"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="283">
@@ -9116,54 +9092,54 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="292" t="s">
+      <c r="E4" s="290" t="s">
         <v>1436</v>
       </c>
-      <c r="F4" s="293"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="291"/>
+      <c r="H4" s="288" t="s">
         <v>1430</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="289"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="249">
         <v>4</v>
       </c>
-      <c r="B5" s="305" t="s">
+      <c r="B5" s="315" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="297"/>
+      <c r="C5" s="289"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="292" t="s">
+      <c r="E5" s="290" t="s">
         <v>1434</v>
       </c>
-      <c r="F5" s="293"/>
-      <c r="H5" s="292" t="s">
+      <c r="F5" s="291"/>
+      <c r="H5" s="290" t="s">
         <v>1433</v>
       </c>
-      <c r="I5" s="293"/>
+      <c r="I5" s="291"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="283">
         <v>5</v>
       </c>
-      <c r="B6" s="307" t="s">
+      <c r="B6" s="317" t="s">
         <v>1429</v>
       </c>
-      <c r="C6" s="293"/>
+      <c r="C6" s="291"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="286" t="s">
+      <c r="E6" s="299" t="s">
         <v>1435</v>
       </c>
-      <c r="F6" s="287"/>
-      <c r="H6" s="294" t="s">
+      <c r="F6" s="300"/>
+      <c r="H6" s="286" t="s">
         <v>1431</v>
       </c>
-      <c r="I6" s="295"/>
+      <c r="I6" s="287"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="249">
@@ -9178,10 +9154,10 @@
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="294" t="s">
+      <c r="H7" s="286" t="s">
         <v>1432</v>
       </c>
-      <c r="I7" s="295"/>
+      <c r="I7" s="287"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="283">
@@ -9196,10 +9172,10 @@
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="292" t="s">
+      <c r="H8" s="290" t="s">
         <v>1437</v>
       </c>
-      <c r="I8" s="293"/>
+      <c r="I8" s="291"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="249">
@@ -9260,17 +9236,17 @@
       <c r="A13" s="249">
         <v>2</v>
       </c>
-      <c r="B13" s="296" t="s">
+      <c r="B13" s="288" t="s">
         <v>1344</v>
       </c>
-      <c r="C13" s="297"/>
+      <c r="C13" s="289"/>
       <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="296" t="s">
+      <c r="E13" s="288" t="s">
         <v>1367</v>
       </c>
-      <c r="F13" s="297"/>
+      <c r="F13" s="289"/>
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
@@ -9318,20 +9294,20 @@
       <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="286" t="s">
+      <c r="E14" s="299" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="287"/>
+      <c r="F14" s="300"/>
       <c r="G14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="296" t="s">
+      <c r="K14" s="288" t="s">
         <v>261</v>
       </c>
-      <c r="L14" s="297"/>
+      <c r="L14" s="289"/>
       <c r="M14" s="15" t="s">
         <v>2</v>
       </c>
@@ -9370,34 +9346,34 @@
       <c r="J15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="294" t="s">
+      <c r="K15" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="295"/>
+      <c r="L15" s="287"/>
       <c r="M15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="296" t="s">
+      <c r="N15" s="288" t="s">
         <v>264</v>
       </c>
-      <c r="O15" s="297"/>
+      <c r="O15" s="289"/>
       <c r="P15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="296" t="s">
+      <c r="Q15" s="288" t="s">
         <v>161</v>
       </c>
-      <c r="R15" s="297"/>
+      <c r="R15" s="289"/>
       <c r="S15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z15" s="296" t="s">
+      <c r="Z15" s="288" t="s">
         <v>292</v>
       </c>
-      <c r="AA15" s="297"/>
+      <c r="AA15" s="289"/>
       <c r="AE15" s="40" t="s">
         <v>2</v>
       </c>
@@ -9454,10 +9430,10 @@
       <c r="S16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="296" t="s">
+      <c r="T16" s="288" t="s">
         <v>178</v>
       </c>
-      <c r="U16" s="297"/>
+      <c r="U16" s="289"/>
       <c r="V16" s="15" t="s">
         <v>2</v>
       </c>
@@ -9473,10 +9449,10 @@
       <c r="AB16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="296" t="s">
+      <c r="AC16" s="288" t="s">
         <v>295</v>
       </c>
-      <c r="AD16" s="297"/>
+      <c r="AD16" s="289"/>
       <c r="AE16" s="40" t="s">
         <v>2</v>
       </c>
@@ -9533,17 +9509,17 @@
       <c r="S17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="292" t="s">
+      <c r="T17" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="U17" s="293"/>
+      <c r="U17" s="291"/>
       <c r="V17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="296" t="s">
+      <c r="W17" s="288" t="s">
         <v>192</v>
       </c>
-      <c r="X17" s="297"/>
+      <c r="X17" s="289"/>
       <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
@@ -9565,10 +9541,10 @@
       <c r="AE17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF17" s="296" t="s">
+      <c r="AF17" s="288" t="s">
         <v>304</v>
       </c>
-      <c r="AG17" s="297"/>
+      <c r="AG17" s="289"/>
       <c r="AH17" s="15" t="s">
         <v>2</v>
       </c>
@@ -9595,24 +9571,24 @@
       <c r="J18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="294" t="s">
+      <c r="K18" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="L18" s="295"/>
+      <c r="L18" s="287"/>
       <c r="M18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="292" t="s">
+      <c r="N18" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="293"/>
+      <c r="O18" s="291"/>
       <c r="P18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="294" t="s">
+      <c r="Q18" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="R18" s="295"/>
+      <c r="R18" s="287"/>
       <c r="S18" s="15" t="s">
         <v>2</v>
       </c>
@@ -9634,17 +9610,17 @@
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="294" t="s">
+      <c r="Z18" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="AA18" s="295"/>
+      <c r="AA18" s="287"/>
       <c r="AB18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC18" s="292" t="s">
+      <c r="AC18" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="AD18" s="293"/>
+      <c r="AD18" s="291"/>
       <c r="AE18" s="40" t="s">
         <v>2</v>
       </c>
@@ -9657,10 +9633,10 @@
       <c r="AH18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI18" s="296" t="s">
+      <c r="AI18" s="288" t="s">
         <v>329</v>
       </c>
-      <c r="AJ18" s="297"/>
+      <c r="AJ18" s="289"/>
       <c r="AK18" s="15" t="s">
         <v>2</v>
       </c>
@@ -9747,10 +9723,10 @@
       <c r="AE19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF19" s="292" t="s">
+      <c r="AF19" s="290" t="s">
         <v>409</v>
       </c>
-      <c r="AG19" s="293"/>
+      <c r="AG19" s="291"/>
       <c r="AH19" s="15" t="s">
         <v>2</v>
       </c>
@@ -9763,10 +9739,10 @@
       <c r="AK19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="296" t="s">
+      <c r="AL19" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="AM19" s="297"/>
+      <c r="AM19" s="289"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="283">
@@ -9823,11 +9799,11 @@
       <c r="V20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W20" s="292" t="str">
+      <c r="W20" s="290" t="str">
         <f>main!A28</f>
         <v>Dialog/DialogF.vue</v>
       </c>
-      <c r="X20" s="293"/>
+      <c r="X20" s="291"/>
       <c r="Y20" s="15" t="s">
         <v>2</v>
       </c>
@@ -9965,10 +9941,10 @@
       <c r="AH21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI21" s="292" t="s">
+      <c r="AI21" s="290" t="s">
         <v>163</v>
       </c>
-      <c r="AJ21" s="293"/>
+      <c r="AJ21" s="291"/>
       <c r="AK21" s="15" t="s">
         <v>2</v>
       </c>
@@ -9998,10 +9974,10 @@
       <c r="J22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="294" t="s">
+      <c r="K22" s="286" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="295"/>
+      <c r="L22" s="287"/>
       <c r="M22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10023,10 +9999,10 @@
       <c r="S22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="294" t="s">
+      <c r="T22" s="286" t="s">
         <v>185</v>
       </c>
-      <c r="U22" s="295"/>
+      <c r="U22" s="287"/>
       <c r="V22" s="15" t="s">
         <v>2</v>
       </c>
@@ -10069,19 +10045,19 @@
       <c r="AK22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL22" s="292" t="s">
+      <c r="AL22" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="AM22" s="293"/>
+      <c r="AM22" s="291"/>
     </row>
     <row r="23" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="249">
         <v>12</v>
       </c>
-      <c r="B23" s="322" t="s">
+      <c r="B23" s="324" t="s">
         <v>1360</v>
       </c>
-      <c r="C23" s="323"/>
+      <c r="C23" s="325"/>
       <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10100,10 +10076,10 @@
       <c r="M23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="294" t="s">
+      <c r="N23" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="O23" s="295"/>
+      <c r="O23" s="287"/>
       <c r="P23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10130,10 +10106,10 @@
       <c r="Y23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="314" t="s">
+      <c r="Z23" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="AA23" s="315"/>
+      <c r="AA23" s="312"/>
       <c r="AB23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10190,10 +10166,10 @@
       <c r="J24" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="294" t="s">
+      <c r="K24" s="286" t="s">
         <v>276</v>
       </c>
-      <c r="L24" s="295"/>
+      <c r="L24" s="287"/>
       <c r="M24" s="15" t="s">
         <v>2</v>
       </c>
@@ -10206,10 +10182,10 @@
       <c r="P24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="314" t="s">
+      <c r="Q24" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="R24" s="315"/>
+      <c r="R24" s="312"/>
       <c r="S24" s="15" t="s">
         <v>2</v>
       </c>
@@ -10320,31 +10296,31 @@
       <c r="S25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T25" s="292" t="s">
+      <c r="T25" s="290" t="s">
         <v>409</v>
       </c>
-      <c r="U25" s="293"/>
+      <c r="U25" s="291"/>
       <c r="V25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="294" t="s">
+      <c r="W25" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="X25" s="295"/>
+      <c r="X25" s="287"/>
       <c r="Y25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="316" t="s">
+      <c r="Z25" s="313" t="s">
         <v>295</v>
       </c>
-      <c r="AA25" s="317"/>
+      <c r="AA25" s="314"/>
       <c r="AB25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC25" s="292" t="s">
+      <c r="AC25" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="AD25" s="293"/>
+      <c r="AD25" s="291"/>
       <c r="AE25" s="40" t="s">
         <v>2</v>
       </c>
@@ -10386,24 +10362,24 @@
       <c r="J26" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="294" t="s">
+      <c r="K26" s="286" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="295"/>
+      <c r="L26" s="287"/>
       <c r="M26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="294" t="s">
+      <c r="N26" s="286" t="s">
         <v>267</v>
       </c>
-      <c r="O26" s="295"/>
+      <c r="O26" s="287"/>
       <c r="P26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="316" t="s">
+      <c r="Q26" s="313" t="s">
         <v>178</v>
       </c>
-      <c r="R26" s="317"/>
+      <c r="R26" s="314"/>
       <c r="S26" s="15" t="s">
         <v>2</v>
       </c>
@@ -10466,10 +10442,10 @@
       <c r="A27" s="249">
         <v>16</v>
       </c>
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="299" t="s">
         <v>415</v>
       </c>
-      <c r="C27" s="287"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="15" t="s">
         <v>2</v>
       </c>
@@ -10545,10 +10521,10 @@
       <c r="AH27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI27" s="294" t="s">
+      <c r="AI27" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="AJ27" s="295"/>
+      <c r="AJ27" s="287"/>
       <c r="AK27" s="15" t="s">
         <v>2</v>
       </c>
@@ -10572,17 +10548,17 @@
       <c r="J28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="292" t="s">
+      <c r="K28" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="L28" s="293"/>
+      <c r="L28" s="291"/>
       <c r="M28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="294" t="s">
+      <c r="N28" s="286" t="s">
         <v>272</v>
       </c>
-      <c r="O28" s="295"/>
+      <c r="O28" s="287"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10604,10 +10580,10 @@
       <c r="V28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="294" t="s">
+      <c r="W28" s="286" t="s">
         <v>225</v>
       </c>
-      <c r="X28" s="295"/>
+      <c r="X28" s="287"/>
       <c r="Y28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10623,10 +10599,10 @@
       <c r="AE28" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF28" s="314" t="s">
+      <c r="AF28" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="AG28" s="315"/>
+      <c r="AG28" s="312"/>
       <c r="AH28" s="15" t="s">
         <v>2</v>
       </c>
@@ -10644,10 +10620,10 @@
       <c r="A29" s="249">
         <v>18</v>
       </c>
-      <c r="B29" s="322" t="s">
+      <c r="B29" s="324" t="s">
         <v>1362</v>
       </c>
-      <c r="C29" s="323"/>
+      <c r="C29" s="325"/>
       <c r="D29" s="15" t="s">
         <v>2</v>
       </c>
@@ -10699,10 +10675,10 @@
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC29" s="292" t="s">
+      <c r="AC29" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="AD29" s="293"/>
+      <c r="AD29" s="291"/>
       <c r="AE29" s="40" t="s">
         <v>2</v>
       </c>
@@ -10744,17 +10720,17 @@
       <c r="J30" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="292" t="s">
+      <c r="K30" s="290" t="s">
         <v>292</v>
       </c>
-      <c r="L30" s="293"/>
+      <c r="L30" s="291"/>
       <c r="M30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="294" t="s">
+      <c r="N30" s="286" t="s">
         <v>273</v>
       </c>
-      <c r="O30" s="295"/>
+      <c r="O30" s="287"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -10791,17 +10767,17 @@
       <c r="AE30" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF30" s="292" t="s">
+      <c r="AF30" s="290" t="s">
         <v>329</v>
       </c>
-      <c r="AG30" s="293"/>
+      <c r="AG30" s="291"/>
       <c r="AH30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI30" s="294" t="s">
+      <c r="AI30" s="286" t="s">
         <v>326</v>
       </c>
-      <c r="AJ30" s="295"/>
+      <c r="AJ30" s="287"/>
       <c r="AK30" s="15" t="s">
         <v>2</v>
       </c>
@@ -10853,10 +10829,10 @@
       <c r="V31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W31" s="294" t="s">
+      <c r="W31" s="286" t="s">
         <v>226</v>
       </c>
-      <c r="X31" s="295"/>
+      <c r="X31" s="287"/>
       <c r="Y31" s="15" t="s">
         <v>2</v>
       </c>
@@ -10904,10 +10880,10 @@
       <c r="J32" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="286" t="s">
+      <c r="K32" s="299" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="287"/>
+      <c r="L32" s="300"/>
       <c r="M32" s="15" t="s">
         <v>2</v>
       </c>
@@ -10956,10 +10932,10 @@
       <c r="AH32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI32" s="292" t="s">
+      <c r="AI32" s="290" t="s">
         <v>327</v>
       </c>
-      <c r="AJ32" s="293"/>
+      <c r="AJ32" s="291"/>
       <c r="AK32" s="15" t="s">
         <v>2</v>
       </c>
@@ -10989,20 +10965,20 @@
       <c r="V33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W33" s="294" t="s">
+      <c r="W33" s="286" t="s">
         <v>227</v>
       </c>
-      <c r="X33" s="295"/>
+      <c r="X33" s="287"/>
       <c r="Y33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC33" s="292" t="s">
+      <c r="AC33" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="AD33" s="293"/>
+      <c r="AD33" s="291"/>
       <c r="AE33" s="40" t="s">
         <v>2</v>
       </c>
@@ -11032,10 +11008,10 @@
       <c r="J34" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="314" t="s">
+      <c r="K34" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="L34" s="315"/>
+      <c r="L34" s="312"/>
       <c r="M34" s="15" t="s">
         <v>2</v>
       </c>
@@ -11045,10 +11021,10 @@
       <c r="S34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="314" t="s">
+      <c r="T34" s="311" t="s">
         <v>236</v>
       </c>
-      <c r="U34" s="315"/>
+      <c r="U34" s="312"/>
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
@@ -11152,10 +11128,10 @@
       <c r="J36" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K36" s="292" t="s">
+      <c r="K36" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="L36" s="293"/>
+      <c r="L36" s="291"/>
       <c r="M36" s="15" t="s">
         <v>2</v>
       </c>
@@ -11165,11 +11141,11 @@
       <c r="S36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T36" s="292" t="str">
+      <c r="T36" s="290" t="str">
         <f>W17</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="U36" s="293"/>
+      <c r="U36" s="291"/>
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
@@ -11232,10 +11208,10 @@
       <c r="AB37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC37" s="292" t="s">
+      <c r="AC37" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="AD37" s="293"/>
+      <c r="AD37" s="291"/>
       <c r="AE37" s="40" t="s">
         <v>2</v>
       </c>
@@ -11348,22 +11324,22 @@
       <c r="AE41" s="40"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B42" s="305" t="s">
+      <c r="B42" s="315" t="s">
         <v>1426</v>
       </c>
-      <c r="C42" s="297"/>
-      <c r="E42" s="308" t="s">
+      <c r="C42" s="289"/>
+      <c r="E42" s="318" t="s">
         <v>1440</v>
       </c>
-      <c r="F42" s="309"/>
+      <c r="F42" s="319"/>
       <c r="J42" s="31"/>
       <c r="AE42" s="40"/>
     </row>
     <row r="43" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E43" s="310" t="s">
+      <c r="E43" s="320" t="s">
         <v>1439</v>
       </c>
-      <c r="F43" s="311"/>
+      <c r="F43" s="321"/>
       <c r="J43" s="31"/>
       <c r="AE43" s="40"/>
     </row>
@@ -11372,26 +11348,26 @@
       <c r="AE44" s="40"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E45" s="308" t="s">
+      <c r="E45" s="318" t="s">
         <v>1441</v>
       </c>
-      <c r="F45" s="309"/>
+      <c r="F45" s="319"/>
       <c r="J45" s="31"/>
       <c r="AE45" s="40"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E46" s="312" t="s">
+      <c r="E46" s="322" t="s">
         <v>1448</v>
       </c>
-      <c r="F46" s="313"/>
+      <c r="F46" s="323"/>
       <c r="J46" s="31"/>
       <c r="AE46" s="40"/>
     </row>
     <row r="47" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="310" t="s">
+      <c r="E47" s="320" t="s">
         <v>1449</v>
       </c>
-      <c r="F47" s="311"/>
+      <c r="F47" s="321"/>
       <c r="J47" s="31"/>
       <c r="AE47" s="40"/>
     </row>
@@ -11433,10 +11409,10 @@
       </c>
     </row>
     <row r="52" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="305" t="s">
+      <c r="B52" s="315" t="s">
         <v>1427</v>
       </c>
-      <c r="C52" s="306"/>
+      <c r="C52" s="316"/>
       <c r="D52" s="15" t="s">
         <v>2</v>
       </c>
@@ -11458,10 +11434,10 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B53" s="294" t="s">
+      <c r="B53" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="295"/>
+      <c r="C53" s="287"/>
       <c r="D53" s="15" t="s">
         <v>2</v>
       </c>
@@ -11651,10 +11627,10 @@
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="296" t="s">
+      <c r="E64" s="288" t="s">
         <v>366</v>
       </c>
-      <c r="F64" s="297"/>
+      <c r="F64" s="289"/>
       <c r="G64" s="15" t="s">
         <v>2</v>
       </c>
@@ -11705,17 +11681,17 @@
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="292" t="s">
+      <c r="E66" s="290" t="s">
         <v>409</v>
       </c>
-      <c r="F66" s="293"/>
+      <c r="F66" s="291"/>
       <c r="G66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="294" t="s">
+      <c r="H66" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="I66" s="295"/>
+      <c r="I66" s="287"/>
       <c r="J66" s="15" t="s">
         <v>2</v>
       </c>
@@ -11730,10 +11706,10 @@
       <c r="D67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="294" t="s">
+      <c r="E67" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="F67" s="295"/>
+      <c r="F67" s="287"/>
       <c r="G67" s="15" t="s">
         <v>2</v>
       </c>
@@ -11777,10 +11753,10 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="320" t="s">
+      <c r="B69" s="308" t="s">
         <v>386</v>
       </c>
-      <c r="C69" s="321"/>
+      <c r="C69" s="309"/>
       <c r="D69" s="15" t="s">
         <v>2</v>
       </c>
@@ -11793,10 +11769,10 @@
       <c r="G69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H69" s="294" t="s">
+      <c r="H69" s="286" t="s">
         <v>267</v>
       </c>
-      <c r="I69" s="295"/>
+      <c r="I69" s="287"/>
       <c r="J69" s="15" t="s">
         <v>2</v>
       </c>
@@ -11900,10 +11876,10 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" s="320" t="s">
+      <c r="B74" s="308" t="s">
         <v>387</v>
       </c>
-      <c r="C74" s="321"/>
+      <c r="C74" s="309"/>
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
@@ -12007,10 +11983,10 @@
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="320" t="s">
+      <c r="B79" s="308" t="s">
         <v>391</v>
       </c>
-      <c r="C79" s="321"/>
+      <c r="C79" s="309"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -12124,18 +12100,18 @@
     </row>
     <row r="94" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="82"/>
-      <c r="C94" s="318" t="s">
+      <c r="C94" s="307" t="s">
         <v>419</v>
       </c>
-      <c r="D94" s="318"/>
-      <c r="E94" s="318" t="s">
+      <c r="D94" s="307"/>
+      <c r="E94" s="307" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="318"/>
-      <c r="G94" s="318" t="s">
+      <c r="F94" s="307"/>
+      <c r="G94" s="307" t="s">
         <v>364</v>
       </c>
-      <c r="H94" s="319"/>
+      <c r="H94" s="310"/>
       <c r="J94" s="15" t="s">
         <v>2</v>
       </c>
@@ -12769,19 +12745,65 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="G94:H94"/>
     <mergeCell ref="AL22:AM22"/>
     <mergeCell ref="AL19:AM19"/>
@@ -12798,68 +12820,22 @@
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -12871,9 +12847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E20710C-0A7A-40AF-8ECB-634EABFE0AF2}">
   <dimension ref="A1:AZ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12930,10 +12906,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="347" t="s">
+      <c r="B3" s="326" t="s">
         <v>995</v>
       </c>
-      <c r="C3" s="348"/>
+      <c r="C3" s="327"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -12958,10 +12934,10 @@
       <c r="AJ3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="296" t="s">
+      <c r="AL3" s="288" t="s">
         <v>1344</v>
       </c>
-      <c r="AM3" s="297"/>
+      <c r="AM3" s="289"/>
     </row>
     <row r="4" spans="1:39" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="70" t="s">
@@ -12980,10 +12956,10 @@
       <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="347" t="s">
+      <c r="H4" s="326" t="s">
         <v>1067</v>
       </c>
-      <c r="I4" s="348"/>
+      <c r="I4" s="327"/>
       <c r="J4" s="42" t="s">
         <v>2</v>
       </c>
@@ -13020,10 +12996,10 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="286" t="s">
+      <c r="B5" s="299" t="s">
         <v>996</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="300" t="s">
         <v>741</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -13054,17 +13030,17 @@
       <c r="M5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="347" t="s">
+      <c r="N5" s="326" t="s">
         <v>950</v>
       </c>
-      <c r="O5" s="348"/>
+      <c r="O5" s="327"/>
       <c r="P5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="347" t="s">
+      <c r="Q5" s="326" t="s">
         <v>951</v>
       </c>
-      <c r="R5" s="348"/>
+      <c r="R5" s="327"/>
       <c r="V5" s="15" t="s">
         <v>2</v>
       </c>
@@ -13103,24 +13079,24 @@
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="294" t="s">
+      <c r="H6" s="286" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="295"/>
+      <c r="I6" s="287"/>
       <c r="J6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="294" t="s">
+      <c r="K6" s="286" t="s">
         <v>950</v>
       </c>
-      <c r="L6" s="295"/>
+      <c r="L6" s="287"/>
       <c r="M6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="292" t="s">
+      <c r="N6" s="290" t="s">
         <v>749</v>
       </c>
-      <c r="O6" s="293"/>
+      <c r="O6" s="291"/>
       <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
@@ -13183,10 +13159,10 @@
       <c r="J7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="294" t="s">
+      <c r="K7" s="286" t="s">
         <v>951</v>
       </c>
-      <c r="L7" s="295"/>
+      <c r="L7" s="287"/>
       <c r="M7" s="15" t="s">
         <v>2</v>
       </c>
@@ -13249,10 +13225,10 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="296" t="s">
+      <c r="B8" s="288" t="s">
         <v>1022</v>
       </c>
-      <c r="C8" s="297"/>
+      <c r="C8" s="289"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -13283,10 +13259,10 @@
       <c r="M8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="292" t="s">
+      <c r="N8" s="290" t="s">
         <v>749</v>
       </c>
-      <c r="O8" s="293"/>
+      <c r="O8" s="291"/>
       <c r="P8" s="15" t="s">
         <v>2</v>
       </c>
@@ -13480,17 +13456,17 @@
       <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="294" t="s">
+      <c r="Z10" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="AA10" s="295"/>
+      <c r="AA10" s="287"/>
       <c r="AB10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="300" t="s">
+      <c r="AC10" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="AD10" s="300"/>
+      <c r="AD10" s="292"/>
       <c r="AE10" s="15" t="s">
         <v>2</v>
       </c>
@@ -13520,10 +13496,10 @@
       <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="294" t="s">
+      <c r="H11" s="286" t="s">
         <v>267</v>
       </c>
-      <c r="I11" s="295"/>
+      <c r="I11" s="287"/>
       <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
@@ -13668,10 +13644,10 @@
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="294" t="s">
+      <c r="H13" s="286" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="295"/>
+      <c r="I13" s="287"/>
       <c r="J13" s="42" t="s">
         <v>2</v>
       </c>
@@ -13721,10 +13697,10 @@
       <c r="AE13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL13" s="322" t="s">
+      <c r="AL13" s="324" t="s">
         <v>1360</v>
       </c>
-      <c r="AM13" s="323"/>
+      <c r="AM13" s="325"/>
     </row>
     <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="15" t="s">
@@ -13860,10 +13836,10 @@
       <c r="AB15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="300" t="s">
+      <c r="AC15" s="292" t="s">
         <v>185</v>
       </c>
-      <c r="AD15" s="300"/>
+      <c r="AD15" s="292"/>
       <c r="AE15" s="15" t="s">
         <v>2</v>
       </c>
@@ -13997,10 +13973,10 @@
       <c r="AE17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL17" s="286" t="s">
+      <c r="AL17" s="299" t="s">
         <v>415</v>
       </c>
-      <c r="AM17" s="287"/>
+      <c r="AM17" s="300"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="15" t="s">
@@ -14111,10 +14087,10 @@
       <c r="AE19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="322" t="s">
+      <c r="AL19" s="324" t="s">
         <v>1362</v>
       </c>
-      <c r="AM19" s="323"/>
+      <c r="AM19" s="325"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="15" t="s">
@@ -14235,10 +14211,10 @@
       <c r="G22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="292" t="s">
+      <c r="H22" s="290" t="s">
         <v>892</v>
       </c>
-      <c r="I22" s="293"/>
+      <c r="I22" s="291"/>
       <c r="J22" s="42" t="s">
         <v>2</v>
       </c>
@@ -14280,10 +14256,10 @@
       <c r="G23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="286" t="s">
+      <c r="H23" s="299" t="s">
         <v>893</v>
       </c>
-      <c r="I23" s="287"/>
+      <c r="I23" s="300"/>
       <c r="J23" s="42" t="s">
         <v>2</v>
       </c>
@@ -14403,10 +14379,10 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="347" t="s">
+      <c r="B28" s="326" t="s">
         <v>1020</v>
       </c>
-      <c r="C28" s="348"/>
+      <c r="C28" s="327"/>
       <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
@@ -14419,10 +14395,10 @@
       <c r="M28" s="204">
         <v>1</v>
       </c>
-      <c r="N28" s="347" t="s">
+      <c r="N28" s="326" t="s">
         <v>1042</v>
       </c>
-      <c r="O28" s="348"/>
+      <c r="O28" s="327"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -14472,27 +14448,27 @@
       <c r="P29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q29" s="296" t="s">
+      <c r="Q29" s="288" t="s">
         <v>461</v>
       </c>
-      <c r="R29" s="297"/>
+      <c r="R29" s="289"/>
       <c r="S29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="355" t="s">
+      <c r="T29" s="328" t="s">
         <v>1083</v>
       </c>
-      <c r="U29" s="356"/>
+      <c r="U29" s="329"/>
       <c r="V29" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Y29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z29" s="296" t="s">
+      <c r="Z29" s="288" t="s">
         <v>467</v>
       </c>
-      <c r="AA29" s="297"/>
+      <c r="AA29" s="289"/>
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
@@ -14533,10 +14509,10 @@
       <c r="M30" s="204">
         <v>1</v>
       </c>
-      <c r="N30" s="294" t="s">
+      <c r="N30" s="286" t="s">
         <v>858</v>
       </c>
-      <c r="O30" s="295"/>
+      <c r="O30" s="287"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14558,10 +14534,10 @@
       <c r="V30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W30" s="332" t="s">
+      <c r="W30" s="357" t="s">
         <v>1071</v>
       </c>
-      <c r="X30" s="333"/>
+      <c r="X30" s="358"/>
       <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14574,10 +14550,10 @@
       <c r="AB30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC30" s="296" t="s">
+      <c r="AC30" s="288" t="s">
         <v>468</v>
       </c>
-      <c r="AD30" s="297"/>
+      <c r="AD30" s="289"/>
       <c r="AE30" s="15" t="s">
         <v>2</v>
       </c>
@@ -14676,10 +14652,10 @@
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="351" t="s">
+      <c r="E32" s="340" t="s">
         <v>1049</v>
       </c>
-      <c r="F32" s="352"/>
+      <c r="F32" s="341"/>
       <c r="G32" s="15" t="s">
         <v>2</v>
       </c>
@@ -14728,10 +14704,10 @@
       <c r="V32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="336" t="s">
+      <c r="W32" s="349" t="s">
         <v>1155</v>
       </c>
-      <c r="X32" s="337"/>
+      <c r="X32" s="350"/>
       <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
@@ -14753,17 +14729,17 @@
       </c>
     </row>
     <row r="33" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="292" t="s">
+      <c r="B33" s="290" t="s">
         <v>994</v>
       </c>
-      <c r="C33" s="293"/>
+      <c r="C33" s="291"/>
       <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="320" t="s">
+      <c r="E33" s="308" t="s">
         <v>1050</v>
       </c>
-      <c r="F33" s="321"/>
+      <c r="F33" s="309"/>
       <c r="G33" s="15" t="s">
         <v>2</v>
       </c>
@@ -14900,10 +14876,10 @@
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="322" t="s">
+      <c r="W34" s="324" t="s">
         <v>1158</v>
       </c>
-      <c r="X34" s="323"/>
+      <c r="X34" s="325"/>
       <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
@@ -14963,10 +14939,10 @@
       <c r="M35" s="204">
         <v>1</v>
       </c>
-      <c r="N35" s="292" t="s">
+      <c r="N35" s="290" t="s">
         <v>461</v>
       </c>
-      <c r="O35" s="293"/>
+      <c r="O35" s="291"/>
       <c r="P35" s="15" t="s">
         <v>2</v>
       </c>
@@ -15006,19 +14982,19 @@
       <c r="AB35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="292" t="s">
+      <c r="AC35" s="290" t="s">
         <v>1145</v>
       </c>
-      <c r="AD35" s="293"/>
+      <c r="AD35" s="291"/>
       <c r="AE35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="349" t="s">
+      <c r="B36" s="338" t="s">
         <v>1046</v>
       </c>
-      <c r="C36" s="350"/>
+      <c r="C36" s="339"/>
       <c r="D36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15049,10 +15025,10 @@
       <c r="M36" s="204">
         <v>1</v>
       </c>
-      <c r="N36" s="294" t="s">
+      <c r="N36" s="286" t="s">
         <v>1083</v>
       </c>
-      <c r="O36" s="295"/>
+      <c r="O36" s="287"/>
       <c r="P36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15074,10 +15050,10 @@
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W36" s="326" t="s">
+      <c r="W36" s="342" t="s">
         <v>1159</v>
       </c>
-      <c r="X36" s="327"/>
+      <c r="X36" s="343"/>
       <c r="Y36" s="15" t="s">
         <v>2</v>
       </c>
@@ -15097,17 +15073,17 @@
       </c>
     </row>
     <row r="37" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="292" t="s">
+      <c r="B37" s="290" t="s">
         <v>1028</v>
       </c>
-      <c r="C37" s="293"/>
+      <c r="C37" s="291"/>
       <c r="D37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="351" t="s">
+      <c r="E37" s="340" t="s">
         <v>1052</v>
       </c>
-      <c r="F37" s="352"/>
+      <c r="F37" s="341"/>
       <c r="G37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15129,10 +15105,10 @@
       <c r="M37" s="204">
         <v>1</v>
       </c>
-      <c r="N37" s="286" t="s">
+      <c r="N37" s="299" t="s">
         <v>467</v>
       </c>
-      <c r="O37" s="287"/>
+      <c r="O37" s="300"/>
       <c r="P37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15154,10 +15130,10 @@
       <c r="V37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W37" s="322" t="s">
+      <c r="W37" s="324" t="s">
         <v>1169</v>
       </c>
-      <c r="X37" s="323"/>
+      <c r="X37" s="325"/>
       <c r="Y37" s="15" t="s">
         <v>2</v>
       </c>
@@ -15188,10 +15164,10 @@
       <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="320" t="s">
+      <c r="E38" s="308" t="s">
         <v>1053</v>
       </c>
-      <c r="F38" s="321"/>
+      <c r="F38" s="309"/>
       <c r="G38" s="15" t="s">
         <v>2</v>
       </c>
@@ -15234,10 +15210,10 @@
       <c r="V38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="322" t="s">
+      <c r="W38" s="324" t="s">
         <v>1162</v>
       </c>
-      <c r="X38" s="323"/>
+      <c r="X38" s="325"/>
       <c r="Y38" s="15" t="s">
         <v>2</v>
       </c>
@@ -15335,10 +15311,10 @@
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="349" t="s">
+      <c r="B40" s="338" t="s">
         <v>1045</v>
       </c>
-      <c r="C40" s="350"/>
+      <c r="C40" s="339"/>
       <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15369,10 +15345,10 @@
       <c r="S40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T40" s="322" t="s">
+      <c r="T40" s="324" t="s">
         <v>1086</v>
       </c>
-      <c r="U40" s="323"/>
+      <c r="U40" s="325"/>
       <c r="V40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15385,10 +15361,10 @@
       <c r="Y40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="322" t="s">
+      <c r="Z40" s="324" t="s">
         <v>1116</v>
       </c>
-      <c r="AA40" s="323"/>
+      <c r="AA40" s="325"/>
       <c r="AB40" s="15" t="s">
         <v>2</v>
       </c>
@@ -15401,10 +15377,10 @@
       </c>
     </row>
     <row r="41" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="292" t="s">
+      <c r="B41" s="290" t="s">
         <v>617</v>
       </c>
-      <c r="C41" s="293"/>
+      <c r="C41" s="291"/>
       <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
@@ -15435,10 +15411,10 @@
       <c r="S41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="322" t="s">
+      <c r="T41" s="324" t="s">
         <v>1087</v>
       </c>
-      <c r="U41" s="323"/>
+      <c r="U41" s="325"/>
       <c r="V41" s="15" t="s">
         <v>2</v>
       </c>
@@ -15478,10 +15454,10 @@
       <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="298" t="s">
+      <c r="E42" s="297" t="s">
         <v>1054</v>
       </c>
-      <c r="F42" s="299"/>
+      <c r="F42" s="298"/>
       <c r="G42" s="15" t="s">
         <v>2</v>
       </c>
@@ -15505,10 +15481,10 @@
       <c r="S42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T42" s="338" t="s">
+      <c r="T42" s="330" t="s">
         <v>1146</v>
       </c>
-      <c r="U42" s="339"/>
+      <c r="U42" s="331"/>
       <c r="V42" s="15" t="s">
         <v>2</v>
       </c>
@@ -15540,10 +15516,10 @@
       <c r="D43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="340" t="s">
+      <c r="E43" s="351" t="s">
         <v>1055</v>
       </c>
-      <c r="F43" s="341"/>
+      <c r="F43" s="352"/>
       <c r="G43" s="15" t="s">
         <v>2</v>
       </c>
@@ -15565,10 +15541,10 @@
       <c r="S43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="357" t="s">
+      <c r="T43" s="332" t="s">
         <v>1089</v>
       </c>
-      <c r="U43" s="358"/>
+      <c r="U43" s="333"/>
       <c r="V43" s="15" t="s">
         <v>2</v>
       </c>
@@ -15677,10 +15653,10 @@
       <c r="S45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="338" t="s">
+      <c r="T45" s="330" t="s">
         <v>1090</v>
       </c>
-      <c r="U45" s="339"/>
+      <c r="U45" s="331"/>
       <c r="V45" s="15" t="s">
         <v>2</v>
       </c>
@@ -15733,10 +15709,10 @@
       <c r="S46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T46" s="342" t="s">
+      <c r="T46" s="353" t="s">
         <v>1088</v>
       </c>
-      <c r="U46" s="343"/>
+      <c r="U46" s="354"/>
       <c r="V46" s="15" t="s">
         <v>2</v>
       </c>
@@ -15781,10 +15757,10 @@
       <c r="S47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T47" s="338" t="s">
+      <c r="T47" s="330" t="s">
         <v>1123</v>
       </c>
-      <c r="U47" s="339"/>
+      <c r="U47" s="331"/>
       <c r="V47" s="15" t="s">
         <v>2</v>
       </c>
@@ -15844,10 +15820,10 @@
       <c r="M49" s="204">
         <v>1</v>
       </c>
-      <c r="Q49" s="320" t="s">
+      <c r="Q49" s="308" t="s">
         <v>940</v>
       </c>
-      <c r="R49" s="321"/>
+      <c r="R49" s="309"/>
       <c r="S49" s="15" t="s">
         <v>2</v>
       </c>
@@ -15868,10 +15844,10 @@
       <c r="M50" s="204">
         <v>1</v>
       </c>
-      <c r="Q50" s="320" t="s">
+      <c r="Q50" s="308" t="s">
         <v>1100</v>
       </c>
-      <c r="R50" s="321"/>
+      <c r="R50" s="309"/>
       <c r="S50" s="15" t="s">
         <v>2</v>
       </c>
@@ -15886,10 +15862,10 @@
       <c r="M51" s="204">
         <v>1</v>
       </c>
-      <c r="Q51" s="330" t="s">
+      <c r="Q51" s="355" t="s">
         <v>1104</v>
       </c>
-      <c r="R51" s="331"/>
+      <c r="R51" s="356"/>
       <c r="S51" s="15" t="s">
         <v>2</v>
       </c>
@@ -15904,10 +15880,10 @@
       <c r="M52" s="204">
         <v>1</v>
       </c>
-      <c r="Q52" s="330" t="s">
+      <c r="Q52" s="355" t="s">
         <v>1105</v>
       </c>
-      <c r="R52" s="331"/>
+      <c r="R52" s="356"/>
       <c r="S52" s="15" t="s">
         <v>2</v>
       </c>
@@ -16064,10 +16040,10 @@
       <c r="D59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="353" t="s">
+      <c r="E59" s="336" t="s">
         <v>529</v>
       </c>
-      <c r="F59" s="354"/>
+      <c r="F59" s="337"/>
       <c r="J59" s="15" t="s">
         <v>2</v>
       </c>
@@ -16076,10 +16052,10 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="292" t="s">
+      <c r="B60" s="290" t="s">
         <v>611</v>
       </c>
-      <c r="C60" s="293"/>
+      <c r="C60" s="291"/>
       <c r="D60" s="15" t="s">
         <v>2</v>
       </c>
@@ -16120,10 +16096,10 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="290" t="s">
         <v>612</v>
       </c>
-      <c r="C62" s="293"/>
+      <c r="C62" s="291"/>
       <c r="D62" s="15" t="s">
         <v>2</v>
       </c>
@@ -16140,10 +16116,10 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B64" s="292" t="s">
+      <c r="B64" s="290" t="s">
         <v>611</v>
       </c>
-      <c r="C64" s="293"/>
+      <c r="C64" s="291"/>
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
@@ -16163,10 +16139,10 @@
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B66" s="292" t="s">
+      <c r="B66" s="290" t="s">
         <v>611</v>
       </c>
-      <c r="C66" s="293"/>
+      <c r="C66" s="291"/>
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
@@ -16235,17 +16211,17 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="334" t="s">
+      <c r="B73" s="344" t="s">
         <v>472</v>
       </c>
-      <c r="C73" s="335"/>
+      <c r="C73" s="345"/>
       <c r="D73" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E73" s="296" t="s">
+      <c r="E73" s="288" t="s">
         <v>617</v>
       </c>
-      <c r="F73" s="297"/>
+      <c r="F73" s="289"/>
       <c r="G73" s="15" t="s">
         <v>2</v>
       </c>
@@ -16298,17 +16274,17 @@
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="328" t="s">
+      <c r="E74" s="334" t="s">
         <v>618</v>
       </c>
-      <c r="F74" s="329"/>
+      <c r="F74" s="335"/>
       <c r="G74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="296" t="s">
+      <c r="H74" s="288" t="s">
         <v>538</v>
       </c>
-      <c r="I74" s="297"/>
+      <c r="I74" s="289"/>
       <c r="J74" s="15" t="s">
         <v>2</v>
       </c>
@@ -16353,10 +16329,10 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="292" t="s">
+      <c r="B75" s="290" t="s">
         <v>450</v>
       </c>
-      <c r="C75" s="293"/>
+      <c r="C75" s="291"/>
       <c r="D75" s="15" t="s">
         <v>2</v>
       </c>
@@ -16369,17 +16345,17 @@
       <c r="G75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="328" t="s">
+      <c r="H75" s="334" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="329"/>
+      <c r="I75" s="335"/>
       <c r="J75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K75" s="296" t="s">
+      <c r="K75" s="288" t="s">
         <v>628</v>
       </c>
-      <c r="L75" s="297"/>
+      <c r="L75" s="289"/>
       <c r="M75" s="15" t="s">
         <v>2</v>
       </c>
@@ -16407,19 +16383,19 @@
       <c r="AK75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO75" s="294" t="s">
+      <c r="AO75" s="286" t="s">
         <v>422</v>
       </c>
-      <c r="AP75" s="295"/>
+      <c r="AP75" s="287"/>
       <c r="AQ75" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="326" t="s">
+      <c r="B76" s="342" t="s">
         <v>604</v>
       </c>
-      <c r="C76" s="327"/>
+      <c r="C76" s="343"/>
       <c r="D76" s="15" t="s">
         <v>2</v>
       </c>
@@ -16432,17 +16408,17 @@
       <c r="G76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="328" t="s">
+      <c r="H76" s="334" t="s">
         <v>425</v>
       </c>
-      <c r="I76" s="329"/>
+      <c r="I76" s="335"/>
       <c r="J76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K76" s="294" t="s">
+      <c r="K76" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="L76" s="295"/>
+      <c r="L76" s="287"/>
       <c r="M76" s="15" t="s">
         <v>2</v>
       </c>
@@ -16499,10 +16475,10 @@
       <c r="G77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="328" t="s">
+      <c r="H77" s="334" t="s">
         <v>424</v>
       </c>
-      <c r="I77" s="329"/>
+      <c r="I77" s="335"/>
       <c r="J77" s="15" t="s">
         <v>2</v>
       </c>
@@ -16515,10 +16491,10 @@
       <c r="M77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N77" s="296" t="s">
+      <c r="N77" s="288" t="s">
         <v>480</v>
       </c>
-      <c r="O77" s="297"/>
+      <c r="O77" s="289"/>
       <c r="P77" s="15" t="s">
         <v>2</v>
       </c>
@@ -16554,10 +16530,10 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="292" t="s">
+      <c r="B78" s="290" t="s">
         <v>454</v>
       </c>
-      <c r="C78" s="293"/>
+      <c r="C78" s="291"/>
       <c r="D78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16570,10 +16546,10 @@
       <c r="G78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="328" t="s">
+      <c r="H78" s="334" t="s">
         <v>629</v>
       </c>
-      <c r="I78" s="329"/>
+      <c r="I78" s="335"/>
       <c r="J78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16595,52 +16571,52 @@
       <c r="P78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="296" t="s">
+      <c r="Q78" s="288" t="s">
         <v>513</v>
       </c>
-      <c r="R78" s="297"/>
+      <c r="R78" s="289"/>
       <c r="S78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T78" s="296" t="s">
+      <c r="T78" s="288" t="s">
         <v>511</v>
       </c>
-      <c r="U78" s="297"/>
+      <c r="U78" s="289"/>
       <c r="V78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W78" s="296" t="s">
+      <c r="W78" s="288" t="s">
         <v>514</v>
       </c>
-      <c r="X78" s="297"/>
+      <c r="X78" s="289"/>
       <c r="Y78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z78" s="296" t="s">
+      <c r="Z78" s="288" t="s">
         <v>509</v>
       </c>
-      <c r="AA78" s="297"/>
+      <c r="AA78" s="289"/>
       <c r="AB78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC78" s="296" t="s">
+      <c r="AC78" s="288" t="s">
         <v>516</v>
       </c>
-      <c r="AD78" s="297"/>
+      <c r="AD78" s="289"/>
       <c r="AE78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AF78" s="296" t="s">
+      <c r="AF78" s="288" t="s">
         <v>522</v>
       </c>
-      <c r="AG78" s="297"/>
+      <c r="AG78" s="289"/>
       <c r="AH78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI78" s="296" t="s">
+      <c r="AI78" s="288" t="s">
         <v>524</v>
       </c>
-      <c r="AJ78" s="297"/>
+      <c r="AJ78" s="289"/>
       <c r="AK78" s="15" t="s">
         <v>2</v>
       </c>
@@ -16649,10 +16625,10 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="326" t="s">
+      <c r="B79" s="342" t="s">
         <v>616</v>
       </c>
-      <c r="C79" s="327"/>
+      <c r="C79" s="343"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16665,10 +16641,10 @@
       <c r="G79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="328" t="s">
+      <c r="H79" s="334" t="s">
         <v>441</v>
       </c>
-      <c r="I79" s="329"/>
+      <c r="I79" s="335"/>
       <c r="J79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16705,27 +16681,27 @@
       <c r="Y79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z79" s="328" t="s">
+      <c r="Z79" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="AA79" s="329"/>
+      <c r="AA79" s="335"/>
       <c r="AB79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC79" s="328" t="s">
+      <c r="AC79" s="334" t="s">
         <v>518</v>
       </c>
-      <c r="AD79" s="329"/>
+      <c r="AD79" s="335"/>
       <c r="AE79" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI79" s="328" t="s">
+      <c r="AI79" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="AJ79" s="329"/>
+      <c r="AJ79" s="335"/>
       <c r="AK79" s="15" t="s">
         <v>2</v>
       </c>
@@ -16752,10 +16728,10 @@
       <c r="G80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="328" t="s">
+      <c r="H80" s="334" t="s">
         <v>630</v>
       </c>
-      <c r="I80" s="329"/>
+      <c r="I80" s="335"/>
       <c r="J80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16768,20 +16744,20 @@
       <c r="M80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N80" s="292" t="s">
+      <c r="N80" s="290" t="s">
         <v>486</v>
       </c>
-      <c r="O80" s="293"/>
+      <c r="O80" s="291"/>
       <c r="P80" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T80" s="292" t="s">
+      <c r="T80" s="290" t="s">
         <v>494</v>
       </c>
-      <c r="U80" s="293"/>
+      <c r="U80" s="291"/>
       <c r="V80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16797,10 +16773,10 @@
       <c r="AB80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC80" s="328" t="s">
+      <c r="AC80" s="334" t="s">
         <v>425</v>
       </c>
-      <c r="AD80" s="329"/>
+      <c r="AD80" s="335"/>
       <c r="AE80" s="15" t="s">
         <v>2</v>
       </c>
@@ -16825,10 +16801,10 @@
       </c>
     </row>
     <row r="81" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="292" t="s">
+      <c r="B81" s="290" t="s">
         <v>449</v>
       </c>
-      <c r="C81" s="293"/>
+      <c r="C81" s="291"/>
       <c r="D81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16841,10 +16817,10 @@
       <c r="G81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="294" t="s">
+      <c r="H81" s="286" t="s">
         <v>170</v>
       </c>
-      <c r="I81" s="295"/>
+      <c r="I81" s="287"/>
       <c r="J81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16866,10 +16842,10 @@
       <c r="P81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q81" s="296" t="s">
+      <c r="Q81" s="288" t="s">
         <v>512</v>
       </c>
-      <c r="R81" s="297"/>
+      <c r="R81" s="289"/>
       <c r="S81" s="15" t="s">
         <v>2</v>
       </c>
@@ -16920,10 +16896,10 @@
       </c>
     </row>
     <row r="82" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="326" t="s">
+      <c r="B82" s="342" t="s">
         <v>633</v>
       </c>
-      <c r="C82" s="327"/>
+      <c r="C82" s="343"/>
       <c r="D82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16942,10 +16918,10 @@
       <c r="M82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N82" s="292" t="s">
+      <c r="N82" s="290" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="293"/>
+      <c r="O82" s="291"/>
       <c r="P82" s="15" t="s">
         <v>2</v>
       </c>
@@ -16986,10 +16962,10 @@
       <c r="AK82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO82" s="294" t="s">
+      <c r="AO82" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="AP82" s="295"/>
+      <c r="AP82" s="287"/>
       <c r="AQ82" s="15" t="s">
         <v>2</v>
       </c>
@@ -17007,17 +16983,17 @@
       <c r="G83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="292" t="s">
+      <c r="H83" s="290" t="s">
         <v>631</v>
       </c>
-      <c r="I83" s="293"/>
+      <c r="I83" s="291"/>
       <c r="J83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="334" t="s">
+      <c r="K83" s="344" t="s">
         <v>479</v>
       </c>
-      <c r="L83" s="335"/>
+      <c r="L83" s="345"/>
       <c r="M83" s="15" t="s">
         <v>2</v>
       </c>
@@ -17048,10 +17024,10 @@
       <c r="AB83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC83" s="345" t="s">
+      <c r="AC83" s="346" t="s">
         <v>479</v>
       </c>
-      <c r="AD83" s="346"/>
+      <c r="AD83" s="347"/>
       <c r="AE83" s="15" t="s">
         <v>2</v>
       </c>
@@ -17072,10 +17048,10 @@
       </c>
     </row>
     <row r="84" spans="2:46" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="292" t="s">
+      <c r="B84" s="290" t="s">
         <v>538</v>
       </c>
-      <c r="C84" s="293"/>
+      <c r="C84" s="291"/>
       <c r="D84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17100,10 +17076,10 @@
       <c r="M84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N84" s="292" t="s">
+      <c r="N84" s="290" t="s">
         <v>489</v>
       </c>
-      <c r="O84" s="293"/>
+      <c r="O84" s="291"/>
       <c r="P84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17116,10 +17092,10 @@
       <c r="S84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T84" s="296" t="s">
+      <c r="T84" s="288" t="s">
         <v>510</v>
       </c>
-      <c r="U84" s="297"/>
+      <c r="U84" s="289"/>
       <c r="V84" s="15" t="s">
         <v>2</v>
       </c>
@@ -17167,10 +17143,10 @@
       <c r="J85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K85" s="292" t="s">
+      <c r="K85" s="290" t="s">
         <v>480</v>
       </c>
-      <c r="L85" s="293"/>
+      <c r="L85" s="291"/>
       <c r="M85" s="15" t="s">
         <v>2</v>
       </c>
@@ -17205,10 +17181,10 @@
       <c r="AB85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC85" s="334" t="s">
+      <c r="AC85" s="344" t="s">
         <v>479</v>
       </c>
-      <c r="AD85" s="335"/>
+      <c r="AD85" s="345"/>
       <c r="AE85" s="15" t="s">
         <v>2</v>
       </c>
@@ -17250,10 +17226,10 @@
       <c r="M86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="292" t="s">
+      <c r="N86" s="290" t="s">
         <v>514</v>
       </c>
-      <c r="O86" s="293"/>
+      <c r="O86" s="291"/>
       <c r="P86" s="15" t="s">
         <v>2</v>
       </c>
@@ -17420,10 +17396,10 @@
       <c r="M89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N89" s="292" t="s">
+      <c r="N89" s="290" t="s">
         <v>509</v>
       </c>
-      <c r="O89" s="293"/>
+      <c r="O89" s="291"/>
       <c r="P89" s="15" t="s">
         <v>2</v>
       </c>
@@ -17508,10 +17484,10 @@
       <c r="M92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="292" t="s">
+      <c r="N92" s="290" t="s">
         <v>516</v>
       </c>
-      <c r="O92" s="293"/>
+      <c r="O92" s="291"/>
       <c r="P92" s="15" t="s">
         <v>2</v>
       </c>
@@ -17570,10 +17546,10 @@
       <c r="M95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N95" s="292" t="s">
+      <c r="N95" s="290" t="s">
         <v>522</v>
       </c>
-      <c r="O95" s="293"/>
+      <c r="O95" s="291"/>
       <c r="P95" s="15" t="s">
         <v>2</v>
       </c>
@@ -17625,10 +17601,10 @@
       <c r="M98" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N98" s="292" t="s">
+      <c r="N98" s="290" t="s">
         <v>524</v>
       </c>
-      <c r="O98" s="293"/>
+      <c r="O98" s="291"/>
       <c r="P98" s="15" t="s">
         <v>2</v>
       </c>
@@ -17770,17 +17746,17 @@
       <c r="D105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="296" t="s">
+      <c r="E105" s="288" t="s">
         <v>591</v>
       </c>
-      <c r="F105" s="297"/>
+      <c r="F105" s="289"/>
       <c r="G105" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="296" t="s">
+      <c r="H105" s="288" t="s">
         <v>592</v>
       </c>
-      <c r="I105" s="297"/>
+      <c r="I105" s="289"/>
       <c r="J105" s="15" t="s">
         <v>2</v>
       </c>
@@ -17801,10 +17777,10 @@
       <c r="D106" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="328" t="s">
+      <c r="E106" s="334" t="s">
         <v>593</v>
       </c>
-      <c r="F106" s="329"/>
+      <c r="F106" s="335"/>
       <c r="G106" s="15" t="s">
         <v>2</v>
       </c>
@@ -17847,10 +17823,10 @@
       <c r="G107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="328" t="s">
+      <c r="H107" s="334" t="s">
         <v>441</v>
       </c>
-      <c r="I107" s="329"/>
+      <c r="I107" s="335"/>
       <c r="J107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17863,10 +17839,10 @@
       <c r="M107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N107" s="296" t="s">
+      <c r="N107" s="288" t="s">
         <v>608</v>
       </c>
-      <c r="O107" s="297"/>
+      <c r="O107" s="289"/>
       <c r="P107" s="15" t="s">
         <v>2</v>
       </c>
@@ -17892,10 +17868,10 @@
       <c r="G108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="328" t="s">
+      <c r="H108" s="334" t="s">
         <v>424</v>
       </c>
-      <c r="I108" s="329"/>
+      <c r="I108" s="335"/>
       <c r="J108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17908,10 +17884,10 @@
       <c r="M108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N108" s="328" t="s">
+      <c r="N108" s="334" t="s">
         <v>609</v>
       </c>
-      <c r="O108" s="329"/>
+      <c r="O108" s="335"/>
       <c r="P108" s="15" t="s">
         <v>2</v>
       </c>
@@ -17929,10 +17905,10 @@
       <c r="G109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="328" t="s">
+      <c r="H109" s="334" t="s">
         <v>425</v>
       </c>
-      <c r="I109" s="329"/>
+      <c r="I109" s="335"/>
       <c r="J109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17943,10 +17919,10 @@
       <c r="M109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N109" s="328" t="s">
+      <c r="N109" s="334" t="s">
         <v>610</v>
       </c>
-      <c r="O109" s="329"/>
+      <c r="O109" s="335"/>
       <c r="P109" s="15" t="s">
         <v>2</v>
       </c>
@@ -17964,17 +17940,17 @@
       <c r="G110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="328" t="s">
+      <c r="H110" s="334" t="s">
         <v>596</v>
       </c>
-      <c r="I110" s="329"/>
+      <c r="I110" s="335"/>
       <c r="J110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K110" s="292" t="s">
+      <c r="K110" s="290" t="s">
         <v>608</v>
       </c>
-      <c r="L110" s="293"/>
+      <c r="L110" s="291"/>
       <c r="M110" s="15" t="s">
         <v>2</v>
       </c>
@@ -17989,20 +17965,20 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="292" t="s">
+      <c r="B111" s="290" t="s">
         <v>591</v>
       </c>
-      <c r="C111" s="293"/>
+      <c r="C111" s="291"/>
       <c r="D111" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="328" t="s">
+      <c r="H111" s="334" t="s">
         <v>597</v>
       </c>
-      <c r="I111" s="329"/>
+      <c r="I111" s="335"/>
       <c r="J111" s="15" t="s">
         <v>2</v>
       </c>
@@ -18020,20 +17996,20 @@
       <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B112" s="326" t="s">
+      <c r="B112" s="342" t="s">
         <v>599</v>
       </c>
-      <c r="C112" s="327"/>
+      <c r="C112" s="343"/>
       <c r="D112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="294" t="s">
+      <c r="H112" s="286" t="s">
         <v>190</v>
       </c>
-      <c r="I112" s="295"/>
+      <c r="I112" s="287"/>
       <c r="J112" s="15" t="s">
         <v>2</v>
       </c>
@@ -18074,10 +18050,10 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B114" s="292" t="s">
+      <c r="B114" s="290" t="s">
         <v>592</v>
       </c>
-      <c r="C114" s="293"/>
+      <c r="C114" s="291"/>
       <c r="D114" s="15" t="s">
         <v>2</v>
       </c>
@@ -18104,10 +18080,10 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B115" s="326" t="s">
+      <c r="B115" s="342" t="s">
         <v>605</v>
       </c>
-      <c r="C115" s="327"/>
+      <c r="C115" s="343"/>
       <c r="D115" s="15" t="s">
         <v>2</v>
       </c>
@@ -18276,48 +18252,48 @@
       <c r="G123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K123" s="296" t="s">
+      <c r="K123" s="288" t="s">
         <v>541</v>
       </c>
-      <c r="L123" s="297"/>
+      <c r="L123" s="289"/>
       <c r="M123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N123" s="296" t="s">
+      <c r="N123" s="288" t="s">
         <v>548</v>
       </c>
-      <c r="O123" s="297"/>
+      <c r="O123" s="289"/>
       <c r="P123" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T123" s="296" t="s">
+      <c r="T123" s="288" t="s">
         <v>566</v>
       </c>
-      <c r="U123" s="297"/>
+      <c r="U123" s="289"/>
       <c r="V123" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W123" s="296" t="s">
+      <c r="W123" s="288" t="s">
         <v>581</v>
       </c>
-      <c r="X123" s="297"/>
-      <c r="Z123" s="296" t="s">
+      <c r="X123" s="289"/>
+      <c r="Z123" s="288" t="s">
         <v>768</v>
       </c>
-      <c r="AA123" s="297"/>
-      <c r="AC123" s="296" t="s">
+      <c r="AA123" s="289"/>
+      <c r="AC123" s="288" t="s">
         <v>770</v>
       </c>
-      <c r="AD123" s="297"/>
+      <c r="AD123" s="289"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B124" s="292" t="s">
+      <c r="B124" s="290" t="s">
         <v>532</v>
       </c>
-      <c r="C124" s="293"/>
+      <c r="C124" s="291"/>
       <c r="D124" s="15" t="s">
         <v>2</v>
       </c>
@@ -18330,10 +18306,10 @@
       <c r="G124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="296" t="s">
+      <c r="H124" s="288" t="s">
         <v>542</v>
       </c>
-      <c r="I124" s="297"/>
+      <c r="I124" s="289"/>
       <c r="K124" s="92" t="s">
         <v>547</v>
       </c>
@@ -18348,17 +18324,17 @@
       <c r="P124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q124" s="296" t="s">
+      <c r="Q124" s="288" t="s">
         <v>587</v>
       </c>
-      <c r="R124" s="297"/>
+      <c r="R124" s="289"/>
       <c r="S124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T124" s="328" t="s">
+      <c r="T124" s="334" t="s">
         <v>571</v>
       </c>
-      <c r="U124" s="329"/>
+      <c r="U124" s="335"/>
       <c r="V124" s="15" t="s">
         <v>2</v>
       </c>
@@ -18371,10 +18347,10 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B125" s="344" t="s">
+      <c r="B125" s="348" t="s">
         <v>546</v>
       </c>
-      <c r="C125" s="344"/>
+      <c r="C125" s="348"/>
       <c r="D125" s="15" t="s">
         <v>2</v>
       </c>
@@ -18385,10 +18361,10 @@
       <c r="G125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="328" t="s">
+      <c r="H125" s="334" t="s">
         <v>545</v>
       </c>
-      <c r="I125" s="329"/>
+      <c r="I125" s="335"/>
       <c r="K125" s="112" t="s">
         <v>550</v>
       </c>
@@ -18396,27 +18372,27 @@
       <c r="M125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N125" s="328" t="s">
+      <c r="N125" s="334" t="s">
         <v>571</v>
       </c>
-      <c r="O125" s="329"/>
+      <c r="O125" s="335"/>
       <c r="P125" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T125" s="292" t="s">
+      <c r="T125" s="290" t="s">
         <v>549</v>
       </c>
-      <c r="U125" s="293"/>
+      <c r="U125" s="291"/>
       <c r="V125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W125" s="328" t="s">
+      <c r="W125" s="334" t="s">
         <v>583</v>
       </c>
-      <c r="X125" s="329"/>
+      <c r="X125" s="335"/>
       <c r="AC125" s="127" t="s">
         <v>773</v>
       </c>
@@ -18428,10 +18404,10 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B126" s="292" t="s">
+      <c r="B126" s="290" t="s">
         <v>541</v>
       </c>
-      <c r="C126" s="293"/>
+      <c r="C126" s="291"/>
       <c r="D126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18442,14 +18418,14 @@
       <c r="G126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="294" t="s">
+      <c r="H126" s="286" t="s">
         <v>589</v>
       </c>
-      <c r="I126" s="295"/>
-      <c r="K126" s="292" t="s">
+      <c r="I126" s="287"/>
+      <c r="K126" s="290" t="s">
         <v>549</v>
       </c>
-      <c r="L126" s="293"/>
+      <c r="L126" s="291"/>
       <c r="M126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18474,10 +18450,10 @@
       <c r="V126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W126" s="328" t="s">
+      <c r="W126" s="334" t="s">
         <v>584</v>
       </c>
-      <c r="X126" s="329"/>
+      <c r="X126" s="335"/>
       <c r="AE126" s="15" t="s">
         <v>2</v>
       </c>
@@ -18514,10 +18490,10 @@
       <c r="M127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N127" s="292" t="s">
+      <c r="N127" s="290" t="s">
         <v>576</v>
       </c>
-      <c r="O127" s="293"/>
+      <c r="O127" s="291"/>
       <c r="P127" s="15" t="s">
         <v>2</v>
       </c>
@@ -18533,10 +18509,10 @@
       <c r="V127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W127" s="292" t="s">
+      <c r="W127" s="290" t="s">
         <v>549</v>
       </c>
-      <c r="X127" s="293"/>
+      <c r="X127" s="291"/>
       <c r="AE127" s="15" t="s">
         <v>2</v>
       </c>
@@ -18602,10 +18578,10 @@
       </c>
     </row>
     <row r="129" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B129" s="292" t="s">
+      <c r="B129" s="290" t="s">
         <v>548</v>
       </c>
-      <c r="C129" s="293"/>
+      <c r="C129" s="291"/>
       <c r="D129" s="15" t="s">
         <v>2</v>
       </c>
@@ -18715,10 +18691,10 @@
       <c r="M131" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N131" s="292" t="s">
+      <c r="N131" s="290" t="s">
         <v>587</v>
       </c>
-      <c r="O131" s="293"/>
+      <c r="O131" s="291"/>
       <c r="P131" s="15" t="s">
         <v>2</v>
       </c>
@@ -18766,10 +18742,10 @@
       </c>
     </row>
     <row r="133" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B133" s="292" t="s">
+      <c r="B133" s="290" t="s">
         <v>566</v>
       </c>
-      <c r="C133" s="293"/>
+      <c r="C133" s="291"/>
       <c r="D133" s="15" t="s">
         <v>2</v>
       </c>
@@ -18801,10 +18777,10 @@
       <c r="D134" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="328" t="s">
+      <c r="E134" s="334" t="s">
         <v>535</v>
       </c>
-      <c r="F134" s="329"/>
+      <c r="F134" s="335"/>
       <c r="G134" s="15" t="s">
         <v>2</v>
       </c>
@@ -18828,10 +18804,10 @@
       <c r="D135" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="328" t="s">
+      <c r="E135" s="334" t="s">
         <v>537</v>
       </c>
-      <c r="F135" s="329"/>
+      <c r="F135" s="335"/>
       <c r="G135" s="15" t="s">
         <v>2</v>
       </c>
@@ -18855,10 +18831,10 @@
       <c r="D136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="328" t="s">
+      <c r="E136" s="334" t="s">
         <v>425</v>
       </c>
-      <c r="F136" s="329"/>
+      <c r="F136" s="335"/>
       <c r="G136" s="15" t="s">
         <v>2</v>
       </c>
@@ -18873,10 +18849,10 @@
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B137" s="292" t="s">
+      <c r="B137" s="290" t="s">
         <v>581</v>
       </c>
-      <c r="C137" s="293"/>
+      <c r="C137" s="291"/>
       <c r="D137" s="15" t="s">
         <v>2</v>
       </c>
@@ -18909,10 +18885,10 @@
       <c r="D138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="292" t="s">
+      <c r="E138" s="290" t="s">
         <v>542</v>
       </c>
-      <c r="F138" s="293"/>
+      <c r="F138" s="291"/>
       <c r="G138" s="15" t="s">
         <v>2</v>
       </c>
@@ -18927,10 +18903,10 @@
       </c>
     </row>
     <row r="139" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="292" t="s">
+      <c r="B139" s="290" t="s">
         <v>768</v>
       </c>
-      <c r="C139" s="293"/>
+      <c r="C139" s="291"/>
       <c r="D139" s="15" t="s">
         <v>2</v>
       </c>
@@ -18977,10 +18953,10 @@
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B141" s="292" t="s">
+      <c r="B141" s="290" t="s">
         <v>770</v>
       </c>
-      <c r="C141" s="293"/>
+      <c r="C141" s="291"/>
       <c r="D141" s="15" t="s">
         <v>2</v>
       </c>
@@ -19047,35 +19023,118 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="AO75:AP75"/>
+    <mergeCell ref="AO82:AP82"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="N98:O98"/>
     <mergeCell ref="B139:C139"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="Z123:AA123"/>
@@ -19100,118 +19159,35 @@
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="H76:I76"/>
-    <mergeCell ref="AO75:AP75"/>
-    <mergeCell ref="AO82:AP82"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="W125:X125"/>
-    <mergeCell ref="W126:X126"/>
-    <mergeCell ref="W127:X127"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -19287,21 +19263,21 @@
       <c r="M3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="296" t="s">
+      <c r="N3" s="288" t="s">
         <v>1373</v>
       </c>
-      <c r="O3" s="363"/>
-      <c r="P3" s="297"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="289"/>
       <c r="Q3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="U3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="364" t="s">
+      <c r="W3" s="372" t="s">
         <v>1423</v>
       </c>
-      <c r="X3" s="365"/>
+      <c r="X3" s="373"/>
       <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
@@ -19349,18 +19325,18 @@
       <c r="Q4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="296" t="s">
+      <c r="R4" s="288" t="s">
         <v>1403</v>
       </c>
-      <c r="S4" s="363"/>
-      <c r="T4" s="297"/>
+      <c r="S4" s="366"/>
+      <c r="T4" s="289"/>
       <c r="U4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="296" t="s">
+      <c r="W4" s="288" t="s">
         <v>838</v>
       </c>
-      <c r="X4" s="297"/>
+      <c r="X4" s="289"/>
       <c r="Y4" s="15" t="s">
         <v>2</v>
       </c>
@@ -19562,10 +19538,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="78"/>
-      <c r="G8" s="370" t="s">
+      <c r="G8" s="367" t="s">
         <v>829</v>
       </c>
-      <c r="H8" s="371"/>
+      <c r="H8" s="368"/>
       <c r="I8" s="15" t="s">
         <v>2</v>
       </c>
@@ -19754,10 +19730,10 @@
       <c r="U11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W11" s="296" t="s">
+      <c r="W11" s="288" t="s">
         <v>852</v>
       </c>
-      <c r="X11" s="297"/>
+      <c r="X11" s="289"/>
       <c r="Y11" s="15" t="s">
         <v>2</v>
       </c>
@@ -19957,11 +19933,11 @@
       <c r="Q15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="308" t="s">
+      <c r="R15" s="318" t="s">
         <v>1442</v>
       </c>
-      <c r="S15" s="373"/>
-      <c r="T15" s="309"/>
+      <c r="S15" s="361"/>
+      <c r="T15" s="319"/>
       <c r="U15" s="42" t="s">
         <v>2</v>
       </c>
@@ -20001,16 +19977,16 @@
       <c r="Q16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="310" t="s">
+      <c r="R16" s="320" t="s">
         <v>1443</v>
       </c>
-      <c r="S16" s="362"/>
-      <c r="T16" s="311"/>
+      <c r="S16" s="364"/>
+      <c r="T16" s="321"/>
       <c r="U16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="367"/>
-      <c r="X16" s="367"/>
+      <c r="W16" s="374"/>
+      <c r="X16" s="374"/>
       <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
@@ -20028,11 +20004,11 @@
       <c r="E17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="366" t="s">
+      <c r="F17" s="362" t="s">
         <v>856</v>
       </c>
-      <c r="G17" s="366"/>
-      <c r="H17" s="366"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="362"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
@@ -20050,8 +20026,8 @@
       <c r="U17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="366"/>
-      <c r="X17" s="366"/>
+      <c r="W17" s="362"/>
+      <c r="X17" s="362"/>
       <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
@@ -20090,16 +20066,16 @@
       <c r="Q18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="308" t="s">
+      <c r="R18" s="318" t="s">
         <v>1445</v>
       </c>
-      <c r="S18" s="373"/>
-      <c r="T18" s="309"/>
+      <c r="S18" s="361"/>
+      <c r="T18" s="319"/>
       <c r="U18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="366"/>
-      <c r="X18" s="366"/>
+      <c r="W18" s="362"/>
+      <c r="X18" s="362"/>
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
@@ -20138,16 +20114,16 @@
       <c r="Q19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="312" t="s">
+      <c r="R19" s="322" t="s">
         <v>1446</v>
       </c>
-      <c r="S19" s="374"/>
-      <c r="T19" s="313"/>
+      <c r="S19" s="363"/>
+      <c r="T19" s="323"/>
       <c r="U19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="366"/>
-      <c r="X19" s="366"/>
+      <c r="W19" s="362"/>
+      <c r="X19" s="362"/>
       <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
@@ -20186,11 +20162,11 @@
       <c r="Q20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="312" t="s">
+      <c r="R20" s="322" t="s">
         <v>1444</v>
       </c>
-      <c r="S20" s="374"/>
-      <c r="T20" s="313"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="323"/>
       <c r="U20" s="42" t="s">
         <v>2</v>
       </c>
@@ -20232,11 +20208,11 @@
       <c r="Q21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="310" t="s">
+      <c r="R21" s="320" t="s">
         <v>1447</v>
       </c>
-      <c r="S21" s="362"/>
-      <c r="T21" s="311"/>
+      <c r="S21" s="364"/>
+      <c r="T21" s="321"/>
       <c r="U21" s="42" t="s">
         <v>2</v>
       </c>
@@ -20260,11 +20236,11 @@
       <c r="I22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="359" t="s">
+      <c r="J22" s="369" t="s">
         <v>1151</v>
       </c>
-      <c r="K22" s="360"/>
-      <c r="L22" s="361"/>
+      <c r="K22" s="370"/>
+      <c r="L22" s="371"/>
       <c r="M22" s="42" t="s">
         <v>2</v>
       </c>
@@ -20362,14 +20338,14 @@
       <c r="W24" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="X24" s="368" t="s">
+      <c r="X24" s="360" t="s">
         <v>637</v>
       </c>
-      <c r="Y24" s="368"/>
-      <c r="Z24" s="368" t="s">
+      <c r="Y24" s="360"/>
+      <c r="Z24" s="360" t="s">
         <v>638</v>
       </c>
-      <c r="AA24" s="368"/>
+      <c r="AA24" s="360"/>
     </row>
     <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="78">
@@ -20409,14 +20385,14 @@
       <c r="W25" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="X25" s="368" t="s">
+      <c r="X25" s="360" t="s">
         <v>640</v>
       </c>
-      <c r="Y25" s="368"/>
-      <c r="Z25" s="369" t="s">
+      <c r="Y25" s="360"/>
+      <c r="Z25" s="365" t="s">
         <v>641</v>
       </c>
-      <c r="AA25" s="369"/>
+      <c r="AA25" s="365"/>
     </row>
     <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="80">
@@ -20444,12 +20420,12 @@
       <c r="W26" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="X26" s="368" t="s">
+      <c r="X26" s="360" t="s">
         <v>642</v>
       </c>
-      <c r="Y26" s="368"/>
-      <c r="Z26" s="372"/>
-      <c r="AA26" s="372"/>
+      <c r="Y26" s="360"/>
+      <c r="Z26" s="359"/>
+      <c r="AA26" s="359"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="I27" s="15" t="s">
@@ -20467,28 +20443,28 @@
       <c r="W27" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="X27" s="372"/>
-      <c r="Y27" s="372"/>
-      <c r="Z27" s="368" t="s">
+      <c r="X27" s="359"/>
+      <c r="Y27" s="359"/>
+      <c r="Z27" s="360" t="s">
         <v>645</v>
       </c>
-      <c r="AA27" s="368"/>
+      <c r="AA27" s="360"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="J28" s="359" t="s">
+      <c r="J28" s="369" t="s">
         <v>1451</v>
       </c>
-      <c r="K28" s="360"/>
-      <c r="L28" s="361"/>
+      <c r="K28" s="370"/>
+      <c r="L28" s="371"/>
       <c r="M28" s="42"/>
       <c r="U28" s="42"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="310" t="s">
+      <c r="J29" s="320" t="s">
         <v>1452</v>
       </c>
-      <c r="K29" s="362"/>
-      <c r="L29" s="311"/>
+      <c r="K29" s="364"/>
+      <c r="L29" s="321"/>
       <c r="M29" s="42"/>
       <c r="U29" s="42"/>
     </row>
@@ -20823,6 +20799,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
     <mergeCell ref="Z26:AA26"/>
     <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="R15:T15"/>
@@ -20835,22 +20823,10 @@
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="R16:T16"/>
     <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W16:X16"/>
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="X25:Y25"/>
     <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="X27:Y27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20911,7 +20887,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="375" t="s">
+      <c r="A2" s="377" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1"/>
@@ -20943,7 +20919,7 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="375"/>
+      <c r="A3" s="377"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -21019,7 +20995,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="377" t="s">
+      <c r="A5" s="375" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -21074,7 +21050,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="378" t="s">
+      <c r="A7" s="380" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5"/>
@@ -21106,7 +21082,7 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="379"/>
+      <c r="A8" s="381"/>
       <c r="B8" s="1"/>
       <c r="D8" s="22" t="s">
         <v>30</v>
@@ -21134,7 +21110,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="380"/>
+      <c r="A9" s="382"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="19" t="s">
@@ -21163,7 +21139,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="377" t="s">
+      <c r="A10" s="375" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -21236,7 +21212,7 @@
       <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="377" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1"/>
@@ -21268,7 +21244,7 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="375"/>
+      <c r="A13" s="377"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -21288,7 +21264,7 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="375"/>
+      <c r="A14" s="377"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -21362,10 +21338,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="377" t="s">
+      <c r="A17" s="375" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="381" t="s">
+      <c r="B17" s="378" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -21387,8 +21363,8 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="375"/>
-      <c r="B18" s="382"/>
+      <c r="A18" s="377"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -21408,7 +21384,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="375"/>
+      <c r="A19" s="377"/>
       <c r="B19" s="376"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
@@ -21429,8 +21405,8 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="375"/>
-      <c r="B20" s="377" t="s">
+      <c r="A20" s="377"/>
+      <c r="B20" s="375" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -21452,8 +21428,8 @@
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="375"/>
-      <c r="B21" s="375"/>
+      <c r="A21" s="377"/>
+      <c r="B21" s="377"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>129</v>
@@ -21473,7 +21449,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="375"/>
+      <c r="A22" s="377"/>
       <c r="B22" s="376"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
@@ -21494,8 +21470,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="375"/>
-      <c r="B23" s="377" t="s">
+      <c r="A23" s="377"/>
+      <c r="B23" s="375" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -21517,7 +21493,7 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="375"/>
+      <c r="A24" s="377"/>
       <c r="B24" s="376"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -21550,8 +21526,8 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="375"/>
-      <c r="B25" s="377" t="s">
+      <c r="A25" s="377"/>
+      <c r="B25" s="375" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -21573,7 +21549,7 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="375"/>
+      <c r="A26" s="377"/>
       <c r="B26" s="376"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
@@ -21594,7 +21570,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="375"/>
+      <c r="A27" s="377"/>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
@@ -21629,7 +21605,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="375"/>
+      <c r="A28" s="377"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -21664,7 +21640,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="375"/>
+      <c r="A29" s="377"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -21706,7 +21682,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="375" t="s">
+      <c r="A31" s="377" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="1"/>
@@ -21726,7 +21702,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="375"/>
+      <c r="A32" s="377"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -21746,7 +21722,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="375"/>
+      <c r="A33" s="377"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
@@ -21767,7 +21743,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="377" t="s">
+      <c r="A34" s="375" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -21954,11 +21930,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -21966,6 +21937,11 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22019,52 +21995,52 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="288" t="s">
         <v>682</v>
       </c>
-      <c r="B3" s="297"/>
+      <c r="B3" s="289"/>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="296" t="s">
+      <c r="D3" s="288" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="297"/>
+      <c r="E3" s="289"/>
       <c r="F3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="288" t="s">
         <v>708</v>
       </c>
-      <c r="H3" s="297"/>
+      <c r="H3" s="289"/>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="296" t="s">
+      <c r="J3" s="288" t="s">
         <v>708</v>
       </c>
-      <c r="K3" s="297"/>
+      <c r="K3" s="289"/>
       <c r="L3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="296" t="s">
+      <c r="M3" s="288" t="s">
         <v>1196</v>
       </c>
-      <c r="N3" s="297"/>
+      <c r="N3" s="289"/>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="296" t="s">
+      <c r="P3" s="288" t="s">
         <v>912</v>
       </c>
-      <c r="Q3" s="297"/>
+      <c r="Q3" s="289"/>
       <c r="R3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="296" t="s">
+      <c r="S3" s="288" t="s">
         <v>912</v>
       </c>
-      <c r="T3" s="297"/>
+      <c r="T3" s="289"/>
       <c r="U3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22106,10 +22082,10 @@
       <c r="L4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="383" t="s">
+      <c r="M4" s="389" t="s">
         <v>1186</v>
       </c>
-      <c r="N4" s="371"/>
+      <c r="N4" s="368"/>
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
@@ -22151,10 +22127,10 @@
       <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="320" t="s">
+      <c r="G5" s="308" t="s">
         <v>739</v>
       </c>
-      <c r="H5" s="321"/>
+      <c r="H5" s="309"/>
       <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
@@ -22167,17 +22143,17 @@
       <c r="L5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="383" t="s">
+      <c r="M5" s="389" t="s">
         <v>1195</v>
       </c>
-      <c r="N5" s="371"/>
+      <c r="N5" s="368"/>
       <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="328" t="s">
+      <c r="P5" s="334" t="s">
         <v>1185</v>
       </c>
-      <c r="Q5" s="329"/>
+      <c r="Q5" s="335"/>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
@@ -22210,10 +22186,10 @@
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="320" t="s">
+      <c r="G6" s="308" t="s">
         <v>738</v>
       </c>
-      <c r="H6" s="321"/>
+      <c r="H6" s="309"/>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
@@ -22231,10 +22207,10 @@
       <c r="O6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="332" t="s">
+      <c r="P6" s="357" t="s">
         <v>1188</v>
       </c>
-      <c r="Q6" s="333"/>
+      <c r="Q6" s="358"/>
       <c r="R6" s="15" t="s">
         <v>2</v>
       </c>
@@ -22267,10 +22243,10 @@
       <c r="F7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="386" t="s">
+      <c r="G7" s="393" t="s">
         <v>715</v>
       </c>
-      <c r="H7" s="387"/>
+      <c r="H7" s="394"/>
       <c r="I7" s="15" t="s">
         <v>2</v>
       </c>
@@ -22348,10 +22324,10 @@
       <c r="L8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="383" t="s">
+      <c r="M8" s="389" t="s">
         <v>1187</v>
       </c>
-      <c r="N8" s="371"/>
+      <c r="N8" s="368"/>
       <c r="O8" s="15" t="s">
         <v>2</v>
       </c>
@@ -22425,10 +22401,10 @@
       <c r="R9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="342" t="s">
+      <c r="S9" s="353" t="s">
         <v>1184</v>
       </c>
-      <c r="T9" s="343"/>
+      <c r="T9" s="354"/>
       <c r="U9" s="15" t="s">
         <v>2</v>
       </c>
@@ -22446,10 +22422,10 @@
       <c r="F10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="320" t="s">
+      <c r="G10" s="308" t="s">
         <v>693</v>
       </c>
-      <c r="H10" s="321"/>
+      <c r="H10" s="309"/>
       <c r="I10" s="15" t="s">
         <v>2</v>
       </c>
@@ -22471,10 +22447,10 @@
       <c r="O10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="332" t="s">
+      <c r="P10" s="357" t="s">
         <v>1189</v>
       </c>
-      <c r="Q10" s="333"/>
+      <c r="Q10" s="358"/>
       <c r="R10" s="15" t="s">
         <v>2</v>
       </c>
@@ -22496,10 +22472,10 @@
       <c r="F11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="320" t="s">
+      <c r="G11" s="308" t="s">
         <v>721</v>
       </c>
-      <c r="H11" s="321"/>
+      <c r="H11" s="309"/>
       <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
@@ -22546,10 +22522,10 @@
       <c r="F12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="320" t="s">
+      <c r="G12" s="308" t="s">
         <v>709</v>
       </c>
-      <c r="H12" s="321"/>
+      <c r="H12" s="309"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
@@ -22562,10 +22538,10 @@
       <c r="L12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="320" t="s">
+      <c r="M12" s="308" t="s">
         <v>929</v>
       </c>
-      <c r="N12" s="321"/>
+      <c r="N12" s="309"/>
       <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
@@ -22598,10 +22574,10 @@
       <c r="F13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="384" t="s">
+      <c r="G13" s="391" t="s">
         <v>714</v>
       </c>
-      <c r="H13" s="385"/>
+      <c r="H13" s="392"/>
       <c r="I13" s="15" t="s">
         <v>2</v>
       </c>
@@ -22614,10 +22590,10 @@
       <c r="L13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="320" t="s">
+      <c r="M13" s="308" t="s">
         <v>721</v>
       </c>
-      <c r="N13" s="321"/>
+      <c r="N13" s="309"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
@@ -22668,10 +22644,10 @@
       <c r="L14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="393" t="s">
+      <c r="M14" s="385" t="s">
         <v>714</v>
       </c>
-      <c r="N14" s="394"/>
+      <c r="N14" s="386"/>
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
@@ -22698,24 +22674,24 @@
       <c r="F15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="388" t="s">
+      <c r="G15" s="387" t="s">
         <v>711</v>
       </c>
-      <c r="H15" s="389"/>
+      <c r="H15" s="388"/>
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="320" t="s">
+      <c r="J15" s="308" t="s">
         <v>723</v>
       </c>
-      <c r="K15" s="321"/>
+      <c r="K15" s="309"/>
       <c r="L15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="342" t="s">
+      <c r="M15" s="353" t="s">
         <v>1180</v>
       </c>
-      <c r="N15" s="343"/>
+      <c r="N15" s="354"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -22742,24 +22718,24 @@
       <c r="F16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="388" t="s">
+      <c r="G16" s="387" t="s">
         <v>716</v>
       </c>
-      <c r="H16" s="389"/>
+      <c r="H16" s="388"/>
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="320" t="s">
+      <c r="J16" s="308" t="s">
         <v>731</v>
       </c>
-      <c r="K16" s="321"/>
+      <c r="K16" s="309"/>
       <c r="L16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="322" t="s">
+      <c r="M16" s="324" t="s">
         <v>713</v>
       </c>
-      <c r="N16" s="323"/>
+      <c r="N16" s="325"/>
       <c r="O16" s="15" t="s">
         <v>2</v>
       </c>
@@ -22789,21 +22765,21 @@
       <c r="G17" s="390" t="s">
         <v>712</v>
       </c>
-      <c r="H17" s="391"/>
+      <c r="H17" s="384"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="320" t="s">
+      <c r="J17" s="308" t="s">
         <v>732</v>
       </c>
-      <c r="K17" s="321"/>
+      <c r="K17" s="309"/>
       <c r="L17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="388" t="s">
+      <c r="M17" s="387" t="s">
         <v>1199</v>
       </c>
-      <c r="N17" s="389"/>
+      <c r="N17" s="388"/>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
@@ -22833,17 +22809,17 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="320" t="s">
+      <c r="J18" s="308" t="s">
         <v>730</v>
       </c>
-      <c r="K18" s="321"/>
+      <c r="K18" s="309"/>
       <c r="L18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="388" t="s">
+      <c r="M18" s="387" t="s">
         <v>1200</v>
       </c>
-      <c r="N18" s="389"/>
+      <c r="N18" s="388"/>
       <c r="O18" s="15" t="s">
         <v>2</v>
       </c>
@@ -22879,10 +22855,10 @@
       <c r="L19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="392" t="s">
+      <c r="M19" s="383" t="s">
         <v>1197</v>
       </c>
-      <c r="N19" s="391"/>
+      <c r="N19" s="384"/>
       <c r="O19" s="15" t="s">
         <v>2</v>
       </c>
@@ -23043,10 +23019,10 @@
       <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="320" t="s">
+      <c r="P23" s="308" t="s">
         <v>675</v>
       </c>
-      <c r="Q23" s="321"/>
+      <c r="Q23" s="309"/>
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
@@ -23079,10 +23055,10 @@
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="345" t="s">
+      <c r="P24" s="346" t="s">
         <v>926</v>
       </c>
-      <c r="Q24" s="346"/>
+      <c r="Q24" s="347"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -23260,33 +23236,33 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="296" t="s">
+      <c r="A34" s="288" t="s">
         <v>1339</v>
       </c>
-      <c r="B34" s="297"/>
+      <c r="B34" s="289"/>
       <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="296" t="s">
+      <c r="D34" s="288" t="s">
         <v>1339</v>
       </c>
-      <c r="E34" s="297"/>
+      <c r="E34" s="289"/>
       <c r="F34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="296" t="s">
+      <c r="G34" s="288" t="s">
         <v>1339</v>
       </c>
-      <c r="H34" s="297"/>
+      <c r="H34" s="289"/>
       <c r="I34" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="383" t="s">
+      <c r="A35" s="389" t="s">
         <v>1186</v>
       </c>
-      <c r="B35" s="371"/>
+      <c r="B35" s="368"/>
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -23310,17 +23286,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="383" t="s">
+      <c r="A36" s="389" t="s">
         <v>1195</v>
       </c>
-      <c r="B36" s="371"/>
+      <c r="B36" s="368"/>
       <c r="C36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="328" t="s">
+      <c r="D36" s="334" t="s">
         <v>1185</v>
       </c>
-      <c r="E36" s="329"/>
+      <c r="E36" s="335"/>
       <c r="F36" s="15" t="s">
         <v>2</v>
       </c>
@@ -23342,10 +23318,10 @@
       <c r="C37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="332" t="s">
+      <c r="D37" s="357" t="s">
         <v>1188</v>
       </c>
-      <c r="E37" s="333"/>
+      <c r="E37" s="358"/>
       <c r="F37" s="15" t="s">
         <v>2</v>
       </c>
@@ -23389,10 +23365,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="383" t="s">
+      <c r="A39" s="389" t="s">
         <v>1187</v>
       </c>
-      <c r="B39" s="371"/>
+      <c r="B39" s="368"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -23430,10 +23406,10 @@
       <c r="F40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="342" t="s">
+      <c r="G40" s="353" t="s">
         <v>1184</v>
       </c>
-      <c r="H40" s="343"/>
+      <c r="H40" s="354"/>
       <c r="I40" s="15" t="s">
         <v>2</v>
       </c>
@@ -23448,10 +23424,10 @@
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="332" t="s">
+      <c r="D41" s="357" t="s">
         <v>1189</v>
       </c>
-      <c r="E41" s="333"/>
+      <c r="E41" s="358"/>
       <c r="F41" s="15" t="s">
         <v>2</v>
       </c>
@@ -23491,10 +23467,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="320" t="s">
+      <c r="A43" s="308" t="s">
         <v>929</v>
       </c>
-      <c r="B43" s="321"/>
+      <c r="B43" s="309"/>
       <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
@@ -23518,10 +23494,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="320" t="s">
+      <c r="A44" s="308" t="s">
         <v>721</v>
       </c>
-      <c r="B44" s="321"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="15" t="s">
         <v>2</v>
       </c>
@@ -23545,10 +23521,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="393" t="s">
+      <c r="A45" s="385" t="s">
         <v>714</v>
       </c>
-      <c r="B45" s="394"/>
+      <c r="B45" s="386"/>
       <c r="C45" s="15" t="s">
         <v>2</v>
       </c>
@@ -23566,10 +23542,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="342" t="s">
+      <c r="A46" s="353" t="s">
         <v>1180</v>
       </c>
-      <c r="B46" s="343"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -23587,10 +23563,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="322" t="s">
+      <c r="A47" s="324" t="s">
         <v>713</v>
       </c>
-      <c r="B47" s="323"/>
+      <c r="B47" s="325"/>
       <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
@@ -23605,10 +23581,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="388" t="s">
+      <c r="A48" s="387" t="s">
         <v>1199</v>
       </c>
-      <c r="B48" s="389"/>
+      <c r="B48" s="388"/>
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -23623,10 +23599,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="388" t="s">
+      <c r="A49" s="387" t="s">
         <v>1200</v>
       </c>
-      <c r="B49" s="389"/>
+      <c r="B49" s="388"/>
       <c r="C49" s="15" t="s">
         <v>2</v>
       </c>
@@ -23641,10 +23617,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="392" t="s">
+      <c r="A50" s="383" t="s">
         <v>1197</v>
       </c>
-      <c r="B50" s="391"/>
+      <c r="B50" s="384"/>
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -23721,10 +23697,10 @@
       <c r="C54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="308" t="s">
         <v>675</v>
       </c>
-      <c r="E54" s="321"/>
+      <c r="E54" s="309"/>
       <c r="F54" s="15" t="s">
         <v>2</v>
       </c>
@@ -23742,10 +23718,10 @@
       <c r="C55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="345" t="s">
+      <c r="D55" s="346" t="s">
         <v>926</v>
       </c>
-      <c r="E55" s="346"/>
+      <c r="E55" s="347"/>
       <c r="F55" s="15" t="s">
         <v>2</v>
       </c>
@@ -24465,49 +24441,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="A39:B39"/>
@@ -24523,6 +24456,49 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24566,10 +24542,10 @@
       <c r="G1" s="236" t="s">
         <v>1225</v>
       </c>
-      <c r="H1" s="398" t="s">
+      <c r="H1" s="395" t="s">
         <v>1206</v>
       </c>
-      <c r="I1" s="398"/>
+      <c r="I1" s="395"/>
       <c r="J1" s="236" t="s">
         <v>1207</v>
       </c>
@@ -24865,10 +24841,10 @@
       <c r="G9" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="399" t="s">
+      <c r="H9" s="396" t="s">
         <v>1217</v>
       </c>
-      <c r="I9" s="399"/>
+      <c r="I9" s="396"/>
       <c r="J9" s="235" t="s">
         <v>35</v>
       </c>
@@ -25026,18 +25002,18 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="395" t="s">
+      <c r="A14" s="397" t="s">
         <v>1257</v>
       </c>
-      <c r="B14" s="395"/>
-      <c r="C14" s="395"/>
-      <c r="D14" s="395"/>
-      <c r="E14" s="395"/>
-      <c r="F14" s="395"/>
-      <c r="G14" s="395"/>
-      <c r="H14" s="395"/>
-      <c r="I14" s="395"/>
-      <c r="J14" s="395"/>
+      <c r="B14" s="397"/>
+      <c r="C14" s="397"/>
+      <c r="D14" s="397"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="397"/>
+      <c r="G14" s="397"/>
+      <c r="H14" s="397"/>
+      <c r="I14" s="397"/>
+      <c r="J14" s="397"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -25058,12 +25034,12 @@
       <c r="F15" s="232" t="s">
         <v>1221</v>
       </c>
-      <c r="G15" s="396" t="s">
+      <c r="G15" s="399" t="s">
         <v>1256</v>
       </c>
-      <c r="H15" s="397"/>
-      <c r="I15" s="397"/>
-      <c r="J15" s="397"/>
+      <c r="H15" s="400"/>
+      <c r="I15" s="400"/>
+      <c r="J15" s="400"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
@@ -25085,9 +25061,9 @@
         <v>1289</v>
       </c>
       <c r="G16" s="401"/>
-      <c r="H16" s="400"/>
-      <c r="I16" s="400"/>
-      <c r="J16" s="400"/>
+      <c r="H16" s="398"/>
+      <c r="I16" s="398"/>
+      <c r="J16" s="398"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -25108,12 +25084,12 @@
       <c r="F17" s="232" t="s">
         <v>1221</v>
       </c>
-      <c r="G17" s="396" t="s">
+      <c r="G17" s="399" t="s">
         <v>1260</v>
       </c>
-      <c r="H17" s="397"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="397"/>
+      <c r="H17" s="400"/>
+      <c r="I17" s="400"/>
+      <c r="J17" s="400"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
@@ -25135,9 +25111,9 @@
         <v>1228</v>
       </c>
       <c r="G18" s="401"/>
-      <c r="H18" s="400"/>
-      <c r="I18" s="400"/>
-      <c r="J18" s="400"/>
+      <c r="H18" s="398"/>
+      <c r="I18" s="398"/>
+      <c r="J18" s="398"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -25158,12 +25134,12 @@
       <c r="F19" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="G19" s="396" t="s">
+      <c r="G19" s="399" t="s">
         <v>1263</v>
       </c>
-      <c r="H19" s="397"/>
-      <c r="I19" s="397"/>
-      <c r="J19" s="397"/>
+      <c r="H19" s="400"/>
+      <c r="I19" s="400"/>
+      <c r="J19" s="400"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -25184,12 +25160,12 @@
       <c r="F20" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="396" t="s">
+      <c r="G20" s="399" t="s">
         <v>1292</v>
       </c>
-      <c r="H20" s="397"/>
-      <c r="I20" s="397"/>
-      <c r="J20" s="397"/>
+      <c r="H20" s="400"/>
+      <c r="I20" s="400"/>
+      <c r="J20" s="400"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -25210,26 +25186,26 @@
       <c r="F21" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="G21" s="396" t="s">
+      <c r="G21" s="399" t="s">
         <v>1265</v>
       </c>
-      <c r="H21" s="397"/>
-      <c r="I21" s="397"/>
-      <c r="J21" s="397"/>
+      <c r="H21" s="400"/>
+      <c r="I21" s="400"/>
+      <c r="J21" s="400"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="395" t="s">
+      <c r="A22" s="397" t="s">
         <v>1299</v>
       </c>
-      <c r="B22" s="395"/>
-      <c r="C22" s="395"/>
-      <c r="D22" s="395"/>
-      <c r="E22" s="395"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="395"/>
-      <c r="H22" s="395"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="395"/>
+      <c r="B22" s="397"/>
+      <c r="C22" s="397"/>
+      <c r="D22" s="397"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="397"/>
+      <c r="G22" s="397"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="397"/>
+      <c r="J22" s="397"/>
       <c r="L22" t="s">
         <v>2</v>
       </c>
@@ -25387,18 +25363,18 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="395" t="s">
+      <c r="A27" s="397" t="s">
         <v>1300</v>
       </c>
-      <c r="B27" s="395"/>
-      <c r="C27" s="395"/>
-      <c r="D27" s="395"/>
-      <c r="E27" s="395"/>
-      <c r="F27" s="395"/>
-      <c r="G27" s="395"/>
-      <c r="H27" s="395"/>
-      <c r="I27" s="395"/>
-      <c r="J27" s="395"/>
+      <c r="B27" s="397"/>
+      <c r="C27" s="397"/>
+      <c r="D27" s="397"/>
+      <c r="E27" s="397"/>
+      <c r="F27" s="397"/>
+      <c r="G27" s="397"/>
+      <c r="H27" s="397"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -25591,30 +25567,30 @@
       <c r="B33" t="s">
         <v>1233</v>
       </c>
-      <c r="C33" s="400" t="s">
+      <c r="C33" s="398" t="s">
         <v>1243</v>
       </c>
-      <c r="D33" s="400"/>
-      <c r="E33" s="400"/>
-      <c r="F33" s="400"/>
-      <c r="G33" s="400"/>
-      <c r="H33" s="400"/>
-      <c r="I33" s="400"/>
-      <c r="J33" s="400"/>
+      <c r="D33" s="398"/>
+      <c r="E33" s="398"/>
+      <c r="F33" s="398"/>
+      <c r="G33" s="398"/>
+      <c r="H33" s="398"/>
+      <c r="I33" s="398"/>
+      <c r="J33" s="398"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="395" t="s">
+      <c r="A34" s="397" t="s">
         <v>1251</v>
       </c>
-      <c r="B34" s="395"/>
-      <c r="C34" s="395"/>
-      <c r="D34" s="395"/>
-      <c r="E34" s="395"/>
-      <c r="F34" s="395"/>
-      <c r="G34" s="395"/>
-      <c r="H34" s="395"/>
-      <c r="I34" s="395"/>
-      <c r="J34" s="395"/>
+      <c r="B34" s="397"/>
+      <c r="C34" s="397"/>
+      <c r="D34" s="397"/>
+      <c r="E34" s="397"/>
+      <c r="F34" s="397"/>
+      <c r="G34" s="397"/>
+      <c r="H34" s="397"/>
+      <c r="I34" s="397"/>
+      <c r="J34" s="397"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -25635,12 +25611,12 @@
       <c r="F35" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="G35" s="397" t="s">
+      <c r="G35" s="400" t="s">
         <v>1253</v>
       </c>
-      <c r="H35" s="397"/>
-      <c r="I35" s="397"/>
-      <c r="J35" s="397"/>
+      <c r="H35" s="400"/>
+      <c r="I35" s="400"/>
+      <c r="J35" s="400"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
@@ -25661,26 +25637,26 @@
       <c r="F36" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="G36" s="397" t="s">
+      <c r="G36" s="400" t="s">
         <v>1250</v>
       </c>
-      <c r="H36" s="397"/>
-      <c r="I36" s="397"/>
-      <c r="J36" s="397"/>
+      <c r="H36" s="400"/>
+      <c r="I36" s="400"/>
+      <c r="J36" s="400"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="395" t="s">
+      <c r="A37" s="397" t="s">
         <v>1247</v>
       </c>
-      <c r="B37" s="395"/>
-      <c r="C37" s="395"/>
-      <c r="D37" s="395"/>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="395"/>
-      <c r="J37" s="395"/>
+      <c r="B37" s="397"/>
+      <c r="C37" s="397"/>
+      <c r="D37" s="397"/>
+      <c r="E37" s="397"/>
+      <c r="F37" s="397"/>
+      <c r="G37" s="397"/>
+      <c r="H37" s="397"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="397"/>
       <c r="K37" t="s">
         <v>2</v>
       </c>
@@ -25707,12 +25683,12 @@
       <c r="F38" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="G38" s="396" t="s">
+      <c r="G38" s="399" t="s">
         <v>1245</v>
       </c>
-      <c r="H38" s="397"/>
-      <c r="I38" s="397"/>
-      <c r="J38" s="397"/>
+      <c r="H38" s="400"/>
+      <c r="I38" s="400"/>
+      <c r="J38" s="400"/>
       <c r="K38" t="s">
         <v>2</v>
       </c>
@@ -25739,12 +25715,12 @@
       <c r="F39" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="396" t="s">
+      <c r="G39" s="399" t="s">
         <v>1302</v>
       </c>
-      <c r="H39" s="397"/>
-      <c r="I39" s="397"/>
-      <c r="J39" s="397"/>
+      <c r="H39" s="400"/>
+      <c r="I39" s="400"/>
+      <c r="J39" s="400"/>
       <c r="K39" t="s">
         <v>2</v>
       </c>
@@ -25861,18 +25837,18 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="395" t="s">
+      <c r="A43" s="397" t="s">
         <v>1273</v>
       </c>
-      <c r="B43" s="395"/>
-      <c r="C43" s="395"/>
-      <c r="D43" s="395"/>
-      <c r="E43" s="395"/>
-      <c r="F43" s="395"/>
-      <c r="G43" s="395"/>
-      <c r="H43" s="395"/>
-      <c r="I43" s="395"/>
-      <c r="J43" s="395"/>
+      <c r="B43" s="397"/>
+      <c r="C43" s="397"/>
+      <c r="D43" s="397"/>
+      <c r="E43" s="397"/>
+      <c r="F43" s="397"/>
+      <c r="G43" s="397"/>
+      <c r="H43" s="397"/>
+      <c r="I43" s="397"/>
+      <c r="J43" s="397"/>
       <c r="K43" t="s">
         <v>2</v>
       </c>
@@ -25899,12 +25875,12 @@
       <c r="F44" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="396" t="s">
+      <c r="G44" s="399" t="s">
         <v>1270</v>
       </c>
-      <c r="H44" s="397"/>
-      <c r="I44" s="397"/>
-      <c r="J44" s="397"/>
+      <c r="H44" s="400"/>
+      <c r="I44" s="400"/>
+      <c r="J44" s="400"/>
       <c r="K44" t="s">
         <v>2</v>
       </c>
@@ -25931,12 +25907,12 @@
       <c r="F45" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="396" t="s">
+      <c r="G45" s="399" t="s">
         <v>1269</v>
       </c>
-      <c r="H45" s="397"/>
-      <c r="I45" s="397"/>
-      <c r="J45" s="397"/>
+      <c r="H45" s="400"/>
+      <c r="I45" s="400"/>
+      <c r="J45" s="400"/>
       <c r="K45" t="s">
         <v>2</v>
       </c>
@@ -25963,12 +25939,12 @@
       <c r="F46" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="396" t="s">
+      <c r="G46" s="399" t="s">
         <v>1272</v>
       </c>
-      <c r="H46" s="397"/>
-      <c r="I46" s="397"/>
-      <c r="J46" s="397"/>
+      <c r="H46" s="400"/>
+      <c r="I46" s="400"/>
+      <c r="J46" s="400"/>
       <c r="K46" t="s">
         <v>2</v>
       </c>
@@ -26245,6 +26221,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A22:J22"/>
@@ -26258,16 +26244,6 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vue_scheme.xlsx
+++ b/vue_scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB43442-83C1-497D-8982-E90099B62D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBEE024-7331-42C0-80B7-152F80A39501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="3240" windowHeight="1030" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="3240" windowHeight="1030" xr2:uid="{36048C15-E544-4B43-B34D-766EA946C971}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -6328,22 +6328,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6352,7 +6342,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6367,11 +6360,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6379,37 +6396,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6421,40 +6408,40 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6463,55 +6450,34 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6532,16 +6498,76 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6559,19 +6585,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6580,32 +6594,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6616,28 +6612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6652,17 +6633,29 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="11" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6670,11 +6663,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8285,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAA53EB-B8CD-4FB9-B85F-A5C687C12A03}">
   <dimension ref="A1:AJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8294,11 +8294,11 @@
     <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="276">
         <f ca="1">(TODAY()-DATE(2022, 11,14))</f>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B1" s="249">
         <f ca="1">(142+A1)*365/365</f>
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -8381,24 +8381,24 @@
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="309" t="s">
+      <c r="A5" s="308" t="s">
         <v>1291</v>
       </c>
-      <c r="B5" s="310"/>
+      <c r="B5" s="309"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="309" t="s">
+      <c r="G5" s="308" t="s">
         <v>814</v>
       </c>
-      <c r="H5" s="310"/>
+      <c r="H5" s="309"/>
       <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="309" t="s">
+      <c r="J5" s="308" t="s">
         <v>814</v>
       </c>
-      <c r="K5" s="310"/>
+      <c r="K5" s="309"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -8516,10 +8516,10 @@
         <v>1564</v>
       </c>
       <c r="Q14" s="303"/>
-      <c r="T14" s="311" t="s">
+      <c r="T14" s="310" t="s">
         <v>1408</v>
       </c>
-      <c r="U14" s="312"/>
+      <c r="U14" s="311"/>
       <c r="V14" t="s">
         <v>2</v>
       </c>
@@ -8540,24 +8540,24 @@
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="304" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="307"/>
+      <c r="K15" s="305"/>
       <c r="L15" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="306" t="s">
+      <c r="M15" s="304" t="s">
         <v>1572</v>
       </c>
-      <c r="N15" s="307"/>
+      <c r="N15" s="305"/>
       <c r="O15" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="306" t="s">
+      <c r="P15" s="304" t="s">
         <v>1565</v>
       </c>
-      <c r="Q15" s="307"/>
+      <c r="Q15" s="305"/>
       <c r="T15" s="34" t="s">
         <v>171</v>
       </c>
@@ -8641,17 +8641,17 @@
       <c r="Q16" s="33" t="s">
         <v>1566</v>
       </c>
-      <c r="T16" s="306" t="s">
+      <c r="T16" s="304" t="s">
         <v>1402</v>
       </c>
-      <c r="U16" s="307"/>
+      <c r="U16" s="305"/>
       <c r="V16" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="306" t="s">
+      <c r="W16" s="304" t="s">
         <v>187</v>
       </c>
-      <c r="X16" s="307"/>
+      <c r="X16" s="305"/>
       <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8791,10 +8791,10 @@
       <c r="V18" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="306" t="s">
+      <c r="W18" s="304" t="s">
         <v>245</v>
       </c>
-      <c r="X18" s="307"/>
+      <c r="X18" s="305"/>
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
@@ -8878,10 +8878,10 @@
       <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z19" s="306" t="s">
+      <c r="Z19" s="304" t="s">
         <v>187</v>
       </c>
-      <c r="AA19" s="307"/>
+      <c r="AA19" s="305"/>
       <c r="AB19" s="15" t="s">
         <v>2</v>
       </c>
@@ -8905,24 +8905,24 @@
         <v>35</v>
       </c>
       <c r="B20" s="124"/>
-      <c r="J20" s="304" t="s">
+      <c r="J20" s="306" t="s">
         <v>1563</v>
       </c>
-      <c r="K20" s="305"/>
+      <c r="K20" s="307"/>
       <c r="L20" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="304" t="s">
+      <c r="M20" s="306" t="s">
         <v>182</v>
       </c>
-      <c r="N20" s="305"/>
+      <c r="N20" s="307"/>
       <c r="O20" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="304" t="s">
+      <c r="P20" s="306" t="s">
         <v>1571</v>
       </c>
-      <c r="Q20" s="305"/>
+      <c r="Q20" s="307"/>
       <c r="T20" s="108"/>
       <c r="U20" s="110" t="s">
         <v>1403</v>
@@ -8993,10 +8993,10 @@
       <c r="R21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="304" t="s">
+      <c r="T21" s="306" t="s">
         <v>1409</v>
       </c>
-      <c r="U21" s="305"/>
+      <c r="U21" s="307"/>
       <c r="V21" t="s">
         <v>2</v>
       </c>
@@ -9180,24 +9180,24 @@
       <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="306" t="s">
+      <c r="E28" s="304" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="307"/>
+      <c r="F28" s="305"/>
       <c r="G28" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="304" t="s">
+      <c r="H28" s="306" t="s">
         <v>1539</v>
       </c>
-      <c r="I28" s="305"/>
+      <c r="I28" s="307"/>
       <c r="J28" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="304" t="s">
+      <c r="K28" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="L28" s="305"/>
+      <c r="L28" s="307"/>
       <c r="M28" t="s">
         <v>2</v>
       </c>
@@ -9241,10 +9241,10 @@
       <c r="A30" s="278">
         <v>5</v>
       </c>
-      <c r="B30" s="300" t="s">
+      <c r="B30" s="312" t="s">
         <v>1498</v>
       </c>
-      <c r="C30" s="301"/>
+      <c r="C30" s="313"/>
       <c r="D30" t="s">
         <v>2</v>
       </c>
@@ -9365,10 +9365,10 @@
       <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="306" t="s">
+      <c r="E33" s="304" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="307"/>
+      <c r="F33" s="305"/>
       <c r="G33" t="s">
         <v>2</v>
       </c>
@@ -9381,10 +9381,10 @@
       <c r="J33" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="313" t="s">
+      <c r="K33" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="L33" s="314"/>
+      <c r="L33" s="315"/>
       <c r="M33" t="s">
         <v>2</v>
       </c>
@@ -9393,10 +9393,10 @@
       <c r="A34" s="278">
         <v>9</v>
       </c>
-      <c r="B34" s="300" t="s">
+      <c r="B34" s="312" t="s">
         <v>1499</v>
       </c>
-      <c r="C34" s="301"/>
+      <c r="C34" s="313"/>
       <c r="D34" t="s">
         <v>2</v>
       </c>
@@ -9441,10 +9441,10 @@
       <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="306" t="s">
+      <c r="E35" s="304" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="307"/>
+      <c r="F35" s="305"/>
       <c r="G35" t="s">
         <v>2</v>
       </c>
@@ -9597,10 +9597,10 @@
       <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="304" t="s">
+      <c r="E39" s="306" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="305"/>
+      <c r="F39" s="307"/>
       <c r="G39" t="s">
         <v>2</v>
       </c>
@@ -9636,10 +9636,10 @@
       <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="304" t="s">
+      <c r="E40" s="306" t="s">
         <v>210</v>
       </c>
-      <c r="F40" s="305"/>
+      <c r="F40" s="307"/>
       <c r="G40" t="s">
         <v>2</v>
       </c>
@@ -9669,10 +9669,10 @@
       <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="304" t="s">
+      <c r="E41" s="306" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="305"/>
+      <c r="F41" s="307"/>
       <c r="G41" t="s">
         <v>2</v>
       </c>
@@ -9916,10 +9916,10 @@
       <c r="A54" s="278">
         <v>3</v>
       </c>
-      <c r="B54" s="415" t="s">
+      <c r="B54" s="300" t="s">
         <v>1583</v>
       </c>
-      <c r="C54" s="416" t="s">
+      <c r="C54" s="301" t="s">
         <v>1578</v>
       </c>
       <c r="D54" t="s">
@@ -9933,10 +9933,10 @@
       <c r="A55" s="282">
         <v>4</v>
       </c>
-      <c r="B55" s="415" t="s">
+      <c r="B55" s="300" t="s">
         <v>1579</v>
       </c>
-      <c r="C55" s="416" t="s">
+      <c r="C55" s="301" t="s">
         <v>1580</v>
       </c>
       <c r="D55" t="s">
@@ -10133,13 +10133,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E40:F40"/>
@@ -10150,32 +10167,15 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K33:L33"/>
   </mergeCells>
   <conditionalFormatting sqref="H34:I34">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
@@ -10196,8 +10196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A13F850-9F64-4DB4-B0B4-6110C995E04A}">
   <dimension ref="A1:BL175"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F100" sqref="E94:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -10226,10 +10226,10 @@
       <c r="A3" s="244">
         <v>2</v>
       </c>
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="333" t="s">
         <v>947</v>
       </c>
-      <c r="C3" s="322" t="s">
+      <c r="C3" s="334" t="s">
         <v>698</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -10247,10 +10247,10 @@
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="306" t="s">
+      <c r="E4" s="304" t="s">
         <v>1384</v>
       </c>
-      <c r="F4" s="307"/>
+      <c r="F4" s="305"/>
       <c r="H4" s="302" t="s">
         <v>1378</v>
       </c>
@@ -10267,34 +10267,34 @@
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="306" t="s">
+      <c r="E5" s="304" t="s">
         <v>1382</v>
       </c>
-      <c r="F5" s="307"/>
-      <c r="H5" s="306" t="s">
+      <c r="F5" s="305"/>
+      <c r="H5" s="304" t="s">
         <v>1381</v>
       </c>
-      <c r="I5" s="307"/>
+      <c r="I5" s="305"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="278">
         <v>5</v>
       </c>
-      <c r="B6" s="328" t="s">
+      <c r="B6" s="325" t="s">
         <v>1377</v>
       </c>
-      <c r="C6" s="307"/>
+      <c r="C6" s="305"/>
       <c r="D6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="315" t="s">
+      <c r="E6" s="322" t="s">
         <v>1383</v>
       </c>
-      <c r="F6" s="316"/>
-      <c r="H6" s="304" t="s">
+      <c r="F6" s="323"/>
+      <c r="H6" s="306" t="s">
         <v>1379</v>
       </c>
-      <c r="I6" s="305"/>
+      <c r="I6" s="307"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="244">
@@ -10309,10 +10309,10 @@
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="304" t="s">
+      <c r="H7" s="306" t="s">
         <v>1380</v>
       </c>
-      <c r="I7" s="305"/>
+      <c r="I7" s="307"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="278">
@@ -10327,10 +10327,10 @@
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="306" t="s">
+      <c r="H8" s="304" t="s">
         <v>1385</v>
       </c>
-      <c r="I8" s="307"/>
+      <c r="I8" s="305"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="244">
@@ -10453,17 +10453,17 @@
       <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="315" t="s">
+      <c r="E14" s="322" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="316"/>
+      <c r="F14" s="323"/>
       <c r="G14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="300" t="s">
+      <c r="H14" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="301"/>
+      <c r="I14" s="313"/>
       <c r="J14" s="31" t="s">
         <v>2</v>
       </c>
@@ -10515,10 +10515,10 @@
       <c r="J15" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="319" t="s">
+      <c r="K15" s="336" t="s">
         <v>1461</v>
       </c>
-      <c r="L15" s="320"/>
+      <c r="L15" s="337"/>
       <c r="M15" s="15" t="s">
         <v>2</v>
       </c>
@@ -10568,10 +10568,10 @@
       <c r="J16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="304" t="s">
+      <c r="K16" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="L16" s="305"/>
+      <c r="L16" s="307"/>
       <c r="M16" s="15" t="s">
         <v>2</v>
       </c>
@@ -10666,10 +10666,10 @@
       <c r="S17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T17" s="306" t="s">
+      <c r="T17" s="304" t="s">
         <v>161</v>
       </c>
-      <c r="U17" s="307"/>
+      <c r="U17" s="305"/>
       <c r="V17" s="15" t="s">
         <v>2</v>
       </c>
@@ -10746,10 +10746,10 @@
       <c r="P18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="304" t="s">
+      <c r="Q18" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="R18" s="305"/>
+      <c r="R18" s="307"/>
       <c r="S18" s="15" t="s">
         <v>2</v>
       </c>
@@ -10771,17 +10771,17 @@
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="304" t="s">
+      <c r="Z18" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="AA18" s="305"/>
+      <c r="AA18" s="307"/>
       <c r="AB18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC18" s="306" t="s">
+      <c r="AC18" s="304" t="s">
         <v>161</v>
       </c>
-      <c r="AD18" s="307"/>
+      <c r="AD18" s="305"/>
       <c r="AE18" s="40" t="s">
         <v>2</v>
       </c>
@@ -10884,10 +10884,10 @@
       <c r="AE19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF19" s="306" t="s">
+      <c r="AF19" s="304" t="s">
         <v>367</v>
       </c>
-      <c r="AG19" s="307"/>
+      <c r="AG19" s="305"/>
       <c r="AH19" s="15" t="s">
         <v>2</v>
       </c>
@@ -10960,11 +10960,11 @@
       <c r="V20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W20" s="306" t="str">
+      <c r="W20" s="304" t="str">
         <f>main!K27</f>
         <v>c/Dialog/DialogF</v>
       </c>
-      <c r="X20" s="307"/>
+      <c r="X20" s="305"/>
       <c r="Y20" s="15" t="s">
         <v>2</v>
       </c>
@@ -11102,10 +11102,10 @@
       <c r="AH21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI21" s="306" t="s">
+      <c r="AI21" s="304" t="s">
         <v>161</v>
       </c>
-      <c r="AJ21" s="307"/>
+      <c r="AJ21" s="305"/>
       <c r="AK21" s="15" t="s">
         <v>2</v>
       </c>
@@ -11156,10 +11156,10 @@
       <c r="S22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="304" t="s">
+      <c r="T22" s="306" t="s">
         <v>182</v>
       </c>
-      <c r="U22" s="305"/>
+      <c r="U22" s="307"/>
       <c r="V22" s="15" t="s">
         <v>2</v>
       </c>
@@ -11202,19 +11202,19 @@
       <c r="AK22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL22" s="306" t="s">
+      <c r="AL22" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="AM22" s="307"/>
+      <c r="AM22" s="305"/>
     </row>
     <row r="23" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="244">
         <v>12</v>
       </c>
-      <c r="B23" s="335" t="s">
+      <c r="B23" s="320" t="s">
         <v>1309</v>
       </c>
-      <c r="C23" s="336"/>
+      <c r="C23" s="321"/>
       <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
@@ -11265,10 +11265,10 @@
       <c r="Y23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z23" s="300" t="s">
+      <c r="Z23" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="AA23" s="301"/>
+      <c r="AA23" s="313"/>
       <c r="AB23" s="15" t="s">
         <v>2</v>
       </c>
@@ -11343,10 +11343,10 @@
       <c r="P24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="300" t="s">
+      <c r="Q24" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="R24" s="301"/>
+      <c r="R24" s="313"/>
       <c r="S24" s="15" t="s">
         <v>2</v>
       </c>
@@ -11457,31 +11457,31 @@
       <c r="S25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T25" s="306" t="s">
+      <c r="T25" s="304" t="s">
         <v>367</v>
       </c>
-      <c r="U25" s="307"/>
+      <c r="U25" s="305"/>
       <c r="V25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="304" t="s">
+      <c r="W25" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="X25" s="305"/>
+      <c r="X25" s="307"/>
       <c r="Y25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="317" t="s">
+      <c r="Z25" s="328" t="s">
         <v>280</v>
       </c>
-      <c r="AA25" s="318"/>
+      <c r="AA25" s="329"/>
       <c r="AB25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC25" s="306" t="s">
+      <c r="AC25" s="304" t="s">
         <v>289</v>
       </c>
-      <c r="AD25" s="307"/>
+      <c r="AD25" s="305"/>
       <c r="AE25" s="40" t="s">
         <v>2</v>
       </c>
@@ -11541,10 +11541,10 @@
       <c r="P26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="317" t="s">
+      <c r="Q26" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="R26" s="318"/>
+      <c r="R26" s="329"/>
       <c r="S26" s="15" t="s">
         <v>2</v>
       </c>
@@ -11607,10 +11607,10 @@
       <c r="A27" s="244">
         <v>16</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="322" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="323"/>
       <c r="D27" s="15" t="s">
         <v>2</v>
       </c>
@@ -11686,10 +11686,10 @@
       <c r="AH27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI27" s="304" t="s">
+      <c r="AI27" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="AJ27" s="305"/>
+      <c r="AJ27" s="307"/>
       <c r="AK27" s="15" t="s">
         <v>2</v>
       </c>
@@ -11749,10 +11749,10 @@
       <c r="V28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="304" t="s">
+      <c r="W28" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="X28" s="305"/>
+      <c r="X28" s="307"/>
       <c r="Y28" s="15" t="s">
         <v>2</v>
       </c>
@@ -11768,10 +11768,10 @@
       <c r="AE28" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF28" s="300" t="s">
+      <c r="AF28" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="AG28" s="301"/>
+      <c r="AG28" s="313"/>
       <c r="AH28" s="15" t="s">
         <v>2</v>
       </c>
@@ -11846,10 +11846,10 @@
       <c r="AB29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC29" s="306" t="s">
+      <c r="AC29" s="304" t="s">
         <v>289</v>
       </c>
-      <c r="AD29" s="307"/>
+      <c r="AD29" s="305"/>
       <c r="AE29" s="40" t="s">
         <v>2</v>
       </c>
@@ -11940,17 +11940,17 @@
       <c r="AE30" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AF30" s="306" t="s">
+      <c r="AF30" s="304" t="s">
         <v>314</v>
       </c>
-      <c r="AG30" s="307"/>
+      <c r="AG30" s="305"/>
       <c r="AH30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI30" s="304" t="s">
+      <c r="AI30" s="306" t="s">
         <v>311</v>
       </c>
-      <c r="AJ30" s="305"/>
+      <c r="AJ30" s="307"/>
       <c r="AK30" s="15" t="s">
         <v>2</v>
       </c>
@@ -11998,10 +11998,10 @@
       <c r="V31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W31" s="304" t="s">
+      <c r="W31" s="306" t="s">
         <v>223</v>
       </c>
-      <c r="X31" s="305"/>
+      <c r="X31" s="307"/>
       <c r="Y31" s="15" t="s">
         <v>2</v>
       </c>
@@ -12103,10 +12103,10 @@
       <c r="AH32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI32" s="306" t="s">
+      <c r="AI32" s="304" t="s">
         <v>312</v>
       </c>
-      <c r="AJ32" s="307"/>
+      <c r="AJ32" s="305"/>
       <c r="AK32" s="15" t="s">
         <v>2</v>
       </c>
@@ -12148,20 +12148,20 @@
       <c r="V33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W33" s="304" t="s">
+      <c r="W33" s="306" t="s">
         <v>224</v>
       </c>
-      <c r="X33" s="305"/>
+      <c r="X33" s="307"/>
       <c r="Y33" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC33" s="306" t="s">
+      <c r="AC33" s="304" t="s">
         <v>289</v>
       </c>
-      <c r="AD33" s="307"/>
+      <c r="AD33" s="305"/>
       <c r="AE33" s="40" t="s">
         <v>2</v>
       </c>
@@ -12212,10 +12212,10 @@
       <c r="S34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T34" s="300" t="s">
+      <c r="T34" s="312" t="s">
         <v>233</v>
       </c>
-      <c r="U34" s="301"/>
+      <c r="U34" s="313"/>
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
@@ -12316,10 +12316,10 @@
       <c r="A36" s="278">
         <v>25</v>
       </c>
-      <c r="H36" s="317" t="s">
+      <c r="H36" s="328" t="s">
         <v>255</v>
       </c>
-      <c r="I36" s="318"/>
+      <c r="I36" s="329"/>
       <c r="J36" s="31" t="s">
         <v>2</v>
       </c>
@@ -12338,11 +12338,11 @@
       <c r="S36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T36" s="306" t="str">
+      <c r="T36" s="304" t="str">
         <f>W17</f>
         <v>Dialog/NotificationDialog.vue</v>
       </c>
-      <c r="U36" s="307"/>
+      <c r="U36" s="305"/>
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
@@ -12411,10 +12411,10 @@
       <c r="AB37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC37" s="306" t="s">
+      <c r="AC37" s="304" t="s">
         <v>289</v>
       </c>
-      <c r="AD37" s="307"/>
+      <c r="AD37" s="305"/>
       <c r="AE37" s="40" t="s">
         <v>2</v>
       </c>
@@ -12479,10 +12479,10 @@
       <c r="A39" s="244">
         <v>28</v>
       </c>
-      <c r="H39" s="328" t="s">
+      <c r="H39" s="325" t="s">
         <v>1429</v>
       </c>
-      <c r="I39" s="307"/>
+      <c r="I39" s="305"/>
       <c r="J39" s="31" t="s">
         <v>2</v>
       </c>
@@ -12553,10 +12553,10 @@
       <c r="A41" s="281">
         <v>30</v>
       </c>
-      <c r="H41" s="328" t="s">
+      <c r="H41" s="325" t="s">
         <v>1430</v>
       </c>
-      <c r="I41" s="307"/>
+      <c r="I41" s="305"/>
       <c r="J41" s="31"/>
       <c r="K41" s="46" t="s">
         <v>1452</v>
@@ -12599,10 +12599,10 @@
       <c r="A43" s="281">
         <v>32</v>
       </c>
-      <c r="H43" s="327" t="s">
+      <c r="H43" s="332" t="s">
         <v>1431</v>
       </c>
-      <c r="I43" s="316"/>
+      <c r="I43" s="323"/>
       <c r="J43" s="31"/>
       <c r="K43" s="38" t="s">
         <v>1439</v>
@@ -12725,10 +12725,10 @@
       <c r="J49" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="317" t="s">
+      <c r="K49" s="328" t="s">
         <v>1527</v>
       </c>
-      <c r="L49" s="318"/>
+      <c r="L49" s="329"/>
       <c r="M49" s="15" t="s">
         <v>2</v>
       </c>
@@ -13037,10 +13037,10 @@
       <c r="D57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="300" t="s">
+      <c r="E57" s="312" t="s">
         <v>1499</v>
       </c>
-      <c r="F57" s="301"/>
+      <c r="F57" s="313"/>
       <c r="G57" s="15" t="s">
         <v>2</v>
       </c>
@@ -13167,10 +13167,10 @@
       <c r="D61" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="317" t="s">
+      <c r="E61" s="328" t="s">
         <v>1525</v>
       </c>
-      <c r="F61" s="318"/>
+      <c r="F61" s="329"/>
       <c r="G61" s="15" t="s">
         <v>2</v>
       </c>
@@ -13275,10 +13275,10 @@
       <c r="D65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="317" t="s">
+      <c r="E65" s="328" t="s">
         <v>1505</v>
       </c>
-      <c r="F65" s="318"/>
+      <c r="F65" s="329"/>
       <c r="G65" s="15" t="s">
         <v>2</v>
       </c>
@@ -13514,10 +13514,10 @@
       <c r="A78" s="278">
         <v>3</v>
       </c>
-      <c r="B78" s="317" t="s">
+      <c r="B78" s="328" t="s">
         <v>367</v>
       </c>
-      <c r="C78" s="318"/>
+      <c r="C78" s="329"/>
       <c r="D78" s="15" t="s">
         <v>2</v>
       </c>
@@ -13565,10 +13565,10 @@
       <c r="M79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N79" s="304" t="s">
+      <c r="N79" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="O79" s="305"/>
+      <c r="O79" s="307"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="278">
@@ -13657,10 +13657,10 @@
       <c r="M82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N82" s="304" t="s">
+      <c r="N82" s="306" t="s">
         <v>256</v>
       </c>
-      <c r="O82" s="305"/>
+      <c r="O82" s="307"/>
     </row>
     <row r="83" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="281">
@@ -13692,10 +13692,10 @@
       <c r="A84" s="278">
         <v>9</v>
       </c>
-      <c r="B84" s="317" t="s">
+      <c r="B84" s="328" t="s">
         <v>1467</v>
       </c>
-      <c r="C84" s="318"/>
+      <c r="C84" s="329"/>
       <c r="D84" s="15" t="s">
         <v>2</v>
       </c>
@@ -13768,10 +13768,10 @@
       <c r="A87" s="281">
         <v>12</v>
       </c>
-      <c r="B87" s="306" t="s">
+      <c r="B87" s="304" t="s">
         <v>1469</v>
       </c>
-      <c r="C87" s="307"/>
+      <c r="C87" s="305"/>
       <c r="D87" s="15" t="s">
         <v>2</v>
       </c>
@@ -13844,10 +13844,10 @@
       <c r="A90" s="278">
         <v>15</v>
       </c>
-      <c r="B90" s="306" t="s">
+      <c r="B90" s="304" t="s">
         <v>1471</v>
       </c>
-      <c r="C90" s="307"/>
+      <c r="C90" s="305"/>
       <c r="D90" s="15" t="s">
         <v>2</v>
       </c>
@@ -14047,18 +14047,18 @@
         <v>1374</v>
       </c>
       <c r="C104" s="303"/>
-      <c r="E104" s="329" t="s">
+      <c r="E104" s="326" t="s">
         <v>1388</v>
       </c>
-      <c r="F104" s="330"/>
+      <c r="F104" s="327"/>
       <c r="J104" s="31"/>
       <c r="AE104" s="40"/>
     </row>
     <row r="105" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E105" s="331" t="s">
+      <c r="E105" s="318" t="s">
         <v>1387</v>
       </c>
-      <c r="F105" s="332"/>
+      <c r="F105" s="319"/>
       <c r="J105" s="31"/>
       <c r="AE105" s="40"/>
     </row>
@@ -14067,26 +14067,26 @@
       <c r="AE106" s="40"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="E107" s="329" t="s">
+      <c r="E107" s="326" t="s">
         <v>1389</v>
       </c>
-      <c r="F107" s="330"/>
+      <c r="F107" s="327"/>
       <c r="J107" s="31"/>
       <c r="AE107" s="40"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="E108" s="333" t="s">
+      <c r="E108" s="316" t="s">
         <v>1396</v>
       </c>
-      <c r="F108" s="334"/>
+      <c r="F108" s="317"/>
       <c r="J108" s="31"/>
       <c r="AE108" s="40"/>
     </row>
     <row r="109" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E109" s="331" t="s">
+      <c r="E109" s="318" t="s">
         <v>1397</v>
       </c>
-      <c r="F109" s="332"/>
+      <c r="F109" s="319"/>
       <c r="J109" s="31"/>
       <c r="AE109" s="40"/>
     </row>
@@ -14131,7 +14131,7 @@
       <c r="B114" s="324" t="s">
         <v>1375</v>
       </c>
-      <c r="C114" s="325"/>
+      <c r="C114" s="335"/>
       <c r="D114" s="15" t="s">
         <v>2</v>
       </c>
@@ -14153,10 +14153,10 @@
       </c>
     </row>
     <row r="115" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B115" s="304" t="s">
+      <c r="B115" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="C115" s="305"/>
+      <c r="C115" s="307"/>
       <c r="D115" s="15" t="s">
         <v>2</v>
       </c>
@@ -14342,18 +14342,18 @@
     </row>
     <row r="135" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="79"/>
-      <c r="C135" s="323" t="s">
+      <c r="C135" s="330" t="s">
         <v>377</v>
       </c>
-      <c r="D135" s="323"/>
-      <c r="E135" s="323" t="s">
+      <c r="D135" s="330"/>
+      <c r="E135" s="330" t="s">
         <v>156</v>
       </c>
-      <c r="F135" s="323"/>
-      <c r="G135" s="323" t="s">
+      <c r="F135" s="330"/>
+      <c r="G135" s="330" t="s">
         <v>347</v>
       </c>
-      <c r="H135" s="326"/>
+      <c r="H135" s="331"/>
       <c r="J135" s="15" t="s">
         <v>2</v>
       </c>
@@ -14642,55 +14642,30 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="G135:H135"/>
     <mergeCell ref="AL22:AM22"/>
     <mergeCell ref="AL19:AM19"/>
@@ -14707,30 +14682,55 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E77:F77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -14801,10 +14801,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="337" t="s">
+      <c r="B3" s="364" t="s">
         <v>946</v>
       </c>
-      <c r="C3" s="338"/>
+      <c r="C3" s="365"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14851,10 +14851,10 @@
       <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="337" t="s">
+      <c r="H4" s="364" t="s">
         <v>1016</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="365"/>
       <c r="J4" s="42" t="s">
         <v>2</v>
       </c>
@@ -14891,10 +14891,10 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="315" t="s">
+      <c r="B5" s="322" t="s">
         <v>947</v>
       </c>
-      <c r="C5" s="316" t="s">
+      <c r="C5" s="323" t="s">
         <v>698</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -14925,17 +14925,17 @@
       <c r="M5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="337" t="s">
+      <c r="N5" s="364" t="s">
         <v>906</v>
       </c>
-      <c r="O5" s="338"/>
+      <c r="O5" s="365"/>
       <c r="P5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="337" t="s">
+      <c r="Q5" s="364" t="s">
         <v>907</v>
       </c>
-      <c r="R5" s="338"/>
+      <c r="R5" s="365"/>
       <c r="V5" s="15" t="s">
         <v>2</v>
       </c>
@@ -14974,24 +14974,24 @@
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="304" t="s">
+      <c r="H6" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="305"/>
+      <c r="I6" s="307"/>
       <c r="J6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="304" t="s">
+      <c r="K6" s="306" t="s">
         <v>906</v>
       </c>
-      <c r="L6" s="305"/>
+      <c r="L6" s="307"/>
       <c r="M6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="306" t="s">
+      <c r="N6" s="304" t="s">
         <v>706</v>
       </c>
-      <c r="O6" s="307"/>
+      <c r="O6" s="305"/>
       <c r="P6" s="15" t="s">
         <v>2</v>
       </c>
@@ -15054,10 +15054,10 @@
       <c r="J7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="304" t="s">
+      <c r="K7" s="306" t="s">
         <v>907</v>
       </c>
-      <c r="L7" s="305"/>
+      <c r="L7" s="307"/>
       <c r="M7" s="15" t="s">
         <v>2</v>
       </c>
@@ -15154,10 +15154,10 @@
       <c r="M8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="306" t="s">
+      <c r="N8" s="304" t="s">
         <v>706</v>
       </c>
-      <c r="O8" s="307"/>
+      <c r="O8" s="305"/>
       <c r="P8" s="15" t="s">
         <v>2</v>
       </c>
@@ -15351,17 +15351,17 @@
       <c r="Y10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="304" t="s">
+      <c r="Z10" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="AA10" s="305"/>
+      <c r="AA10" s="307"/>
       <c r="AB10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="308" t="s">
+      <c r="AC10" s="363" t="s">
         <v>182</v>
       </c>
-      <c r="AD10" s="308"/>
+      <c r="AD10" s="363"/>
       <c r="AE10" s="15" t="s">
         <v>2</v>
       </c>
@@ -15391,10 +15391,10 @@
       <c r="G11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="304" t="s">
+      <c r="H11" s="306" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="305"/>
+      <c r="I11" s="307"/>
       <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
@@ -15539,10 +15539,10 @@
       <c r="G13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="304" t="s">
+      <c r="H13" s="306" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="305"/>
+      <c r="I13" s="307"/>
       <c r="J13" s="42" t="s">
         <v>2</v>
       </c>
@@ -15592,10 +15592,10 @@
       <c r="AE13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL13" s="335" t="s">
+      <c r="AL13" s="320" t="s">
         <v>1309</v>
       </c>
-      <c r="AM13" s="336"/>
+      <c r="AM13" s="321"/>
     </row>
     <row r="14" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="15" t="s">
@@ -15731,10 +15731,10 @@
       <c r="AB15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="308" t="s">
+      <c r="AC15" s="363" t="s">
         <v>182</v>
       </c>
-      <c r="AD15" s="308"/>
+      <c r="AD15" s="363"/>
       <c r="AE15" s="15" t="s">
         <v>2</v>
       </c>
@@ -15868,10 +15868,10 @@
       <c r="AE17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL17" s="315" t="s">
+      <c r="AL17" s="322" t="s">
         <v>373</v>
       </c>
-      <c r="AM17" s="316"/>
+      <c r="AM17" s="323"/>
     </row>
     <row r="18" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="15" t="s">
@@ -15982,10 +15982,10 @@
       <c r="AE19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="335" t="s">
+      <c r="AL19" s="320" t="s">
         <v>1311</v>
       </c>
-      <c r="AM19" s="336"/>
+      <c r="AM19" s="321"/>
     </row>
     <row r="20" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="15" t="s">
@@ -16106,10 +16106,10 @@
       <c r="G22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="306" t="s">
+      <c r="H22" s="304" t="s">
         <v>849</v>
       </c>
-      <c r="I22" s="307"/>
+      <c r="I22" s="305"/>
       <c r="J22" s="42" t="s">
         <v>2</v>
       </c>
@@ -16151,10 +16151,10 @@
       <c r="G23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="315" t="s">
+      <c r="H23" s="322" t="s">
         <v>850</v>
       </c>
-      <c r="I23" s="316"/>
+      <c r="I23" s="323"/>
       <c r="J23" s="42" t="s">
         <v>2</v>
       </c>
@@ -16274,10 +16274,10 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="337" t="s">
+      <c r="B28" s="364" t="s">
         <v>971</v>
       </c>
-      <c r="C28" s="338"/>
+      <c r="C28" s="365"/>
       <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
@@ -16290,10 +16290,10 @@
       <c r="M28" s="199">
         <v>1</v>
       </c>
-      <c r="N28" s="337" t="s">
+      <c r="N28" s="364" t="s">
         <v>991</v>
       </c>
-      <c r="O28" s="338"/>
+      <c r="O28" s="365"/>
       <c r="P28" s="15" t="s">
         <v>2</v>
       </c>
@@ -16350,10 +16350,10 @@
       <c r="S29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="319" t="s">
+      <c r="T29" s="336" t="s">
         <v>1032</v>
       </c>
-      <c r="U29" s="320"/>
+      <c r="U29" s="337"/>
       <c r="V29" s="15" t="s">
         <v>2</v>
       </c>
@@ -16404,10 +16404,10 @@
       <c r="M30" s="199">
         <v>1</v>
       </c>
-      <c r="N30" s="304" t="s">
+      <c r="N30" s="306" t="s">
         <v>815</v>
       </c>
-      <c r="O30" s="305"/>
+      <c r="O30" s="307"/>
       <c r="P30" s="15" t="s">
         <v>2</v>
       </c>
@@ -16429,10 +16429,10 @@
       <c r="V30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W30" s="370" t="s">
+      <c r="W30" s="346" t="s">
         <v>1020</v>
       </c>
-      <c r="X30" s="371"/>
+      <c r="X30" s="347"/>
       <c r="Y30" s="15" t="s">
         <v>2</v>
       </c>
@@ -16547,10 +16547,10 @@
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="349" t="s">
+      <c r="E32" s="368" t="s">
         <v>998</v>
       </c>
-      <c r="F32" s="350"/>
+      <c r="F32" s="369"/>
       <c r="G32" s="15" t="s">
         <v>2</v>
       </c>
@@ -16599,10 +16599,10 @@
       <c r="V32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W32" s="360" t="s">
+      <c r="W32" s="348" t="s">
         <v>1104</v>
       </c>
-      <c r="X32" s="361"/>
+      <c r="X32" s="349"/>
       <c r="Y32" s="15" t="s">
         <v>2</v>
       </c>
@@ -16624,17 +16624,17 @@
       </c>
     </row>
     <row r="33" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="306" t="s">
+      <c r="B33" s="304" t="s">
         <v>945</v>
       </c>
-      <c r="C33" s="307"/>
+      <c r="C33" s="305"/>
       <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="351" t="s">
+      <c r="E33" s="342" t="s">
         <v>999</v>
       </c>
-      <c r="F33" s="352"/>
+      <c r="F33" s="343"/>
       <c r="G33" s="15" t="s">
         <v>2</v>
       </c>
@@ -16771,10 +16771,10 @@
       <c r="V34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W34" s="335" t="s">
+      <c r="W34" s="320" t="s">
         <v>1107</v>
       </c>
-      <c r="X34" s="336"/>
+      <c r="X34" s="321"/>
       <c r="Y34" s="15" t="s">
         <v>2</v>
       </c>
@@ -16834,10 +16834,10 @@
       <c r="M35" s="199">
         <v>1</v>
       </c>
-      <c r="N35" s="306" t="s">
+      <c r="N35" s="304" t="s">
         <v>419</v>
       </c>
-      <c r="O35" s="307"/>
+      <c r="O35" s="305"/>
       <c r="P35" s="15" t="s">
         <v>2</v>
       </c>
@@ -16877,19 +16877,19 @@
       <c r="AB35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="306" t="s">
+      <c r="AC35" s="304" t="s">
         <v>1094</v>
       </c>
-      <c r="AD35" s="307"/>
+      <c r="AD35" s="305"/>
       <c r="AE35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="347" t="s">
+      <c r="B36" s="366" t="s">
         <v>995</v>
       </c>
-      <c r="C36" s="348"/>
+      <c r="C36" s="367"/>
       <c r="D36" s="15" t="s">
         <v>2</v>
       </c>
@@ -16920,10 +16920,10 @@
       <c r="M36" s="199">
         <v>1</v>
       </c>
-      <c r="N36" s="304" t="s">
+      <c r="N36" s="306" t="s">
         <v>1032</v>
       </c>
-      <c r="O36" s="305"/>
+      <c r="O36" s="307"/>
       <c r="P36" s="15" t="s">
         <v>2</v>
       </c>
@@ -16945,10 +16945,10 @@
       <c r="V36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W36" s="353" t="s">
+      <c r="W36" s="338" t="s">
         <v>1108</v>
       </c>
-      <c r="X36" s="354"/>
+      <c r="X36" s="339"/>
       <c r="Y36" s="15" t="s">
         <v>2</v>
       </c>
@@ -16968,17 +16968,17 @@
       </c>
     </row>
     <row r="37" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="306" t="s">
+      <c r="B37" s="304" t="s">
         <v>978</v>
       </c>
-      <c r="C37" s="307"/>
+      <c r="C37" s="305"/>
       <c r="D37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="349" t="s">
+      <c r="E37" s="368" t="s">
         <v>1001</v>
       </c>
-      <c r="F37" s="350"/>
+      <c r="F37" s="369"/>
       <c r="G37" s="15" t="s">
         <v>2</v>
       </c>
@@ -17000,10 +17000,10 @@
       <c r="M37" s="199">
         <v>1</v>
       </c>
-      <c r="N37" s="315" t="s">
+      <c r="N37" s="322" t="s">
         <v>425</v>
       </c>
-      <c r="O37" s="316"/>
+      <c r="O37" s="323"/>
       <c r="P37" s="15" t="s">
         <v>2</v>
       </c>
@@ -17025,10 +17025,10 @@
       <c r="V37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W37" s="335" t="s">
+      <c r="W37" s="320" t="s">
         <v>1118</v>
       </c>
-      <c r="X37" s="336"/>
+      <c r="X37" s="321"/>
       <c r="Y37" s="15" t="s">
         <v>2</v>
       </c>
@@ -17059,10 +17059,10 @@
       <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="351" t="s">
+      <c r="E38" s="342" t="s">
         <v>1002</v>
       </c>
-      <c r="F38" s="352"/>
+      <c r="F38" s="343"/>
       <c r="G38" s="15" t="s">
         <v>2</v>
       </c>
@@ -17105,10 +17105,10 @@
       <c r="V38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W38" s="335" t="s">
+      <c r="W38" s="320" t="s">
         <v>1111</v>
       </c>
-      <c r="X38" s="336"/>
+      <c r="X38" s="321"/>
       <c r="Y38" s="15" t="s">
         <v>2</v>
       </c>
@@ -17206,10 +17206,10 @@
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="347" t="s">
+      <c r="B40" s="366" t="s">
         <v>994</v>
       </c>
-      <c r="C40" s="348"/>
+      <c r="C40" s="367"/>
       <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
@@ -17240,10 +17240,10 @@
       <c r="S40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T40" s="335" t="s">
+      <c r="T40" s="320" t="s">
         <v>1035</v>
       </c>
-      <c r="U40" s="336"/>
+      <c r="U40" s="321"/>
       <c r="V40" s="15" t="s">
         <v>2</v>
       </c>
@@ -17256,10 +17256,10 @@
       <c r="Y40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z40" s="335" t="s">
+      <c r="Z40" s="320" t="s">
         <v>1065</v>
       </c>
-      <c r="AA40" s="336"/>
+      <c r="AA40" s="321"/>
       <c r="AB40" s="15" t="s">
         <v>2</v>
       </c>
@@ -17272,10 +17272,10 @@
       </c>
     </row>
     <row r="41" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="304" t="s">
         <v>574</v>
       </c>
-      <c r="C41" s="307"/>
+      <c r="C41" s="305"/>
       <c r="D41" s="15" t="s">
         <v>2</v>
       </c>
@@ -17306,10 +17306,10 @@
       <c r="S41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T41" s="335" t="s">
+      <c r="T41" s="320" t="s">
         <v>1036</v>
       </c>
-      <c r="U41" s="336"/>
+      <c r="U41" s="321"/>
       <c r="V41" s="15" t="s">
         <v>2</v>
       </c>
@@ -17349,10 +17349,10 @@
       <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="362" t="s">
+      <c r="E42" s="352" t="s">
         <v>1003</v>
       </c>
-      <c r="F42" s="363"/>
+      <c r="F42" s="353"/>
       <c r="G42" s="15" t="s">
         <v>2</v>
       </c>
@@ -17376,10 +17376,10 @@
       <c r="S42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T42" s="339" t="s">
+      <c r="T42" s="350" t="s">
         <v>1095</v>
       </c>
-      <c r="U42" s="340"/>
+      <c r="U42" s="351"/>
       <c r="V42" s="15" t="s">
         <v>2</v>
       </c>
@@ -17411,10 +17411,10 @@
       <c r="D43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="364" t="s">
+      <c r="E43" s="354" t="s">
         <v>1004</v>
       </c>
-      <c r="F43" s="365"/>
+      <c r="F43" s="355"/>
       <c r="G43" s="15" t="s">
         <v>2</v>
       </c>
@@ -17436,10 +17436,10 @@
       <c r="S43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="341" t="s">
+      <c r="T43" s="372" t="s">
         <v>1038</v>
       </c>
-      <c r="U43" s="342"/>
+      <c r="U43" s="373"/>
       <c r="V43" s="15" t="s">
         <v>2</v>
       </c>
@@ -17548,10 +17548,10 @@
       <c r="S45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="339" t="s">
+      <c r="T45" s="350" t="s">
         <v>1039</v>
       </c>
-      <c r="U45" s="340"/>
+      <c r="U45" s="351"/>
       <c r="V45" s="15" t="s">
         <v>2</v>
       </c>
@@ -17604,10 +17604,10 @@
       <c r="S46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T46" s="366" t="s">
+      <c r="T46" s="356" t="s">
         <v>1037</v>
       </c>
-      <c r="U46" s="367"/>
+      <c r="U46" s="357"/>
       <c r="V46" s="15" t="s">
         <v>2</v>
       </c>
@@ -17652,10 +17652,10 @@
       <c r="S47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T47" s="339" t="s">
+      <c r="T47" s="350" t="s">
         <v>1072</v>
       </c>
-      <c r="U47" s="340"/>
+      <c r="U47" s="351"/>
       <c r="V47" s="15" t="s">
         <v>2</v>
       </c>
@@ -17715,10 +17715,10 @@
       <c r="M49" s="199">
         <v>1</v>
       </c>
-      <c r="Q49" s="351" t="s">
+      <c r="Q49" s="342" t="s">
         <v>896</v>
       </c>
-      <c r="R49" s="352"/>
+      <c r="R49" s="343"/>
       <c r="S49" s="15" t="s">
         <v>2</v>
       </c>
@@ -17739,10 +17739,10 @@
       <c r="M50" s="199">
         <v>1</v>
       </c>
-      <c r="Q50" s="351" t="s">
+      <c r="Q50" s="342" t="s">
         <v>1049</v>
       </c>
-      <c r="R50" s="352"/>
+      <c r="R50" s="343"/>
       <c r="S50" s="15" t="s">
         <v>2</v>
       </c>
@@ -17757,10 +17757,10 @@
       <c r="M51" s="199">
         <v>1</v>
       </c>
-      <c r="Q51" s="368" t="s">
+      <c r="Q51" s="344" t="s">
         <v>1053</v>
       </c>
-      <c r="R51" s="369"/>
+      <c r="R51" s="345"/>
       <c r="S51" s="15" t="s">
         <v>2</v>
       </c>
@@ -17775,10 +17775,10 @@
       <c r="M52" s="199">
         <v>1</v>
       </c>
-      <c r="Q52" s="368" t="s">
+      <c r="Q52" s="344" t="s">
         <v>1054</v>
       </c>
-      <c r="R52" s="369"/>
+      <c r="R52" s="345"/>
       <c r="S52" s="15" t="s">
         <v>2</v>
       </c>
@@ -17935,10 +17935,10 @@
       <c r="D59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="345" t="s">
+      <c r="E59" s="370" t="s">
         <v>486</v>
       </c>
-      <c r="F59" s="346"/>
+      <c r="F59" s="371"/>
       <c r="J59" s="15" t="s">
         <v>2</v>
       </c>
@@ -17947,10 +17947,10 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B60" s="306" t="s">
+      <c r="B60" s="304" t="s">
         <v>568</v>
       </c>
-      <c r="C60" s="307"/>
+      <c r="C60" s="305"/>
       <c r="D60" s="15" t="s">
         <v>2</v>
       </c>
@@ -17991,10 +17991,10 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B62" s="306" t="s">
+      <c r="B62" s="304" t="s">
         <v>569</v>
       </c>
-      <c r="C62" s="307"/>
+      <c r="C62" s="305"/>
       <c r="D62" s="15" t="s">
         <v>2</v>
       </c>
@@ -18011,10 +18011,10 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B64" s="306" t="s">
+      <c r="B64" s="304" t="s">
         <v>568</v>
       </c>
-      <c r="C64" s="307"/>
+      <c r="C64" s="305"/>
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
@@ -18034,10 +18034,10 @@
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B66" s="306" t="s">
+      <c r="B66" s="304" t="s">
         <v>568</v>
       </c>
-      <c r="C66" s="307"/>
+      <c r="C66" s="305"/>
       <c r="D66" s="15" t="s">
         <v>2</v>
       </c>
@@ -18106,10 +18106,10 @@
       </c>
     </row>
     <row r="73" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="355" t="s">
+      <c r="B73" s="359" t="s">
         <v>430</v>
       </c>
-      <c r="C73" s="356"/>
+      <c r="C73" s="360"/>
       <c r="D73" s="15" t="s">
         <v>2</v>
       </c>
@@ -18169,10 +18169,10 @@
       <c r="D74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="343" t="s">
+      <c r="E74" s="340" t="s">
         <v>575</v>
       </c>
-      <c r="F74" s="344"/>
+      <c r="F74" s="341"/>
       <c r="G74" s="15" t="s">
         <v>2</v>
       </c>
@@ -18224,10 +18224,10 @@
       </c>
     </row>
     <row r="75" spans="1:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="306" t="s">
+      <c r="B75" s="304" t="s">
         <v>408</v>
       </c>
-      <c r="C75" s="307"/>
+      <c r="C75" s="305"/>
       <c r="D75" s="15" t="s">
         <v>2</v>
       </c>
@@ -18240,10 +18240,10 @@
       <c r="G75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="343" t="s">
+      <c r="H75" s="340" t="s">
         <v>179</v>
       </c>
-      <c r="I75" s="344"/>
+      <c r="I75" s="341"/>
       <c r="J75" s="15" t="s">
         <v>2</v>
       </c>
@@ -18278,19 +18278,19 @@
       <c r="AK75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO75" s="304" t="s">
+      <c r="AO75" s="306" t="s">
         <v>380</v>
       </c>
-      <c r="AP75" s="305"/>
+      <c r="AP75" s="307"/>
       <c r="AQ75" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="338" t="s">
         <v>561</v>
       </c>
-      <c r="C76" s="354"/>
+      <c r="C76" s="339"/>
       <c r="D76" s="15" t="s">
         <v>2</v>
       </c>
@@ -18303,17 +18303,17 @@
       <c r="G76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="343" t="s">
+      <c r="H76" s="340" t="s">
         <v>383</v>
       </c>
-      <c r="I76" s="344"/>
+      <c r="I76" s="341"/>
       <c r="J76" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K76" s="304" t="s">
+      <c r="K76" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="L76" s="305"/>
+      <c r="L76" s="307"/>
       <c r="M76" s="15" t="s">
         <v>2</v>
       </c>
@@ -18370,10 +18370,10 @@
       <c r="G77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="343" t="s">
+      <c r="H77" s="340" t="s">
         <v>382</v>
       </c>
-      <c r="I77" s="344"/>
+      <c r="I77" s="341"/>
       <c r="J77" s="15" t="s">
         <v>2</v>
       </c>
@@ -18425,10 +18425,10 @@
       </c>
     </row>
     <row r="78" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="306" t="s">
+      <c r="B78" s="304" t="s">
         <v>412</v>
       </c>
-      <c r="C78" s="307"/>
+      <c r="C78" s="305"/>
       <c r="D78" s="15" t="s">
         <v>2</v>
       </c>
@@ -18441,10 +18441,10 @@
       <c r="G78" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="343" t="s">
+      <c r="H78" s="340" t="s">
         <v>586</v>
       </c>
-      <c r="I78" s="344"/>
+      <c r="I78" s="341"/>
       <c r="J78" s="15" t="s">
         <v>2</v>
       </c>
@@ -18520,10 +18520,10 @@
       </c>
     </row>
     <row r="79" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="353" t="s">
+      <c r="B79" s="338" t="s">
         <v>573</v>
       </c>
-      <c r="C79" s="354"/>
+      <c r="C79" s="339"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -18536,10 +18536,10 @@
       <c r="G79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="343" t="s">
+      <c r="H79" s="340" t="s">
         <v>399</v>
       </c>
-      <c r="I79" s="344"/>
+      <c r="I79" s="341"/>
       <c r="J79" s="15" t="s">
         <v>2</v>
       </c>
@@ -18576,27 +18576,27 @@
       <c r="Y79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z79" s="343" t="s">
+      <c r="Z79" s="340" t="s">
         <v>228</v>
       </c>
-      <c r="AA79" s="344"/>
+      <c r="AA79" s="341"/>
       <c r="AB79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC79" s="343" t="s">
+      <c r="AC79" s="340" t="s">
         <v>475</v>
       </c>
-      <c r="AD79" s="344"/>
+      <c r="AD79" s="341"/>
       <c r="AE79" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AH79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI79" s="343" t="s">
+      <c r="AI79" s="340" t="s">
         <v>228</v>
       </c>
-      <c r="AJ79" s="344"/>
+      <c r="AJ79" s="341"/>
       <c r="AK79" s="15" t="s">
         <v>2</v>
       </c>
@@ -18623,10 +18623,10 @@
       <c r="G80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="343" t="s">
+      <c r="H80" s="340" t="s">
         <v>587</v>
       </c>
-      <c r="I80" s="344"/>
+      <c r="I80" s="341"/>
       <c r="J80" s="15" t="s">
         <v>2</v>
       </c>
@@ -18639,20 +18639,20 @@
       <c r="M80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N80" s="306" t="s">
+      <c r="N80" s="304" t="s">
         <v>444</v>
       </c>
-      <c r="O80" s="307"/>
+      <c r="O80" s="305"/>
       <c r="P80" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T80" s="306" t="s">
+      <c r="T80" s="304" t="s">
         <v>452</v>
       </c>
-      <c r="U80" s="307"/>
+      <c r="U80" s="305"/>
       <c r="V80" s="15" t="s">
         <v>2</v>
       </c>
@@ -18668,10 +18668,10 @@
       <c r="AB80" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC80" s="343" t="s">
+      <c r="AC80" s="340" t="s">
         <v>383</v>
       </c>
-      <c r="AD80" s="344"/>
+      <c r="AD80" s="341"/>
       <c r="AE80" s="15" t="s">
         <v>2</v>
       </c>
@@ -18696,10 +18696,10 @@
       </c>
     </row>
     <row r="81" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="306" t="s">
+      <c r="B81" s="304" t="s">
         <v>407</v>
       </c>
-      <c r="C81" s="307"/>
+      <c r="C81" s="305"/>
       <c r="D81" s="15" t="s">
         <v>2</v>
       </c>
@@ -18712,10 +18712,10 @@
       <c r="G81" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="304" t="s">
+      <c r="H81" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="I81" s="305"/>
+      <c r="I81" s="307"/>
       <c r="J81" s="15" t="s">
         <v>2</v>
       </c>
@@ -18791,10 +18791,10 @@
       </c>
     </row>
     <row r="82" spans="2:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="353" t="s">
+      <c r="B82" s="338" t="s">
         <v>590</v>
       </c>
-      <c r="C82" s="354"/>
+      <c r="C82" s="339"/>
       <c r="D82" s="15" t="s">
         <v>2</v>
       </c>
@@ -18813,10 +18813,10 @@
       <c r="M82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N82" s="306" t="s">
+      <c r="N82" s="304" t="s">
         <v>444</v>
       </c>
-      <c r="O82" s="307"/>
+      <c r="O82" s="305"/>
       <c r="P82" s="15" t="s">
         <v>2</v>
       </c>
@@ -18857,10 +18857,10 @@
       <c r="AK82" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AO82" s="304" t="s">
+      <c r="AO82" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="AP82" s="305"/>
+      <c r="AP82" s="307"/>
       <c r="AQ82" s="15" t="s">
         <v>2</v>
       </c>
@@ -18878,17 +18878,17 @@
       <c r="G83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="306" t="s">
+      <c r="H83" s="304" t="s">
         <v>588</v>
       </c>
-      <c r="I83" s="307"/>
+      <c r="I83" s="305"/>
       <c r="J83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K83" s="355" t="s">
+      <c r="K83" s="359" t="s">
         <v>437</v>
       </c>
-      <c r="L83" s="356"/>
+      <c r="L83" s="360"/>
       <c r="M83" s="15" t="s">
         <v>2</v>
       </c>
@@ -18919,10 +18919,10 @@
       <c r="AB83" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC83" s="357" t="s">
+      <c r="AC83" s="361" t="s">
         <v>437</v>
       </c>
-      <c r="AD83" s="358"/>
+      <c r="AD83" s="362"/>
       <c r="AE83" s="15" t="s">
         <v>2</v>
       </c>
@@ -18943,10 +18943,10 @@
       </c>
     </row>
     <row r="84" spans="2:46" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="306" t="s">
+      <c r="B84" s="304" t="s">
         <v>495</v>
       </c>
-      <c r="C84" s="307"/>
+      <c r="C84" s="305"/>
       <c r="D84" s="15" t="s">
         <v>2</v>
       </c>
@@ -18971,10 +18971,10 @@
       <c r="M84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N84" s="306" t="s">
+      <c r="N84" s="304" t="s">
         <v>447</v>
       </c>
-      <c r="O84" s="307"/>
+      <c r="O84" s="305"/>
       <c r="P84" s="15" t="s">
         <v>2</v>
       </c>
@@ -19038,10 +19038,10 @@
       <c r="J85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K85" s="306" t="s">
+      <c r="K85" s="304" t="s">
         <v>438</v>
       </c>
-      <c r="L85" s="307"/>
+      <c r="L85" s="305"/>
       <c r="M85" s="15" t="s">
         <v>2</v>
       </c>
@@ -19076,10 +19076,10 @@
       <c r="AB85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC85" s="355" t="s">
+      <c r="AC85" s="359" t="s">
         <v>437</v>
       </c>
-      <c r="AD85" s="356"/>
+      <c r="AD85" s="360"/>
       <c r="AE85" s="15" t="s">
         <v>2</v>
       </c>
@@ -19121,10 +19121,10 @@
       <c r="M86" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N86" s="306" t="s">
+      <c r="N86" s="304" t="s">
         <v>471</v>
       </c>
-      <c r="O86" s="307"/>
+      <c r="O86" s="305"/>
       <c r="P86" s="15" t="s">
         <v>2</v>
       </c>
@@ -19291,10 +19291,10 @@
       <c r="M89" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N89" s="306" t="s">
+      <c r="N89" s="304" t="s">
         <v>466</v>
       </c>
-      <c r="O89" s="307"/>
+      <c r="O89" s="305"/>
       <c r="P89" s="15" t="s">
         <v>2</v>
       </c>
@@ -19379,10 +19379,10 @@
       <c r="M92" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N92" s="306" t="s">
+      <c r="N92" s="304" t="s">
         <v>473</v>
       </c>
-      <c r="O92" s="307"/>
+      <c r="O92" s="305"/>
       <c r="P92" s="15" t="s">
         <v>2</v>
       </c>
@@ -19441,10 +19441,10 @@
       <c r="M95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N95" s="306" t="s">
+      <c r="N95" s="304" t="s">
         <v>479</v>
       </c>
-      <c r="O95" s="307"/>
+      <c r="O95" s="305"/>
       <c r="P95" s="15" t="s">
         <v>2</v>
       </c>
@@ -19496,10 +19496,10 @@
       <c r="M98" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N98" s="306" t="s">
+      <c r="N98" s="304" t="s">
         <v>481</v>
       </c>
-      <c r="O98" s="307"/>
+      <c r="O98" s="305"/>
       <c r="P98" s="15" t="s">
         <v>2</v>
       </c>
@@ -19672,10 +19672,10 @@
       <c r="D106" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="343" t="s">
+      <c r="E106" s="340" t="s">
         <v>550</v>
       </c>
-      <c r="F106" s="344"/>
+      <c r="F106" s="341"/>
       <c r="G106" s="15" t="s">
         <v>2</v>
       </c>
@@ -19718,10 +19718,10 @@
       <c r="G107" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="343" t="s">
+      <c r="H107" s="340" t="s">
         <v>399</v>
       </c>
-      <c r="I107" s="344"/>
+      <c r="I107" s="341"/>
       <c r="J107" s="15" t="s">
         <v>2</v>
       </c>
@@ -19763,10 +19763,10 @@
       <c r="G108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="343" t="s">
+      <c r="H108" s="340" t="s">
         <v>382</v>
       </c>
-      <c r="I108" s="344"/>
+      <c r="I108" s="341"/>
       <c r="J108" s="15" t="s">
         <v>2</v>
       </c>
@@ -19779,10 +19779,10 @@
       <c r="M108" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N108" s="343" t="s">
+      <c r="N108" s="340" t="s">
         <v>566</v>
       </c>
-      <c r="O108" s="344"/>
+      <c r="O108" s="341"/>
       <c r="P108" s="15" t="s">
         <v>2</v>
       </c>
@@ -19800,10 +19800,10 @@
       <c r="G109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H109" s="343" t="s">
+      <c r="H109" s="340" t="s">
         <v>383</v>
       </c>
-      <c r="I109" s="344"/>
+      <c r="I109" s="341"/>
       <c r="J109" s="15" t="s">
         <v>2</v>
       </c>
@@ -19814,10 +19814,10 @@
       <c r="M109" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N109" s="343" t="s">
+      <c r="N109" s="340" t="s">
         <v>567</v>
       </c>
-      <c r="O109" s="344"/>
+      <c r="O109" s="341"/>
       <c r="P109" s="15" t="s">
         <v>2</v>
       </c>
@@ -19835,17 +19835,17 @@
       <c r="G110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="343" t="s">
+      <c r="H110" s="340" t="s">
         <v>553</v>
       </c>
-      <c r="I110" s="344"/>
+      <c r="I110" s="341"/>
       <c r="J110" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K110" s="306" t="s">
+      <c r="K110" s="304" t="s">
         <v>565</v>
       </c>
-      <c r="L110" s="307"/>
+      <c r="L110" s="305"/>
       <c r="M110" s="15" t="s">
         <v>2</v>
       </c>
@@ -19860,20 +19860,20 @@
       </c>
     </row>
     <row r="111" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="306" t="s">
+      <c r="B111" s="304" t="s">
         <v>548</v>
       </c>
-      <c r="C111" s="307"/>
+      <c r="C111" s="305"/>
       <c r="D111" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H111" s="343" t="s">
+      <c r="H111" s="340" t="s">
         <v>554</v>
       </c>
-      <c r="I111" s="344"/>
+      <c r="I111" s="341"/>
       <c r="J111" s="15" t="s">
         <v>2</v>
       </c>
@@ -19891,20 +19891,20 @@
       <c r="S111" s="41"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B112" s="353" t="s">
+      <c r="B112" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="C112" s="354"/>
+      <c r="C112" s="339"/>
       <c r="D112" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="304" t="s">
+      <c r="H112" s="306" t="s">
         <v>187</v>
       </c>
-      <c r="I112" s="305"/>
+      <c r="I112" s="307"/>
       <c r="J112" s="15" t="s">
         <v>2</v>
       </c>
@@ -19945,10 +19945,10 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B114" s="306" t="s">
+      <c r="B114" s="304" t="s">
         <v>549</v>
       </c>
-      <c r="C114" s="307"/>
+      <c r="C114" s="305"/>
       <c r="D114" s="15" t="s">
         <v>2</v>
       </c>
@@ -19975,10 +19975,10 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B115" s="353" t="s">
+      <c r="B115" s="338" t="s">
         <v>562</v>
       </c>
-      <c r="C115" s="354"/>
+      <c r="C115" s="339"/>
       <c r="D115" s="15" t="s">
         <v>2</v>
       </c>
@@ -20185,10 +20185,10 @@
       <c r="AD123" s="303"/>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B124" s="306" t="s">
+      <c r="B124" s="304" t="s">
         <v>489</v>
       </c>
-      <c r="C124" s="307"/>
+      <c r="C124" s="305"/>
       <c r="D124" s="15" t="s">
         <v>2</v>
       </c>
@@ -20226,10 +20226,10 @@
       <c r="S124" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T124" s="343" t="s">
+      <c r="T124" s="340" t="s">
         <v>528</v>
       </c>
-      <c r="U124" s="344"/>
+      <c r="U124" s="341"/>
       <c r="V124" s="15" t="s">
         <v>2</v>
       </c>
@@ -20242,10 +20242,10 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B125" s="359" t="s">
+      <c r="B125" s="358" t="s">
         <v>503</v>
       </c>
-      <c r="C125" s="359"/>
+      <c r="C125" s="358"/>
       <c r="D125" s="15" t="s">
         <v>2</v>
       </c>
@@ -20256,10 +20256,10 @@
       <c r="G125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="343" t="s">
+      <c r="H125" s="340" t="s">
         <v>502</v>
       </c>
-      <c r="I125" s="344"/>
+      <c r="I125" s="341"/>
       <c r="K125" s="108" t="s">
         <v>507</v>
       </c>
@@ -20267,27 +20267,27 @@
       <c r="M125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N125" s="343" t="s">
+      <c r="N125" s="340" t="s">
         <v>528</v>
       </c>
-      <c r="O125" s="344"/>
+      <c r="O125" s="341"/>
       <c r="P125" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T125" s="306" t="s">
+      <c r="T125" s="304" t="s">
         <v>506</v>
       </c>
-      <c r="U125" s="307"/>
+      <c r="U125" s="305"/>
       <c r="V125" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W125" s="343" t="s">
+      <c r="W125" s="340" t="s">
         <v>540</v>
       </c>
-      <c r="X125" s="344"/>
+      <c r="X125" s="341"/>
       <c r="AC125" s="123" t="s">
         <v>730</v>
       </c>
@@ -20299,10 +20299,10 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B126" s="306" t="s">
+      <c r="B126" s="304" t="s">
         <v>498</v>
       </c>
-      <c r="C126" s="307"/>
+      <c r="C126" s="305"/>
       <c r="D126" s="15" t="s">
         <v>2</v>
       </c>
@@ -20313,14 +20313,14 @@
       <c r="G126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H126" s="304" t="s">
+      <c r="H126" s="306" t="s">
         <v>546</v>
       </c>
-      <c r="I126" s="305"/>
-      <c r="K126" s="306" t="s">
+      <c r="I126" s="307"/>
+      <c r="K126" s="304" t="s">
         <v>506</v>
       </c>
-      <c r="L126" s="307"/>
+      <c r="L126" s="305"/>
       <c r="M126" s="15" t="s">
         <v>2</v>
       </c>
@@ -20345,10 +20345,10 @@
       <c r="V126" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W126" s="343" t="s">
+      <c r="W126" s="340" t="s">
         <v>541</v>
       </c>
-      <c r="X126" s="344"/>
+      <c r="X126" s="341"/>
       <c r="AE126" s="15" t="s">
         <v>2</v>
       </c>
@@ -20385,10 +20385,10 @@
       <c r="M127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N127" s="306" t="s">
+      <c r="N127" s="304" t="s">
         <v>533</v>
       </c>
-      <c r="O127" s="307"/>
+      <c r="O127" s="305"/>
       <c r="P127" s="15" t="s">
         <v>2</v>
       </c>
@@ -20404,10 +20404,10 @@
       <c r="V127" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W127" s="306" t="s">
+      <c r="W127" s="304" t="s">
         <v>506</v>
       </c>
-      <c r="X127" s="307"/>
+      <c r="X127" s="305"/>
       <c r="AE127" s="15" t="s">
         <v>2</v>
       </c>
@@ -20473,10 +20473,10 @@
       </c>
     </row>
     <row r="129" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B129" s="306" t="s">
+      <c r="B129" s="304" t="s">
         <v>505</v>
       </c>
-      <c r="C129" s="307"/>
+      <c r="C129" s="305"/>
       <c r="D129" s="15" t="s">
         <v>2</v>
       </c>
@@ -20586,10 +20586,10 @@
       <c r="M131" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N131" s="306" t="s">
+      <c r="N131" s="304" t="s">
         <v>544</v>
       </c>
-      <c r="O131" s="307"/>
+      <c r="O131" s="305"/>
       <c r="P131" s="15" t="s">
         <v>2</v>
       </c>
@@ -20637,10 +20637,10 @@
       </c>
     </row>
     <row r="133" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B133" s="306" t="s">
+      <c r="B133" s="304" t="s">
         <v>523</v>
       </c>
-      <c r="C133" s="307"/>
+      <c r="C133" s="305"/>
       <c r="D133" s="15" t="s">
         <v>2</v>
       </c>
@@ -20672,10 +20672,10 @@
       <c r="D134" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="343" t="s">
+      <c r="E134" s="340" t="s">
         <v>492</v>
       </c>
-      <c r="F134" s="344"/>
+      <c r="F134" s="341"/>
       <c r="G134" s="15" t="s">
         <v>2</v>
       </c>
@@ -20699,10 +20699,10 @@
       <c r="D135" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="343" t="s">
+      <c r="E135" s="340" t="s">
         <v>494</v>
       </c>
-      <c r="F135" s="344"/>
+      <c r="F135" s="341"/>
       <c r="G135" s="15" t="s">
         <v>2</v>
       </c>
@@ -20726,10 +20726,10 @@
       <c r="D136" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="343" t="s">
+      <c r="E136" s="340" t="s">
         <v>383</v>
       </c>
-      <c r="F136" s="344"/>
+      <c r="F136" s="341"/>
       <c r="G136" s="15" t="s">
         <v>2</v>
       </c>
@@ -20744,10 +20744,10 @@
       </c>
     </row>
     <row r="137" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B137" s="306" t="s">
+      <c r="B137" s="304" t="s">
         <v>538</v>
       </c>
-      <c r="C137" s="307"/>
+      <c r="C137" s="305"/>
       <c r="D137" s="15" t="s">
         <v>2</v>
       </c>
@@ -20780,10 +20780,10 @@
       <c r="D138" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="306" t="s">
+      <c r="E138" s="304" t="s">
         <v>499</v>
       </c>
-      <c r="F138" s="307"/>
+      <c r="F138" s="305"/>
       <c r="G138" s="15" t="s">
         <v>2</v>
       </c>
@@ -20798,10 +20798,10 @@
       </c>
     </row>
     <row r="139" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="306" t="s">
+      <c r="B139" s="304" t="s">
         <v>725</v>
       </c>
-      <c r="C139" s="307"/>
+      <c r="C139" s="305"/>
       <c r="D139" s="15" t="s">
         <v>2</v>
       </c>
@@ -20848,10 +20848,10 @@
       </c>
     </row>
     <row r="141" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B141" s="306" t="s">
+      <c r="B141" s="304" t="s">
         <v>727</v>
       </c>
-      <c r="C141" s="307"/>
+      <c r="C141" s="305"/>
       <c r="D141" s="15" t="s">
         <v>2</v>
       </c>
@@ -20918,6 +20918,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="Z123:AA123"/>
+    <mergeCell ref="AC123:AD123"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="AO75:AP75"/>
+    <mergeCell ref="AO82:AP82"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="W78:X78"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="AI79:AJ79"/>
+    <mergeCell ref="AC85:AD85"/>
+    <mergeCell ref="AC78:AD78"/>
+    <mergeCell ref="AC79:AD79"/>
+    <mergeCell ref="AC80:AD80"/>
+    <mergeCell ref="AC83:AD83"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="AF78:AG78"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="T125:U125"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="W34:X34"/>
     <mergeCell ref="AL13:AM13"/>
     <mergeCell ref="AL17:AM17"/>
     <mergeCell ref="AL19:AM19"/>
@@ -20942,147 +21083,6 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="T124:U124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="T125:U125"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="W123:X123"/>
-    <mergeCell ref="W125:X125"/>
-    <mergeCell ref="W126:X126"/>
-    <mergeCell ref="W127:X127"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AC85:AD85"/>
-    <mergeCell ref="AC78:AD78"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="AC80:AD80"/>
-    <mergeCell ref="AC83:AD83"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="AF78:AG78"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="AO75:AP75"/>
-    <mergeCell ref="AO82:AP82"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="W78:X78"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="Z123:AA123"/>
-    <mergeCell ref="AC123:AD123"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:C11">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -21161,7 +21161,7 @@
       <c r="N3" s="302" t="s">
         <v>1322</v>
       </c>
-      <c r="O3" s="384"/>
+      <c r="O3" s="375"/>
       <c r="P3" s="303"/>
       <c r="Q3" s="15" t="s">
         <v>2</v>
@@ -21169,10 +21169,10 @@
       <c r="U3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="385" t="s">
+      <c r="W3" s="376" t="s">
         <v>1372</v>
       </c>
-      <c r="X3" s="386"/>
+      <c r="X3" s="377"/>
       <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
@@ -21223,7 +21223,7 @@
       <c r="R4" s="302" t="s">
         <v>1352</v>
       </c>
-      <c r="S4" s="384"/>
+      <c r="S4" s="375"/>
       <c r="T4" s="303"/>
       <c r="U4" s="42" t="s">
         <v>2</v>
@@ -21433,10 +21433,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="76"/>
-      <c r="G8" s="372" t="s">
+      <c r="G8" s="382" t="s">
         <v>786</v>
       </c>
-      <c r="H8" s="373"/>
+      <c r="H8" s="383"/>
       <c r="I8" s="15" t="s">
         <v>2</v>
       </c>
@@ -21828,11 +21828,11 @@
       <c r="Q15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="329" t="s">
+      <c r="R15" s="326" t="s">
         <v>1390</v>
       </c>
-      <c r="S15" s="380"/>
-      <c r="T15" s="330"/>
+      <c r="S15" s="387"/>
+      <c r="T15" s="327"/>
       <c r="U15" s="42" t="s">
         <v>2</v>
       </c>
@@ -21872,16 +21872,16 @@
       <c r="Q16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="331" t="s">
+      <c r="R16" s="318" t="s">
         <v>1391</v>
       </c>
-      <c r="S16" s="377"/>
-      <c r="T16" s="332"/>
+      <c r="S16" s="378"/>
+      <c r="T16" s="319"/>
       <c r="U16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W16" s="387"/>
-      <c r="X16" s="387"/>
+      <c r="W16" s="379"/>
+      <c r="X16" s="379"/>
       <c r="Y16" s="15" t="s">
         <v>2</v>
       </c>
@@ -21899,11 +21899,11 @@
       <c r="E17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="381" t="s">
+      <c r="F17" s="380" t="s">
         <v>813</v>
       </c>
-      <c r="G17" s="381"/>
-      <c r="H17" s="381"/>
+      <c r="G17" s="380"/>
+      <c r="H17" s="380"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
@@ -21921,8 +21921,8 @@
       <c r="U17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="381"/>
-      <c r="X17" s="381"/>
+      <c r="W17" s="380"/>
+      <c r="X17" s="380"/>
       <c r="Y17" s="15" t="s">
         <v>2</v>
       </c>
@@ -21961,16 +21961,16 @@
       <c r="Q18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="329" t="s">
+      <c r="R18" s="326" t="s">
         <v>1393</v>
       </c>
-      <c r="S18" s="380"/>
-      <c r="T18" s="330"/>
+      <c r="S18" s="387"/>
+      <c r="T18" s="327"/>
       <c r="U18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="381"/>
-      <c r="X18" s="381"/>
+      <c r="W18" s="380"/>
+      <c r="X18" s="380"/>
       <c r="Y18" s="15" t="s">
         <v>2</v>
       </c>
@@ -22009,16 +22009,16 @@
       <c r="Q19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R19" s="333" t="s">
+      <c r="R19" s="316" t="s">
         <v>1394</v>
       </c>
-      <c r="S19" s="382"/>
-      <c r="T19" s="334"/>
+      <c r="S19" s="388"/>
+      <c r="T19" s="317"/>
       <c r="U19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="381"/>
-      <c r="X19" s="381"/>
+      <c r="W19" s="380"/>
+      <c r="X19" s="380"/>
       <c r="Y19" s="15" t="s">
         <v>2</v>
       </c>
@@ -22057,11 +22057,11 @@
       <c r="Q20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="333" t="s">
+      <c r="R20" s="316" t="s">
         <v>1392</v>
       </c>
-      <c r="S20" s="382"/>
-      <c r="T20" s="334"/>
+      <c r="S20" s="388"/>
+      <c r="T20" s="317"/>
       <c r="U20" s="42" t="s">
         <v>2</v>
       </c>
@@ -22103,11 +22103,11 @@
       <c r="Q21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="331" t="s">
+      <c r="R21" s="318" t="s">
         <v>1395</v>
       </c>
-      <c r="S21" s="377"/>
-      <c r="T21" s="332"/>
+      <c r="S21" s="378"/>
+      <c r="T21" s="319"/>
       <c r="U21" s="42" t="s">
         <v>2</v>
       </c>
@@ -22131,11 +22131,11 @@
       <c r="I22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="374" t="s">
+      <c r="J22" s="384" t="s">
         <v>1100</v>
       </c>
-      <c r="K22" s="375"/>
-      <c r="L22" s="376"/>
+      <c r="K22" s="385"/>
+      <c r="L22" s="386"/>
       <c r="M22" s="42" t="s">
         <v>2</v>
       </c>
@@ -22233,14 +22233,14 @@
       <c r="W24" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="X24" s="379" t="s">
+      <c r="X24" s="381" t="s">
         <v>594</v>
       </c>
-      <c r="Y24" s="379"/>
-      <c r="Z24" s="379" t="s">
+      <c r="Y24" s="381"/>
+      <c r="Z24" s="381" t="s">
         <v>595</v>
       </c>
-      <c r="AA24" s="379"/>
+      <c r="AA24" s="381"/>
     </row>
     <row r="25" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="76">
@@ -22280,14 +22280,14 @@
       <c r="W25" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="X25" s="379" t="s">
+      <c r="X25" s="381" t="s">
         <v>597</v>
       </c>
-      <c r="Y25" s="379"/>
-      <c r="Z25" s="383" t="s">
+      <c r="Y25" s="381"/>
+      <c r="Z25" s="389" t="s">
         <v>598</v>
       </c>
-      <c r="AA25" s="383"/>
+      <c r="AA25" s="389"/>
     </row>
     <row r="26" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="77">
@@ -22315,12 +22315,12 @@
       <c r="W26" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="X26" s="379" t="s">
+      <c r="X26" s="381" t="s">
         <v>599</v>
       </c>
-      <c r="Y26" s="379"/>
-      <c r="Z26" s="378"/>
-      <c r="AA26" s="378"/>
+      <c r="Y26" s="381"/>
+      <c r="Z26" s="374"/>
+      <c r="AA26" s="374"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="I27" s="15" t="s">
@@ -22338,28 +22338,28 @@
       <c r="W27" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="X27" s="378"/>
-      <c r="Y27" s="378"/>
-      <c r="Z27" s="379" t="s">
+      <c r="X27" s="374"/>
+      <c r="Y27" s="374"/>
+      <c r="Z27" s="381" t="s">
         <v>602</v>
       </c>
-      <c r="AA27" s="379"/>
+      <c r="AA27" s="381"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="J28" s="374" t="s">
+      <c r="J28" s="384" t="s">
         <v>1399</v>
       </c>
-      <c r="K28" s="375"/>
-      <c r="L28" s="376"/>
+      <c r="K28" s="385"/>
+      <c r="L28" s="386"/>
       <c r="M28" s="42"/>
       <c r="U28" s="42"/>
     </row>
     <row r="29" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="331" t="s">
+      <c r="J29" s="318" t="s">
         <v>1400</v>
       </c>
-      <c r="K29" s="377"/>
-      <c r="L29" s="332"/>
+      <c r="K29" s="378"/>
+      <c r="L29" s="319"/>
       <c r="M29" s="42"/>
       <c r="U29" s="42"/>
     </row>
@@ -22694,18 +22694,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J28:L28"/>
@@ -22722,6 +22710,18 @@
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22863,7 +22863,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="389"/>
+      <c r="A4" s="391"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -22890,7 +22890,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="388" t="s">
+      <c r="A5" s="392" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="5"/>
@@ -22918,7 +22918,7 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="389"/>
+      <c r="A6" s="391"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -23034,7 +23034,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="388" t="s">
+      <c r="A10" s="392" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="5"/>
@@ -23080,7 +23080,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="389"/>
+      <c r="A11" s="391"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19" t="s">
@@ -23179,7 +23179,7 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="389"/>
+      <c r="A15" s="391"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -23233,10 +23233,10 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="392" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="391" t="s">
+      <c r="B17" s="396" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="5"/>
@@ -23259,7 +23259,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="390"/>
-      <c r="B18" s="392"/>
+      <c r="B18" s="397"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="390"/>
-      <c r="B19" s="389"/>
+      <c r="B19" s="391"/>
       <c r="C19" s="2"/>
       <c r="D19" s="18" t="s">
         <v>14</v>
@@ -23301,7 +23301,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="390"/>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="392" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
@@ -23345,7 +23345,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="390"/>
-      <c r="B22" s="389"/>
+      <c r="B22" s="391"/>
       <c r="C22" s="2"/>
       <c r="D22" s="18" t="s">
         <v>130</v>
@@ -23366,7 +23366,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="390"/>
-      <c r="B23" s="388" t="s">
+      <c r="B23" s="392" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
@@ -23389,7 +23389,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="390"/>
-      <c r="B24" s="389"/>
+      <c r="B24" s="391"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>0</v>
@@ -23422,7 +23422,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="390"/>
-      <c r="B25" s="388" t="s">
+      <c r="B25" s="392" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
@@ -23445,7 +23445,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="390"/>
-      <c r="B26" s="389"/>
+      <c r="B26" s="391"/>
       <c r="C26" s="2"/>
       <c r="D26" s="18" t="s">
         <v>126</v>
@@ -23556,7 +23556,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="389"/>
+      <c r="A30" s="391"/>
       <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
@@ -23638,7 +23638,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="388" t="s">
+      <c r="A34" s="392" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="5"/>
@@ -23660,7 +23660,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="389"/>
+      <c r="A35" s="391"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -23825,6 +23825,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A30"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:A6"/>
@@ -23832,11 +23837,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23977,10 +23977,10 @@
       <c r="L4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="402" t="s">
+      <c r="M4" s="398" t="s">
         <v>1135</v>
       </c>
-      <c r="N4" s="373"/>
+      <c r="N4" s="383"/>
       <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
@@ -24022,10 +24022,10 @@
       <c r="F5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="351" t="s">
+      <c r="G5" s="342" t="s">
         <v>696</v>
       </c>
-      <c r="H5" s="352"/>
+      <c r="H5" s="343"/>
       <c r="I5" s="15" t="s">
         <v>2</v>
       </c>
@@ -24038,17 +24038,17 @@
       <c r="L5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="402" t="s">
+      <c r="M5" s="398" t="s">
         <v>1144</v>
       </c>
-      <c r="N5" s="373"/>
+      <c r="N5" s="383"/>
       <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="343" t="s">
+      <c r="P5" s="340" t="s">
         <v>1134</v>
       </c>
-      <c r="Q5" s="344"/>
+      <c r="Q5" s="341"/>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
@@ -24081,10 +24081,10 @@
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="351" t="s">
+      <c r="G6" s="342" t="s">
         <v>695</v>
       </c>
-      <c r="H6" s="352"/>
+      <c r="H6" s="343"/>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
@@ -24102,10 +24102,10 @@
       <c r="O6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="370" t="s">
+      <c r="P6" s="346" t="s">
         <v>1137</v>
       </c>
-      <c r="Q6" s="371"/>
+      <c r="Q6" s="347"/>
       <c r="R6" s="15" t="s">
         <v>2</v>
       </c>
@@ -24138,10 +24138,10 @@
       <c r="F7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="406" t="s">
+      <c r="G7" s="401" t="s">
         <v>672</v>
       </c>
-      <c r="H7" s="407"/>
+      <c r="H7" s="402"/>
       <c r="I7" s="15" t="s">
         <v>2</v>
       </c>
@@ -24219,10 +24219,10 @@
       <c r="L8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="402" t="s">
+      <c r="M8" s="398" t="s">
         <v>1136</v>
       </c>
-      <c r="N8" s="373"/>
+      <c r="N8" s="383"/>
       <c r="O8" s="15" t="s">
         <v>2</v>
       </c>
@@ -24296,10 +24296,10 @@
       <c r="R9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="366" t="s">
+      <c r="S9" s="356" t="s">
         <v>1133</v>
       </c>
-      <c r="T9" s="367"/>
+      <c r="T9" s="357"/>
       <c r="U9" s="15" t="s">
         <v>2</v>
       </c>
@@ -24317,10 +24317,10 @@
       <c r="F10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="351" t="s">
+      <c r="G10" s="342" t="s">
         <v>650</v>
       </c>
-      <c r="H10" s="352"/>
+      <c r="H10" s="343"/>
       <c r="I10" s="15" t="s">
         <v>2</v>
       </c>
@@ -24342,10 +24342,10 @@
       <c r="O10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="370" t="s">
+      <c r="P10" s="346" t="s">
         <v>1138</v>
       </c>
-      <c r="Q10" s="371"/>
+      <c r="Q10" s="347"/>
       <c r="R10" s="15" t="s">
         <v>2</v>
       </c>
@@ -24367,10 +24367,10 @@
       <c r="F11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="351" t="s">
+      <c r="G11" s="342" t="s">
         <v>678</v>
       </c>
-      <c r="H11" s="352"/>
+      <c r="H11" s="343"/>
       <c r="I11" s="15" t="s">
         <v>2</v>
       </c>
@@ -24417,10 +24417,10 @@
       <c r="F12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="351" t="s">
+      <c r="G12" s="342" t="s">
         <v>666</v>
       </c>
-      <c r="H12" s="352"/>
+      <c r="H12" s="343"/>
       <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
@@ -24433,10 +24433,10 @@
       <c r="L12" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="351" t="s">
+      <c r="M12" s="342" t="s">
         <v>885</v>
       </c>
-      <c r="N12" s="352"/>
+      <c r="N12" s="343"/>
       <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
@@ -24469,10 +24469,10 @@
       <c r="F13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="404" t="s">
+      <c r="G13" s="399" t="s">
         <v>671</v>
       </c>
-      <c r="H13" s="405"/>
+      <c r="H13" s="400"/>
       <c r="I13" s="15" t="s">
         <v>2</v>
       </c>
@@ -24485,10 +24485,10 @@
       <c r="L13" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="351" t="s">
+      <c r="M13" s="342" t="s">
         <v>678</v>
       </c>
-      <c r="N13" s="352"/>
+      <c r="N13" s="343"/>
       <c r="O13" s="15" t="s">
         <v>2</v>
       </c>
@@ -24539,10 +24539,10 @@
       <c r="L14" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="398" t="s">
+      <c r="M14" s="408" t="s">
         <v>671</v>
       </c>
-      <c r="N14" s="399"/>
+      <c r="N14" s="409"/>
       <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
@@ -24569,24 +24569,24 @@
       <c r="F15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="400" t="s">
+      <c r="G15" s="403" t="s">
         <v>668</v>
       </c>
-      <c r="H15" s="401"/>
+      <c r="H15" s="404"/>
       <c r="I15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="351" t="s">
+      <c r="J15" s="342" t="s">
         <v>680</v>
       </c>
-      <c r="K15" s="352"/>
+      <c r="K15" s="343"/>
       <c r="L15" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="366" t="s">
+      <c r="M15" s="356" t="s">
         <v>1129</v>
       </c>
-      <c r="N15" s="367"/>
+      <c r="N15" s="357"/>
       <c r="O15" s="15" t="s">
         <v>2</v>
       </c>
@@ -24613,24 +24613,24 @@
       <c r="F16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="400" t="s">
+      <c r="G16" s="403" t="s">
         <v>673</v>
       </c>
-      <c r="H16" s="401"/>
+      <c r="H16" s="404"/>
       <c r="I16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="351" t="s">
+      <c r="J16" s="342" t="s">
         <v>688</v>
       </c>
-      <c r="K16" s="352"/>
+      <c r="K16" s="343"/>
       <c r="L16" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="335" t="s">
+      <c r="M16" s="320" t="s">
         <v>670</v>
       </c>
-      <c r="N16" s="336"/>
+      <c r="N16" s="321"/>
       <c r="O16" s="15" t="s">
         <v>2</v>
       </c>
@@ -24657,24 +24657,24 @@
       <c r="F17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="403" t="s">
+      <c r="G17" s="405" t="s">
         <v>669</v>
       </c>
-      <c r="H17" s="397"/>
+      <c r="H17" s="406"/>
       <c r="I17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="351" t="s">
+      <c r="J17" s="342" t="s">
         <v>689</v>
       </c>
-      <c r="K17" s="352"/>
+      <c r="K17" s="343"/>
       <c r="L17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="400" t="s">
+      <c r="M17" s="403" t="s">
         <v>1148</v>
       </c>
-      <c r="N17" s="401"/>
+      <c r="N17" s="404"/>
       <c r="O17" s="15" t="s">
         <v>2</v>
       </c>
@@ -24704,17 +24704,17 @@
       <c r="I18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="351" t="s">
+      <c r="J18" s="342" t="s">
         <v>687</v>
       </c>
-      <c r="K18" s="352"/>
+      <c r="K18" s="343"/>
       <c r="L18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="400" t="s">
+      <c r="M18" s="403" t="s">
         <v>1149</v>
       </c>
-      <c r="N18" s="401"/>
+      <c r="N18" s="404"/>
       <c r="O18" s="15" t="s">
         <v>2</v>
       </c>
@@ -24750,10 +24750,10 @@
       <c r="L19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="396" t="s">
+      <c r="M19" s="407" t="s">
         <v>1146</v>
       </c>
-      <c r="N19" s="397"/>
+      <c r="N19" s="406"/>
       <c r="O19" s="15" t="s">
         <v>2</v>
       </c>
@@ -24914,10 +24914,10 @@
       <c r="O23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="351" t="s">
+      <c r="P23" s="342" t="s">
         <v>632</v>
       </c>
-      <c r="Q23" s="352"/>
+      <c r="Q23" s="343"/>
       <c r="R23" s="15" t="s">
         <v>2</v>
       </c>
@@ -24950,10 +24950,10 @@
       <c r="O24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="357" t="s">
+      <c r="P24" s="361" t="s">
         <v>882</v>
       </c>
-      <c r="Q24" s="358"/>
+      <c r="Q24" s="362"/>
       <c r="R24" s="15" t="s">
         <v>2</v>
       </c>
@@ -25154,10 +25154,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="402" t="s">
+      <c r="A35" s="398" t="s">
         <v>1135</v>
       </c>
-      <c r="B35" s="373"/>
+      <c r="B35" s="383"/>
       <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
@@ -25181,17 +25181,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="402" t="s">
+      <c r="A36" s="398" t="s">
         <v>1144</v>
       </c>
-      <c r="B36" s="373"/>
+      <c r="B36" s="383"/>
       <c r="C36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="343" t="s">
+      <c r="D36" s="340" t="s">
         <v>1134</v>
       </c>
-      <c r="E36" s="344"/>
+      <c r="E36" s="341"/>
       <c r="F36" s="15" t="s">
         <v>2</v>
       </c>
@@ -25213,10 +25213,10 @@
       <c r="C37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="370" t="s">
+      <c r="D37" s="346" t="s">
         <v>1137</v>
       </c>
-      <c r="E37" s="371"/>
+      <c r="E37" s="347"/>
       <c r="F37" s="15" t="s">
         <v>2</v>
       </c>
@@ -25260,10 +25260,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="402" t="s">
+      <c r="A39" s="398" t="s">
         <v>1136</v>
       </c>
-      <c r="B39" s="373"/>
+      <c r="B39" s="383"/>
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -25301,10 +25301,10 @@
       <c r="F40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="366" t="s">
+      <c r="G40" s="356" t="s">
         <v>1133</v>
       </c>
-      <c r="H40" s="367"/>
+      <c r="H40" s="357"/>
       <c r="I40" s="15" t="s">
         <v>2</v>
       </c>
@@ -25319,10 +25319,10 @@
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="370" t="s">
+      <c r="D41" s="346" t="s">
         <v>1138</v>
       </c>
-      <c r="E41" s="371"/>
+      <c r="E41" s="347"/>
       <c r="F41" s="15" t="s">
         <v>2</v>
       </c>
@@ -25362,10 +25362,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="351" t="s">
+      <c r="A43" s="342" t="s">
         <v>885</v>
       </c>
-      <c r="B43" s="352"/>
+      <c r="B43" s="343"/>
       <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
@@ -25389,10 +25389,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="351" t="s">
+      <c r="A44" s="342" t="s">
         <v>678</v>
       </c>
-      <c r="B44" s="352"/>
+      <c r="B44" s="343"/>
       <c r="C44" s="15" t="s">
         <v>2</v>
       </c>
@@ -25416,10 +25416,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="398" t="s">
+      <c r="A45" s="408" t="s">
         <v>671</v>
       </c>
-      <c r="B45" s="399"/>
+      <c r="B45" s="409"/>
       <c r="C45" s="15" t="s">
         <v>2</v>
       </c>
@@ -25437,10 +25437,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="366" t="s">
+      <c r="A46" s="356" t="s">
         <v>1129</v>
       </c>
-      <c r="B46" s="367"/>
+      <c r="B46" s="357"/>
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -25458,10 +25458,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="335" t="s">
+      <c r="A47" s="320" t="s">
         <v>670</v>
       </c>
-      <c r="B47" s="336"/>
+      <c r="B47" s="321"/>
       <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
@@ -25476,10 +25476,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="400" t="s">
+      <c r="A48" s="403" t="s">
         <v>1148</v>
       </c>
-      <c r="B48" s="401"/>
+      <c r="B48" s="404"/>
       <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
@@ -25494,10 +25494,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="400" t="s">
+      <c r="A49" s="403" t="s">
         <v>1149</v>
       </c>
-      <c r="B49" s="401"/>
+      <c r="B49" s="404"/>
       <c r="C49" s="15" t="s">
         <v>2</v>
       </c>
@@ -25512,10 +25512,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="396" t="s">
+      <c r="A50" s="407" t="s">
         <v>1146</v>
       </c>
-      <c r="B50" s="397"/>
+      <c r="B50" s="406"/>
       <c r="C50" s="15" t="s">
         <v>2</v>
       </c>
@@ -25592,10 +25592,10 @@
       <c r="C54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="351" t="s">
+      <c r="D54" s="342" t="s">
         <v>632</v>
       </c>
-      <c r="E54" s="352"/>
+      <c r="E54" s="343"/>
       <c r="F54" s="15" t="s">
         <v>2</v>
       </c>
@@ -25613,10 +25613,10 @@
       <c r="C55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="357" t="s">
+      <c r="D55" s="361" t="s">
         <v>882</v>
       </c>
-      <c r="E55" s="358"/>
+      <c r="E55" s="362"/>
       <c r="F55" s="15" t="s">
         <v>2</v>
       </c>
@@ -26336,6 +26336,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="A39:B39"/>
@@ -26352,48 +26394,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26437,10 +26437,10 @@
       <c r="G1" s="231" t="s">
         <v>1174</v>
       </c>
-      <c r="H1" s="408" t="s">
+      <c r="H1" s="413" t="s">
         <v>1155</v>
       </c>
-      <c r="I1" s="408"/>
+      <c r="I1" s="413"/>
       <c r="J1" s="231" t="s">
         <v>1156</v>
       </c>
@@ -26736,10 +26736,10 @@
       <c r="G9" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="409" t="s">
+      <c r="H9" s="414" t="s">
         <v>1166</v>
       </c>
-      <c r="I9" s="409"/>
+      <c r="I9" s="414"/>
       <c r="J9" s="230" t="s">
         <v>35</v>
       </c>
@@ -26929,12 +26929,12 @@
       <c r="F15" s="227" t="s">
         <v>1170</v>
       </c>
-      <c r="G15" s="412" t="s">
+      <c r="G15" s="411" t="s">
         <v>1205</v>
       </c>
-      <c r="H15" s="413"/>
-      <c r="I15" s="413"/>
-      <c r="J15" s="413"/>
+      <c r="H15" s="412"/>
+      <c r="I15" s="412"/>
+      <c r="J15" s="412"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
@@ -26955,10 +26955,10 @@
       <c r="F16" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="G16" s="414"/>
-      <c r="H16" s="411"/>
-      <c r="I16" s="411"/>
-      <c r="J16" s="411"/>
+      <c r="G16" s="416"/>
+      <c r="H16" s="415"/>
+      <c r="I16" s="415"/>
+      <c r="J16" s="415"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -26979,12 +26979,12 @@
       <c r="F17" s="227" t="s">
         <v>1170</v>
       </c>
-      <c r="G17" s="412" t="s">
+      <c r="G17" s="411" t="s">
         <v>1209</v>
       </c>
-      <c r="H17" s="413"/>
-      <c r="I17" s="413"/>
-      <c r="J17" s="413"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="412"/>
+      <c r="J17" s="412"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
@@ -27005,10 +27005,10 @@
       <c r="F18" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="G18" s="414"/>
-      <c r="H18" s="411"/>
-      <c r="I18" s="411"/>
-      <c r="J18" s="411"/>
+      <c r="G18" s="416"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="415"/>
+      <c r="J18" s="415"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -27029,12 +27029,12 @@
       <c r="F19" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="G19" s="412" t="s">
+      <c r="G19" s="411" t="s">
         <v>1212</v>
       </c>
-      <c r="H19" s="413"/>
-      <c r="I19" s="413"/>
-      <c r="J19" s="413"/>
+      <c r="H19" s="412"/>
+      <c r="I19" s="412"/>
+      <c r="J19" s="412"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -27055,12 +27055,12 @@
       <c r="F20" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="412" t="s">
+      <c r="G20" s="411" t="s">
         <v>1241</v>
       </c>
-      <c r="H20" s="413"/>
-      <c r="I20" s="413"/>
-      <c r="J20" s="413"/>
+      <c r="H20" s="412"/>
+      <c r="I20" s="412"/>
+      <c r="J20" s="412"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -27081,12 +27081,12 @@
       <c r="F21" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="G21" s="412" t="s">
+      <c r="G21" s="411" t="s">
         <v>1214</v>
       </c>
-      <c r="H21" s="413"/>
-      <c r="I21" s="413"/>
-      <c r="J21" s="413"/>
+      <c r="H21" s="412"/>
+      <c r="I21" s="412"/>
+      <c r="J21" s="412"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="410" t="s">
@@ -27462,16 +27462,16 @@
       <c r="B33" t="s">
         <v>1182</v>
       </c>
-      <c r="C33" s="411" t="s">
+      <c r="C33" s="415" t="s">
         <v>1192</v>
       </c>
-      <c r="D33" s="411"/>
-      <c r="E33" s="411"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="411"/>
-      <c r="H33" s="411"/>
-      <c r="I33" s="411"/>
-      <c r="J33" s="411"/>
+      <c r="D33" s="415"/>
+      <c r="E33" s="415"/>
+      <c r="F33" s="415"/>
+      <c r="G33" s="415"/>
+      <c r="H33" s="415"/>
+      <c r="I33" s="415"/>
+      <c r="J33" s="415"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="410" t="s">
@@ -27506,12 +27506,12 @@
       <c r="F35" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="G35" s="413" t="s">
+      <c r="G35" s="412" t="s">
         <v>1202</v>
       </c>
-      <c r="H35" s="413"/>
-      <c r="I35" s="413"/>
-      <c r="J35" s="413"/>
+      <c r="H35" s="412"/>
+      <c r="I35" s="412"/>
+      <c r="J35" s="412"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
@@ -27532,12 +27532,12 @@
       <c r="F36" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="G36" s="413" t="s">
+      <c r="G36" s="412" t="s">
         <v>1199</v>
       </c>
-      <c r="H36" s="413"/>
-      <c r="I36" s="413"/>
-      <c r="J36" s="413"/>
+      <c r="H36" s="412"/>
+      <c r="I36" s="412"/>
+      <c r="J36" s="412"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="410" t="s">
@@ -27578,12 +27578,12 @@
       <c r="F38" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="G38" s="412" t="s">
+      <c r="G38" s="411" t="s">
         <v>1194</v>
       </c>
-      <c r="H38" s="413"/>
-      <c r="I38" s="413"/>
-      <c r="J38" s="413"/>
+      <c r="H38" s="412"/>
+      <c r="I38" s="412"/>
+      <c r="J38" s="412"/>
       <c r="K38" t="s">
         <v>2</v>
       </c>
@@ -27610,12 +27610,12 @@
       <c r="F39" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="412" t="s">
+      <c r="G39" s="411" t="s">
         <v>1251</v>
       </c>
-      <c r="H39" s="413"/>
-      <c r="I39" s="413"/>
-      <c r="J39" s="413"/>
+      <c r="H39" s="412"/>
+      <c r="I39" s="412"/>
+      <c r="J39" s="412"/>
       <c r="K39" t="s">
         <v>2</v>
       </c>
@@ -27770,12 +27770,12 @@
       <c r="F44" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="412" t="s">
+      <c r="G44" s="411" t="s">
         <v>1219</v>
       </c>
-      <c r="H44" s="413"/>
-      <c r="I44" s="413"/>
-      <c r="J44" s="413"/>
+      <c r="H44" s="412"/>
+      <c r="I44" s="412"/>
+      <c r="J44" s="412"/>
       <c r="K44" t="s">
         <v>2</v>
       </c>
@@ -27802,12 +27802,12 @@
       <c r="F45" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="G45" s="412" t="s">
+      <c r="G45" s="411" t="s">
         <v>1218</v>
       </c>
-      <c r="H45" s="413"/>
-      <c r="I45" s="413"/>
-      <c r="J45" s="413"/>
+      <c r="H45" s="412"/>
+      <c r="I45" s="412"/>
+      <c r="J45" s="412"/>
       <c r="K45" t="s">
         <v>2</v>
       </c>
@@ -27834,12 +27834,12 @@
       <c r="F46" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="412" t="s">
+      <c r="G46" s="411" t="s">
         <v>1221</v>
       </c>
-      <c r="H46" s="413"/>
-      <c r="I46" s="413"/>
-      <c r="J46" s="413"/>
+      <c r="H46" s="412"/>
+      <c r="I46" s="412"/>
+      <c r="J46" s="412"/>
       <c r="K46" t="s">
         <v>2</v>
       </c>
@@ -28116,16 +28116,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G35:J35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A22:J22"/>
@@ -28139,6 +28129,16 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
